--- a/code/vocab_csv/rules.xlsx
+++ b/code/vocab_csv/rules.xlsx
@@ -74,7 +74,7 @@
     <t>accepted</t>
   </si>
   <si>
-    <t>Harshvardhan J. Pandit, Georg P Krog, Beatriz Esteves, Paul Ryan</t>
+    <t>Harshvardhan J. Pandit, Georg P. Krog, Beatriz Esteves, Paul Ryan</t>
   </si>
   <si>
     <t>Permission</t>

--- a/code/vocab_csv/rules.xlsx
+++ b/code/vocab_csv/rules.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="90">
   <si>
     <t>Term</t>
   </si>
@@ -98,6 +98,117 @@
     <t>A rule describing an obligation for performing an activity</t>
   </si>
   <si>
+    <t>RuleFulfilmentStatus</t>
+  </si>
+  <si>
+    <t>Rule Fulfilment Status</t>
+  </si>
+  <si>
+    <t>Status associated with a rule for indicating whether it is applicable, or has been utilised, and whether the requirements of the rule have been fulfilled or violated</t>
+  </si>
+  <si>
+    <t>dpv:Status</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>Harshvardhan J. Pandit</t>
+  </si>
+  <si>
+    <t>RuleFulfilled</t>
+  </si>
+  <si>
+    <t>Rule Fulfilled</t>
+  </si>
+  <si>
+    <t>Status indicating a rule has been fulfilled, completed, or satisfied</t>
+  </si>
+  <si>
+    <t>dpv:RuleFulfilmentStatus</t>
+  </si>
+  <si>
+    <t>RuleUnfulfilled</t>
+  </si>
+  <si>
+    <t>Rule Unfulfilled</t>
+  </si>
+  <si>
+    <t>Status indicating a rule has not been fulfilled nor violated</t>
+  </si>
+  <si>
+    <t>RuleViolated</t>
+  </si>
+  <si>
+    <t>Rule Violated</t>
+  </si>
+  <si>
+    <t>Status indicating a rule has been violated, breached, broken, or infracted</t>
+  </si>
+  <si>
+    <t>ProhibitionViolated</t>
+  </si>
+  <si>
+    <t>Prohibition Violated</t>
+  </si>
+  <si>
+    <t>Status indicating a prohibition has been violated i.e. the activity stated as being prohibited has been carried out</t>
+  </si>
+  <si>
+    <t>ObligationUnfulfilled</t>
+  </si>
+  <si>
+    <t>Obligation Unfulfilled</t>
+  </si>
+  <si>
+    <t>Status indicating an obligation has not been fulfilled i.e. the activity stated as being required to be carried out has not been carried out but this is not considered as a violation e.g. there is still time to conduct the activity</t>
+  </si>
+  <si>
+    <t>ObligationViolated</t>
+  </si>
+  <si>
+    <t>Obligation Violated</t>
+  </si>
+  <si>
+    <t>Status indicating an obligation has been violated i.e. the activity stated as being required to be carried out has not been carried out and this is considered as a violation i.e. the activity can no longer be carried out to fulfil the obligation</t>
+  </si>
+  <si>
+    <t>ProhibitionFulfilled</t>
+  </si>
+  <si>
+    <t>Prohibition Fulfilled</t>
+  </si>
+  <si>
+    <t>Status indicating a prohibition has been fulfilled i.e. the activity stated as being prohibited has not been carried out</t>
+  </si>
+  <si>
+    <t>ObligationFulfilled</t>
+  </si>
+  <si>
+    <t>Obligation Fulfilled</t>
+  </si>
+  <si>
+    <t>Status indicating an obligation has been fulfilled i.e. the activity stated as being required to be carried out has been successfully completed</t>
+  </si>
+  <si>
+    <t>PermissionUtilised</t>
+  </si>
+  <si>
+    <t>Permission Utilised</t>
+  </si>
+  <si>
+    <t>Status indicating a permission has been utilised i.e. the activity stated as being permitted has been carried out</t>
+  </si>
+  <si>
+    <t>PermissionNotUtilised</t>
+  </si>
+  <si>
+    <t>Permission Not Utilised</t>
+  </si>
+  <si>
+    <t>Status indicating a permission has not been utilised i.e. the activity stated as being permitted has not been carried out</t>
+  </si>
+  <si>
     <t>domain</t>
   </si>
   <si>
@@ -159,6 +270,18 @@
   </si>
   <si>
     <t>dpv:Obligation</t>
+  </si>
+  <si>
+    <t>hasFulfillmentsStatus</t>
+  </si>
+  <si>
+    <t>has fulfillment status</t>
+  </si>
+  <si>
+    <t>Specifying the fulfillment status associated with a rule</t>
+  </si>
+  <si>
+    <t>dpv:hasStatus</t>
   </si>
 </sst>
 </file>
@@ -168,7 +291,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -209,11 +332,6 @@
     <font>
       <u/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -288,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -344,13 +462,7 @@
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -913,2656 +1025,3135 @@
       <c r="L6" s="12"/>
     </row>
     <row r="7">
-      <c r="B7" s="14"/>
+      <c r="A7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
       <c r="J7" s="13"/>
-      <c r="K7" s="12"/>
+      <c r="K7" s="12">
+        <v>45545.0</v>
+      </c>
       <c r="L7" s="12"/>
+      <c r="M7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
     </row>
     <row r="8">
-      <c r="B8" s="14"/>
+      <c r="A8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
       <c r="J8" s="13"/>
-      <c r="K8" s="12"/>
+      <c r="K8" s="12">
+        <v>45545.0</v>
+      </c>
+      <c r="L8" s="11"/>
+      <c r="M8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
     </row>
     <row r="9">
-      <c r="B9" s="14"/>
-      <c r="K9" s="12"/>
+      <c r="A9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="12">
+        <v>45545.0</v>
+      </c>
+      <c r="L9" s="11"/>
+      <c r="M9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
     </row>
     <row r="10">
-      <c r="B10" s="14"/>
-      <c r="K10" s="12"/>
+      <c r="A10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="12">
+        <v>45545.0</v>
+      </c>
+      <c r="L10" s="11"/>
+      <c r="M10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
     </row>
     <row r="11">
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
+      <c r="A11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
       <c r="J11" s="16"/>
-      <c r="K11" s="12"/>
+      <c r="K11" s="12">
+        <v>45545.0</v>
+      </c>
       <c r="L11" s="12"/>
+      <c r="M11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="O11" s="17"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
     </row>
     <row r="12">
-      <c r="B12" s="14"/>
+      <c r="A12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
       <c r="J12" s="18"/>
-      <c r="K12" s="12"/>
+      <c r="K12" s="12">
+        <v>45545.0</v>
+      </c>
+      <c r="L12" s="11"/>
+      <c r="M12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
     </row>
     <row r="13">
-      <c r="K13" s="12"/>
+      <c r="A13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="12">
+        <v>45545.0</v>
+      </c>
+      <c r="L13" s="11"/>
+      <c r="M13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
     </row>
     <row r="14">
-      <c r="B14" s="19"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="21"/>
+      <c r="A14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="12">
+        <v>45545.0</v>
+      </c>
+      <c r="L14" s="11"/>
+      <c r="M14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="11"/>
     </row>
     <row r="15">
-      <c r="B15" s="14"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="12"/>
+      <c r="A15" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="12">
+        <v>45545.0</v>
+      </c>
+      <c r="L15" s="12"/>
+      <c r="M15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="11"/>
     </row>
     <row r="16">
-      <c r="B16" s="22"/>
+      <c r="A16" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="12">
+        <v>45545.0</v>
+      </c>
+      <c r="L16" s="11"/>
+      <c r="M16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
     </row>
     <row r="17">
-      <c r="B17" s="22"/>
+      <c r="A17" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="12">
+        <v>45545.0</v>
+      </c>
+      <c r="L17" s="11"/>
+      <c r="M17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
     </row>
     <row r="18">
-      <c r="B18" s="22"/>
+      <c r="B18" s="20"/>
     </row>
     <row r="19">
-      <c r="B19" s="22"/>
+      <c r="B19" s="20"/>
     </row>
     <row r="20">
-      <c r="B20" s="22"/>
+      <c r="B20" s="20"/>
     </row>
     <row r="21">
-      <c r="B21" s="22"/>
+      <c r="B21" s="20"/>
     </row>
     <row r="22">
-      <c r="B22" s="22"/>
+      <c r="B22" s="20"/>
     </row>
     <row r="23">
-      <c r="B23" s="22"/>
+      <c r="B23" s="20"/>
     </row>
     <row r="24">
-      <c r="B24" s="22"/>
+      <c r="B24" s="20"/>
     </row>
     <row r="25">
-      <c r="B25" s="22"/>
+      <c r="B25" s="20"/>
     </row>
     <row r="26">
-      <c r="B26" s="22"/>
+      <c r="B26" s="20"/>
     </row>
     <row r="27">
-      <c r="B27" s="22"/>
+      <c r="B27" s="20"/>
     </row>
     <row r="28">
-      <c r="B28" s="22"/>
+      <c r="B28" s="20"/>
     </row>
     <row r="29">
-      <c r="B29" s="22"/>
+      <c r="B29" s="20"/>
     </row>
     <row r="30">
-      <c r="B30" s="22"/>
+      <c r="B30" s="20"/>
     </row>
     <row r="31">
-      <c r="B31" s="22"/>
+      <c r="B31" s="20"/>
     </row>
     <row r="32">
-      <c r="B32" s="22"/>
+      <c r="B32" s="20"/>
     </row>
     <row r="33">
-      <c r="B33" s="22"/>
+      <c r="B33" s="20"/>
     </row>
     <row r="34">
-      <c r="B34" s="22"/>
+      <c r="B34" s="20"/>
     </row>
     <row r="35">
-      <c r="B35" s="22"/>
+      <c r="B35" s="20"/>
     </row>
     <row r="36">
-      <c r="B36" s="22"/>
+      <c r="B36" s="20"/>
     </row>
     <row r="37">
-      <c r="B37" s="22"/>
+      <c r="B37" s="20"/>
     </row>
     <row r="38">
-      <c r="B38" s="22"/>
+      <c r="B38" s="20"/>
     </row>
     <row r="39">
-      <c r="B39" s="22"/>
+      <c r="B39" s="20"/>
     </row>
     <row r="40">
-      <c r="B40" s="22"/>
+      <c r="B40" s="20"/>
     </row>
     <row r="41">
-      <c r="B41" s="22"/>
+      <c r="B41" s="20"/>
     </row>
     <row r="42">
-      <c r="B42" s="22"/>
+      <c r="B42" s="20"/>
     </row>
     <row r="43">
-      <c r="B43" s="22"/>
+      <c r="B43" s="20"/>
     </row>
     <row r="44">
-      <c r="B44" s="22"/>
+      <c r="B44" s="20"/>
     </row>
     <row r="45">
-      <c r="B45" s="22"/>
+      <c r="B45" s="20"/>
     </row>
     <row r="46">
-      <c r="B46" s="22"/>
+      <c r="B46" s="20"/>
     </row>
     <row r="47">
-      <c r="B47" s="22"/>
+      <c r="B47" s="20"/>
     </row>
     <row r="48">
-      <c r="B48" s="22"/>
+      <c r="B48" s="20"/>
     </row>
     <row r="49">
-      <c r="B49" s="22"/>
+      <c r="B49" s="20"/>
     </row>
     <row r="50">
-      <c r="B50" s="22"/>
+      <c r="B50" s="20"/>
     </row>
     <row r="51">
-      <c r="B51" s="22"/>
+      <c r="B51" s="20"/>
     </row>
     <row r="52">
-      <c r="B52" s="22"/>
+      <c r="B52" s="20"/>
     </row>
     <row r="53">
-      <c r="B53" s="22"/>
+      <c r="B53" s="20"/>
     </row>
     <row r="54">
-      <c r="B54" s="22"/>
+      <c r="B54" s="20"/>
     </row>
     <row r="55">
-      <c r="B55" s="22"/>
+      <c r="B55" s="20"/>
     </row>
     <row r="56">
-      <c r="B56" s="22"/>
+      <c r="B56" s="20"/>
     </row>
     <row r="57">
-      <c r="B57" s="22"/>
+      <c r="B57" s="20"/>
     </row>
     <row r="58">
-      <c r="B58" s="22"/>
+      <c r="B58" s="20"/>
     </row>
     <row r="59">
-      <c r="B59" s="22"/>
+      <c r="B59" s="20"/>
     </row>
     <row r="60">
-      <c r="B60" s="22"/>
+      <c r="B60" s="20"/>
     </row>
     <row r="61">
-      <c r="B61" s="22"/>
+      <c r="B61" s="20"/>
     </row>
     <row r="62">
-      <c r="B62" s="22"/>
+      <c r="B62" s="20"/>
     </row>
     <row r="63">
-      <c r="B63" s="22"/>
+      <c r="B63" s="20"/>
     </row>
     <row r="64">
-      <c r="B64" s="22"/>
+      <c r="B64" s="20"/>
     </row>
     <row r="65">
-      <c r="B65" s="22"/>
+      <c r="B65" s="20"/>
     </row>
     <row r="66">
-      <c r="B66" s="22"/>
+      <c r="B66" s="20"/>
     </row>
     <row r="67">
-      <c r="B67" s="22"/>
+      <c r="B67" s="20"/>
     </row>
     <row r="68">
-      <c r="B68" s="22"/>
+      <c r="B68" s="20"/>
     </row>
     <row r="69">
-      <c r="B69" s="22"/>
+      <c r="B69" s="20"/>
     </row>
     <row r="70">
-      <c r="B70" s="22"/>
+      <c r="B70" s="20"/>
     </row>
     <row r="71">
-      <c r="B71" s="22"/>
+      <c r="B71" s="20"/>
     </row>
     <row r="72">
-      <c r="B72" s="22"/>
+      <c r="B72" s="20"/>
     </row>
     <row r="73">
-      <c r="B73" s="22"/>
+      <c r="B73" s="20"/>
     </row>
     <row r="74">
-      <c r="B74" s="22"/>
+      <c r="B74" s="20"/>
     </row>
     <row r="75">
-      <c r="B75" s="22"/>
+      <c r="B75" s="20"/>
     </row>
     <row r="76">
-      <c r="B76" s="22"/>
+      <c r="B76" s="20"/>
     </row>
     <row r="77">
-      <c r="B77" s="22"/>
+      <c r="B77" s="20"/>
     </row>
     <row r="78">
-      <c r="B78" s="22"/>
+      <c r="B78" s="20"/>
     </row>
     <row r="79">
-      <c r="B79" s="22"/>
+      <c r="B79" s="20"/>
     </row>
     <row r="80">
-      <c r="B80" s="22"/>
+      <c r="B80" s="20"/>
     </row>
     <row r="81">
-      <c r="B81" s="22"/>
+      <c r="B81" s="20"/>
     </row>
     <row r="82">
-      <c r="B82" s="22"/>
+      <c r="B82" s="20"/>
     </row>
     <row r="83">
-      <c r="B83" s="22"/>
+      <c r="B83" s="20"/>
     </row>
     <row r="84">
-      <c r="B84" s="22"/>
+      <c r="B84" s="20"/>
     </row>
     <row r="85">
-      <c r="B85" s="22"/>
+      <c r="B85" s="20"/>
     </row>
     <row r="86">
-      <c r="B86" s="22"/>
+      <c r="B86" s="20"/>
     </row>
     <row r="87">
-      <c r="B87" s="22"/>
+      <c r="B87" s="20"/>
     </row>
     <row r="88">
-      <c r="B88" s="22"/>
+      <c r="B88" s="20"/>
     </row>
     <row r="89">
-      <c r="B89" s="22"/>
+      <c r="B89" s="20"/>
     </row>
     <row r="90">
-      <c r="B90" s="22"/>
+      <c r="B90" s="20"/>
     </row>
     <row r="91">
-      <c r="B91" s="22"/>
+      <c r="B91" s="20"/>
     </row>
     <row r="92">
-      <c r="B92" s="22"/>
+      <c r="B92" s="20"/>
     </row>
     <row r="93">
-      <c r="B93" s="22"/>
+      <c r="B93" s="20"/>
     </row>
     <row r="94">
-      <c r="B94" s="22"/>
+      <c r="B94" s="20"/>
     </row>
     <row r="95">
-      <c r="B95" s="22"/>
+      <c r="B95" s="20"/>
     </row>
     <row r="96">
-      <c r="B96" s="22"/>
+      <c r="B96" s="20"/>
     </row>
     <row r="97">
-      <c r="B97" s="22"/>
+      <c r="B97" s="20"/>
     </row>
     <row r="98">
-      <c r="B98" s="22"/>
+      <c r="B98" s="20"/>
     </row>
     <row r="99">
-      <c r="B99" s="22"/>
+      <c r="B99" s="20"/>
     </row>
     <row r="100">
-      <c r="B100" s="22"/>
+      <c r="B100" s="20"/>
     </row>
     <row r="101">
-      <c r="B101" s="22"/>
+      <c r="B101" s="20"/>
     </row>
     <row r="102">
-      <c r="B102" s="22"/>
+      <c r="B102" s="20"/>
     </row>
     <row r="103">
-      <c r="B103" s="22"/>
+      <c r="B103" s="20"/>
     </row>
     <row r="104">
-      <c r="B104" s="22"/>
+      <c r="B104" s="20"/>
     </row>
     <row r="105">
-      <c r="B105" s="22"/>
+      <c r="B105" s="20"/>
     </row>
     <row r="106">
-      <c r="B106" s="22"/>
+      <c r="B106" s="20"/>
     </row>
     <row r="107">
-      <c r="B107" s="22"/>
+      <c r="B107" s="20"/>
     </row>
     <row r="108">
-      <c r="B108" s="22"/>
+      <c r="B108" s="20"/>
     </row>
     <row r="109">
-      <c r="B109" s="22"/>
+      <c r="B109" s="20"/>
     </row>
     <row r="110">
-      <c r="B110" s="22"/>
+      <c r="B110" s="20"/>
     </row>
     <row r="111">
-      <c r="B111" s="22"/>
+      <c r="B111" s="20"/>
     </row>
     <row r="112">
-      <c r="B112" s="22"/>
+      <c r="B112" s="20"/>
     </row>
     <row r="113">
-      <c r="B113" s="22"/>
+      <c r="B113" s="20"/>
     </row>
     <row r="114">
-      <c r="B114" s="22"/>
+      <c r="B114" s="20"/>
     </row>
     <row r="115">
-      <c r="B115" s="22"/>
+      <c r="B115" s="20"/>
     </row>
     <row r="116">
-      <c r="B116" s="22"/>
+      <c r="B116" s="20"/>
     </row>
     <row r="117">
-      <c r="B117" s="22"/>
+      <c r="B117" s="20"/>
     </row>
     <row r="118">
-      <c r="B118" s="22"/>
+      <c r="B118" s="20"/>
     </row>
     <row r="119">
-      <c r="B119" s="22"/>
+      <c r="B119" s="20"/>
     </row>
     <row r="120">
-      <c r="B120" s="22"/>
+      <c r="B120" s="20"/>
     </row>
     <row r="121">
-      <c r="B121" s="22"/>
+      <c r="B121" s="20"/>
     </row>
     <row r="122">
-      <c r="B122" s="22"/>
+      <c r="B122" s="20"/>
     </row>
     <row r="123">
-      <c r="B123" s="22"/>
+      <c r="B123" s="20"/>
     </row>
     <row r="124">
-      <c r="B124" s="22"/>
+      <c r="B124" s="20"/>
     </row>
     <row r="125">
-      <c r="B125" s="22"/>
+      <c r="B125" s="20"/>
     </row>
     <row r="126">
-      <c r="B126" s="22"/>
+      <c r="B126" s="20"/>
     </row>
     <row r="127">
-      <c r="B127" s="22"/>
+      <c r="B127" s="20"/>
     </row>
     <row r="128">
-      <c r="B128" s="22"/>
+      <c r="B128" s="20"/>
     </row>
     <row r="129">
-      <c r="B129" s="22"/>
+      <c r="B129" s="20"/>
     </row>
     <row r="130">
-      <c r="B130" s="22"/>
+      <c r="B130" s="20"/>
     </row>
     <row r="131">
-      <c r="B131" s="22"/>
+      <c r="B131" s="20"/>
     </row>
     <row r="132">
-      <c r="B132" s="22"/>
+      <c r="B132" s="20"/>
     </row>
     <row r="133">
-      <c r="B133" s="22"/>
+      <c r="B133" s="20"/>
     </row>
     <row r="134">
-      <c r="B134" s="22"/>
+      <c r="B134" s="20"/>
     </row>
     <row r="135">
-      <c r="B135" s="22"/>
+      <c r="B135" s="20"/>
     </row>
     <row r="136">
-      <c r="B136" s="22"/>
+      <c r="B136" s="20"/>
     </row>
     <row r="137">
-      <c r="B137" s="22"/>
+      <c r="B137" s="20"/>
     </row>
     <row r="138">
-      <c r="B138" s="22"/>
+      <c r="B138" s="20"/>
     </row>
     <row r="139">
-      <c r="B139" s="22"/>
+      <c r="B139" s="20"/>
     </row>
     <row r="140">
-      <c r="B140" s="22"/>
+      <c r="B140" s="20"/>
     </row>
     <row r="141">
-      <c r="B141" s="22"/>
+      <c r="B141" s="20"/>
     </row>
     <row r="142">
-      <c r="B142" s="22"/>
+      <c r="B142" s="20"/>
     </row>
     <row r="143">
-      <c r="B143" s="22"/>
+      <c r="B143" s="20"/>
     </row>
     <row r="144">
-      <c r="B144" s="22"/>
+      <c r="B144" s="20"/>
     </row>
     <row r="145">
-      <c r="B145" s="22"/>
+      <c r="B145" s="20"/>
     </row>
     <row r="146">
-      <c r="B146" s="22"/>
+      <c r="B146" s="20"/>
     </row>
     <row r="147">
-      <c r="B147" s="22"/>
+      <c r="B147" s="20"/>
     </row>
     <row r="148">
-      <c r="B148" s="22"/>
+      <c r="B148" s="20"/>
     </row>
     <row r="149">
-      <c r="B149" s="22"/>
+      <c r="B149" s="20"/>
     </row>
     <row r="150">
-      <c r="B150" s="22"/>
+      <c r="B150" s="20"/>
     </row>
     <row r="151">
-      <c r="B151" s="22"/>
+      <c r="B151" s="20"/>
     </row>
     <row r="152">
-      <c r="B152" s="22"/>
+      <c r="B152" s="20"/>
     </row>
     <row r="153">
-      <c r="B153" s="22"/>
+      <c r="B153" s="20"/>
     </row>
     <row r="154">
-      <c r="B154" s="22"/>
+      <c r="B154" s="20"/>
     </row>
     <row r="155">
-      <c r="B155" s="22"/>
+      <c r="B155" s="20"/>
     </row>
     <row r="156">
-      <c r="B156" s="22"/>
+      <c r="B156" s="20"/>
     </row>
     <row r="157">
-      <c r="B157" s="22"/>
+      <c r="B157" s="20"/>
     </row>
     <row r="158">
-      <c r="B158" s="22"/>
+      <c r="B158" s="20"/>
     </row>
     <row r="159">
-      <c r="B159" s="22"/>
+      <c r="B159" s="20"/>
     </row>
     <row r="160">
-      <c r="B160" s="22"/>
+      <c r="B160" s="20"/>
     </row>
     <row r="161">
-      <c r="B161" s="22"/>
+      <c r="B161" s="20"/>
     </row>
     <row r="162">
-      <c r="B162" s="22"/>
+      <c r="B162" s="20"/>
     </row>
     <row r="163">
-      <c r="B163" s="22"/>
+      <c r="B163" s="20"/>
     </row>
     <row r="164">
-      <c r="B164" s="22"/>
+      <c r="B164" s="20"/>
     </row>
     <row r="165">
-      <c r="B165" s="22"/>
+      <c r="B165" s="20"/>
     </row>
     <row r="166">
-      <c r="B166" s="22"/>
+      <c r="B166" s="20"/>
     </row>
     <row r="167">
-      <c r="B167" s="22"/>
+      <c r="B167" s="20"/>
     </row>
     <row r="168">
-      <c r="B168" s="22"/>
+      <c r="B168" s="20"/>
     </row>
     <row r="169">
-      <c r="B169" s="22"/>
+      <c r="B169" s="20"/>
     </row>
     <row r="170">
-      <c r="B170" s="22"/>
+      <c r="B170" s="20"/>
     </row>
     <row r="171">
-      <c r="B171" s="22"/>
+      <c r="B171" s="20"/>
     </row>
     <row r="172">
-      <c r="B172" s="22"/>
+      <c r="B172" s="20"/>
     </row>
     <row r="173">
-      <c r="B173" s="22"/>
+      <c r="B173" s="20"/>
     </row>
     <row r="174">
-      <c r="B174" s="22"/>
+      <c r="B174" s="20"/>
     </row>
     <row r="175">
-      <c r="B175" s="22"/>
+      <c r="B175" s="20"/>
     </row>
     <row r="176">
-      <c r="B176" s="22"/>
+      <c r="B176" s="20"/>
     </row>
     <row r="177">
-      <c r="B177" s="22"/>
+      <c r="B177" s="20"/>
     </row>
     <row r="178">
-      <c r="B178" s="22"/>
+      <c r="B178" s="20"/>
     </row>
     <row r="179">
-      <c r="B179" s="22"/>
+      <c r="B179" s="20"/>
     </row>
     <row r="180">
-      <c r="B180" s="22"/>
+      <c r="B180" s="20"/>
     </row>
     <row r="181">
-      <c r="B181" s="22"/>
+      <c r="B181" s="20"/>
     </row>
     <row r="182">
-      <c r="B182" s="22"/>
+      <c r="B182" s="20"/>
     </row>
     <row r="183">
-      <c r="B183" s="22"/>
+      <c r="B183" s="20"/>
     </row>
     <row r="184">
-      <c r="B184" s="22"/>
+      <c r="B184" s="20"/>
     </row>
     <row r="185">
-      <c r="B185" s="22"/>
+      <c r="B185" s="20"/>
     </row>
     <row r="186">
-      <c r="B186" s="22"/>
+      <c r="B186" s="20"/>
     </row>
     <row r="187">
-      <c r="B187" s="22"/>
+      <c r="B187" s="20"/>
     </row>
     <row r="188">
-      <c r="B188" s="22"/>
+      <c r="B188" s="20"/>
     </row>
     <row r="189">
-      <c r="B189" s="22"/>
+      <c r="B189" s="20"/>
     </row>
     <row r="190">
-      <c r="B190" s="22"/>
+      <c r="B190" s="20"/>
     </row>
     <row r="191">
-      <c r="B191" s="22"/>
+      <c r="B191" s="20"/>
     </row>
     <row r="192">
-      <c r="B192" s="22"/>
+      <c r="B192" s="20"/>
     </row>
     <row r="193">
-      <c r="B193" s="22"/>
+      <c r="B193" s="20"/>
     </row>
     <row r="194">
-      <c r="B194" s="22"/>
+      <c r="B194" s="20"/>
     </row>
     <row r="195">
-      <c r="B195" s="22"/>
+      <c r="B195" s="20"/>
     </row>
     <row r="196">
-      <c r="B196" s="22"/>
+      <c r="B196" s="20"/>
     </row>
     <row r="197">
-      <c r="B197" s="22"/>
+      <c r="B197" s="20"/>
     </row>
     <row r="198">
-      <c r="B198" s="22"/>
+      <c r="B198" s="20"/>
     </row>
     <row r="199">
-      <c r="B199" s="22"/>
+      <c r="B199" s="20"/>
     </row>
     <row r="200">
-      <c r="B200" s="22"/>
+      <c r="B200" s="20"/>
     </row>
     <row r="201">
-      <c r="B201" s="22"/>
+      <c r="B201" s="20"/>
     </row>
     <row r="202">
-      <c r="B202" s="22"/>
+      <c r="B202" s="20"/>
     </row>
     <row r="203">
-      <c r="B203" s="22"/>
+      <c r="B203" s="20"/>
     </row>
     <row r="204">
-      <c r="B204" s="22"/>
+      <c r="B204" s="20"/>
     </row>
     <row r="205">
-      <c r="B205" s="22"/>
+      <c r="B205" s="20"/>
     </row>
     <row r="206">
-      <c r="B206" s="22"/>
+      <c r="B206" s="20"/>
     </row>
     <row r="207">
-      <c r="B207" s="22"/>
+      <c r="B207" s="20"/>
     </row>
     <row r="208">
-      <c r="B208" s="22"/>
+      <c r="B208" s="20"/>
     </row>
     <row r="209">
-      <c r="B209" s="22"/>
+      <c r="B209" s="20"/>
     </row>
     <row r="210">
-      <c r="B210" s="22"/>
+      <c r="B210" s="20"/>
     </row>
     <row r="211">
-      <c r="B211" s="22"/>
+      <c r="B211" s="20"/>
     </row>
     <row r="212">
-      <c r="B212" s="22"/>
+      <c r="B212" s="20"/>
     </row>
     <row r="213">
-      <c r="B213" s="22"/>
+      <c r="B213" s="20"/>
     </row>
     <row r="214">
-      <c r="B214" s="22"/>
+      <c r="B214" s="20"/>
     </row>
     <row r="215">
-      <c r="B215" s="22"/>
+      <c r="B215" s="20"/>
     </row>
     <row r="216">
-      <c r="B216" s="22"/>
+      <c r="B216" s="20"/>
     </row>
     <row r="217">
-      <c r="B217" s="22"/>
+      <c r="B217" s="20"/>
     </row>
     <row r="218">
-      <c r="B218" s="22"/>
+      <c r="B218" s="20"/>
     </row>
     <row r="219">
-      <c r="B219" s="22"/>
+      <c r="B219" s="20"/>
     </row>
     <row r="220">
-      <c r="B220" s="22"/>
+      <c r="B220" s="20"/>
     </row>
     <row r="221">
-      <c r="B221" s="22"/>
+      <c r="B221" s="20"/>
     </row>
     <row r="222">
-      <c r="B222" s="22"/>
+      <c r="B222" s="20"/>
     </row>
     <row r="223">
-      <c r="B223" s="22"/>
+      <c r="B223" s="20"/>
     </row>
     <row r="224">
-      <c r="B224" s="22"/>
+      <c r="B224" s="20"/>
     </row>
     <row r="225">
-      <c r="B225" s="22"/>
+      <c r="B225" s="20"/>
     </row>
     <row r="226">
-      <c r="B226" s="22"/>
+      <c r="B226" s="20"/>
     </row>
     <row r="227">
-      <c r="B227" s="22"/>
+      <c r="B227" s="20"/>
     </row>
     <row r="228">
-      <c r="B228" s="22"/>
+      <c r="B228" s="20"/>
     </row>
     <row r="229">
-      <c r="B229" s="22"/>
+      <c r="B229" s="20"/>
     </row>
     <row r="230">
-      <c r="B230" s="22"/>
+      <c r="B230" s="20"/>
     </row>
     <row r="231">
-      <c r="B231" s="22"/>
+      <c r="B231" s="20"/>
     </row>
     <row r="232">
-      <c r="B232" s="22"/>
+      <c r="B232" s="20"/>
     </row>
     <row r="233">
-      <c r="B233" s="22"/>
+      <c r="B233" s="20"/>
     </row>
     <row r="234">
-      <c r="B234" s="22"/>
+      <c r="B234" s="20"/>
     </row>
     <row r="235">
-      <c r="B235" s="22"/>
+      <c r="B235" s="20"/>
     </row>
     <row r="236">
-      <c r="B236" s="22"/>
+      <c r="B236" s="20"/>
     </row>
     <row r="237">
-      <c r="B237" s="22"/>
+      <c r="B237" s="20"/>
     </row>
     <row r="238">
-      <c r="B238" s="22"/>
+      <c r="B238" s="20"/>
     </row>
     <row r="239">
-      <c r="B239" s="22"/>
+      <c r="B239" s="20"/>
     </row>
     <row r="240">
-      <c r="B240" s="22"/>
+      <c r="B240" s="20"/>
     </row>
     <row r="241">
-      <c r="B241" s="22"/>
+      <c r="B241" s="20"/>
     </row>
     <row r="242">
-      <c r="B242" s="22"/>
+      <c r="B242" s="20"/>
     </row>
     <row r="243">
-      <c r="B243" s="22"/>
+      <c r="B243" s="20"/>
     </row>
     <row r="244">
-      <c r="B244" s="22"/>
+      <c r="B244" s="20"/>
     </row>
     <row r="245">
-      <c r="B245" s="22"/>
+      <c r="B245" s="20"/>
     </row>
     <row r="246">
-      <c r="B246" s="22"/>
+      <c r="B246" s="20"/>
     </row>
     <row r="247">
-      <c r="B247" s="22"/>
+      <c r="B247" s="20"/>
     </row>
     <row r="248">
-      <c r="B248" s="22"/>
+      <c r="B248" s="20"/>
     </row>
     <row r="249">
-      <c r="B249" s="22"/>
+      <c r="B249" s="20"/>
     </row>
     <row r="250">
-      <c r="B250" s="22"/>
+      <c r="B250" s="20"/>
     </row>
     <row r="251">
-      <c r="B251" s="22"/>
+      <c r="B251" s="20"/>
     </row>
     <row r="252">
-      <c r="B252" s="22"/>
+      <c r="B252" s="20"/>
     </row>
     <row r="253">
-      <c r="B253" s="22"/>
+      <c r="B253" s="20"/>
     </row>
     <row r="254">
-      <c r="B254" s="22"/>
+      <c r="B254" s="20"/>
     </row>
     <row r="255">
-      <c r="B255" s="22"/>
+      <c r="B255" s="20"/>
     </row>
     <row r="256">
-      <c r="B256" s="22"/>
+      <c r="B256" s="20"/>
     </row>
     <row r="257">
-      <c r="B257" s="22"/>
+      <c r="B257" s="20"/>
     </row>
     <row r="258">
-      <c r="B258" s="22"/>
+      <c r="B258" s="20"/>
     </row>
     <row r="259">
-      <c r="B259" s="22"/>
+      <c r="B259" s="20"/>
     </row>
     <row r="260">
-      <c r="B260" s="22"/>
+      <c r="B260" s="20"/>
     </row>
     <row r="261">
-      <c r="B261" s="22"/>
+      <c r="B261" s="20"/>
     </row>
     <row r="262">
-      <c r="B262" s="22"/>
+      <c r="B262" s="20"/>
     </row>
     <row r="263">
-      <c r="B263" s="22"/>
+      <c r="B263" s="20"/>
     </row>
     <row r="264">
-      <c r="B264" s="22"/>
+      <c r="B264" s="20"/>
     </row>
     <row r="265">
-      <c r="B265" s="22"/>
+      <c r="B265" s="20"/>
     </row>
     <row r="266">
-      <c r="B266" s="22"/>
+      <c r="B266" s="20"/>
     </row>
     <row r="267">
-      <c r="B267" s="22"/>
+      <c r="B267" s="20"/>
     </row>
     <row r="268">
-      <c r="B268" s="22"/>
+      <c r="B268" s="20"/>
     </row>
     <row r="269">
-      <c r="B269" s="22"/>
+      <c r="B269" s="20"/>
     </row>
     <row r="270">
-      <c r="B270" s="22"/>
+      <c r="B270" s="20"/>
     </row>
     <row r="271">
-      <c r="B271" s="22"/>
+      <c r="B271" s="20"/>
     </row>
     <row r="272">
-      <c r="B272" s="22"/>
+      <c r="B272" s="20"/>
     </row>
     <row r="273">
-      <c r="B273" s="22"/>
+      <c r="B273" s="20"/>
     </row>
     <row r="274">
-      <c r="B274" s="22"/>
+      <c r="B274" s="20"/>
     </row>
     <row r="275">
-      <c r="B275" s="22"/>
+      <c r="B275" s="20"/>
     </row>
     <row r="276">
-      <c r="B276" s="22"/>
+      <c r="B276" s="20"/>
     </row>
     <row r="277">
-      <c r="B277" s="22"/>
+      <c r="B277" s="20"/>
     </row>
     <row r="278">
-      <c r="B278" s="22"/>
+      <c r="B278" s="20"/>
     </row>
     <row r="279">
-      <c r="B279" s="22"/>
+      <c r="B279" s="20"/>
     </row>
     <row r="280">
-      <c r="B280" s="22"/>
+      <c r="B280" s="20"/>
     </row>
     <row r="281">
-      <c r="B281" s="22"/>
+      <c r="B281" s="20"/>
     </row>
     <row r="282">
-      <c r="B282" s="22"/>
+      <c r="B282" s="20"/>
     </row>
     <row r="283">
-      <c r="B283" s="22"/>
+      <c r="B283" s="20"/>
     </row>
     <row r="284">
-      <c r="B284" s="22"/>
+      <c r="B284" s="20"/>
     </row>
     <row r="285">
-      <c r="B285" s="22"/>
+      <c r="B285" s="20"/>
     </row>
     <row r="286">
-      <c r="B286" s="22"/>
+      <c r="B286" s="20"/>
     </row>
     <row r="287">
-      <c r="B287" s="22"/>
+      <c r="B287" s="20"/>
     </row>
     <row r="288">
-      <c r="B288" s="22"/>
+      <c r="B288" s="20"/>
     </row>
     <row r="289">
-      <c r="B289" s="22"/>
+      <c r="B289" s="20"/>
     </row>
     <row r="290">
-      <c r="B290" s="22"/>
+      <c r="B290" s="20"/>
     </row>
     <row r="291">
-      <c r="B291" s="22"/>
+      <c r="B291" s="20"/>
     </row>
     <row r="292">
-      <c r="B292" s="22"/>
+      <c r="B292" s="20"/>
     </row>
     <row r="293">
-      <c r="B293" s="22"/>
+      <c r="B293" s="20"/>
     </row>
     <row r="294">
-      <c r="B294" s="22"/>
+      <c r="B294" s="20"/>
     </row>
     <row r="295">
-      <c r="B295" s="22"/>
+      <c r="B295" s="20"/>
     </row>
     <row r="296">
-      <c r="B296" s="22"/>
+      <c r="B296" s="20"/>
     </row>
     <row r="297">
-      <c r="B297" s="22"/>
+      <c r="B297" s="20"/>
     </row>
     <row r="298">
-      <c r="B298" s="22"/>
+      <c r="B298" s="20"/>
     </row>
     <row r="299">
-      <c r="B299" s="22"/>
+      <c r="B299" s="20"/>
     </row>
     <row r="300">
-      <c r="B300" s="22"/>
+      <c r="B300" s="20"/>
     </row>
     <row r="301">
-      <c r="B301" s="22"/>
+      <c r="B301" s="20"/>
     </row>
     <row r="302">
-      <c r="B302" s="22"/>
+      <c r="B302" s="20"/>
     </row>
     <row r="303">
-      <c r="B303" s="22"/>
+      <c r="B303" s="20"/>
     </row>
     <row r="304">
-      <c r="B304" s="22"/>
+      <c r="B304" s="20"/>
     </row>
     <row r="305">
-      <c r="B305" s="22"/>
+      <c r="B305" s="20"/>
     </row>
     <row r="306">
-      <c r="B306" s="22"/>
+      <c r="B306" s="20"/>
     </row>
     <row r="307">
-      <c r="B307" s="22"/>
+      <c r="B307" s="20"/>
     </row>
     <row r="308">
-      <c r="B308" s="22"/>
+      <c r="B308" s="20"/>
     </row>
     <row r="309">
-      <c r="B309" s="22"/>
+      <c r="B309" s="20"/>
     </row>
     <row r="310">
-      <c r="B310" s="22"/>
+      <c r="B310" s="20"/>
     </row>
     <row r="311">
-      <c r="B311" s="22"/>
+      <c r="B311" s="20"/>
     </row>
     <row r="312">
-      <c r="B312" s="22"/>
+      <c r="B312" s="20"/>
     </row>
     <row r="313">
-      <c r="B313" s="22"/>
+      <c r="B313" s="20"/>
     </row>
     <row r="314">
-      <c r="B314" s="22"/>
+      <c r="B314" s="20"/>
     </row>
     <row r="315">
-      <c r="B315" s="22"/>
+      <c r="B315" s="20"/>
     </row>
     <row r="316">
-      <c r="B316" s="22"/>
+      <c r="B316" s="20"/>
     </row>
     <row r="317">
-      <c r="B317" s="22"/>
+      <c r="B317" s="20"/>
     </row>
     <row r="318">
-      <c r="B318" s="22"/>
+      <c r="B318" s="20"/>
     </row>
     <row r="319">
-      <c r="B319" s="22"/>
+      <c r="B319" s="20"/>
     </row>
     <row r="320">
-      <c r="B320" s="22"/>
+      <c r="B320" s="20"/>
     </row>
     <row r="321">
-      <c r="B321" s="22"/>
+      <c r="B321" s="20"/>
     </row>
     <row r="322">
-      <c r="B322" s="22"/>
+      <c r="B322" s="20"/>
     </row>
     <row r="323">
-      <c r="B323" s="22"/>
+      <c r="B323" s="20"/>
     </row>
     <row r="324">
-      <c r="B324" s="22"/>
+      <c r="B324" s="20"/>
     </row>
     <row r="325">
-      <c r="B325" s="22"/>
+      <c r="B325" s="20"/>
     </row>
     <row r="326">
-      <c r="B326" s="22"/>
+      <c r="B326" s="20"/>
     </row>
     <row r="327">
-      <c r="B327" s="22"/>
+      <c r="B327" s="20"/>
     </row>
     <row r="328">
-      <c r="B328" s="22"/>
+      <c r="B328" s="20"/>
     </row>
     <row r="329">
-      <c r="B329" s="22"/>
+      <c r="B329" s="20"/>
     </row>
     <row r="330">
-      <c r="B330" s="22"/>
+      <c r="B330" s="20"/>
     </row>
     <row r="331">
-      <c r="B331" s="22"/>
+      <c r="B331" s="20"/>
     </row>
     <row r="332">
-      <c r="B332" s="22"/>
+      <c r="B332" s="20"/>
     </row>
     <row r="333">
-      <c r="B333" s="22"/>
+      <c r="B333" s="20"/>
     </row>
     <row r="334">
-      <c r="B334" s="22"/>
+      <c r="B334" s="20"/>
     </row>
     <row r="335">
-      <c r="B335" s="22"/>
+      <c r="B335" s="20"/>
     </row>
     <row r="336">
-      <c r="B336" s="22"/>
+      <c r="B336" s="20"/>
     </row>
     <row r="337">
-      <c r="B337" s="22"/>
+      <c r="B337" s="20"/>
     </row>
     <row r="338">
-      <c r="B338" s="22"/>
+      <c r="B338" s="20"/>
     </row>
     <row r="339">
-      <c r="B339" s="22"/>
+      <c r="B339" s="20"/>
     </row>
     <row r="340">
-      <c r="B340" s="22"/>
+      <c r="B340" s="20"/>
     </row>
     <row r="341">
-      <c r="B341" s="22"/>
+      <c r="B341" s="20"/>
     </row>
     <row r="342">
-      <c r="B342" s="22"/>
+      <c r="B342" s="20"/>
     </row>
     <row r="343">
-      <c r="B343" s="22"/>
+      <c r="B343" s="20"/>
     </row>
     <row r="344">
-      <c r="B344" s="22"/>
+      <c r="B344" s="20"/>
     </row>
     <row r="345">
-      <c r="B345" s="22"/>
+      <c r="B345" s="20"/>
     </row>
     <row r="346">
-      <c r="B346" s="22"/>
+      <c r="B346" s="20"/>
     </row>
     <row r="347">
-      <c r="B347" s="22"/>
+      <c r="B347" s="20"/>
     </row>
     <row r="348">
-      <c r="B348" s="22"/>
+      <c r="B348" s="20"/>
     </row>
     <row r="349">
-      <c r="B349" s="22"/>
+      <c r="B349" s="20"/>
     </row>
     <row r="350">
-      <c r="B350" s="22"/>
+      <c r="B350" s="20"/>
     </row>
     <row r="351">
-      <c r="B351" s="22"/>
+      <c r="B351" s="20"/>
     </row>
     <row r="352">
-      <c r="B352" s="22"/>
+      <c r="B352" s="20"/>
     </row>
     <row r="353">
-      <c r="B353" s="22"/>
+      <c r="B353" s="20"/>
     </row>
     <row r="354">
-      <c r="B354" s="22"/>
+      <c r="B354" s="20"/>
     </row>
     <row r="355">
-      <c r="B355" s="22"/>
+      <c r="B355" s="20"/>
     </row>
     <row r="356">
-      <c r="B356" s="22"/>
+      <c r="B356" s="20"/>
     </row>
     <row r="357">
-      <c r="B357" s="22"/>
+      <c r="B357" s="20"/>
     </row>
     <row r="358">
-      <c r="B358" s="22"/>
+      <c r="B358" s="20"/>
     </row>
     <row r="359">
-      <c r="B359" s="22"/>
+      <c r="B359" s="20"/>
     </row>
     <row r="360">
-      <c r="B360" s="22"/>
+      <c r="B360" s="20"/>
     </row>
     <row r="361">
-      <c r="B361" s="22"/>
+      <c r="B361" s="20"/>
     </row>
     <row r="362">
-      <c r="B362" s="22"/>
+      <c r="B362" s="20"/>
     </row>
     <row r="363">
-      <c r="B363" s="22"/>
+      <c r="B363" s="20"/>
     </row>
     <row r="364">
-      <c r="B364" s="22"/>
+      <c r="B364" s="20"/>
     </row>
     <row r="365">
-      <c r="B365" s="22"/>
+      <c r="B365" s="20"/>
     </row>
     <row r="366">
-      <c r="B366" s="22"/>
+      <c r="B366" s="20"/>
     </row>
     <row r="367">
-      <c r="B367" s="22"/>
+      <c r="B367" s="20"/>
     </row>
     <row r="368">
-      <c r="B368" s="22"/>
+      <c r="B368" s="20"/>
     </row>
     <row r="369">
-      <c r="B369" s="22"/>
+      <c r="B369" s="20"/>
     </row>
     <row r="370">
-      <c r="B370" s="22"/>
+      <c r="B370" s="20"/>
     </row>
     <row r="371">
-      <c r="B371" s="22"/>
+      <c r="B371" s="20"/>
     </row>
     <row r="372">
-      <c r="B372" s="22"/>
+      <c r="B372" s="20"/>
     </row>
     <row r="373">
-      <c r="B373" s="22"/>
+      <c r="B373" s="20"/>
     </row>
     <row r="374">
-      <c r="B374" s="22"/>
+      <c r="B374" s="20"/>
     </row>
     <row r="375">
-      <c r="B375" s="22"/>
+      <c r="B375" s="20"/>
     </row>
     <row r="376">
-      <c r="B376" s="22"/>
+      <c r="B376" s="20"/>
     </row>
     <row r="377">
-      <c r="B377" s="22"/>
+      <c r="B377" s="20"/>
     </row>
     <row r="378">
-      <c r="B378" s="22"/>
+      <c r="B378" s="20"/>
     </row>
     <row r="379">
-      <c r="B379" s="22"/>
+      <c r="B379" s="20"/>
     </row>
     <row r="380">
-      <c r="B380" s="22"/>
+      <c r="B380" s="20"/>
     </row>
     <row r="381">
-      <c r="B381" s="22"/>
+      <c r="B381" s="20"/>
     </row>
     <row r="382">
-      <c r="B382" s="22"/>
+      <c r="B382" s="20"/>
     </row>
     <row r="383">
-      <c r="B383" s="22"/>
+      <c r="B383" s="20"/>
     </row>
     <row r="384">
-      <c r="B384" s="22"/>
+      <c r="B384" s="20"/>
     </row>
     <row r="385">
-      <c r="B385" s="22"/>
+      <c r="B385" s="20"/>
     </row>
     <row r="386">
-      <c r="B386" s="22"/>
+      <c r="B386" s="20"/>
     </row>
     <row r="387">
-      <c r="B387" s="22"/>
+      <c r="B387" s="20"/>
     </row>
     <row r="388">
-      <c r="B388" s="22"/>
+      <c r="B388" s="20"/>
     </row>
     <row r="389">
-      <c r="B389" s="22"/>
+      <c r="B389" s="20"/>
     </row>
     <row r="390">
-      <c r="B390" s="22"/>
+      <c r="B390" s="20"/>
     </row>
     <row r="391">
-      <c r="B391" s="22"/>
+      <c r="B391" s="20"/>
     </row>
     <row r="392">
-      <c r="B392" s="22"/>
+      <c r="B392" s="20"/>
     </row>
     <row r="393">
-      <c r="B393" s="22"/>
+      <c r="B393" s="20"/>
     </row>
     <row r="394">
-      <c r="B394" s="22"/>
+      <c r="B394" s="20"/>
     </row>
     <row r="395">
-      <c r="B395" s="22"/>
+      <c r="B395" s="20"/>
     </row>
     <row r="396">
-      <c r="B396" s="22"/>
+      <c r="B396" s="20"/>
     </row>
     <row r="397">
-      <c r="B397" s="22"/>
+      <c r="B397" s="20"/>
     </row>
     <row r="398">
-      <c r="B398" s="22"/>
+      <c r="B398" s="20"/>
     </row>
     <row r="399">
-      <c r="B399" s="22"/>
+      <c r="B399" s="20"/>
     </row>
     <row r="400">
-      <c r="B400" s="22"/>
+      <c r="B400" s="20"/>
     </row>
     <row r="401">
-      <c r="B401" s="22"/>
+      <c r="B401" s="20"/>
     </row>
     <row r="402">
-      <c r="B402" s="22"/>
+      <c r="B402" s="20"/>
     </row>
     <row r="403">
-      <c r="B403" s="22"/>
+      <c r="B403" s="20"/>
     </row>
     <row r="404">
-      <c r="B404" s="22"/>
+      <c r="B404" s="20"/>
     </row>
     <row r="405">
-      <c r="B405" s="22"/>
+      <c r="B405" s="20"/>
     </row>
     <row r="406">
-      <c r="B406" s="22"/>
+      <c r="B406" s="20"/>
     </row>
     <row r="407">
-      <c r="B407" s="22"/>
+      <c r="B407" s="20"/>
     </row>
     <row r="408">
-      <c r="B408" s="22"/>
+      <c r="B408" s="20"/>
     </row>
     <row r="409">
-      <c r="B409" s="22"/>
+      <c r="B409" s="20"/>
     </row>
     <row r="410">
-      <c r="B410" s="22"/>
+      <c r="B410" s="20"/>
     </row>
     <row r="411">
-      <c r="B411" s="22"/>
+      <c r="B411" s="20"/>
     </row>
     <row r="412">
-      <c r="B412" s="22"/>
+      <c r="B412" s="20"/>
     </row>
     <row r="413">
-      <c r="B413" s="22"/>
+      <c r="B413" s="20"/>
     </row>
     <row r="414">
-      <c r="B414" s="22"/>
+      <c r="B414" s="20"/>
     </row>
     <row r="415">
-      <c r="B415" s="22"/>
+      <c r="B415" s="20"/>
     </row>
     <row r="416">
-      <c r="B416" s="22"/>
+      <c r="B416" s="20"/>
     </row>
     <row r="417">
-      <c r="B417" s="22"/>
+      <c r="B417" s="20"/>
     </row>
     <row r="418">
-      <c r="B418" s="22"/>
+      <c r="B418" s="20"/>
     </row>
     <row r="419">
-      <c r="B419" s="22"/>
+      <c r="B419" s="20"/>
     </row>
     <row r="420">
-      <c r="B420" s="22"/>
+      <c r="B420" s="20"/>
     </row>
     <row r="421">
-      <c r="B421" s="22"/>
+      <c r="B421" s="20"/>
     </row>
     <row r="422">
-      <c r="B422" s="22"/>
+      <c r="B422" s="20"/>
     </row>
     <row r="423">
-      <c r="B423" s="22"/>
+      <c r="B423" s="20"/>
     </row>
     <row r="424">
-      <c r="B424" s="22"/>
+      <c r="B424" s="20"/>
     </row>
     <row r="425">
-      <c r="B425" s="22"/>
+      <c r="B425" s="20"/>
     </row>
     <row r="426">
-      <c r="B426" s="22"/>
+      <c r="B426" s="20"/>
     </row>
     <row r="427">
-      <c r="B427" s="22"/>
+      <c r="B427" s="20"/>
     </row>
     <row r="428">
-      <c r="B428" s="22"/>
+      <c r="B428" s="20"/>
     </row>
     <row r="429">
-      <c r="B429" s="22"/>
+      <c r="B429" s="20"/>
     </row>
     <row r="430">
-      <c r="B430" s="22"/>
+      <c r="B430" s="20"/>
     </row>
     <row r="431">
-      <c r="B431" s="22"/>
+      <c r="B431" s="20"/>
     </row>
     <row r="432">
-      <c r="B432" s="22"/>
+      <c r="B432" s="20"/>
     </row>
     <row r="433">
-      <c r="B433" s="22"/>
+      <c r="B433" s="20"/>
     </row>
     <row r="434">
-      <c r="B434" s="22"/>
+      <c r="B434" s="20"/>
     </row>
     <row r="435">
-      <c r="B435" s="22"/>
+      <c r="B435" s="20"/>
     </row>
     <row r="436">
-      <c r="B436" s="22"/>
+      <c r="B436" s="20"/>
     </row>
     <row r="437">
-      <c r="B437" s="22"/>
+      <c r="B437" s="20"/>
     </row>
     <row r="438">
-      <c r="B438" s="22"/>
+      <c r="B438" s="20"/>
     </row>
     <row r="439">
-      <c r="B439" s="22"/>
+      <c r="B439" s="20"/>
     </row>
     <row r="440">
-      <c r="B440" s="22"/>
+      <c r="B440" s="20"/>
     </row>
     <row r="441">
-      <c r="B441" s="22"/>
+      <c r="B441" s="20"/>
     </row>
     <row r="442">
-      <c r="B442" s="22"/>
+      <c r="B442" s="20"/>
     </row>
     <row r="443">
-      <c r="B443" s="22"/>
+      <c r="B443" s="20"/>
     </row>
     <row r="444">
-      <c r="B444" s="22"/>
+      <c r="B444" s="20"/>
     </row>
     <row r="445">
-      <c r="B445" s="22"/>
+      <c r="B445" s="20"/>
     </row>
     <row r="446">
-      <c r="B446" s="22"/>
+      <c r="B446" s="20"/>
     </row>
     <row r="447">
-      <c r="B447" s="22"/>
+      <c r="B447" s="20"/>
     </row>
     <row r="448">
-      <c r="B448" s="22"/>
+      <c r="B448" s="20"/>
     </row>
     <row r="449">
-      <c r="B449" s="22"/>
+      <c r="B449" s="20"/>
     </row>
     <row r="450">
-      <c r="B450" s="22"/>
+      <c r="B450" s="20"/>
     </row>
     <row r="451">
-      <c r="B451" s="22"/>
+      <c r="B451" s="20"/>
     </row>
     <row r="452">
-      <c r="B452" s="22"/>
+      <c r="B452" s="20"/>
     </row>
     <row r="453">
-      <c r="B453" s="22"/>
+      <c r="B453" s="20"/>
     </row>
     <row r="454">
-      <c r="B454" s="22"/>
+      <c r="B454" s="20"/>
     </row>
     <row r="455">
-      <c r="B455" s="22"/>
+      <c r="B455" s="20"/>
     </row>
     <row r="456">
-      <c r="B456" s="22"/>
+      <c r="B456" s="20"/>
     </row>
     <row r="457">
-      <c r="B457" s="22"/>
+      <c r="B457" s="20"/>
     </row>
     <row r="458">
-      <c r="B458" s="22"/>
+      <c r="B458" s="20"/>
     </row>
     <row r="459">
-      <c r="B459" s="22"/>
+      <c r="B459" s="20"/>
     </row>
     <row r="460">
-      <c r="B460" s="22"/>
+      <c r="B460" s="20"/>
     </row>
     <row r="461">
-      <c r="B461" s="22"/>
+      <c r="B461" s="20"/>
     </row>
     <row r="462">
-      <c r="B462" s="22"/>
+      <c r="B462" s="20"/>
     </row>
     <row r="463">
-      <c r="B463" s="22"/>
+      <c r="B463" s="20"/>
     </row>
     <row r="464">
-      <c r="B464" s="22"/>
+      <c r="B464" s="20"/>
     </row>
     <row r="465">
-      <c r="B465" s="22"/>
+      <c r="B465" s="20"/>
     </row>
     <row r="466">
-      <c r="B466" s="22"/>
+      <c r="B466" s="20"/>
     </row>
     <row r="467">
-      <c r="B467" s="22"/>
+      <c r="B467" s="20"/>
     </row>
     <row r="468">
-      <c r="B468" s="22"/>
+      <c r="B468" s="20"/>
     </row>
     <row r="469">
-      <c r="B469" s="22"/>
+      <c r="B469" s="20"/>
     </row>
     <row r="470">
-      <c r="B470" s="22"/>
+      <c r="B470" s="20"/>
     </row>
     <row r="471">
-      <c r="B471" s="22"/>
+      <c r="B471" s="20"/>
     </row>
     <row r="472">
-      <c r="B472" s="22"/>
+      <c r="B472" s="20"/>
     </row>
     <row r="473">
-      <c r="B473" s="22"/>
+      <c r="B473" s="20"/>
     </row>
     <row r="474">
-      <c r="B474" s="22"/>
+      <c r="B474" s="20"/>
     </row>
     <row r="475">
-      <c r="B475" s="22"/>
+      <c r="B475" s="20"/>
     </row>
     <row r="476">
-      <c r="B476" s="22"/>
+      <c r="B476" s="20"/>
     </row>
     <row r="477">
-      <c r="B477" s="22"/>
+      <c r="B477" s="20"/>
     </row>
     <row r="478">
-      <c r="B478" s="22"/>
+      <c r="B478" s="20"/>
     </row>
     <row r="479">
-      <c r="B479" s="22"/>
+      <c r="B479" s="20"/>
     </row>
     <row r="480">
-      <c r="B480" s="22"/>
+      <c r="B480" s="20"/>
     </row>
     <row r="481">
-      <c r="B481" s="22"/>
+      <c r="B481" s="20"/>
     </row>
     <row r="482">
-      <c r="B482" s="22"/>
+      <c r="B482" s="20"/>
     </row>
     <row r="483">
-      <c r="B483" s="22"/>
+      <c r="B483" s="20"/>
     </row>
     <row r="484">
-      <c r="B484" s="22"/>
+      <c r="B484" s="20"/>
     </row>
     <row r="485">
-      <c r="B485" s="22"/>
+      <c r="B485" s="20"/>
     </row>
     <row r="486">
-      <c r="B486" s="22"/>
+      <c r="B486" s="20"/>
     </row>
     <row r="487">
-      <c r="B487" s="22"/>
+      <c r="B487" s="20"/>
     </row>
     <row r="488">
-      <c r="B488" s="22"/>
+      <c r="B488" s="20"/>
     </row>
     <row r="489">
-      <c r="B489" s="22"/>
+      <c r="B489" s="20"/>
     </row>
     <row r="490">
-      <c r="B490" s="22"/>
+      <c r="B490" s="20"/>
     </row>
     <row r="491">
-      <c r="B491" s="22"/>
+      <c r="B491" s="20"/>
     </row>
     <row r="492">
-      <c r="B492" s="22"/>
+      <c r="B492" s="20"/>
     </row>
     <row r="493">
-      <c r="B493" s="22"/>
+      <c r="B493" s="20"/>
     </row>
     <row r="494">
-      <c r="B494" s="22"/>
+      <c r="B494" s="20"/>
     </row>
     <row r="495">
-      <c r="B495" s="22"/>
+      <c r="B495" s="20"/>
     </row>
     <row r="496">
-      <c r="B496" s="22"/>
+      <c r="B496" s="20"/>
     </row>
     <row r="497">
-      <c r="B497" s="22"/>
+      <c r="B497" s="20"/>
     </row>
     <row r="498">
-      <c r="B498" s="22"/>
+      <c r="B498" s="20"/>
     </row>
     <row r="499">
-      <c r="B499" s="22"/>
+      <c r="B499" s="20"/>
     </row>
     <row r="500">
-      <c r="B500" s="22"/>
+      <c r="B500" s="20"/>
     </row>
     <row r="501">
-      <c r="B501" s="22"/>
+      <c r="B501" s="20"/>
     </row>
     <row r="502">
-      <c r="B502" s="22"/>
+      <c r="B502" s="20"/>
     </row>
     <row r="503">
-      <c r="B503" s="22"/>
+      <c r="B503" s="20"/>
     </row>
     <row r="504">
-      <c r="B504" s="22"/>
+      <c r="B504" s="20"/>
     </row>
     <row r="505">
-      <c r="B505" s="22"/>
+      <c r="B505" s="20"/>
     </row>
     <row r="506">
-      <c r="B506" s="22"/>
+      <c r="B506" s="20"/>
     </row>
     <row r="507">
-      <c r="B507" s="22"/>
+      <c r="B507" s="20"/>
     </row>
     <row r="508">
-      <c r="B508" s="22"/>
+      <c r="B508" s="20"/>
     </row>
     <row r="509">
-      <c r="B509" s="22"/>
+      <c r="B509" s="20"/>
     </row>
     <row r="510">
-      <c r="B510" s="22"/>
+      <c r="B510" s="20"/>
     </row>
     <row r="511">
-      <c r="B511" s="22"/>
+      <c r="B511" s="20"/>
     </row>
     <row r="512">
-      <c r="B512" s="22"/>
+      <c r="B512" s="20"/>
     </row>
     <row r="513">
-      <c r="B513" s="22"/>
+      <c r="B513" s="20"/>
     </row>
     <row r="514">
-      <c r="B514" s="22"/>
+      <c r="B514" s="20"/>
     </row>
     <row r="515">
-      <c r="B515" s="22"/>
+      <c r="B515" s="20"/>
     </row>
     <row r="516">
-      <c r="B516" s="22"/>
+      <c r="B516" s="20"/>
     </row>
     <row r="517">
-      <c r="B517" s="22"/>
+      <c r="B517" s="20"/>
     </row>
     <row r="518">
-      <c r="B518" s="22"/>
+      <c r="B518" s="20"/>
     </row>
     <row r="519">
-      <c r="B519" s="22"/>
+      <c r="B519" s="20"/>
     </row>
     <row r="520">
-      <c r="B520" s="22"/>
+      <c r="B520" s="20"/>
     </row>
     <row r="521">
-      <c r="B521" s="22"/>
+      <c r="B521" s="20"/>
     </row>
     <row r="522">
-      <c r="B522" s="22"/>
+      <c r="B522" s="20"/>
     </row>
     <row r="523">
-      <c r="B523" s="22"/>
+      <c r="B523" s="20"/>
     </row>
     <row r="524">
-      <c r="B524" s="22"/>
+      <c r="B524" s="20"/>
     </row>
     <row r="525">
-      <c r="B525" s="22"/>
+      <c r="B525" s="20"/>
     </row>
     <row r="526">
-      <c r="B526" s="22"/>
+      <c r="B526" s="20"/>
     </row>
     <row r="527">
-      <c r="B527" s="22"/>
+      <c r="B527" s="20"/>
     </row>
     <row r="528">
-      <c r="B528" s="22"/>
+      <c r="B528" s="20"/>
     </row>
     <row r="529">
-      <c r="B529" s="22"/>
+      <c r="B529" s="20"/>
     </row>
     <row r="530">
-      <c r="B530" s="22"/>
+      <c r="B530" s="20"/>
     </row>
     <row r="531">
-      <c r="B531" s="22"/>
+      <c r="B531" s="20"/>
     </row>
     <row r="532">
-      <c r="B532" s="22"/>
+      <c r="B532" s="20"/>
     </row>
     <row r="533">
-      <c r="B533" s="22"/>
+      <c r="B533" s="20"/>
     </row>
     <row r="534">
-      <c r="B534" s="22"/>
+      <c r="B534" s="20"/>
     </row>
     <row r="535">
-      <c r="B535" s="22"/>
+      <c r="B535" s="20"/>
     </row>
     <row r="536">
-      <c r="B536" s="22"/>
+      <c r="B536" s="20"/>
     </row>
     <row r="537">
-      <c r="B537" s="22"/>
+      <c r="B537" s="20"/>
     </row>
     <row r="538">
-      <c r="B538" s="22"/>
+      <c r="B538" s="20"/>
     </row>
     <row r="539">
-      <c r="B539" s="22"/>
+      <c r="B539" s="20"/>
     </row>
     <row r="540">
-      <c r="B540" s="22"/>
+      <c r="B540" s="20"/>
     </row>
     <row r="541">
-      <c r="B541" s="22"/>
+      <c r="B541" s="20"/>
     </row>
     <row r="542">
-      <c r="B542" s="22"/>
+      <c r="B542" s="20"/>
     </row>
     <row r="543">
-      <c r="B543" s="22"/>
+      <c r="B543" s="20"/>
     </row>
     <row r="544">
-      <c r="B544" s="22"/>
+      <c r="B544" s="20"/>
     </row>
     <row r="545">
-      <c r="B545" s="22"/>
+      <c r="B545" s="20"/>
     </row>
     <row r="546">
-      <c r="B546" s="22"/>
+      <c r="B546" s="20"/>
     </row>
     <row r="547">
-      <c r="B547" s="22"/>
+      <c r="B547" s="20"/>
     </row>
     <row r="548">
-      <c r="B548" s="22"/>
+      <c r="B548" s="20"/>
     </row>
     <row r="549">
-      <c r="B549" s="22"/>
+      <c r="B549" s="20"/>
     </row>
     <row r="550">
-      <c r="B550" s="22"/>
+      <c r="B550" s="20"/>
     </row>
     <row r="551">
-      <c r="B551" s="22"/>
+      <c r="B551" s="20"/>
     </row>
     <row r="552">
-      <c r="B552" s="22"/>
+      <c r="B552" s="20"/>
     </row>
     <row r="553">
-      <c r="B553" s="22"/>
+      <c r="B553" s="20"/>
     </row>
     <row r="554">
-      <c r="B554" s="22"/>
+      <c r="B554" s="20"/>
     </row>
     <row r="555">
-      <c r="B555" s="22"/>
+      <c r="B555" s="20"/>
     </row>
     <row r="556">
-      <c r="B556" s="22"/>
+      <c r="B556" s="20"/>
     </row>
     <row r="557">
-      <c r="B557" s="22"/>
+      <c r="B557" s="20"/>
     </row>
     <row r="558">
-      <c r="B558" s="22"/>
+      <c r="B558" s="20"/>
     </row>
     <row r="559">
-      <c r="B559" s="22"/>
+      <c r="B559" s="20"/>
     </row>
     <row r="560">
-      <c r="B560" s="22"/>
+      <c r="B560" s="20"/>
     </row>
     <row r="561">
-      <c r="B561" s="22"/>
+      <c r="B561" s="20"/>
     </row>
     <row r="562">
-      <c r="B562" s="22"/>
+      <c r="B562" s="20"/>
     </row>
     <row r="563">
-      <c r="B563" s="22"/>
+      <c r="B563" s="20"/>
     </row>
     <row r="564">
-      <c r="B564" s="22"/>
+      <c r="B564" s="20"/>
     </row>
     <row r="565">
-      <c r="B565" s="22"/>
+      <c r="B565" s="20"/>
     </row>
     <row r="566">
-      <c r="B566" s="22"/>
+      <c r="B566" s="20"/>
     </row>
     <row r="567">
-      <c r="B567" s="22"/>
+      <c r="B567" s="20"/>
     </row>
     <row r="568">
-      <c r="B568" s="22"/>
+      <c r="B568" s="20"/>
     </row>
     <row r="569">
-      <c r="B569" s="22"/>
+      <c r="B569" s="20"/>
     </row>
     <row r="570">
-      <c r="B570" s="22"/>
+      <c r="B570" s="20"/>
     </row>
     <row r="571">
-      <c r="B571" s="22"/>
+      <c r="B571" s="20"/>
     </row>
     <row r="572">
-      <c r="B572" s="22"/>
+      <c r="B572" s="20"/>
     </row>
     <row r="573">
-      <c r="B573" s="22"/>
+      <c r="B573" s="20"/>
     </row>
     <row r="574">
-      <c r="B574" s="22"/>
+      <c r="B574" s="20"/>
     </row>
     <row r="575">
-      <c r="B575" s="22"/>
+      <c r="B575" s="20"/>
     </row>
     <row r="576">
-      <c r="B576" s="22"/>
+      <c r="B576" s="20"/>
     </row>
     <row r="577">
-      <c r="B577" s="22"/>
+      <c r="B577" s="20"/>
     </row>
     <row r="578">
-      <c r="B578" s="22"/>
+      <c r="B578" s="20"/>
     </row>
     <row r="579">
-      <c r="B579" s="22"/>
+      <c r="B579" s="20"/>
     </row>
     <row r="580">
-      <c r="B580" s="22"/>
+      <c r="B580" s="20"/>
     </row>
     <row r="581">
-      <c r="B581" s="22"/>
+      <c r="B581" s="20"/>
     </row>
     <row r="582">
-      <c r="B582" s="22"/>
+      <c r="B582" s="20"/>
     </row>
     <row r="583">
-      <c r="B583" s="22"/>
+      <c r="B583" s="20"/>
     </row>
     <row r="584">
-      <c r="B584" s="22"/>
+      <c r="B584" s="20"/>
     </row>
     <row r="585">
-      <c r="B585" s="22"/>
+      <c r="B585" s="20"/>
     </row>
     <row r="586">
-      <c r="B586" s="22"/>
+      <c r="B586" s="20"/>
     </row>
     <row r="587">
-      <c r="B587" s="22"/>
+      <c r="B587" s="20"/>
     </row>
     <row r="588">
-      <c r="B588" s="22"/>
+      <c r="B588" s="20"/>
     </row>
     <row r="589">
-      <c r="B589" s="22"/>
+      <c r="B589" s="20"/>
     </row>
     <row r="590">
-      <c r="B590" s="22"/>
+      <c r="B590" s="20"/>
     </row>
     <row r="591">
-      <c r="B591" s="22"/>
+      <c r="B591" s="20"/>
     </row>
     <row r="592">
-      <c r="B592" s="22"/>
+      <c r="B592" s="20"/>
     </row>
     <row r="593">
-      <c r="B593" s="22"/>
+      <c r="B593" s="20"/>
     </row>
     <row r="594">
-      <c r="B594" s="22"/>
+      <c r="B594" s="20"/>
     </row>
     <row r="595">
-      <c r="B595" s="22"/>
+      <c r="B595" s="20"/>
     </row>
     <row r="596">
-      <c r="B596" s="22"/>
+      <c r="B596" s="20"/>
     </row>
     <row r="597">
-      <c r="B597" s="22"/>
+      <c r="B597" s="20"/>
     </row>
     <row r="598">
-      <c r="B598" s="22"/>
+      <c r="B598" s="20"/>
     </row>
     <row r="599">
-      <c r="B599" s="22"/>
+      <c r="B599" s="20"/>
     </row>
     <row r="600">
-      <c r="B600" s="22"/>
+      <c r="B600" s="20"/>
     </row>
     <row r="601">
-      <c r="B601" s="22"/>
+      <c r="B601" s="20"/>
     </row>
     <row r="602">
-      <c r="B602" s="22"/>
+      <c r="B602" s="20"/>
     </row>
     <row r="603">
-      <c r="B603" s="22"/>
+      <c r="B603" s="20"/>
     </row>
     <row r="604">
-      <c r="B604" s="22"/>
+      <c r="B604" s="20"/>
     </row>
     <row r="605">
-      <c r="B605" s="22"/>
+      <c r="B605" s="20"/>
     </row>
     <row r="606">
-      <c r="B606" s="22"/>
+      <c r="B606" s="20"/>
     </row>
     <row r="607">
-      <c r="B607" s="22"/>
+      <c r="B607" s="20"/>
     </row>
     <row r="608">
-      <c r="B608" s="22"/>
+      <c r="B608" s="20"/>
     </row>
     <row r="609">
-      <c r="B609" s="22"/>
+      <c r="B609" s="20"/>
     </row>
     <row r="610">
-      <c r="B610" s="22"/>
+      <c r="B610" s="20"/>
     </row>
     <row r="611">
-      <c r="B611" s="22"/>
+      <c r="B611" s="20"/>
     </row>
     <row r="612">
-      <c r="B612" s="22"/>
+      <c r="B612" s="20"/>
     </row>
     <row r="613">
-      <c r="B613" s="22"/>
+      <c r="B613" s="20"/>
     </row>
     <row r="614">
-      <c r="B614" s="22"/>
+      <c r="B614" s="20"/>
     </row>
     <row r="615">
-      <c r="B615" s="22"/>
+      <c r="B615" s="20"/>
     </row>
     <row r="616">
-      <c r="B616" s="22"/>
+      <c r="B616" s="20"/>
     </row>
     <row r="617">
-      <c r="B617" s="22"/>
+      <c r="B617" s="20"/>
     </row>
     <row r="618">
-      <c r="B618" s="22"/>
+      <c r="B618" s="20"/>
     </row>
     <row r="619">
-      <c r="B619" s="22"/>
+      <c r="B619" s="20"/>
     </row>
     <row r="620">
-      <c r="B620" s="22"/>
+      <c r="B620" s="20"/>
     </row>
     <row r="621">
-      <c r="B621" s="22"/>
+      <c r="B621" s="20"/>
     </row>
     <row r="622">
-      <c r="B622" s="22"/>
+      <c r="B622" s="20"/>
     </row>
     <row r="623">
-      <c r="B623" s="22"/>
+      <c r="B623" s="20"/>
     </row>
     <row r="624">
-      <c r="B624" s="22"/>
+      <c r="B624" s="20"/>
     </row>
     <row r="625">
-      <c r="B625" s="22"/>
+      <c r="B625" s="20"/>
     </row>
     <row r="626">
-      <c r="B626" s="22"/>
+      <c r="B626" s="20"/>
     </row>
     <row r="627">
-      <c r="B627" s="22"/>
+      <c r="B627" s="20"/>
     </row>
     <row r="628">
-      <c r="B628" s="22"/>
+      <c r="B628" s="20"/>
     </row>
     <row r="629">
-      <c r="B629" s="22"/>
+      <c r="B629" s="20"/>
     </row>
     <row r="630">
-      <c r="B630" s="22"/>
+      <c r="B630" s="20"/>
     </row>
     <row r="631">
-      <c r="B631" s="22"/>
+      <c r="B631" s="20"/>
     </row>
     <row r="632">
-      <c r="B632" s="22"/>
+      <c r="B632" s="20"/>
     </row>
     <row r="633">
-      <c r="B633" s="22"/>
+      <c r="B633" s="20"/>
     </row>
     <row r="634">
-      <c r="B634" s="22"/>
+      <c r="B634" s="20"/>
     </row>
     <row r="635">
-      <c r="B635" s="22"/>
+      <c r="B635" s="20"/>
     </row>
     <row r="636">
-      <c r="B636" s="22"/>
+      <c r="B636" s="20"/>
     </row>
     <row r="637">
-      <c r="B637" s="22"/>
+      <c r="B637" s="20"/>
     </row>
     <row r="638">
-      <c r="B638" s="22"/>
+      <c r="B638" s="20"/>
     </row>
     <row r="639">
-      <c r="B639" s="22"/>
+      <c r="B639" s="20"/>
     </row>
     <row r="640">
-      <c r="B640" s="22"/>
+      <c r="B640" s="20"/>
     </row>
     <row r="641">
-      <c r="B641" s="22"/>
+      <c r="B641" s="20"/>
     </row>
     <row r="642">
-      <c r="B642" s="22"/>
+      <c r="B642" s="20"/>
     </row>
     <row r="643">
-      <c r="B643" s="22"/>
+      <c r="B643" s="20"/>
     </row>
     <row r="644">
-      <c r="B644" s="22"/>
+      <c r="B644" s="20"/>
     </row>
     <row r="645">
-      <c r="B645" s="22"/>
+      <c r="B645" s="20"/>
     </row>
     <row r="646">
-      <c r="B646" s="22"/>
+      <c r="B646" s="20"/>
     </row>
     <row r="647">
-      <c r="B647" s="22"/>
+      <c r="B647" s="20"/>
     </row>
     <row r="648">
-      <c r="B648" s="22"/>
+      <c r="B648" s="20"/>
     </row>
     <row r="649">
-      <c r="B649" s="22"/>
+      <c r="B649" s="20"/>
     </row>
     <row r="650">
-      <c r="B650" s="22"/>
+      <c r="B650" s="20"/>
     </row>
     <row r="651">
-      <c r="B651" s="22"/>
+      <c r="B651" s="20"/>
     </row>
     <row r="652">
-      <c r="B652" s="22"/>
+      <c r="B652" s="20"/>
     </row>
     <row r="653">
-      <c r="B653" s="22"/>
+      <c r="B653" s="20"/>
     </row>
     <row r="654">
-      <c r="B654" s="22"/>
+      <c r="B654" s="20"/>
     </row>
     <row r="655">
-      <c r="B655" s="22"/>
+      <c r="B655" s="20"/>
     </row>
     <row r="656">
-      <c r="B656" s="22"/>
+      <c r="B656" s="20"/>
     </row>
     <row r="657">
-      <c r="B657" s="22"/>
+      <c r="B657" s="20"/>
     </row>
     <row r="658">
-      <c r="B658" s="22"/>
+      <c r="B658" s="20"/>
     </row>
     <row r="659">
-      <c r="B659" s="22"/>
+      <c r="B659" s="20"/>
     </row>
     <row r="660">
-      <c r="B660" s="22"/>
+      <c r="B660" s="20"/>
     </row>
     <row r="661">
-      <c r="B661" s="22"/>
+      <c r="B661" s="20"/>
     </row>
     <row r="662">
-      <c r="B662" s="22"/>
+      <c r="B662" s="20"/>
     </row>
     <row r="663">
-      <c r="B663" s="22"/>
+      <c r="B663" s="20"/>
     </row>
     <row r="664">
-      <c r="B664" s="22"/>
+      <c r="B664" s="20"/>
     </row>
     <row r="665">
-      <c r="B665" s="22"/>
+      <c r="B665" s="20"/>
     </row>
     <row r="666">
-      <c r="B666" s="22"/>
+      <c r="B666" s="20"/>
     </row>
     <row r="667">
-      <c r="B667" s="22"/>
+      <c r="B667" s="20"/>
     </row>
     <row r="668">
-      <c r="B668" s="22"/>
+      <c r="B668" s="20"/>
     </row>
     <row r="669">
-      <c r="B669" s="22"/>
+      <c r="B669" s="20"/>
     </row>
     <row r="670">
-      <c r="B670" s="22"/>
+      <c r="B670" s="20"/>
     </row>
     <row r="671">
-      <c r="B671" s="22"/>
+      <c r="B671" s="20"/>
     </row>
     <row r="672">
-      <c r="B672" s="22"/>
+      <c r="B672" s="20"/>
     </row>
     <row r="673">
-      <c r="B673" s="22"/>
+      <c r="B673" s="20"/>
     </row>
     <row r="674">
-      <c r="B674" s="22"/>
+      <c r="B674" s="20"/>
     </row>
     <row r="675">
-      <c r="B675" s="22"/>
+      <c r="B675" s="20"/>
     </row>
     <row r="676">
-      <c r="B676" s="22"/>
+      <c r="B676" s="20"/>
     </row>
     <row r="677">
-      <c r="B677" s="22"/>
+      <c r="B677" s="20"/>
     </row>
     <row r="678">
-      <c r="B678" s="22"/>
+      <c r="B678" s="20"/>
     </row>
     <row r="679">
-      <c r="B679" s="22"/>
+      <c r="B679" s="20"/>
     </row>
     <row r="680">
-      <c r="B680" s="22"/>
+      <c r="B680" s="20"/>
     </row>
     <row r="681">
-      <c r="B681" s="22"/>
+      <c r="B681" s="20"/>
     </row>
     <row r="682">
-      <c r="B682" s="22"/>
+      <c r="B682" s="20"/>
     </row>
     <row r="683">
-      <c r="B683" s="22"/>
+      <c r="B683" s="20"/>
     </row>
     <row r="684">
-      <c r="B684" s="22"/>
+      <c r="B684" s="20"/>
     </row>
     <row r="685">
-      <c r="B685" s="22"/>
+      <c r="B685" s="20"/>
     </row>
     <row r="686">
-      <c r="B686" s="22"/>
+      <c r="B686" s="20"/>
     </row>
     <row r="687">
-      <c r="B687" s="22"/>
+      <c r="B687" s="20"/>
     </row>
     <row r="688">
-      <c r="B688" s="22"/>
+      <c r="B688" s="20"/>
     </row>
     <row r="689">
-      <c r="B689" s="22"/>
+      <c r="B689" s="20"/>
     </row>
     <row r="690">
-      <c r="B690" s="22"/>
+      <c r="B690" s="20"/>
     </row>
     <row r="691">
-      <c r="B691" s="22"/>
+      <c r="B691" s="20"/>
     </row>
     <row r="692">
-      <c r="B692" s="22"/>
+      <c r="B692" s="20"/>
     </row>
     <row r="693">
-      <c r="B693" s="22"/>
+      <c r="B693" s="20"/>
     </row>
     <row r="694">
-      <c r="B694" s="22"/>
+      <c r="B694" s="20"/>
     </row>
     <row r="695">
-      <c r="B695" s="22"/>
+      <c r="B695" s="20"/>
     </row>
     <row r="696">
-      <c r="B696" s="22"/>
+      <c r="B696" s="20"/>
     </row>
     <row r="697">
-      <c r="B697" s="22"/>
+      <c r="B697" s="20"/>
     </row>
     <row r="698">
-      <c r="B698" s="22"/>
+      <c r="B698" s="20"/>
     </row>
     <row r="699">
-      <c r="B699" s="22"/>
+      <c r="B699" s="20"/>
     </row>
     <row r="700">
-      <c r="B700" s="22"/>
+      <c r="B700" s="20"/>
     </row>
     <row r="701">
-      <c r="B701" s="22"/>
+      <c r="B701" s="20"/>
     </row>
     <row r="702">
-      <c r="B702" s="22"/>
+      <c r="B702" s="20"/>
     </row>
     <row r="703">
-      <c r="B703" s="22"/>
+      <c r="B703" s="20"/>
     </row>
     <row r="704">
-      <c r="B704" s="22"/>
+      <c r="B704" s="20"/>
     </row>
     <row r="705">
-      <c r="B705" s="22"/>
+      <c r="B705" s="20"/>
     </row>
     <row r="706">
-      <c r="B706" s="22"/>
+      <c r="B706" s="20"/>
     </row>
     <row r="707">
-      <c r="B707" s="22"/>
+      <c r="B707" s="20"/>
     </row>
     <row r="708">
-      <c r="B708" s="22"/>
+      <c r="B708" s="20"/>
     </row>
     <row r="709">
-      <c r="B709" s="22"/>
+      <c r="B709" s="20"/>
     </row>
     <row r="710">
-      <c r="B710" s="22"/>
+      <c r="B710" s="20"/>
     </row>
     <row r="711">
-      <c r="B711" s="22"/>
+      <c r="B711" s="20"/>
     </row>
     <row r="712">
-      <c r="B712" s="22"/>
+      <c r="B712" s="20"/>
     </row>
     <row r="713">
-      <c r="B713" s="22"/>
+      <c r="B713" s="20"/>
     </row>
     <row r="714">
-      <c r="B714" s="22"/>
+      <c r="B714" s="20"/>
     </row>
     <row r="715">
-      <c r="B715" s="22"/>
+      <c r="B715" s="20"/>
     </row>
     <row r="716">
-      <c r="B716" s="22"/>
+      <c r="B716" s="20"/>
     </row>
     <row r="717">
-      <c r="B717" s="22"/>
+      <c r="B717" s="20"/>
     </row>
     <row r="718">
-      <c r="B718" s="22"/>
+      <c r="B718" s="20"/>
     </row>
     <row r="719">
-      <c r="B719" s="22"/>
+      <c r="B719" s="20"/>
     </row>
     <row r="720">
-      <c r="B720" s="22"/>
+      <c r="B720" s="20"/>
     </row>
     <row r="721">
-      <c r="B721" s="22"/>
+      <c r="B721" s="20"/>
     </row>
     <row r="722">
-      <c r="B722" s="22"/>
+      <c r="B722" s="20"/>
     </row>
     <row r="723">
-      <c r="B723" s="22"/>
+      <c r="B723" s="20"/>
     </row>
     <row r="724">
-      <c r="B724" s="22"/>
+      <c r="B724" s="20"/>
     </row>
     <row r="725">
-      <c r="B725" s="22"/>
+      <c r="B725" s="20"/>
     </row>
     <row r="726">
-      <c r="B726" s="22"/>
+      <c r="B726" s="20"/>
     </row>
     <row r="727">
-      <c r="B727" s="22"/>
+      <c r="B727" s="20"/>
     </row>
     <row r="728">
-      <c r="B728" s="22"/>
+      <c r="B728" s="20"/>
     </row>
     <row r="729">
-      <c r="B729" s="22"/>
+      <c r="B729" s="20"/>
     </row>
     <row r="730">
-      <c r="B730" s="22"/>
+      <c r="B730" s="20"/>
     </row>
     <row r="731">
-      <c r="B731" s="22"/>
+      <c r="B731" s="20"/>
     </row>
     <row r="732">
-      <c r="B732" s="22"/>
+      <c r="B732" s="20"/>
     </row>
     <row r="733">
-      <c r="B733" s="22"/>
+      <c r="B733" s="20"/>
     </row>
     <row r="734">
-      <c r="B734" s="22"/>
+      <c r="B734" s="20"/>
     </row>
     <row r="735">
-      <c r="B735" s="22"/>
+      <c r="B735" s="20"/>
     </row>
     <row r="736">
-      <c r="B736" s="22"/>
+      <c r="B736" s="20"/>
     </row>
     <row r="737">
-      <c r="B737" s="22"/>
+      <c r="B737" s="20"/>
     </row>
     <row r="738">
-      <c r="B738" s="22"/>
+      <c r="B738" s="20"/>
     </row>
     <row r="739">
-      <c r="B739" s="22"/>
+      <c r="B739" s="20"/>
     </row>
     <row r="740">
-      <c r="B740" s="22"/>
+      <c r="B740" s="20"/>
     </row>
     <row r="741">
-      <c r="B741" s="22"/>
+      <c r="B741" s="20"/>
     </row>
     <row r="742">
-      <c r="B742" s="22"/>
+      <c r="B742" s="20"/>
     </row>
     <row r="743">
-      <c r="B743" s="22"/>
+      <c r="B743" s="20"/>
     </row>
     <row r="744">
-      <c r="B744" s="22"/>
+      <c r="B744" s="20"/>
     </row>
     <row r="745">
-      <c r="B745" s="22"/>
+      <c r="B745" s="20"/>
     </row>
     <row r="746">
-      <c r="B746" s="22"/>
+      <c r="B746" s="20"/>
     </row>
     <row r="747">
-      <c r="B747" s="22"/>
+      <c r="B747" s="20"/>
     </row>
     <row r="748">
-      <c r="B748" s="22"/>
+      <c r="B748" s="20"/>
     </row>
     <row r="749">
-      <c r="B749" s="22"/>
+      <c r="B749" s="20"/>
     </row>
     <row r="750">
-      <c r="B750" s="22"/>
+      <c r="B750" s="20"/>
     </row>
     <row r="751">
-      <c r="B751" s="22"/>
+      <c r="B751" s="20"/>
     </row>
     <row r="752">
-      <c r="B752" s="22"/>
+      <c r="B752" s="20"/>
     </row>
     <row r="753">
-      <c r="B753" s="22"/>
+      <c r="B753" s="20"/>
     </row>
     <row r="754">
-      <c r="B754" s="22"/>
+      <c r="B754" s="20"/>
     </row>
     <row r="755">
-      <c r="B755" s="22"/>
+      <c r="B755" s="20"/>
     </row>
     <row r="756">
-      <c r="B756" s="22"/>
+      <c r="B756" s="20"/>
     </row>
     <row r="757">
-      <c r="B757" s="22"/>
+      <c r="B757" s="20"/>
     </row>
     <row r="758">
-      <c r="B758" s="22"/>
+      <c r="B758" s="20"/>
     </row>
     <row r="759">
-      <c r="B759" s="22"/>
+      <c r="B759" s="20"/>
     </row>
     <row r="760">
-      <c r="B760" s="22"/>
+      <c r="B760" s="20"/>
     </row>
     <row r="761">
-      <c r="B761" s="22"/>
+      <c r="B761" s="20"/>
     </row>
     <row r="762">
-      <c r="B762" s="22"/>
+      <c r="B762" s="20"/>
     </row>
     <row r="763">
-      <c r="B763" s="22"/>
+      <c r="B763" s="20"/>
     </row>
     <row r="764">
-      <c r="B764" s="22"/>
+      <c r="B764" s="20"/>
     </row>
     <row r="765">
-      <c r="B765" s="22"/>
+      <c r="B765" s="20"/>
     </row>
     <row r="766">
-      <c r="B766" s="22"/>
+      <c r="B766" s="20"/>
     </row>
     <row r="767">
-      <c r="B767" s="22"/>
+      <c r="B767" s="20"/>
     </row>
     <row r="768">
-      <c r="B768" s="22"/>
+      <c r="B768" s="20"/>
     </row>
     <row r="769">
-      <c r="B769" s="22"/>
+      <c r="B769" s="20"/>
     </row>
     <row r="770">
-      <c r="B770" s="22"/>
+      <c r="B770" s="20"/>
     </row>
     <row r="771">
-      <c r="B771" s="22"/>
+      <c r="B771" s="20"/>
     </row>
     <row r="772">
-      <c r="B772" s="22"/>
+      <c r="B772" s="20"/>
     </row>
     <row r="773">
-      <c r="B773" s="22"/>
+      <c r="B773" s="20"/>
     </row>
     <row r="774">
-      <c r="B774" s="22"/>
+      <c r="B774" s="20"/>
     </row>
     <row r="775">
-      <c r="B775" s="22"/>
+      <c r="B775" s="20"/>
     </row>
     <row r="776">
-      <c r="B776" s="22"/>
+      <c r="B776" s="20"/>
     </row>
     <row r="777">
-      <c r="B777" s="22"/>
+      <c r="B777" s="20"/>
     </row>
     <row r="778">
-      <c r="B778" s="22"/>
+      <c r="B778" s="20"/>
     </row>
     <row r="779">
-      <c r="B779" s="22"/>
+      <c r="B779" s="20"/>
     </row>
     <row r="780">
-      <c r="B780" s="22"/>
+      <c r="B780" s="20"/>
     </row>
     <row r="781">
-      <c r="B781" s="22"/>
+      <c r="B781" s="20"/>
     </row>
     <row r="782">
-      <c r="B782" s="22"/>
+      <c r="B782" s="20"/>
     </row>
     <row r="783">
-      <c r="B783" s="22"/>
+      <c r="B783" s="20"/>
     </row>
     <row r="784">
-      <c r="B784" s="22"/>
+      <c r="B784" s="20"/>
     </row>
     <row r="785">
-      <c r="B785" s="22"/>
+      <c r="B785" s="20"/>
     </row>
     <row r="786">
-      <c r="B786" s="22"/>
+      <c r="B786" s="20"/>
     </row>
     <row r="787">
-      <c r="B787" s="22"/>
+      <c r="B787" s="20"/>
     </row>
     <row r="788">
-      <c r="B788" s="22"/>
+      <c r="B788" s="20"/>
     </row>
     <row r="789">
-      <c r="B789" s="22"/>
+      <c r="B789" s="20"/>
     </row>
     <row r="790">
-      <c r="B790" s="22"/>
+      <c r="B790" s="20"/>
     </row>
     <row r="791">
-      <c r="B791" s="22"/>
+      <c r="B791" s="20"/>
     </row>
     <row r="792">
-      <c r="B792" s="22"/>
+      <c r="B792" s="20"/>
     </row>
     <row r="793">
-      <c r="B793" s="22"/>
+      <c r="B793" s="20"/>
     </row>
     <row r="794">
-      <c r="B794" s="22"/>
+      <c r="B794" s="20"/>
     </row>
     <row r="795">
-      <c r="B795" s="22"/>
+      <c r="B795" s="20"/>
     </row>
     <row r="796">
-      <c r="B796" s="22"/>
+      <c r="B796" s="20"/>
     </row>
     <row r="797">
-      <c r="B797" s="22"/>
+      <c r="B797" s="20"/>
     </row>
     <row r="798">
-      <c r="B798" s="22"/>
+      <c r="B798" s="20"/>
     </row>
     <row r="799">
-      <c r="B799" s="22"/>
+      <c r="B799" s="20"/>
     </row>
     <row r="800">
-      <c r="B800" s="22"/>
+      <c r="B800" s="20"/>
     </row>
     <row r="801">
-      <c r="B801" s="22"/>
+      <c r="B801" s="20"/>
     </row>
     <row r="802">
-      <c r="B802" s="22"/>
+      <c r="B802" s="20"/>
     </row>
     <row r="803">
-      <c r="B803" s="22"/>
+      <c r="B803" s="20"/>
     </row>
     <row r="804">
-      <c r="B804" s="22"/>
+      <c r="B804" s="20"/>
     </row>
     <row r="805">
-      <c r="B805" s="22"/>
+      <c r="B805" s="20"/>
     </row>
     <row r="806">
-      <c r="B806" s="22"/>
+      <c r="B806" s="20"/>
     </row>
     <row r="807">
-      <c r="B807" s="22"/>
+      <c r="B807" s="20"/>
     </row>
     <row r="808">
-      <c r="B808" s="22"/>
+      <c r="B808" s="20"/>
     </row>
     <row r="809">
-      <c r="B809" s="22"/>
+      <c r="B809" s="20"/>
     </row>
     <row r="810">
-      <c r="B810" s="22"/>
+      <c r="B810" s="20"/>
     </row>
     <row r="811">
-      <c r="B811" s="22"/>
+      <c r="B811" s="20"/>
     </row>
     <row r="812">
-      <c r="B812" s="22"/>
+      <c r="B812" s="20"/>
     </row>
     <row r="813">
-      <c r="B813" s="22"/>
+      <c r="B813" s="20"/>
     </row>
     <row r="814">
-      <c r="B814" s="22"/>
+      <c r="B814" s="20"/>
     </row>
     <row r="815">
-      <c r="B815" s="22"/>
+      <c r="B815" s="20"/>
     </row>
     <row r="816">
-      <c r="B816" s="22"/>
+      <c r="B816" s="20"/>
     </row>
     <row r="817">
-      <c r="B817" s="22"/>
+      <c r="B817" s="20"/>
     </row>
     <row r="818">
-      <c r="B818" s="22"/>
+      <c r="B818" s="20"/>
     </row>
     <row r="819">
-      <c r="B819" s="22"/>
+      <c r="B819" s="20"/>
     </row>
     <row r="820">
-      <c r="B820" s="22"/>
+      <c r="B820" s="20"/>
     </row>
     <row r="821">
-      <c r="B821" s="22"/>
+      <c r="B821" s="20"/>
     </row>
     <row r="822">
-      <c r="B822" s="22"/>
+      <c r="B822" s="20"/>
     </row>
     <row r="823">
-      <c r="B823" s="22"/>
+      <c r="B823" s="20"/>
     </row>
     <row r="824">
-      <c r="B824" s="22"/>
+      <c r="B824" s="20"/>
     </row>
     <row r="825">
-      <c r="B825" s="22"/>
+      <c r="B825" s="20"/>
     </row>
     <row r="826">
-      <c r="B826" s="22"/>
+      <c r="B826" s="20"/>
     </row>
     <row r="827">
-      <c r="B827" s="22"/>
+      <c r="B827" s="20"/>
     </row>
     <row r="828">
-      <c r="B828" s="22"/>
+      <c r="B828" s="20"/>
     </row>
     <row r="829">
-      <c r="B829" s="22"/>
+      <c r="B829" s="20"/>
     </row>
     <row r="830">
-      <c r="B830" s="22"/>
+      <c r="B830" s="20"/>
     </row>
     <row r="831">
-      <c r="B831" s="22"/>
+      <c r="B831" s="20"/>
     </row>
     <row r="832">
-      <c r="B832" s="22"/>
+      <c r="B832" s="20"/>
     </row>
     <row r="833">
-      <c r="B833" s="22"/>
+      <c r="B833" s="20"/>
     </row>
     <row r="834">
-      <c r="B834" s="22"/>
+      <c r="B834" s="20"/>
     </row>
     <row r="835">
-      <c r="B835" s="22"/>
+      <c r="B835" s="20"/>
     </row>
     <row r="836">
-      <c r="B836" s="22"/>
+      <c r="B836" s="20"/>
     </row>
     <row r="837">
-      <c r="B837" s="22"/>
+      <c r="B837" s="20"/>
     </row>
     <row r="838">
-      <c r="B838" s="22"/>
+      <c r="B838" s="20"/>
     </row>
     <row r="839">
-      <c r="B839" s="22"/>
+      <c r="B839" s="20"/>
     </row>
     <row r="840">
-      <c r="B840" s="22"/>
+      <c r="B840" s="20"/>
     </row>
     <row r="841">
-      <c r="B841" s="22"/>
+      <c r="B841" s="20"/>
     </row>
     <row r="842">
-      <c r="B842" s="22"/>
+      <c r="B842" s="20"/>
     </row>
     <row r="843">
-      <c r="B843" s="22"/>
+      <c r="B843" s="20"/>
     </row>
     <row r="844">
-      <c r="B844" s="22"/>
+      <c r="B844" s="20"/>
     </row>
     <row r="845">
-      <c r="B845" s="22"/>
+      <c r="B845" s="20"/>
     </row>
     <row r="846">
-      <c r="B846" s="22"/>
+      <c r="B846" s="20"/>
     </row>
     <row r="847">
-      <c r="B847" s="22"/>
+      <c r="B847" s="20"/>
     </row>
     <row r="848">
-      <c r="B848" s="22"/>
+      <c r="B848" s="20"/>
     </row>
     <row r="849">
-      <c r="B849" s="22"/>
+      <c r="B849" s="20"/>
     </row>
     <row r="850">
-      <c r="B850" s="22"/>
+      <c r="B850" s="20"/>
     </row>
     <row r="851">
-      <c r="B851" s="22"/>
+      <c r="B851" s="20"/>
     </row>
     <row r="852">
-      <c r="B852" s="22"/>
+      <c r="B852" s="20"/>
     </row>
     <row r="853">
-      <c r="B853" s="22"/>
+      <c r="B853" s="20"/>
     </row>
     <row r="854">
-      <c r="B854" s="22"/>
+      <c r="B854" s="20"/>
     </row>
     <row r="855">
-      <c r="B855" s="22"/>
+      <c r="B855" s="20"/>
     </row>
     <row r="856">
-      <c r="B856" s="22"/>
+      <c r="B856" s="20"/>
     </row>
     <row r="857">
-      <c r="B857" s="22"/>
+      <c r="B857" s="20"/>
     </row>
     <row r="858">
-      <c r="B858" s="22"/>
+      <c r="B858" s="20"/>
     </row>
     <row r="859">
-      <c r="B859" s="22"/>
+      <c r="B859" s="20"/>
     </row>
     <row r="860">
-      <c r="B860" s="22"/>
+      <c r="B860" s="20"/>
     </row>
     <row r="861">
-      <c r="B861" s="22"/>
+      <c r="B861" s="20"/>
     </row>
     <row r="862">
-      <c r="B862" s="22"/>
+      <c r="B862" s="20"/>
     </row>
     <row r="863">
-      <c r="B863" s="22"/>
+      <c r="B863" s="20"/>
     </row>
     <row r="864">
-      <c r="B864" s="22"/>
+      <c r="B864" s="20"/>
     </row>
     <row r="865">
-      <c r="B865" s="22"/>
+      <c r="B865" s="20"/>
     </row>
     <row r="866">
-      <c r="B866" s="22"/>
+      <c r="B866" s="20"/>
     </row>
     <row r="867">
-      <c r="B867" s="22"/>
+      <c r="B867" s="20"/>
     </row>
     <row r="868">
-      <c r="B868" s="22"/>
+      <c r="B868" s="20"/>
     </row>
     <row r="869">
-      <c r="B869" s="22"/>
+      <c r="B869" s="20"/>
     </row>
     <row r="870">
-      <c r="B870" s="22"/>
+      <c r="B870" s="20"/>
     </row>
     <row r="871">
-      <c r="B871" s="22"/>
+      <c r="B871" s="20"/>
     </row>
     <row r="872">
-      <c r="B872" s="22"/>
+      <c r="B872" s="20"/>
     </row>
     <row r="873">
-      <c r="B873" s="22"/>
+      <c r="B873" s="20"/>
     </row>
     <row r="874">
-      <c r="B874" s="22"/>
+      <c r="B874" s="20"/>
     </row>
     <row r="875">
-      <c r="B875" s="22"/>
+      <c r="B875" s="20"/>
     </row>
     <row r="876">
-      <c r="B876" s="22"/>
+      <c r="B876" s="20"/>
     </row>
     <row r="877">
-      <c r="B877" s="22"/>
+      <c r="B877" s="20"/>
     </row>
     <row r="878">
-      <c r="B878" s="22"/>
+      <c r="B878" s="20"/>
     </row>
     <row r="879">
-      <c r="B879" s="22"/>
+      <c r="B879" s="20"/>
     </row>
     <row r="880">
-      <c r="B880" s="22"/>
+      <c r="B880" s="20"/>
     </row>
     <row r="881">
-      <c r="B881" s="22"/>
+      <c r="B881" s="20"/>
     </row>
     <row r="882">
-      <c r="B882" s="22"/>
+      <c r="B882" s="20"/>
     </row>
     <row r="883">
-      <c r="B883" s="22"/>
+      <c r="B883" s="20"/>
+    </row>
+    <row r="884">
+      <c r="B884" s="20"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:J2 K2:K5 L2:M2 N2:N6 O2:AF2">
@@ -3575,17 +4166,17 @@
       <formula>$M2="deprecated"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AF833">
+  <conditionalFormatting sqref="A2:AF834">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>$M2="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AF833">
+  <conditionalFormatting sqref="A2:AF834">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>$M2="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AF833">
+  <conditionalFormatting sqref="A2:AF834">
     <cfRule type="expression" dxfId="4" priority="5">
       <formula>$M2="modified"</formula>
     </cfRule>
@@ -3633,13 +4224,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -3647,7 +4238,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -3656,7 +4247,7 @@
       <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="21" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="7" t="s">
@@ -3671,22 +4262,22 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>23</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
@@ -3695,7 +4286,7 @@
       <c r="K2" s="12">
         <v>44853.0</v>
       </c>
-      <c r="L2" s="24"/>
+      <c r="L2" s="22"/>
       <c r="M2" s="10" t="s">
         <v>19</v>
       </c>
@@ -3719,22 +4310,22 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -3767,22 +4358,22 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
@@ -3815,22 +4406,22 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -3862,2935 +4453,2980 @@
       <c r="AB5" s="11"/>
     </row>
     <row r="6">
-      <c r="C6" s="25"/>
+      <c r="A6" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="12">
+        <v>45545.0</v>
+      </c>
+      <c r="L6" s="11"/>
+      <c r="M6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
     </row>
     <row r="7">
-      <c r="C7" s="25"/>
+      <c r="C7" s="23"/>
     </row>
     <row r="8">
-      <c r="C8" s="25"/>
+      <c r="C8" s="23"/>
     </row>
     <row r="9">
-      <c r="C9" s="25"/>
+      <c r="C9" s="23"/>
     </row>
     <row r="10">
-      <c r="C10" s="25"/>
+      <c r="C10" s="23"/>
     </row>
     <row r="11">
-      <c r="C11" s="25"/>
+      <c r="C11" s="23"/>
     </row>
     <row r="12">
-      <c r="C12" s="25"/>
+      <c r="C12" s="23"/>
     </row>
     <row r="13">
-      <c r="C13" s="25"/>
+      <c r="C13" s="23"/>
     </row>
     <row r="14">
-      <c r="C14" s="25"/>
+      <c r="C14" s="23"/>
     </row>
     <row r="15">
-      <c r="C15" s="25"/>
+      <c r="C15" s="23"/>
     </row>
     <row r="16">
-      <c r="C16" s="25"/>
+      <c r="C16" s="23"/>
     </row>
     <row r="17">
-      <c r="C17" s="25"/>
+      <c r="C17" s="23"/>
     </row>
     <row r="18">
-      <c r="C18" s="25"/>
+      <c r="C18" s="23"/>
     </row>
     <row r="19">
-      <c r="C19" s="25"/>
+      <c r="C19" s="23"/>
     </row>
     <row r="20">
-      <c r="C20" s="25"/>
+      <c r="C20" s="23"/>
     </row>
     <row r="21">
-      <c r="C21" s="25"/>
+      <c r="C21" s="23"/>
     </row>
     <row r="22">
-      <c r="C22" s="25"/>
+      <c r="C22" s="23"/>
     </row>
     <row r="23">
-      <c r="C23" s="25"/>
+      <c r="C23" s="23"/>
     </row>
     <row r="24">
-      <c r="C24" s="25"/>
+      <c r="C24" s="23"/>
     </row>
     <row r="25">
-      <c r="C25" s="25"/>
+      <c r="C25" s="23"/>
     </row>
     <row r="26">
-      <c r="C26" s="25"/>
+      <c r="C26" s="23"/>
     </row>
     <row r="27">
-      <c r="C27" s="25"/>
+      <c r="C27" s="23"/>
     </row>
     <row r="28">
-      <c r="C28" s="25"/>
+      <c r="C28" s="23"/>
     </row>
     <row r="29">
-      <c r="C29" s="25"/>
+      <c r="C29" s="23"/>
     </row>
     <row r="30">
-      <c r="C30" s="25"/>
+      <c r="C30" s="23"/>
     </row>
     <row r="31">
-      <c r="C31" s="25"/>
+      <c r="C31" s="23"/>
     </row>
     <row r="32">
-      <c r="C32" s="25"/>
+      <c r="C32" s="23"/>
     </row>
     <row r="33">
-      <c r="C33" s="25"/>
+      <c r="C33" s="23"/>
     </row>
     <row r="34">
-      <c r="C34" s="25"/>
+      <c r="C34" s="23"/>
     </row>
     <row r="35">
-      <c r="C35" s="25"/>
+      <c r="C35" s="23"/>
     </row>
     <row r="36">
-      <c r="C36" s="25"/>
+      <c r="C36" s="23"/>
     </row>
     <row r="37">
-      <c r="C37" s="25"/>
+      <c r="C37" s="23"/>
     </row>
     <row r="38">
-      <c r="C38" s="25"/>
+      <c r="C38" s="23"/>
     </row>
     <row r="39">
-      <c r="C39" s="25"/>
+      <c r="C39" s="23"/>
     </row>
     <row r="40">
-      <c r="C40" s="25"/>
+      <c r="C40" s="23"/>
     </row>
     <row r="41">
-      <c r="C41" s="25"/>
+      <c r="C41" s="23"/>
     </row>
     <row r="42">
-      <c r="C42" s="25"/>
+      <c r="C42" s="23"/>
     </row>
     <row r="43">
-      <c r="C43" s="25"/>
+      <c r="C43" s="23"/>
     </row>
     <row r="44">
-      <c r="C44" s="25"/>
+      <c r="C44" s="23"/>
     </row>
     <row r="45">
-      <c r="C45" s="25"/>
+      <c r="C45" s="23"/>
     </row>
     <row r="46">
-      <c r="C46" s="25"/>
+      <c r="C46" s="23"/>
     </row>
     <row r="47">
-      <c r="C47" s="25"/>
+      <c r="C47" s="23"/>
     </row>
     <row r="48">
-      <c r="C48" s="25"/>
+      <c r="C48" s="23"/>
     </row>
     <row r="49">
-      <c r="C49" s="25"/>
+      <c r="C49" s="23"/>
     </row>
     <row r="50">
-      <c r="C50" s="25"/>
+      <c r="C50" s="23"/>
     </row>
     <row r="51">
-      <c r="C51" s="25"/>
+      <c r="C51" s="23"/>
     </row>
     <row r="52">
-      <c r="C52" s="25"/>
+      <c r="C52" s="23"/>
     </row>
     <row r="53">
-      <c r="C53" s="25"/>
+      <c r="C53" s="23"/>
     </row>
     <row r="54">
-      <c r="C54" s="25"/>
+      <c r="C54" s="23"/>
     </row>
     <row r="55">
-      <c r="C55" s="25"/>
+      <c r="C55" s="23"/>
     </row>
     <row r="56">
-      <c r="C56" s="25"/>
+      <c r="C56" s="23"/>
     </row>
     <row r="57">
-      <c r="C57" s="25"/>
+      <c r="C57" s="23"/>
     </row>
     <row r="58">
-      <c r="C58" s="25"/>
+      <c r="C58" s="23"/>
     </row>
     <row r="59">
-      <c r="C59" s="25"/>
+      <c r="C59" s="23"/>
     </row>
     <row r="60">
-      <c r="C60" s="25"/>
+      <c r="C60" s="23"/>
     </row>
     <row r="61">
-      <c r="C61" s="25"/>
+      <c r="C61" s="23"/>
     </row>
     <row r="62">
-      <c r="C62" s="25"/>
+      <c r="C62" s="23"/>
     </row>
     <row r="63">
-      <c r="C63" s="25"/>
+      <c r="C63" s="23"/>
     </row>
     <row r="64">
-      <c r="C64" s="25"/>
+      <c r="C64" s="23"/>
     </row>
     <row r="65">
-      <c r="C65" s="25"/>
+      <c r="C65" s="23"/>
     </row>
     <row r="66">
-      <c r="C66" s="25"/>
+      <c r="C66" s="23"/>
     </row>
     <row r="67">
-      <c r="C67" s="25"/>
+      <c r="C67" s="23"/>
     </row>
     <row r="68">
-      <c r="C68" s="25"/>
+      <c r="C68" s="23"/>
     </row>
     <row r="69">
-      <c r="C69" s="25"/>
+      <c r="C69" s="23"/>
     </row>
     <row r="70">
-      <c r="C70" s="25"/>
+      <c r="C70" s="23"/>
     </row>
     <row r="71">
-      <c r="C71" s="25"/>
+      <c r="C71" s="23"/>
     </row>
     <row r="72">
-      <c r="C72" s="25"/>
+      <c r="C72" s="23"/>
     </row>
     <row r="73">
-      <c r="C73" s="25"/>
+      <c r="C73" s="23"/>
     </row>
     <row r="74">
-      <c r="C74" s="25"/>
+      <c r="C74" s="23"/>
     </row>
     <row r="75">
-      <c r="C75" s="25"/>
+      <c r="C75" s="23"/>
     </row>
     <row r="76">
-      <c r="C76" s="25"/>
+      <c r="C76" s="23"/>
     </row>
     <row r="77">
-      <c r="C77" s="25"/>
+      <c r="C77" s="23"/>
     </row>
     <row r="78">
-      <c r="C78" s="25"/>
+      <c r="C78" s="23"/>
     </row>
     <row r="79">
-      <c r="C79" s="25"/>
+      <c r="C79" s="23"/>
     </row>
     <row r="80">
-      <c r="C80" s="25"/>
+      <c r="C80" s="23"/>
     </row>
     <row r="81">
-      <c r="C81" s="25"/>
+      <c r="C81" s="23"/>
     </row>
     <row r="82">
-      <c r="C82" s="25"/>
+      <c r="C82" s="23"/>
     </row>
     <row r="83">
-      <c r="C83" s="25"/>
+      <c r="C83" s="23"/>
     </row>
     <row r="84">
-      <c r="C84" s="25"/>
+      <c r="C84" s="23"/>
     </row>
     <row r="85">
-      <c r="C85" s="25"/>
+      <c r="C85" s="23"/>
     </row>
     <row r="86">
-      <c r="C86" s="25"/>
+      <c r="C86" s="23"/>
     </row>
     <row r="87">
-      <c r="C87" s="25"/>
+      <c r="C87" s="23"/>
     </row>
     <row r="88">
-      <c r="C88" s="25"/>
+      <c r="C88" s="23"/>
     </row>
     <row r="89">
-      <c r="C89" s="25"/>
+      <c r="C89" s="23"/>
     </row>
     <row r="90">
-      <c r="C90" s="25"/>
+      <c r="C90" s="23"/>
     </row>
     <row r="91">
-      <c r="C91" s="25"/>
+      <c r="C91" s="23"/>
     </row>
     <row r="92">
-      <c r="C92" s="25"/>
+      <c r="C92" s="23"/>
     </row>
     <row r="93">
-      <c r="C93" s="25"/>
+      <c r="C93" s="23"/>
     </row>
     <row r="94">
-      <c r="C94" s="25"/>
+      <c r="C94" s="23"/>
     </row>
     <row r="95">
-      <c r="C95" s="25"/>
+      <c r="C95" s="23"/>
     </row>
     <row r="96">
-      <c r="C96" s="25"/>
+      <c r="C96" s="23"/>
     </row>
     <row r="97">
-      <c r="C97" s="25"/>
+      <c r="C97" s="23"/>
     </row>
     <row r="98">
-      <c r="C98" s="25"/>
+      <c r="C98" s="23"/>
     </row>
     <row r="99">
-      <c r="C99" s="25"/>
+      <c r="C99" s="23"/>
     </row>
     <row r="100">
-      <c r="C100" s="25"/>
+      <c r="C100" s="23"/>
     </row>
     <row r="101">
-      <c r="C101" s="25"/>
+      <c r="C101" s="23"/>
     </row>
     <row r="102">
-      <c r="C102" s="25"/>
+      <c r="C102" s="23"/>
     </row>
     <row r="103">
-      <c r="C103" s="25"/>
+      <c r="C103" s="23"/>
     </row>
     <row r="104">
-      <c r="C104" s="25"/>
+      <c r="C104" s="23"/>
     </row>
     <row r="105">
-      <c r="C105" s="25"/>
+      <c r="C105" s="23"/>
     </row>
     <row r="106">
-      <c r="C106" s="25"/>
+      <c r="C106" s="23"/>
     </row>
     <row r="107">
-      <c r="C107" s="25"/>
+      <c r="C107" s="23"/>
     </row>
     <row r="108">
-      <c r="C108" s="25"/>
+      <c r="C108" s="23"/>
     </row>
     <row r="109">
-      <c r="C109" s="25"/>
+      <c r="C109" s="23"/>
     </row>
     <row r="110">
-      <c r="C110" s="25"/>
+      <c r="C110" s="23"/>
     </row>
     <row r="111">
-      <c r="C111" s="25"/>
+      <c r="C111" s="23"/>
     </row>
     <row r="112">
-      <c r="C112" s="25"/>
+      <c r="C112" s="23"/>
     </row>
     <row r="113">
-      <c r="C113" s="25"/>
+      <c r="C113" s="23"/>
     </row>
     <row r="114">
-      <c r="C114" s="25"/>
+      <c r="C114" s="23"/>
     </row>
     <row r="115">
-      <c r="C115" s="25"/>
+      <c r="C115" s="23"/>
     </row>
     <row r="116">
-      <c r="C116" s="25"/>
+      <c r="C116" s="23"/>
     </row>
     <row r="117">
-      <c r="C117" s="25"/>
+      <c r="C117" s="23"/>
     </row>
     <row r="118">
-      <c r="C118" s="25"/>
+      <c r="C118" s="23"/>
     </row>
     <row r="119">
-      <c r="C119" s="25"/>
+      <c r="C119" s="23"/>
     </row>
     <row r="120">
-      <c r="C120" s="25"/>
+      <c r="C120" s="23"/>
     </row>
     <row r="121">
-      <c r="C121" s="25"/>
+      <c r="C121" s="23"/>
     </row>
     <row r="122">
-      <c r="C122" s="25"/>
+      <c r="C122" s="23"/>
     </row>
     <row r="123">
-      <c r="C123" s="25"/>
+      <c r="C123" s="23"/>
     </row>
     <row r="124">
-      <c r="C124" s="25"/>
+      <c r="C124" s="23"/>
     </row>
     <row r="125">
-      <c r="C125" s="25"/>
+      <c r="C125" s="23"/>
     </row>
     <row r="126">
-      <c r="C126" s="25"/>
+      <c r="C126" s="23"/>
     </row>
     <row r="127">
-      <c r="C127" s="25"/>
+      <c r="C127" s="23"/>
     </row>
     <row r="128">
-      <c r="C128" s="25"/>
+      <c r="C128" s="23"/>
     </row>
     <row r="129">
-      <c r="C129" s="25"/>
+      <c r="C129" s="23"/>
     </row>
     <row r="130">
-      <c r="C130" s="25"/>
+      <c r="C130" s="23"/>
     </row>
     <row r="131">
-      <c r="C131" s="25"/>
+      <c r="C131" s="23"/>
     </row>
     <row r="132">
-      <c r="C132" s="25"/>
+      <c r="C132" s="23"/>
     </row>
     <row r="133">
-      <c r="C133" s="25"/>
+      <c r="C133" s="23"/>
     </row>
     <row r="134">
-      <c r="C134" s="25"/>
+      <c r="C134" s="23"/>
     </row>
     <row r="135">
-      <c r="C135" s="25"/>
+      <c r="C135" s="23"/>
     </row>
     <row r="136">
-      <c r="C136" s="25"/>
+      <c r="C136" s="23"/>
     </row>
     <row r="137">
-      <c r="C137" s="25"/>
+      <c r="C137" s="23"/>
     </row>
     <row r="138">
-      <c r="C138" s="25"/>
+      <c r="C138" s="23"/>
     </row>
     <row r="139">
-      <c r="C139" s="25"/>
+      <c r="C139" s="23"/>
     </row>
     <row r="140">
-      <c r="C140" s="25"/>
+      <c r="C140" s="23"/>
     </row>
     <row r="141">
-      <c r="C141" s="25"/>
+      <c r="C141" s="23"/>
     </row>
     <row r="142">
-      <c r="C142" s="25"/>
+      <c r="C142" s="23"/>
     </row>
     <row r="143">
-      <c r="C143" s="25"/>
+      <c r="C143" s="23"/>
     </row>
     <row r="144">
-      <c r="C144" s="25"/>
+      <c r="C144" s="23"/>
     </row>
     <row r="145">
-      <c r="C145" s="25"/>
+      <c r="C145" s="23"/>
     </row>
     <row r="146">
-      <c r="C146" s="25"/>
+      <c r="C146" s="23"/>
     </row>
     <row r="147">
-      <c r="C147" s="25"/>
+      <c r="C147" s="23"/>
     </row>
     <row r="148">
-      <c r="C148" s="25"/>
+      <c r="C148" s="23"/>
     </row>
     <row r="149">
-      <c r="C149" s="25"/>
+      <c r="C149" s="23"/>
     </row>
     <row r="150">
-      <c r="C150" s="25"/>
+      <c r="C150" s="23"/>
     </row>
     <row r="151">
-      <c r="C151" s="25"/>
+      <c r="C151" s="23"/>
     </row>
     <row r="152">
-      <c r="C152" s="25"/>
+      <c r="C152" s="23"/>
     </row>
     <row r="153">
-      <c r="C153" s="25"/>
+      <c r="C153" s="23"/>
     </row>
     <row r="154">
-      <c r="C154" s="25"/>
+      <c r="C154" s="23"/>
     </row>
     <row r="155">
-      <c r="C155" s="25"/>
+      <c r="C155" s="23"/>
     </row>
     <row r="156">
-      <c r="C156" s="25"/>
+      <c r="C156" s="23"/>
     </row>
     <row r="157">
-      <c r="C157" s="25"/>
+      <c r="C157" s="23"/>
     </row>
     <row r="158">
-      <c r="C158" s="25"/>
+      <c r="C158" s="23"/>
     </row>
     <row r="159">
-      <c r="C159" s="25"/>
+      <c r="C159" s="23"/>
     </row>
     <row r="160">
-      <c r="C160" s="25"/>
+      <c r="C160" s="23"/>
     </row>
     <row r="161">
-      <c r="C161" s="25"/>
+      <c r="C161" s="23"/>
     </row>
     <row r="162">
-      <c r="C162" s="25"/>
+      <c r="C162" s="23"/>
     </row>
     <row r="163">
-      <c r="C163" s="25"/>
+      <c r="C163" s="23"/>
     </row>
     <row r="164">
-      <c r="C164" s="25"/>
+      <c r="C164" s="23"/>
     </row>
     <row r="165">
-      <c r="C165" s="25"/>
+      <c r="C165" s="23"/>
     </row>
     <row r="166">
-      <c r="C166" s="25"/>
+      <c r="C166" s="23"/>
     </row>
     <row r="167">
-      <c r="C167" s="25"/>
+      <c r="C167" s="23"/>
     </row>
     <row r="168">
-      <c r="C168" s="25"/>
+      <c r="C168" s="23"/>
     </row>
     <row r="169">
-      <c r="C169" s="25"/>
+      <c r="C169" s="23"/>
     </row>
     <row r="170">
-      <c r="C170" s="25"/>
+      <c r="C170" s="23"/>
     </row>
     <row r="171">
-      <c r="C171" s="25"/>
+      <c r="C171" s="23"/>
     </row>
     <row r="172">
-      <c r="C172" s="25"/>
+      <c r="C172" s="23"/>
     </row>
     <row r="173">
-      <c r="C173" s="25"/>
+      <c r="C173" s="23"/>
     </row>
     <row r="174">
-      <c r="C174" s="25"/>
+      <c r="C174" s="23"/>
     </row>
     <row r="175">
-      <c r="C175" s="25"/>
+      <c r="C175" s="23"/>
     </row>
     <row r="176">
-      <c r="C176" s="25"/>
+      <c r="C176" s="23"/>
     </row>
     <row r="177">
-      <c r="C177" s="25"/>
+      <c r="C177" s="23"/>
     </row>
     <row r="178">
-      <c r="C178" s="25"/>
+      <c r="C178" s="23"/>
     </row>
     <row r="179">
-      <c r="C179" s="25"/>
+      <c r="C179" s="23"/>
     </row>
     <row r="180">
-      <c r="C180" s="25"/>
+      <c r="C180" s="23"/>
     </row>
     <row r="181">
-      <c r="C181" s="25"/>
+      <c r="C181" s="23"/>
     </row>
     <row r="182">
-      <c r="C182" s="25"/>
+      <c r="C182" s="23"/>
     </row>
     <row r="183">
-      <c r="C183" s="25"/>
+      <c r="C183" s="23"/>
     </row>
     <row r="184">
-      <c r="C184" s="25"/>
+      <c r="C184" s="23"/>
     </row>
     <row r="185">
-      <c r="C185" s="25"/>
+      <c r="C185" s="23"/>
     </row>
     <row r="186">
-      <c r="C186" s="25"/>
+      <c r="C186" s="23"/>
     </row>
     <row r="187">
-      <c r="C187" s="25"/>
+      <c r="C187" s="23"/>
     </row>
     <row r="188">
-      <c r="C188" s="25"/>
+      <c r="C188" s="23"/>
     </row>
     <row r="189">
-      <c r="C189" s="25"/>
+      <c r="C189" s="23"/>
     </row>
     <row r="190">
-      <c r="C190" s="25"/>
+      <c r="C190" s="23"/>
     </row>
     <row r="191">
-      <c r="C191" s="25"/>
+      <c r="C191" s="23"/>
     </row>
     <row r="192">
-      <c r="C192" s="25"/>
+      <c r="C192" s="23"/>
     </row>
     <row r="193">
-      <c r="C193" s="25"/>
+      <c r="C193" s="23"/>
     </row>
     <row r="194">
-      <c r="C194" s="25"/>
+      <c r="C194" s="23"/>
     </row>
     <row r="195">
-      <c r="C195" s="25"/>
+      <c r="C195" s="23"/>
     </row>
     <row r="196">
-      <c r="C196" s="25"/>
+      <c r="C196" s="23"/>
     </row>
     <row r="197">
-      <c r="C197" s="25"/>
+      <c r="C197" s="23"/>
     </row>
     <row r="198">
-      <c r="C198" s="25"/>
+      <c r="C198" s="23"/>
     </row>
     <row r="199">
-      <c r="C199" s="25"/>
+      <c r="C199" s="23"/>
     </row>
     <row r="200">
-      <c r="C200" s="25"/>
+      <c r="C200" s="23"/>
     </row>
     <row r="201">
-      <c r="C201" s="25"/>
+      <c r="C201" s="23"/>
     </row>
     <row r="202">
-      <c r="C202" s="25"/>
+      <c r="C202" s="23"/>
     </row>
     <row r="203">
-      <c r="C203" s="25"/>
+      <c r="C203" s="23"/>
     </row>
     <row r="204">
-      <c r="C204" s="25"/>
+      <c r="C204" s="23"/>
     </row>
     <row r="205">
-      <c r="C205" s="25"/>
+      <c r="C205" s="23"/>
     </row>
     <row r="206">
-      <c r="C206" s="25"/>
+      <c r="C206" s="23"/>
     </row>
     <row r="207">
-      <c r="C207" s="25"/>
+      <c r="C207" s="23"/>
     </row>
     <row r="208">
-      <c r="C208" s="25"/>
+      <c r="C208" s="23"/>
     </row>
     <row r="209">
-      <c r="C209" s="25"/>
+      <c r="C209" s="23"/>
     </row>
     <row r="210">
-      <c r="C210" s="25"/>
+      <c r="C210" s="23"/>
     </row>
     <row r="211">
-      <c r="C211" s="25"/>
+      <c r="C211" s="23"/>
     </row>
     <row r="212">
-      <c r="C212" s="25"/>
+      <c r="C212" s="23"/>
     </row>
     <row r="213">
-      <c r="C213" s="25"/>
+      <c r="C213" s="23"/>
     </row>
     <row r="214">
-      <c r="C214" s="25"/>
+      <c r="C214" s="23"/>
     </row>
     <row r="215">
-      <c r="C215" s="25"/>
+      <c r="C215" s="23"/>
     </row>
     <row r="216">
-      <c r="C216" s="25"/>
+      <c r="C216" s="23"/>
     </row>
     <row r="217">
-      <c r="C217" s="25"/>
+      <c r="C217" s="23"/>
     </row>
     <row r="218">
-      <c r="C218" s="25"/>
+      <c r="C218" s="23"/>
     </row>
     <row r="219">
-      <c r="C219" s="25"/>
+      <c r="C219" s="23"/>
     </row>
     <row r="220">
-      <c r="C220" s="25"/>
+      <c r="C220" s="23"/>
     </row>
     <row r="221">
-      <c r="C221" s="25"/>
+      <c r="C221" s="23"/>
     </row>
     <row r="222">
-      <c r="C222" s="25"/>
+      <c r="C222" s="23"/>
     </row>
     <row r="223">
-      <c r="C223" s="25"/>
+      <c r="C223" s="23"/>
     </row>
     <row r="224">
-      <c r="C224" s="25"/>
+      <c r="C224" s="23"/>
     </row>
     <row r="225">
-      <c r="C225" s="25"/>
+      <c r="C225" s="23"/>
     </row>
     <row r="226">
-      <c r="C226" s="25"/>
+      <c r="C226" s="23"/>
     </row>
     <row r="227">
-      <c r="C227" s="25"/>
+      <c r="C227" s="23"/>
     </row>
     <row r="228">
-      <c r="C228" s="25"/>
+      <c r="C228" s="23"/>
     </row>
     <row r="229">
-      <c r="C229" s="25"/>
+      <c r="C229" s="23"/>
     </row>
     <row r="230">
-      <c r="C230" s="25"/>
+      <c r="C230" s="23"/>
     </row>
     <row r="231">
-      <c r="C231" s="25"/>
+      <c r="C231" s="23"/>
     </row>
     <row r="232">
-      <c r="C232" s="25"/>
+      <c r="C232" s="23"/>
     </row>
     <row r="233">
-      <c r="C233" s="25"/>
+      <c r="C233" s="23"/>
     </row>
     <row r="234">
-      <c r="C234" s="25"/>
+      <c r="C234" s="23"/>
     </row>
     <row r="235">
-      <c r="C235" s="25"/>
+      <c r="C235" s="23"/>
     </row>
     <row r="236">
-      <c r="C236" s="25"/>
+      <c r="C236" s="23"/>
     </row>
     <row r="237">
-      <c r="C237" s="25"/>
+      <c r="C237" s="23"/>
     </row>
     <row r="238">
-      <c r="C238" s="25"/>
+      <c r="C238" s="23"/>
     </row>
     <row r="239">
-      <c r="C239" s="25"/>
+      <c r="C239" s="23"/>
     </row>
     <row r="240">
-      <c r="C240" s="25"/>
+      <c r="C240" s="23"/>
     </row>
     <row r="241">
-      <c r="C241" s="25"/>
+      <c r="C241" s="23"/>
     </row>
     <row r="242">
-      <c r="C242" s="25"/>
+      <c r="C242" s="23"/>
     </row>
     <row r="243">
-      <c r="C243" s="25"/>
+      <c r="C243" s="23"/>
     </row>
     <row r="244">
-      <c r="C244" s="25"/>
+      <c r="C244" s="23"/>
     </row>
     <row r="245">
-      <c r="C245" s="25"/>
+      <c r="C245" s="23"/>
     </row>
     <row r="246">
-      <c r="C246" s="25"/>
+      <c r="C246" s="23"/>
     </row>
     <row r="247">
-      <c r="C247" s="25"/>
+      <c r="C247" s="23"/>
     </row>
     <row r="248">
-      <c r="C248" s="25"/>
+      <c r="C248" s="23"/>
     </row>
     <row r="249">
-      <c r="C249" s="25"/>
+      <c r="C249" s="23"/>
     </row>
     <row r="250">
-      <c r="C250" s="25"/>
+      <c r="C250" s="23"/>
     </row>
     <row r="251">
-      <c r="C251" s="25"/>
+      <c r="C251" s="23"/>
     </row>
     <row r="252">
-      <c r="C252" s="25"/>
+      <c r="C252" s="23"/>
     </row>
     <row r="253">
-      <c r="C253" s="25"/>
+      <c r="C253" s="23"/>
     </row>
     <row r="254">
-      <c r="C254" s="25"/>
+      <c r="C254" s="23"/>
     </row>
     <row r="255">
-      <c r="C255" s="25"/>
+      <c r="C255" s="23"/>
     </row>
     <row r="256">
-      <c r="C256" s="25"/>
+      <c r="C256" s="23"/>
     </row>
     <row r="257">
-      <c r="C257" s="25"/>
+      <c r="C257" s="23"/>
     </row>
     <row r="258">
-      <c r="C258" s="25"/>
+      <c r="C258" s="23"/>
     </row>
     <row r="259">
-      <c r="C259" s="25"/>
+      <c r="C259" s="23"/>
     </row>
     <row r="260">
-      <c r="C260" s="25"/>
+      <c r="C260" s="23"/>
     </row>
     <row r="261">
-      <c r="C261" s="25"/>
+      <c r="C261" s="23"/>
     </row>
     <row r="262">
-      <c r="C262" s="25"/>
+      <c r="C262" s="23"/>
     </row>
     <row r="263">
-      <c r="C263" s="25"/>
+      <c r="C263" s="23"/>
     </row>
     <row r="264">
-      <c r="C264" s="25"/>
+      <c r="C264" s="23"/>
     </row>
     <row r="265">
-      <c r="C265" s="25"/>
+      <c r="C265" s="23"/>
     </row>
     <row r="266">
-      <c r="C266" s="25"/>
+      <c r="C266" s="23"/>
     </row>
     <row r="267">
-      <c r="C267" s="25"/>
+      <c r="C267" s="23"/>
     </row>
     <row r="268">
-      <c r="C268" s="25"/>
+      <c r="C268" s="23"/>
     </row>
     <row r="269">
-      <c r="C269" s="25"/>
+      <c r="C269" s="23"/>
     </row>
     <row r="270">
-      <c r="C270" s="25"/>
+      <c r="C270" s="23"/>
     </row>
     <row r="271">
-      <c r="C271" s="25"/>
+      <c r="C271" s="23"/>
     </row>
     <row r="272">
-      <c r="C272" s="25"/>
+      <c r="C272" s="23"/>
     </row>
     <row r="273">
-      <c r="C273" s="25"/>
+      <c r="C273" s="23"/>
     </row>
     <row r="274">
-      <c r="C274" s="25"/>
+      <c r="C274" s="23"/>
     </row>
     <row r="275">
-      <c r="C275" s="25"/>
+      <c r="C275" s="23"/>
     </row>
     <row r="276">
-      <c r="C276" s="25"/>
+      <c r="C276" s="23"/>
     </row>
     <row r="277">
-      <c r="C277" s="25"/>
+      <c r="C277" s="23"/>
     </row>
     <row r="278">
-      <c r="C278" s="25"/>
+      <c r="C278" s="23"/>
     </row>
     <row r="279">
-      <c r="C279" s="25"/>
+      <c r="C279" s="23"/>
     </row>
     <row r="280">
-      <c r="C280" s="25"/>
+      <c r="C280" s="23"/>
     </row>
     <row r="281">
-      <c r="C281" s="25"/>
+      <c r="C281" s="23"/>
     </row>
     <row r="282">
-      <c r="C282" s="25"/>
+      <c r="C282" s="23"/>
     </row>
     <row r="283">
-      <c r="C283" s="25"/>
+      <c r="C283" s="23"/>
     </row>
     <row r="284">
-      <c r="C284" s="25"/>
+      <c r="C284" s="23"/>
     </row>
     <row r="285">
-      <c r="C285" s="25"/>
+      <c r="C285" s="23"/>
     </row>
     <row r="286">
-      <c r="C286" s="25"/>
+      <c r="C286" s="23"/>
     </row>
     <row r="287">
-      <c r="C287" s="25"/>
+      <c r="C287" s="23"/>
     </row>
     <row r="288">
-      <c r="C288" s="25"/>
+      <c r="C288" s="23"/>
     </row>
     <row r="289">
-      <c r="C289" s="25"/>
+      <c r="C289" s="23"/>
     </row>
     <row r="290">
-      <c r="C290" s="25"/>
+      <c r="C290" s="23"/>
     </row>
     <row r="291">
-      <c r="C291" s="25"/>
+      <c r="C291" s="23"/>
     </row>
     <row r="292">
-      <c r="C292" s="25"/>
+      <c r="C292" s="23"/>
     </row>
     <row r="293">
-      <c r="C293" s="25"/>
+      <c r="C293" s="23"/>
     </row>
     <row r="294">
-      <c r="C294" s="25"/>
+      <c r="C294" s="23"/>
     </row>
     <row r="295">
-      <c r="C295" s="25"/>
+      <c r="C295" s="23"/>
     </row>
     <row r="296">
-      <c r="C296" s="25"/>
+      <c r="C296" s="23"/>
     </row>
     <row r="297">
-      <c r="C297" s="25"/>
+      <c r="C297" s="23"/>
     </row>
     <row r="298">
-      <c r="C298" s="25"/>
+      <c r="C298" s="23"/>
     </row>
     <row r="299">
-      <c r="C299" s="25"/>
+      <c r="C299" s="23"/>
     </row>
     <row r="300">
-      <c r="C300" s="25"/>
+      <c r="C300" s="23"/>
     </row>
     <row r="301">
-      <c r="C301" s="25"/>
+      <c r="C301" s="23"/>
     </row>
     <row r="302">
-      <c r="C302" s="25"/>
+      <c r="C302" s="23"/>
     </row>
     <row r="303">
-      <c r="C303" s="25"/>
+      <c r="C303" s="23"/>
     </row>
     <row r="304">
-      <c r="C304" s="25"/>
+      <c r="C304" s="23"/>
     </row>
     <row r="305">
-      <c r="C305" s="25"/>
+      <c r="C305" s="23"/>
     </row>
     <row r="306">
-      <c r="C306" s="25"/>
+      <c r="C306" s="23"/>
     </row>
     <row r="307">
-      <c r="C307" s="25"/>
+      <c r="C307" s="23"/>
     </row>
     <row r="308">
-      <c r="C308" s="25"/>
+      <c r="C308" s="23"/>
     </row>
     <row r="309">
-      <c r="C309" s="25"/>
+      <c r="C309" s="23"/>
     </row>
     <row r="310">
-      <c r="C310" s="25"/>
+      <c r="C310" s="23"/>
     </row>
     <row r="311">
-      <c r="C311" s="25"/>
+      <c r="C311" s="23"/>
     </row>
     <row r="312">
-      <c r="C312" s="25"/>
+      <c r="C312" s="23"/>
     </row>
     <row r="313">
-      <c r="C313" s="25"/>
+      <c r="C313" s="23"/>
     </row>
     <row r="314">
-      <c r="C314" s="25"/>
+      <c r="C314" s="23"/>
     </row>
     <row r="315">
-      <c r="C315" s="25"/>
+      <c r="C315" s="23"/>
     </row>
     <row r="316">
-      <c r="C316" s="25"/>
+      <c r="C316" s="23"/>
     </row>
     <row r="317">
-      <c r="C317" s="25"/>
+      <c r="C317" s="23"/>
     </row>
     <row r="318">
-      <c r="C318" s="25"/>
+      <c r="C318" s="23"/>
     </row>
     <row r="319">
-      <c r="C319" s="25"/>
+      <c r="C319" s="23"/>
     </row>
     <row r="320">
-      <c r="C320" s="25"/>
+      <c r="C320" s="23"/>
     </row>
     <row r="321">
-      <c r="C321" s="25"/>
+      <c r="C321" s="23"/>
     </row>
     <row r="322">
-      <c r="C322" s="25"/>
+      <c r="C322" s="23"/>
     </row>
     <row r="323">
-      <c r="C323" s="25"/>
+      <c r="C323" s="23"/>
     </row>
     <row r="324">
-      <c r="C324" s="25"/>
+      <c r="C324" s="23"/>
     </row>
     <row r="325">
-      <c r="C325" s="25"/>
+      <c r="C325" s="23"/>
     </row>
     <row r="326">
-      <c r="C326" s="25"/>
+      <c r="C326" s="23"/>
     </row>
     <row r="327">
-      <c r="C327" s="25"/>
+      <c r="C327" s="23"/>
     </row>
     <row r="328">
-      <c r="C328" s="25"/>
+      <c r="C328" s="23"/>
     </row>
     <row r="329">
-      <c r="C329" s="25"/>
+      <c r="C329" s="23"/>
     </row>
     <row r="330">
-      <c r="C330" s="25"/>
+      <c r="C330" s="23"/>
     </row>
     <row r="331">
-      <c r="C331" s="25"/>
+      <c r="C331" s="23"/>
     </row>
     <row r="332">
-      <c r="C332" s="25"/>
+      <c r="C332" s="23"/>
     </row>
     <row r="333">
-      <c r="C333" s="25"/>
+      <c r="C333" s="23"/>
     </row>
     <row r="334">
-      <c r="C334" s="25"/>
+      <c r="C334" s="23"/>
     </row>
     <row r="335">
-      <c r="C335" s="25"/>
+      <c r="C335" s="23"/>
     </row>
     <row r="336">
-      <c r="C336" s="25"/>
+      <c r="C336" s="23"/>
     </row>
     <row r="337">
-      <c r="C337" s="25"/>
+      <c r="C337" s="23"/>
     </row>
     <row r="338">
-      <c r="C338" s="25"/>
+      <c r="C338" s="23"/>
     </row>
     <row r="339">
-      <c r="C339" s="25"/>
+      <c r="C339" s="23"/>
     </row>
     <row r="340">
-      <c r="C340" s="25"/>
+      <c r="C340" s="23"/>
     </row>
     <row r="341">
-      <c r="C341" s="25"/>
+      <c r="C341" s="23"/>
     </row>
     <row r="342">
-      <c r="C342" s="25"/>
+      <c r="C342" s="23"/>
     </row>
     <row r="343">
-      <c r="C343" s="25"/>
+      <c r="C343" s="23"/>
     </row>
     <row r="344">
-      <c r="C344" s="25"/>
+      <c r="C344" s="23"/>
     </row>
     <row r="345">
-      <c r="C345" s="25"/>
+      <c r="C345" s="23"/>
     </row>
     <row r="346">
-      <c r="C346" s="25"/>
+      <c r="C346" s="23"/>
     </row>
     <row r="347">
-      <c r="C347" s="25"/>
+      <c r="C347" s="23"/>
     </row>
     <row r="348">
-      <c r="C348" s="25"/>
+      <c r="C348" s="23"/>
     </row>
     <row r="349">
-      <c r="C349" s="25"/>
+      <c r="C349" s="23"/>
     </row>
     <row r="350">
-      <c r="C350" s="25"/>
+      <c r="C350" s="23"/>
     </row>
     <row r="351">
-      <c r="C351" s="25"/>
+      <c r="C351" s="23"/>
     </row>
     <row r="352">
-      <c r="C352" s="25"/>
+      <c r="C352" s="23"/>
     </row>
     <row r="353">
-      <c r="C353" s="25"/>
+      <c r="C353" s="23"/>
     </row>
     <row r="354">
-      <c r="C354" s="25"/>
+      <c r="C354" s="23"/>
     </row>
     <row r="355">
-      <c r="C355" s="25"/>
+      <c r="C355" s="23"/>
     </row>
     <row r="356">
-      <c r="C356" s="25"/>
+      <c r="C356" s="23"/>
     </row>
     <row r="357">
-      <c r="C357" s="25"/>
+      <c r="C357" s="23"/>
     </row>
     <row r="358">
-      <c r="C358" s="25"/>
+      <c r="C358" s="23"/>
     </row>
     <row r="359">
-      <c r="C359" s="25"/>
+      <c r="C359" s="23"/>
     </row>
     <row r="360">
-      <c r="C360" s="25"/>
+      <c r="C360" s="23"/>
     </row>
     <row r="361">
-      <c r="C361" s="25"/>
+      <c r="C361" s="23"/>
     </row>
     <row r="362">
-      <c r="C362" s="25"/>
+      <c r="C362" s="23"/>
     </row>
     <row r="363">
-      <c r="C363" s="25"/>
+      <c r="C363" s="23"/>
     </row>
     <row r="364">
-      <c r="C364" s="25"/>
+      <c r="C364" s="23"/>
     </row>
     <row r="365">
-      <c r="C365" s="25"/>
+      <c r="C365" s="23"/>
     </row>
     <row r="366">
-      <c r="C366" s="25"/>
+      <c r="C366" s="23"/>
     </row>
     <row r="367">
-      <c r="C367" s="25"/>
+      <c r="C367" s="23"/>
     </row>
     <row r="368">
-      <c r="C368" s="25"/>
+      <c r="C368" s="23"/>
     </row>
     <row r="369">
-      <c r="C369" s="25"/>
+      <c r="C369" s="23"/>
     </row>
     <row r="370">
-      <c r="C370" s="25"/>
+      <c r="C370" s="23"/>
     </row>
     <row r="371">
-      <c r="C371" s="25"/>
+      <c r="C371" s="23"/>
     </row>
     <row r="372">
-      <c r="C372" s="25"/>
+      <c r="C372" s="23"/>
     </row>
     <row r="373">
-      <c r="C373" s="25"/>
+      <c r="C373" s="23"/>
     </row>
     <row r="374">
-      <c r="C374" s="25"/>
+      <c r="C374" s="23"/>
     </row>
     <row r="375">
-      <c r="C375" s="25"/>
+      <c r="C375" s="23"/>
     </row>
     <row r="376">
-      <c r="C376" s="25"/>
+      <c r="C376" s="23"/>
     </row>
     <row r="377">
-      <c r="C377" s="25"/>
+      <c r="C377" s="23"/>
     </row>
     <row r="378">
-      <c r="C378" s="25"/>
+      <c r="C378" s="23"/>
     </row>
     <row r="379">
-      <c r="C379" s="25"/>
+      <c r="C379" s="23"/>
     </row>
     <row r="380">
-      <c r="C380" s="25"/>
+      <c r="C380" s="23"/>
     </row>
     <row r="381">
-      <c r="C381" s="25"/>
+      <c r="C381" s="23"/>
     </row>
     <row r="382">
-      <c r="C382" s="25"/>
+      <c r="C382" s="23"/>
     </row>
     <row r="383">
-      <c r="C383" s="25"/>
+      <c r="C383" s="23"/>
     </row>
     <row r="384">
-      <c r="C384" s="25"/>
+      <c r="C384" s="23"/>
     </row>
     <row r="385">
-      <c r="C385" s="25"/>
+      <c r="C385" s="23"/>
     </row>
     <row r="386">
-      <c r="C386" s="25"/>
+      <c r="C386" s="23"/>
     </row>
     <row r="387">
-      <c r="C387" s="25"/>
+      <c r="C387" s="23"/>
     </row>
     <row r="388">
-      <c r="C388" s="25"/>
+      <c r="C388" s="23"/>
     </row>
     <row r="389">
-      <c r="C389" s="25"/>
+      <c r="C389" s="23"/>
     </row>
     <row r="390">
-      <c r="C390" s="25"/>
+      <c r="C390" s="23"/>
     </row>
     <row r="391">
-      <c r="C391" s="25"/>
+      <c r="C391" s="23"/>
     </row>
     <row r="392">
-      <c r="C392" s="25"/>
+      <c r="C392" s="23"/>
     </row>
     <row r="393">
-      <c r="C393" s="25"/>
+      <c r="C393" s="23"/>
     </row>
     <row r="394">
-      <c r="C394" s="25"/>
+      <c r="C394" s="23"/>
     </row>
     <row r="395">
-      <c r="C395" s="25"/>
+      <c r="C395" s="23"/>
     </row>
     <row r="396">
-      <c r="C396" s="25"/>
+      <c r="C396" s="23"/>
     </row>
     <row r="397">
-      <c r="C397" s="25"/>
+      <c r="C397" s="23"/>
     </row>
     <row r="398">
-      <c r="C398" s="25"/>
+      <c r="C398" s="23"/>
     </row>
     <row r="399">
-      <c r="C399" s="25"/>
+      <c r="C399" s="23"/>
     </row>
     <row r="400">
-      <c r="C400" s="25"/>
+      <c r="C400" s="23"/>
     </row>
     <row r="401">
-      <c r="C401" s="25"/>
+      <c r="C401" s="23"/>
     </row>
     <row r="402">
-      <c r="C402" s="25"/>
+      <c r="C402" s="23"/>
     </row>
     <row r="403">
-      <c r="C403" s="25"/>
+      <c r="C403" s="23"/>
     </row>
     <row r="404">
-      <c r="C404" s="25"/>
+      <c r="C404" s="23"/>
     </row>
     <row r="405">
-      <c r="C405" s="25"/>
+      <c r="C405" s="23"/>
     </row>
     <row r="406">
-      <c r="C406" s="25"/>
+      <c r="C406" s="23"/>
     </row>
     <row r="407">
-      <c r="C407" s="25"/>
+      <c r="C407" s="23"/>
     </row>
     <row r="408">
-      <c r="C408" s="25"/>
+      <c r="C408" s="23"/>
     </row>
     <row r="409">
-      <c r="C409" s="25"/>
+      <c r="C409" s="23"/>
     </row>
     <row r="410">
-      <c r="C410" s="25"/>
+      <c r="C410" s="23"/>
     </row>
     <row r="411">
-      <c r="C411" s="25"/>
+      <c r="C411" s="23"/>
     </row>
     <row r="412">
-      <c r="C412" s="25"/>
+      <c r="C412" s="23"/>
     </row>
     <row r="413">
-      <c r="C413" s="25"/>
+      <c r="C413" s="23"/>
     </row>
     <row r="414">
-      <c r="C414" s="25"/>
+      <c r="C414" s="23"/>
     </row>
     <row r="415">
-      <c r="C415" s="25"/>
+      <c r="C415" s="23"/>
     </row>
     <row r="416">
-      <c r="C416" s="25"/>
+      <c r="C416" s="23"/>
     </row>
     <row r="417">
-      <c r="C417" s="25"/>
+      <c r="C417" s="23"/>
     </row>
     <row r="418">
-      <c r="C418" s="25"/>
+      <c r="C418" s="23"/>
     </row>
     <row r="419">
-      <c r="C419" s="25"/>
+      <c r="C419" s="23"/>
     </row>
     <row r="420">
-      <c r="C420" s="25"/>
+      <c r="C420" s="23"/>
     </row>
     <row r="421">
-      <c r="C421" s="25"/>
+      <c r="C421" s="23"/>
     </row>
     <row r="422">
-      <c r="C422" s="25"/>
+      <c r="C422" s="23"/>
     </row>
     <row r="423">
-      <c r="C423" s="25"/>
+      <c r="C423" s="23"/>
     </row>
     <row r="424">
-      <c r="C424" s="25"/>
+      <c r="C424" s="23"/>
     </row>
     <row r="425">
-      <c r="C425" s="25"/>
+      <c r="C425" s="23"/>
     </row>
     <row r="426">
-      <c r="C426" s="25"/>
+      <c r="C426" s="23"/>
     </row>
     <row r="427">
-      <c r="C427" s="25"/>
+      <c r="C427" s="23"/>
     </row>
     <row r="428">
-      <c r="C428" s="25"/>
+      <c r="C428" s="23"/>
     </row>
     <row r="429">
-      <c r="C429" s="25"/>
+      <c r="C429" s="23"/>
     </row>
     <row r="430">
-      <c r="C430" s="25"/>
+      <c r="C430" s="23"/>
     </row>
     <row r="431">
-      <c r="C431" s="25"/>
+      <c r="C431" s="23"/>
     </row>
     <row r="432">
-      <c r="C432" s="25"/>
+      <c r="C432" s="23"/>
     </row>
     <row r="433">
-      <c r="C433" s="25"/>
+      <c r="C433" s="23"/>
     </row>
     <row r="434">
-      <c r="C434" s="25"/>
+      <c r="C434" s="23"/>
     </row>
     <row r="435">
-      <c r="C435" s="25"/>
+      <c r="C435" s="23"/>
     </row>
     <row r="436">
-      <c r="C436" s="25"/>
+      <c r="C436" s="23"/>
     </row>
     <row r="437">
-      <c r="C437" s="25"/>
+      <c r="C437" s="23"/>
     </row>
     <row r="438">
-      <c r="C438" s="25"/>
+      <c r="C438" s="23"/>
     </row>
     <row r="439">
-      <c r="C439" s="25"/>
+      <c r="C439" s="23"/>
     </row>
     <row r="440">
-      <c r="C440" s="25"/>
+      <c r="C440" s="23"/>
     </row>
     <row r="441">
-      <c r="C441" s="25"/>
+      <c r="C441" s="23"/>
     </row>
     <row r="442">
-      <c r="C442" s="25"/>
+      <c r="C442" s="23"/>
     </row>
     <row r="443">
-      <c r="C443" s="25"/>
+      <c r="C443" s="23"/>
     </row>
     <row r="444">
-      <c r="C444" s="25"/>
+      <c r="C444" s="23"/>
     </row>
     <row r="445">
-      <c r="C445" s="25"/>
+      <c r="C445" s="23"/>
     </row>
     <row r="446">
-      <c r="C446" s="25"/>
+      <c r="C446" s="23"/>
     </row>
     <row r="447">
-      <c r="C447" s="25"/>
+      <c r="C447" s="23"/>
     </row>
     <row r="448">
-      <c r="C448" s="25"/>
+      <c r="C448" s="23"/>
     </row>
     <row r="449">
-      <c r="C449" s="25"/>
+      <c r="C449" s="23"/>
     </row>
     <row r="450">
-      <c r="C450" s="25"/>
+      <c r="C450" s="23"/>
     </row>
     <row r="451">
-      <c r="C451" s="25"/>
+      <c r="C451" s="23"/>
     </row>
     <row r="452">
-      <c r="C452" s="25"/>
+      <c r="C452" s="23"/>
     </row>
     <row r="453">
-      <c r="C453" s="25"/>
+      <c r="C453" s="23"/>
     </row>
     <row r="454">
-      <c r="C454" s="25"/>
+      <c r="C454" s="23"/>
     </row>
     <row r="455">
-      <c r="C455" s="25"/>
+      <c r="C455" s="23"/>
     </row>
     <row r="456">
-      <c r="C456" s="25"/>
+      <c r="C456" s="23"/>
     </row>
     <row r="457">
-      <c r="C457" s="25"/>
+      <c r="C457" s="23"/>
     </row>
     <row r="458">
-      <c r="C458" s="25"/>
+      <c r="C458" s="23"/>
     </row>
     <row r="459">
-      <c r="C459" s="25"/>
+      <c r="C459" s="23"/>
     </row>
     <row r="460">
-      <c r="C460" s="25"/>
+      <c r="C460" s="23"/>
     </row>
     <row r="461">
-      <c r="C461" s="25"/>
+      <c r="C461" s="23"/>
     </row>
     <row r="462">
-      <c r="C462" s="25"/>
+      <c r="C462" s="23"/>
     </row>
     <row r="463">
-      <c r="C463" s="25"/>
+      <c r="C463" s="23"/>
     </row>
     <row r="464">
-      <c r="C464" s="25"/>
+      <c r="C464" s="23"/>
     </row>
     <row r="465">
-      <c r="C465" s="25"/>
+      <c r="C465" s="23"/>
     </row>
     <row r="466">
-      <c r="C466" s="25"/>
+      <c r="C466" s="23"/>
     </row>
     <row r="467">
-      <c r="C467" s="25"/>
+      <c r="C467" s="23"/>
     </row>
     <row r="468">
-      <c r="C468" s="25"/>
+      <c r="C468" s="23"/>
     </row>
     <row r="469">
-      <c r="C469" s="25"/>
+      <c r="C469" s="23"/>
     </row>
     <row r="470">
-      <c r="C470" s="25"/>
+      <c r="C470" s="23"/>
     </row>
     <row r="471">
-      <c r="C471" s="25"/>
+      <c r="C471" s="23"/>
     </row>
     <row r="472">
-      <c r="C472" s="25"/>
+      <c r="C472" s="23"/>
     </row>
     <row r="473">
-      <c r="C473" s="25"/>
+      <c r="C473" s="23"/>
     </row>
     <row r="474">
-      <c r="C474" s="25"/>
+      <c r="C474" s="23"/>
     </row>
     <row r="475">
-      <c r="C475" s="25"/>
+      <c r="C475" s="23"/>
     </row>
     <row r="476">
-      <c r="C476" s="25"/>
+      <c r="C476" s="23"/>
     </row>
     <row r="477">
-      <c r="C477" s="25"/>
+      <c r="C477" s="23"/>
     </row>
     <row r="478">
-      <c r="C478" s="25"/>
+      <c r="C478" s="23"/>
     </row>
     <row r="479">
-      <c r="C479" s="25"/>
+      <c r="C479" s="23"/>
     </row>
     <row r="480">
-      <c r="C480" s="25"/>
+      <c r="C480" s="23"/>
     </row>
     <row r="481">
-      <c r="C481" s="25"/>
+      <c r="C481" s="23"/>
     </row>
     <row r="482">
-      <c r="C482" s="25"/>
+      <c r="C482" s="23"/>
     </row>
     <row r="483">
-      <c r="C483" s="25"/>
+      <c r="C483" s="23"/>
     </row>
     <row r="484">
-      <c r="C484" s="25"/>
+      <c r="C484" s="23"/>
     </row>
     <row r="485">
-      <c r="C485" s="25"/>
+      <c r="C485" s="23"/>
     </row>
     <row r="486">
-      <c r="C486" s="25"/>
+      <c r="C486" s="23"/>
     </row>
     <row r="487">
-      <c r="C487" s="25"/>
+      <c r="C487" s="23"/>
     </row>
     <row r="488">
-      <c r="C488" s="25"/>
+      <c r="C488" s="23"/>
     </row>
     <row r="489">
-      <c r="C489" s="25"/>
+      <c r="C489" s="23"/>
     </row>
     <row r="490">
-      <c r="C490" s="25"/>
+      <c r="C490" s="23"/>
     </row>
     <row r="491">
-      <c r="C491" s="25"/>
+      <c r="C491" s="23"/>
     </row>
     <row r="492">
-      <c r="C492" s="25"/>
+      <c r="C492" s="23"/>
     </row>
     <row r="493">
-      <c r="C493" s="25"/>
+      <c r="C493" s="23"/>
     </row>
     <row r="494">
-      <c r="C494" s="25"/>
+      <c r="C494" s="23"/>
     </row>
     <row r="495">
-      <c r="C495" s="25"/>
+      <c r="C495" s="23"/>
     </row>
     <row r="496">
-      <c r="C496" s="25"/>
+      <c r="C496" s="23"/>
     </row>
     <row r="497">
-      <c r="C497" s="25"/>
+      <c r="C497" s="23"/>
     </row>
     <row r="498">
-      <c r="C498" s="25"/>
+      <c r="C498" s="23"/>
     </row>
     <row r="499">
-      <c r="C499" s="25"/>
+      <c r="C499" s="23"/>
     </row>
     <row r="500">
-      <c r="C500" s="25"/>
+      <c r="C500" s="23"/>
     </row>
     <row r="501">
-      <c r="C501" s="25"/>
+      <c r="C501" s="23"/>
     </row>
     <row r="502">
-      <c r="C502" s="25"/>
+      <c r="C502" s="23"/>
     </row>
     <row r="503">
-      <c r="C503" s="25"/>
+      <c r="C503" s="23"/>
     </row>
     <row r="504">
-      <c r="C504" s="25"/>
+      <c r="C504" s="23"/>
     </row>
     <row r="505">
-      <c r="C505" s="25"/>
+      <c r="C505" s="23"/>
     </row>
     <row r="506">
-      <c r="C506" s="25"/>
+      <c r="C506" s="23"/>
     </row>
     <row r="507">
-      <c r="C507" s="25"/>
+      <c r="C507" s="23"/>
     </row>
     <row r="508">
-      <c r="C508" s="25"/>
+      <c r="C508" s="23"/>
     </row>
     <row r="509">
-      <c r="C509" s="25"/>
+      <c r="C509" s="23"/>
     </row>
     <row r="510">
-      <c r="C510" s="25"/>
+      <c r="C510" s="23"/>
     </row>
     <row r="511">
-      <c r="C511" s="25"/>
+      <c r="C511" s="23"/>
     </row>
     <row r="512">
-      <c r="C512" s="25"/>
+      <c r="C512" s="23"/>
     </row>
     <row r="513">
-      <c r="C513" s="25"/>
+      <c r="C513" s="23"/>
     </row>
     <row r="514">
-      <c r="C514" s="25"/>
+      <c r="C514" s="23"/>
     </row>
     <row r="515">
-      <c r="C515" s="25"/>
+      <c r="C515" s="23"/>
     </row>
     <row r="516">
-      <c r="C516" s="25"/>
+      <c r="C516" s="23"/>
     </row>
     <row r="517">
-      <c r="C517" s="25"/>
+      <c r="C517" s="23"/>
     </row>
     <row r="518">
-      <c r="C518" s="25"/>
+      <c r="C518" s="23"/>
     </row>
     <row r="519">
-      <c r="C519" s="25"/>
+      <c r="C519" s="23"/>
     </row>
     <row r="520">
-      <c r="C520" s="25"/>
+      <c r="C520" s="23"/>
     </row>
     <row r="521">
-      <c r="C521" s="25"/>
+      <c r="C521" s="23"/>
     </row>
     <row r="522">
-      <c r="C522" s="25"/>
+      <c r="C522" s="23"/>
     </row>
     <row r="523">
-      <c r="C523" s="25"/>
+      <c r="C523" s="23"/>
     </row>
     <row r="524">
-      <c r="C524" s="25"/>
+      <c r="C524" s="23"/>
     </row>
     <row r="525">
-      <c r="C525" s="25"/>
+      <c r="C525" s="23"/>
     </row>
     <row r="526">
-      <c r="C526" s="25"/>
+      <c r="C526" s="23"/>
     </row>
     <row r="527">
-      <c r="C527" s="25"/>
+      <c r="C527" s="23"/>
     </row>
     <row r="528">
-      <c r="C528" s="25"/>
+      <c r="C528" s="23"/>
     </row>
     <row r="529">
-      <c r="C529" s="25"/>
+      <c r="C529" s="23"/>
     </row>
     <row r="530">
-      <c r="C530" s="25"/>
+      <c r="C530" s="23"/>
     </row>
     <row r="531">
-      <c r="C531" s="25"/>
+      <c r="C531" s="23"/>
     </row>
     <row r="532">
-      <c r="C532" s="25"/>
+      <c r="C532" s="23"/>
     </row>
     <row r="533">
-      <c r="C533" s="25"/>
+      <c r="C533" s="23"/>
     </row>
     <row r="534">
-      <c r="C534" s="25"/>
+      <c r="C534" s="23"/>
     </row>
     <row r="535">
-      <c r="C535" s="25"/>
+      <c r="C535" s="23"/>
     </row>
     <row r="536">
-      <c r="C536" s="25"/>
+      <c r="C536" s="23"/>
     </row>
     <row r="537">
-      <c r="C537" s="25"/>
+      <c r="C537" s="23"/>
     </row>
     <row r="538">
-      <c r="C538" s="25"/>
+      <c r="C538" s="23"/>
     </row>
     <row r="539">
-      <c r="C539" s="25"/>
+      <c r="C539" s="23"/>
     </row>
     <row r="540">
-      <c r="C540" s="25"/>
+      <c r="C540" s="23"/>
     </row>
     <row r="541">
-      <c r="C541" s="25"/>
+      <c r="C541" s="23"/>
     </row>
     <row r="542">
-      <c r="C542" s="25"/>
+      <c r="C542" s="23"/>
     </row>
     <row r="543">
-      <c r="C543" s="25"/>
+      <c r="C543" s="23"/>
     </row>
     <row r="544">
-      <c r="C544" s="25"/>
+      <c r="C544" s="23"/>
     </row>
     <row r="545">
-      <c r="C545" s="25"/>
+      <c r="C545" s="23"/>
     </row>
     <row r="546">
-      <c r="C546" s="25"/>
+      <c r="C546" s="23"/>
     </row>
     <row r="547">
-      <c r="C547" s="25"/>
+      <c r="C547" s="23"/>
     </row>
     <row r="548">
-      <c r="C548" s="25"/>
+      <c r="C548" s="23"/>
     </row>
     <row r="549">
-      <c r="C549" s="25"/>
+      <c r="C549" s="23"/>
     </row>
     <row r="550">
-      <c r="C550" s="25"/>
+      <c r="C550" s="23"/>
     </row>
     <row r="551">
-      <c r="C551" s="25"/>
+      <c r="C551" s="23"/>
     </row>
     <row r="552">
-      <c r="C552" s="25"/>
+      <c r="C552" s="23"/>
     </row>
     <row r="553">
-      <c r="C553" s="25"/>
+      <c r="C553" s="23"/>
     </row>
     <row r="554">
-      <c r="C554" s="25"/>
+      <c r="C554" s="23"/>
     </row>
     <row r="555">
-      <c r="C555" s="25"/>
+      <c r="C555" s="23"/>
     </row>
     <row r="556">
-      <c r="C556" s="25"/>
+      <c r="C556" s="23"/>
     </row>
     <row r="557">
-      <c r="C557" s="25"/>
+      <c r="C557" s="23"/>
     </row>
     <row r="558">
-      <c r="C558" s="25"/>
+      <c r="C558" s="23"/>
     </row>
     <row r="559">
-      <c r="C559" s="25"/>
+      <c r="C559" s="23"/>
     </row>
     <row r="560">
-      <c r="C560" s="25"/>
+      <c r="C560" s="23"/>
     </row>
     <row r="561">
-      <c r="C561" s="25"/>
+      <c r="C561" s="23"/>
     </row>
     <row r="562">
-      <c r="C562" s="25"/>
+      <c r="C562" s="23"/>
     </row>
     <row r="563">
-      <c r="C563" s="25"/>
+      <c r="C563" s="23"/>
     </row>
     <row r="564">
-      <c r="C564" s="25"/>
+      <c r="C564" s="23"/>
     </row>
     <row r="565">
-      <c r="C565" s="25"/>
+      <c r="C565" s="23"/>
     </row>
     <row r="566">
-      <c r="C566" s="25"/>
+      <c r="C566" s="23"/>
     </row>
     <row r="567">
-      <c r="C567" s="25"/>
+      <c r="C567" s="23"/>
     </row>
     <row r="568">
-      <c r="C568" s="25"/>
+      <c r="C568" s="23"/>
     </row>
     <row r="569">
-      <c r="C569" s="25"/>
+      <c r="C569" s="23"/>
     </row>
     <row r="570">
-      <c r="C570" s="25"/>
+      <c r="C570" s="23"/>
     </row>
     <row r="571">
-      <c r="C571" s="25"/>
+      <c r="C571" s="23"/>
     </row>
     <row r="572">
-      <c r="C572" s="25"/>
+      <c r="C572" s="23"/>
     </row>
     <row r="573">
-      <c r="C573" s="25"/>
+      <c r="C573" s="23"/>
     </row>
     <row r="574">
-      <c r="C574" s="25"/>
+      <c r="C574" s="23"/>
     </row>
     <row r="575">
-      <c r="C575" s="25"/>
+      <c r="C575" s="23"/>
     </row>
     <row r="576">
-      <c r="C576" s="25"/>
+      <c r="C576" s="23"/>
     </row>
     <row r="577">
-      <c r="C577" s="25"/>
+      <c r="C577" s="23"/>
     </row>
     <row r="578">
-      <c r="C578" s="25"/>
+      <c r="C578" s="23"/>
     </row>
     <row r="579">
-      <c r="C579" s="25"/>
+      <c r="C579" s="23"/>
     </row>
     <row r="580">
-      <c r="C580" s="25"/>
+      <c r="C580" s="23"/>
     </row>
     <row r="581">
-      <c r="C581" s="25"/>
+      <c r="C581" s="23"/>
     </row>
     <row r="582">
-      <c r="C582" s="25"/>
+      <c r="C582" s="23"/>
     </row>
     <row r="583">
-      <c r="C583" s="25"/>
+      <c r="C583" s="23"/>
     </row>
     <row r="584">
-      <c r="C584" s="25"/>
+      <c r="C584" s="23"/>
     </row>
     <row r="585">
-      <c r="C585" s="25"/>
+      <c r="C585" s="23"/>
     </row>
     <row r="586">
-      <c r="C586" s="25"/>
+      <c r="C586" s="23"/>
     </row>
     <row r="587">
-      <c r="C587" s="25"/>
+      <c r="C587" s="23"/>
     </row>
     <row r="588">
-      <c r="C588" s="25"/>
+      <c r="C588" s="23"/>
     </row>
     <row r="589">
-      <c r="C589" s="25"/>
+      <c r="C589" s="23"/>
     </row>
     <row r="590">
-      <c r="C590" s="25"/>
+      <c r="C590" s="23"/>
     </row>
     <row r="591">
-      <c r="C591" s="25"/>
+      <c r="C591" s="23"/>
     </row>
     <row r="592">
-      <c r="C592" s="25"/>
+      <c r="C592" s="23"/>
     </row>
     <row r="593">
-      <c r="C593" s="25"/>
+      <c r="C593" s="23"/>
     </row>
     <row r="594">
-      <c r="C594" s="25"/>
+      <c r="C594" s="23"/>
     </row>
     <row r="595">
-      <c r="C595" s="25"/>
+      <c r="C595" s="23"/>
     </row>
     <row r="596">
-      <c r="C596" s="25"/>
+      <c r="C596" s="23"/>
     </row>
     <row r="597">
-      <c r="C597" s="25"/>
+      <c r="C597" s="23"/>
     </row>
     <row r="598">
-      <c r="C598" s="25"/>
+      <c r="C598" s="23"/>
     </row>
     <row r="599">
-      <c r="C599" s="25"/>
+      <c r="C599" s="23"/>
     </row>
     <row r="600">
-      <c r="C600" s="25"/>
+      <c r="C600" s="23"/>
     </row>
     <row r="601">
-      <c r="C601" s="25"/>
+      <c r="C601" s="23"/>
     </row>
     <row r="602">
-      <c r="C602" s="25"/>
+      <c r="C602" s="23"/>
     </row>
     <row r="603">
-      <c r="C603" s="25"/>
+      <c r="C603" s="23"/>
     </row>
     <row r="604">
-      <c r="C604" s="25"/>
+      <c r="C604" s="23"/>
     </row>
     <row r="605">
-      <c r="C605" s="25"/>
+      <c r="C605" s="23"/>
     </row>
     <row r="606">
-      <c r="C606" s="25"/>
+      <c r="C606" s="23"/>
     </row>
     <row r="607">
-      <c r="C607" s="25"/>
+      <c r="C607" s="23"/>
     </row>
     <row r="608">
-      <c r="C608" s="25"/>
+      <c r="C608" s="23"/>
     </row>
     <row r="609">
-      <c r="C609" s="25"/>
+      <c r="C609" s="23"/>
     </row>
     <row r="610">
-      <c r="C610" s="25"/>
+      <c r="C610" s="23"/>
     </row>
     <row r="611">
-      <c r="C611" s="25"/>
+      <c r="C611" s="23"/>
     </row>
     <row r="612">
-      <c r="C612" s="25"/>
+      <c r="C612" s="23"/>
     </row>
     <row r="613">
-      <c r="C613" s="25"/>
+      <c r="C613" s="23"/>
     </row>
     <row r="614">
-      <c r="C614" s="25"/>
+      <c r="C614" s="23"/>
     </row>
     <row r="615">
-      <c r="C615" s="25"/>
+      <c r="C615" s="23"/>
     </row>
     <row r="616">
-      <c r="C616" s="25"/>
+      <c r="C616" s="23"/>
     </row>
     <row r="617">
-      <c r="C617" s="25"/>
+      <c r="C617" s="23"/>
     </row>
     <row r="618">
-      <c r="C618" s="25"/>
+      <c r="C618" s="23"/>
     </row>
     <row r="619">
-      <c r="C619" s="25"/>
+      <c r="C619" s="23"/>
     </row>
     <row r="620">
-      <c r="C620" s="25"/>
+      <c r="C620" s="23"/>
     </row>
     <row r="621">
-      <c r="C621" s="25"/>
+      <c r="C621" s="23"/>
     </row>
     <row r="622">
-      <c r="C622" s="25"/>
+      <c r="C622" s="23"/>
     </row>
     <row r="623">
-      <c r="C623" s="25"/>
+      <c r="C623" s="23"/>
     </row>
     <row r="624">
-      <c r="C624" s="25"/>
+      <c r="C624" s="23"/>
     </row>
     <row r="625">
-      <c r="C625" s="25"/>
+      <c r="C625" s="23"/>
     </row>
     <row r="626">
-      <c r="C626" s="25"/>
+      <c r="C626" s="23"/>
     </row>
     <row r="627">
-      <c r="C627" s="25"/>
+      <c r="C627" s="23"/>
     </row>
     <row r="628">
-      <c r="C628" s="25"/>
+      <c r="C628" s="23"/>
     </row>
     <row r="629">
-      <c r="C629" s="25"/>
+      <c r="C629" s="23"/>
     </row>
     <row r="630">
-      <c r="C630" s="25"/>
+      <c r="C630" s="23"/>
     </row>
     <row r="631">
-      <c r="C631" s="25"/>
+      <c r="C631" s="23"/>
     </row>
     <row r="632">
-      <c r="C632" s="25"/>
+      <c r="C632" s="23"/>
     </row>
     <row r="633">
-      <c r="C633" s="25"/>
+      <c r="C633" s="23"/>
     </row>
     <row r="634">
-      <c r="C634" s="25"/>
+      <c r="C634" s="23"/>
     </row>
     <row r="635">
-      <c r="C635" s="25"/>
+      <c r="C635" s="23"/>
     </row>
     <row r="636">
-      <c r="C636" s="25"/>
+      <c r="C636" s="23"/>
     </row>
     <row r="637">
-      <c r="C637" s="25"/>
+      <c r="C637" s="23"/>
     </row>
     <row r="638">
-      <c r="C638" s="25"/>
+      <c r="C638" s="23"/>
     </row>
     <row r="639">
-      <c r="C639" s="25"/>
+      <c r="C639" s="23"/>
     </row>
     <row r="640">
-      <c r="C640" s="25"/>
+      <c r="C640" s="23"/>
     </row>
     <row r="641">
-      <c r="C641" s="25"/>
+      <c r="C641" s="23"/>
     </row>
     <row r="642">
-      <c r="C642" s="25"/>
+      <c r="C642" s="23"/>
     </row>
     <row r="643">
-      <c r="C643" s="25"/>
+      <c r="C643" s="23"/>
     </row>
     <row r="644">
-      <c r="C644" s="25"/>
+      <c r="C644" s="23"/>
     </row>
     <row r="645">
-      <c r="C645" s="25"/>
+      <c r="C645" s="23"/>
     </row>
     <row r="646">
-      <c r="C646" s="25"/>
+      <c r="C646" s="23"/>
     </row>
     <row r="647">
-      <c r="C647" s="25"/>
+      <c r="C647" s="23"/>
     </row>
     <row r="648">
-      <c r="C648" s="25"/>
+      <c r="C648" s="23"/>
     </row>
     <row r="649">
-      <c r="C649" s="25"/>
+      <c r="C649" s="23"/>
     </row>
     <row r="650">
-      <c r="C650" s="25"/>
+      <c r="C650" s="23"/>
     </row>
     <row r="651">
-      <c r="C651" s="25"/>
+      <c r="C651" s="23"/>
     </row>
     <row r="652">
-      <c r="C652" s="25"/>
+      <c r="C652" s="23"/>
     </row>
     <row r="653">
-      <c r="C653" s="25"/>
+      <c r="C653" s="23"/>
     </row>
     <row r="654">
-      <c r="C654" s="25"/>
+      <c r="C654" s="23"/>
     </row>
     <row r="655">
-      <c r="C655" s="25"/>
+      <c r="C655" s="23"/>
     </row>
     <row r="656">
-      <c r="C656" s="25"/>
+      <c r="C656" s="23"/>
     </row>
     <row r="657">
-      <c r="C657" s="25"/>
+      <c r="C657" s="23"/>
     </row>
     <row r="658">
-      <c r="C658" s="25"/>
+      <c r="C658" s="23"/>
     </row>
     <row r="659">
-      <c r="C659" s="25"/>
+      <c r="C659" s="23"/>
     </row>
     <row r="660">
-      <c r="C660" s="25"/>
+      <c r="C660" s="23"/>
     </row>
     <row r="661">
-      <c r="C661" s="25"/>
+      <c r="C661" s="23"/>
     </row>
     <row r="662">
-      <c r="C662" s="25"/>
+      <c r="C662" s="23"/>
     </row>
     <row r="663">
-      <c r="C663" s="25"/>
+      <c r="C663" s="23"/>
     </row>
     <row r="664">
-      <c r="C664" s="25"/>
+      <c r="C664" s="23"/>
     </row>
     <row r="665">
-      <c r="C665" s="25"/>
+      <c r="C665" s="23"/>
     </row>
     <row r="666">
-      <c r="C666" s="25"/>
+      <c r="C666" s="23"/>
     </row>
     <row r="667">
-      <c r="C667" s="25"/>
+      <c r="C667" s="23"/>
     </row>
     <row r="668">
-      <c r="C668" s="25"/>
+      <c r="C668" s="23"/>
     </row>
     <row r="669">
-      <c r="C669" s="25"/>
+      <c r="C669" s="23"/>
     </row>
     <row r="670">
-      <c r="C670" s="25"/>
+      <c r="C670" s="23"/>
     </row>
     <row r="671">
-      <c r="C671" s="25"/>
+      <c r="C671" s="23"/>
     </row>
     <row r="672">
-      <c r="C672" s="25"/>
+      <c r="C672" s="23"/>
     </row>
     <row r="673">
-      <c r="C673" s="25"/>
+      <c r="C673" s="23"/>
     </row>
     <row r="674">
-      <c r="C674" s="25"/>
+      <c r="C674" s="23"/>
     </row>
     <row r="675">
-      <c r="C675" s="25"/>
+      <c r="C675" s="23"/>
     </row>
     <row r="676">
-      <c r="C676" s="25"/>
+      <c r="C676" s="23"/>
     </row>
     <row r="677">
-      <c r="C677" s="25"/>
+      <c r="C677" s="23"/>
     </row>
     <row r="678">
-      <c r="C678" s="25"/>
+      <c r="C678" s="23"/>
     </row>
     <row r="679">
-      <c r="C679" s="25"/>
+      <c r="C679" s="23"/>
     </row>
     <row r="680">
-      <c r="C680" s="25"/>
+      <c r="C680" s="23"/>
     </row>
     <row r="681">
-      <c r="C681" s="25"/>
+      <c r="C681" s="23"/>
     </row>
     <row r="682">
-      <c r="C682" s="25"/>
+      <c r="C682" s="23"/>
     </row>
     <row r="683">
-      <c r="C683" s="25"/>
+      <c r="C683" s="23"/>
     </row>
     <row r="684">
-      <c r="C684" s="25"/>
+      <c r="C684" s="23"/>
     </row>
     <row r="685">
-      <c r="C685" s="25"/>
+      <c r="C685" s="23"/>
     </row>
     <row r="686">
-      <c r="C686" s="25"/>
+      <c r="C686" s="23"/>
     </row>
     <row r="687">
-      <c r="C687" s="25"/>
+      <c r="C687" s="23"/>
     </row>
     <row r="688">
-      <c r="C688" s="25"/>
+      <c r="C688" s="23"/>
     </row>
     <row r="689">
-      <c r="C689" s="25"/>
+      <c r="C689" s="23"/>
     </row>
     <row r="690">
-      <c r="C690" s="25"/>
+      <c r="C690" s="23"/>
     </row>
     <row r="691">
-      <c r="C691" s="25"/>
+      <c r="C691" s="23"/>
     </row>
     <row r="692">
-      <c r="C692" s="25"/>
+      <c r="C692" s="23"/>
     </row>
     <row r="693">
-      <c r="C693" s="25"/>
+      <c r="C693" s="23"/>
     </row>
     <row r="694">
-      <c r="C694" s="25"/>
+      <c r="C694" s="23"/>
     </row>
     <row r="695">
-      <c r="C695" s="25"/>
+      <c r="C695" s="23"/>
     </row>
     <row r="696">
-      <c r="C696" s="25"/>
+      <c r="C696" s="23"/>
     </row>
     <row r="697">
-      <c r="C697" s="25"/>
+      <c r="C697" s="23"/>
     </row>
     <row r="698">
-      <c r="C698" s="25"/>
+      <c r="C698" s="23"/>
     </row>
     <row r="699">
-      <c r="C699" s="25"/>
+      <c r="C699" s="23"/>
     </row>
     <row r="700">
-      <c r="C700" s="25"/>
+      <c r="C700" s="23"/>
     </row>
     <row r="701">
-      <c r="C701" s="25"/>
+      <c r="C701" s="23"/>
     </row>
     <row r="702">
-      <c r="C702" s="25"/>
+      <c r="C702" s="23"/>
     </row>
     <row r="703">
-      <c r="C703" s="25"/>
+      <c r="C703" s="23"/>
     </row>
     <row r="704">
-      <c r="C704" s="25"/>
+      <c r="C704" s="23"/>
     </row>
     <row r="705">
-      <c r="C705" s="25"/>
+      <c r="C705" s="23"/>
     </row>
     <row r="706">
-      <c r="C706" s="25"/>
+      <c r="C706" s="23"/>
     </row>
     <row r="707">
-      <c r="C707" s="25"/>
+      <c r="C707" s="23"/>
     </row>
     <row r="708">
-      <c r="C708" s="25"/>
+      <c r="C708" s="23"/>
     </row>
     <row r="709">
-      <c r="C709" s="25"/>
+      <c r="C709" s="23"/>
     </row>
     <row r="710">
-      <c r="C710" s="25"/>
+      <c r="C710" s="23"/>
     </row>
     <row r="711">
-      <c r="C711" s="25"/>
+      <c r="C711" s="23"/>
     </row>
     <row r="712">
-      <c r="C712" s="25"/>
+      <c r="C712" s="23"/>
     </row>
     <row r="713">
-      <c r="C713" s="25"/>
+      <c r="C713" s="23"/>
     </row>
     <row r="714">
-      <c r="C714" s="25"/>
+      <c r="C714" s="23"/>
     </row>
     <row r="715">
-      <c r="C715" s="25"/>
+      <c r="C715" s="23"/>
     </row>
     <row r="716">
-      <c r="C716" s="25"/>
+      <c r="C716" s="23"/>
     </row>
     <row r="717">
-      <c r="C717" s="25"/>
+      <c r="C717" s="23"/>
     </row>
     <row r="718">
-      <c r="C718" s="25"/>
+      <c r="C718" s="23"/>
     </row>
     <row r="719">
-      <c r="C719" s="25"/>
+      <c r="C719" s="23"/>
     </row>
     <row r="720">
-      <c r="C720" s="25"/>
+      <c r="C720" s="23"/>
     </row>
     <row r="721">
-      <c r="C721" s="25"/>
+      <c r="C721" s="23"/>
     </row>
     <row r="722">
-      <c r="C722" s="25"/>
+      <c r="C722" s="23"/>
     </row>
     <row r="723">
-      <c r="C723" s="25"/>
+      <c r="C723" s="23"/>
     </row>
     <row r="724">
-      <c r="C724" s="25"/>
+      <c r="C724" s="23"/>
     </row>
     <row r="725">
-      <c r="C725" s="25"/>
+      <c r="C725" s="23"/>
     </row>
     <row r="726">
-      <c r="C726" s="25"/>
+      <c r="C726" s="23"/>
     </row>
     <row r="727">
-      <c r="C727" s="25"/>
+      <c r="C727" s="23"/>
     </row>
     <row r="728">
-      <c r="C728" s="25"/>
+      <c r="C728" s="23"/>
     </row>
     <row r="729">
-      <c r="C729" s="25"/>
+      <c r="C729" s="23"/>
     </row>
     <row r="730">
-      <c r="C730" s="25"/>
+      <c r="C730" s="23"/>
     </row>
     <row r="731">
-      <c r="C731" s="25"/>
+      <c r="C731" s="23"/>
     </row>
     <row r="732">
-      <c r="C732" s="25"/>
+      <c r="C732" s="23"/>
     </row>
     <row r="733">
-      <c r="C733" s="25"/>
+      <c r="C733" s="23"/>
     </row>
     <row r="734">
-      <c r="C734" s="25"/>
+      <c r="C734" s="23"/>
     </row>
     <row r="735">
-      <c r="C735" s="25"/>
+      <c r="C735" s="23"/>
     </row>
     <row r="736">
-      <c r="C736" s="25"/>
+      <c r="C736" s="23"/>
     </row>
     <row r="737">
-      <c r="C737" s="25"/>
+      <c r="C737" s="23"/>
     </row>
     <row r="738">
-      <c r="C738" s="25"/>
+      <c r="C738" s="23"/>
     </row>
     <row r="739">
-      <c r="C739" s="25"/>
+      <c r="C739" s="23"/>
     </row>
     <row r="740">
-      <c r="C740" s="25"/>
+      <c r="C740" s="23"/>
     </row>
     <row r="741">
-      <c r="C741" s="25"/>
+      <c r="C741" s="23"/>
     </row>
     <row r="742">
-      <c r="C742" s="25"/>
+      <c r="C742" s="23"/>
     </row>
     <row r="743">
-      <c r="C743" s="25"/>
+      <c r="C743" s="23"/>
     </row>
     <row r="744">
-      <c r="C744" s="25"/>
+      <c r="C744" s="23"/>
     </row>
     <row r="745">
-      <c r="C745" s="25"/>
+      <c r="C745" s="23"/>
     </row>
     <row r="746">
-      <c r="C746" s="25"/>
+      <c r="C746" s="23"/>
     </row>
     <row r="747">
-      <c r="C747" s="25"/>
+      <c r="C747" s="23"/>
     </row>
     <row r="748">
-      <c r="C748" s="25"/>
+      <c r="C748" s="23"/>
     </row>
     <row r="749">
-      <c r="C749" s="25"/>
+      <c r="C749" s="23"/>
     </row>
     <row r="750">
-      <c r="C750" s="25"/>
+      <c r="C750" s="23"/>
     </row>
     <row r="751">
-      <c r="C751" s="25"/>
+      <c r="C751" s="23"/>
     </row>
     <row r="752">
-      <c r="C752" s="25"/>
+      <c r="C752" s="23"/>
     </row>
     <row r="753">
-      <c r="C753" s="25"/>
+      <c r="C753" s="23"/>
     </row>
     <row r="754">
-      <c r="C754" s="25"/>
+      <c r="C754" s="23"/>
     </row>
     <row r="755">
-      <c r="C755" s="25"/>
+      <c r="C755" s="23"/>
     </row>
     <row r="756">
-      <c r="C756" s="25"/>
+      <c r="C756" s="23"/>
     </row>
     <row r="757">
-      <c r="C757" s="25"/>
+      <c r="C757" s="23"/>
     </row>
     <row r="758">
-      <c r="C758" s="25"/>
+      <c r="C758" s="23"/>
     </row>
     <row r="759">
-      <c r="C759" s="25"/>
+      <c r="C759" s="23"/>
     </row>
     <row r="760">
-      <c r="C760" s="25"/>
+      <c r="C760" s="23"/>
     </row>
     <row r="761">
-      <c r="C761" s="25"/>
+      <c r="C761" s="23"/>
     </row>
     <row r="762">
-      <c r="C762" s="25"/>
+      <c r="C762" s="23"/>
     </row>
     <row r="763">
-      <c r="C763" s="25"/>
+      <c r="C763" s="23"/>
     </row>
     <row r="764">
-      <c r="C764" s="25"/>
+      <c r="C764" s="23"/>
     </row>
     <row r="765">
-      <c r="C765" s="25"/>
+      <c r="C765" s="23"/>
     </row>
     <row r="766">
-      <c r="C766" s="25"/>
+      <c r="C766" s="23"/>
     </row>
     <row r="767">
-      <c r="C767" s="25"/>
+      <c r="C767" s="23"/>
     </row>
     <row r="768">
-      <c r="C768" s="25"/>
+      <c r="C768" s="23"/>
     </row>
     <row r="769">
-      <c r="C769" s="25"/>
+      <c r="C769" s="23"/>
     </row>
     <row r="770">
-      <c r="C770" s="25"/>
+      <c r="C770" s="23"/>
     </row>
     <row r="771">
-      <c r="C771" s="25"/>
+      <c r="C771" s="23"/>
     </row>
     <row r="772">
-      <c r="C772" s="25"/>
+      <c r="C772" s="23"/>
     </row>
     <row r="773">
-      <c r="C773" s="25"/>
+      <c r="C773" s="23"/>
     </row>
     <row r="774">
-      <c r="C774" s="25"/>
+      <c r="C774" s="23"/>
     </row>
     <row r="775">
-      <c r="C775" s="25"/>
+      <c r="C775" s="23"/>
     </row>
     <row r="776">
-      <c r="C776" s="25"/>
+      <c r="C776" s="23"/>
     </row>
     <row r="777">
-      <c r="C777" s="25"/>
+      <c r="C777" s="23"/>
     </row>
     <row r="778">
-      <c r="C778" s="25"/>
+      <c r="C778" s="23"/>
     </row>
     <row r="779">
-      <c r="C779" s="25"/>
+      <c r="C779" s="23"/>
     </row>
     <row r="780">
-      <c r="C780" s="25"/>
+      <c r="C780" s="23"/>
     </row>
     <row r="781">
-      <c r="C781" s="25"/>
+      <c r="C781" s="23"/>
     </row>
     <row r="782">
-      <c r="C782" s="25"/>
+      <c r="C782" s="23"/>
     </row>
     <row r="783">
-      <c r="C783" s="25"/>
+      <c r="C783" s="23"/>
     </row>
     <row r="784">
-      <c r="C784" s="25"/>
+      <c r="C784" s="23"/>
     </row>
     <row r="785">
-      <c r="C785" s="25"/>
+      <c r="C785" s="23"/>
     </row>
     <row r="786">
-      <c r="C786" s="25"/>
+      <c r="C786" s="23"/>
     </row>
     <row r="787">
-      <c r="C787" s="25"/>
+      <c r="C787" s="23"/>
     </row>
     <row r="788">
-      <c r="C788" s="25"/>
+      <c r="C788" s="23"/>
     </row>
     <row r="789">
-      <c r="C789" s="25"/>
+      <c r="C789" s="23"/>
     </row>
     <row r="790">
-      <c r="C790" s="25"/>
+      <c r="C790" s="23"/>
     </row>
     <row r="791">
-      <c r="C791" s="25"/>
+      <c r="C791" s="23"/>
     </row>
     <row r="792">
-      <c r="C792" s="25"/>
+      <c r="C792" s="23"/>
     </row>
     <row r="793">
-      <c r="C793" s="25"/>
+      <c r="C793" s="23"/>
     </row>
     <row r="794">
-      <c r="C794" s="25"/>
+      <c r="C794" s="23"/>
     </row>
     <row r="795">
-      <c r="C795" s="25"/>
+      <c r="C795" s="23"/>
     </row>
     <row r="796">
-      <c r="C796" s="25"/>
+      <c r="C796" s="23"/>
     </row>
     <row r="797">
-      <c r="C797" s="25"/>
+      <c r="C797" s="23"/>
     </row>
     <row r="798">
-      <c r="C798" s="25"/>
+      <c r="C798" s="23"/>
     </row>
     <row r="799">
-      <c r="C799" s="25"/>
+      <c r="C799" s="23"/>
     </row>
     <row r="800">
-      <c r="C800" s="25"/>
+      <c r="C800" s="23"/>
     </row>
     <row r="801">
-      <c r="C801" s="25"/>
+      <c r="C801" s="23"/>
     </row>
     <row r="802">
-      <c r="C802" s="25"/>
+      <c r="C802" s="23"/>
     </row>
     <row r="803">
-      <c r="C803" s="25"/>
+      <c r="C803" s="23"/>
     </row>
     <row r="804">
-      <c r="C804" s="25"/>
+      <c r="C804" s="23"/>
     </row>
     <row r="805">
-      <c r="C805" s="25"/>
+      <c r="C805" s="23"/>
     </row>
     <row r="806">
-      <c r="C806" s="25"/>
+      <c r="C806" s="23"/>
     </row>
     <row r="807">
-      <c r="C807" s="25"/>
+      <c r="C807" s="23"/>
     </row>
     <row r="808">
-      <c r="C808" s="25"/>
+      <c r="C808" s="23"/>
     </row>
     <row r="809">
-      <c r="C809" s="25"/>
+      <c r="C809" s="23"/>
     </row>
     <row r="810">
-      <c r="C810" s="25"/>
+      <c r="C810" s="23"/>
     </row>
     <row r="811">
-      <c r="C811" s="25"/>
+      <c r="C811" s="23"/>
     </row>
     <row r="812">
-      <c r="C812" s="25"/>
+      <c r="C812" s="23"/>
     </row>
     <row r="813">
-      <c r="C813" s="25"/>
+      <c r="C813" s="23"/>
     </row>
     <row r="814">
-      <c r="C814" s="25"/>
+      <c r="C814" s="23"/>
     </row>
     <row r="815">
-      <c r="C815" s="25"/>
+      <c r="C815" s="23"/>
     </row>
     <row r="816">
-      <c r="C816" s="25"/>
+      <c r="C816" s="23"/>
     </row>
     <row r="817">
-      <c r="C817" s="25"/>
+      <c r="C817" s="23"/>
     </row>
     <row r="818">
-      <c r="C818" s="25"/>
+      <c r="C818" s="23"/>
     </row>
     <row r="819">
-      <c r="C819" s="25"/>
+      <c r="C819" s="23"/>
     </row>
     <row r="820">
-      <c r="C820" s="25"/>
+      <c r="C820" s="23"/>
     </row>
     <row r="821">
-      <c r="C821" s="25"/>
+      <c r="C821" s="23"/>
     </row>
     <row r="822">
-      <c r="C822" s="25"/>
+      <c r="C822" s="23"/>
     </row>
     <row r="823">
-      <c r="C823" s="25"/>
+      <c r="C823" s="23"/>
     </row>
     <row r="824">
-      <c r="C824" s="25"/>
+      <c r="C824" s="23"/>
     </row>
     <row r="825">
-      <c r="C825" s="25"/>
+      <c r="C825" s="23"/>
     </row>
     <row r="826">
-      <c r="C826" s="25"/>
+      <c r="C826" s="23"/>
     </row>
     <row r="827">
-      <c r="C827" s="25"/>
+      <c r="C827" s="23"/>
     </row>
     <row r="828">
-      <c r="C828" s="25"/>
+      <c r="C828" s="23"/>
     </row>
     <row r="829">
-      <c r="C829" s="25"/>
+      <c r="C829" s="23"/>
     </row>
     <row r="830">
-      <c r="C830" s="25"/>
+      <c r="C830" s="23"/>
     </row>
     <row r="831">
-      <c r="C831" s="25"/>
+      <c r="C831" s="23"/>
     </row>
     <row r="832">
-      <c r="C832" s="25"/>
+      <c r="C832" s="23"/>
     </row>
     <row r="833">
-      <c r="C833" s="25"/>
+      <c r="C833" s="23"/>
     </row>
     <row r="834">
-      <c r="C834" s="25"/>
+      <c r="C834" s="23"/>
     </row>
     <row r="835">
-      <c r="C835" s="25"/>
+      <c r="C835" s="23"/>
     </row>
     <row r="836">
-      <c r="C836" s="25"/>
+      <c r="C836" s="23"/>
     </row>
     <row r="837">
-      <c r="C837" s="25"/>
+      <c r="C837" s="23"/>
     </row>
     <row r="838">
-      <c r="C838" s="25"/>
+      <c r="C838" s="23"/>
     </row>
     <row r="839">
-      <c r="C839" s="25"/>
+      <c r="C839" s="23"/>
     </row>
     <row r="840">
-      <c r="C840" s="25"/>
+      <c r="C840" s="23"/>
     </row>
     <row r="841">
-      <c r="C841" s="25"/>
+      <c r="C841" s="23"/>
     </row>
     <row r="842">
-      <c r="C842" s="25"/>
+      <c r="C842" s="23"/>
     </row>
     <row r="843">
-      <c r="C843" s="25"/>
+      <c r="C843" s="23"/>
     </row>
     <row r="844">
-      <c r="C844" s="25"/>
+      <c r="C844" s="23"/>
     </row>
     <row r="845">
-      <c r="C845" s="25"/>
+      <c r="C845" s="23"/>
     </row>
     <row r="846">
-      <c r="C846" s="25"/>
+      <c r="C846" s="23"/>
     </row>
     <row r="847">
-      <c r="C847" s="25"/>
+      <c r="C847" s="23"/>
     </row>
     <row r="848">
-      <c r="C848" s="25"/>
+      <c r="C848" s="23"/>
     </row>
     <row r="849">
-      <c r="C849" s="25"/>
+      <c r="C849" s="23"/>
     </row>
     <row r="850">
-      <c r="C850" s="25"/>
+      <c r="C850" s="23"/>
     </row>
     <row r="851">
-      <c r="C851" s="25"/>
+      <c r="C851" s="23"/>
     </row>
     <row r="852">
-      <c r="C852" s="25"/>
+      <c r="C852" s="23"/>
     </row>
     <row r="853">
-      <c r="C853" s="25"/>
+      <c r="C853" s="23"/>
     </row>
     <row r="854">
-      <c r="C854" s="25"/>
+      <c r="C854" s="23"/>
     </row>
     <row r="855">
-      <c r="C855" s="25"/>
+      <c r="C855" s="23"/>
     </row>
     <row r="856">
-      <c r="C856" s="25"/>
+      <c r="C856" s="23"/>
     </row>
     <row r="857">
-      <c r="C857" s="25"/>
+      <c r="C857" s="23"/>
     </row>
     <row r="858">
-      <c r="C858" s="25"/>
+      <c r="C858" s="23"/>
     </row>
     <row r="859">
-      <c r="C859" s="25"/>
+      <c r="C859" s="23"/>
     </row>
     <row r="860">
-      <c r="C860" s="25"/>
+      <c r="C860" s="23"/>
     </row>
     <row r="861">
-      <c r="C861" s="25"/>
+      <c r="C861" s="23"/>
     </row>
     <row r="862">
-      <c r="C862" s="25"/>
+      <c r="C862" s="23"/>
     </row>
     <row r="863">
-      <c r="C863" s="25"/>
+      <c r="C863" s="23"/>
     </row>
     <row r="864">
-      <c r="C864" s="25"/>
+      <c r="C864" s="23"/>
     </row>
     <row r="865">
-      <c r="C865" s="25"/>
+      <c r="C865" s="23"/>
     </row>
     <row r="866">
-      <c r="C866" s="25"/>
+      <c r="C866" s="23"/>
     </row>
     <row r="867">
-      <c r="C867" s="25"/>
+      <c r="C867" s="23"/>
     </row>
     <row r="868">
-      <c r="C868" s="25"/>
+      <c r="C868" s="23"/>
     </row>
     <row r="869">
-      <c r="C869" s="25"/>
+      <c r="C869" s="23"/>
     </row>
     <row r="870">
-      <c r="C870" s="25"/>
+      <c r="C870" s="23"/>
     </row>
     <row r="871">
-      <c r="C871" s="25"/>
+      <c r="C871" s="23"/>
     </row>
     <row r="872">
-      <c r="C872" s="25"/>
+      <c r="C872" s="23"/>
     </row>
     <row r="873">
-      <c r="C873" s="25"/>
+      <c r="C873" s="23"/>
     </row>
     <row r="874">
-      <c r="C874" s="25"/>
+      <c r="C874" s="23"/>
     </row>
     <row r="875">
-      <c r="C875" s="25"/>
+      <c r="C875" s="23"/>
     </row>
     <row r="876">
-      <c r="C876" s="25"/>
+      <c r="C876" s="23"/>
     </row>
     <row r="877">
-      <c r="C877" s="25"/>
+      <c r="C877" s="23"/>
     </row>
     <row r="878">
-      <c r="C878" s="25"/>
+      <c r="C878" s="23"/>
     </row>
     <row r="879">
-      <c r="C879" s="25"/>
+      <c r="C879" s="23"/>
     </row>
     <row r="880">
-      <c r="C880" s="25"/>
+      <c r="C880" s="23"/>
     </row>
     <row r="881">
-      <c r="C881" s="25"/>
+      <c r="C881" s="23"/>
     </row>
     <row r="882">
-      <c r="C882" s="25"/>
+      <c r="C882" s="23"/>
     </row>
     <row r="883">
-      <c r="C883" s="25"/>
+      <c r="C883" s="23"/>
     </row>
     <row r="884">
-      <c r="C884" s="25"/>
+      <c r="C884" s="23"/>
     </row>
     <row r="885">
-      <c r="C885" s="25"/>
+      <c r="C885" s="23"/>
     </row>
     <row r="886">
-      <c r="C886" s="25"/>
+      <c r="C886" s="23"/>
     </row>
     <row r="887">
-      <c r="C887" s="25"/>
+      <c r="C887" s="23"/>
     </row>
     <row r="888">
-      <c r="C888" s="25"/>
+      <c r="C888" s="23"/>
     </row>
     <row r="889">
-      <c r="C889" s="25"/>
+      <c r="C889" s="23"/>
     </row>
     <row r="890">
-      <c r="C890" s="25"/>
+      <c r="C890" s="23"/>
     </row>
     <row r="891">
-      <c r="C891" s="25"/>
+      <c r="C891" s="23"/>
     </row>
     <row r="892">
-      <c r="C892" s="25"/>
+      <c r="C892" s="23"/>
     </row>
     <row r="893">
-      <c r="C893" s="25"/>
+      <c r="C893" s="23"/>
     </row>
     <row r="894">
-      <c r="C894" s="25"/>
+      <c r="C894" s="23"/>
     </row>
     <row r="895">
-      <c r="C895" s="25"/>
+      <c r="C895" s="23"/>
     </row>
     <row r="896">
-      <c r="C896" s="25"/>
+      <c r="C896" s="23"/>
     </row>
     <row r="897">
-      <c r="C897" s="25"/>
+      <c r="C897" s="23"/>
     </row>
     <row r="898">
-      <c r="C898" s="25"/>
+      <c r="C898" s="23"/>
     </row>
     <row r="899">
-      <c r="C899" s="25"/>
+      <c r="C899" s="23"/>
     </row>
     <row r="900">
-      <c r="C900" s="25"/>
+      <c r="C900" s="23"/>
     </row>
     <row r="901">
-      <c r="C901" s="25"/>
+      <c r="C901" s="23"/>
     </row>
     <row r="902">
-      <c r="C902" s="25"/>
+      <c r="C902" s="23"/>
     </row>
     <row r="903">
-      <c r="C903" s="25"/>
+      <c r="C903" s="23"/>
     </row>
     <row r="904">
-      <c r="C904" s="25"/>
+      <c r="C904" s="23"/>
     </row>
     <row r="905">
-      <c r="C905" s="25"/>
+      <c r="C905" s="23"/>
     </row>
     <row r="906">
-      <c r="C906" s="25"/>
+      <c r="C906" s="23"/>
     </row>
     <row r="907">
-      <c r="C907" s="25"/>
+      <c r="C907" s="23"/>
     </row>
     <row r="908">
-      <c r="C908" s="25"/>
+      <c r="C908" s="23"/>
     </row>
     <row r="909">
-      <c r="C909" s="25"/>
+      <c r="C909" s="23"/>
     </row>
     <row r="910">
-      <c r="C910" s="25"/>
+      <c r="C910" s="23"/>
     </row>
     <row r="911">
-      <c r="C911" s="25"/>
+      <c r="C911" s="23"/>
     </row>
     <row r="912">
-      <c r="C912" s="25"/>
+      <c r="C912" s="23"/>
     </row>
     <row r="913">
-      <c r="C913" s="25"/>
+      <c r="C913" s="23"/>
     </row>
     <row r="914">
-      <c r="C914" s="25"/>
+      <c r="C914" s="23"/>
     </row>
     <row r="915">
-      <c r="C915" s="25"/>
+      <c r="C915" s="23"/>
     </row>
     <row r="916">
-      <c r="C916" s="25"/>
+      <c r="C916" s="23"/>
     </row>
     <row r="917">
-      <c r="C917" s="25"/>
+      <c r="C917" s="23"/>
     </row>
     <row r="918">
-      <c r="C918" s="25"/>
+      <c r="C918" s="23"/>
     </row>
     <row r="919">
-      <c r="C919" s="25"/>
+      <c r="C919" s="23"/>
     </row>
     <row r="920">
-      <c r="C920" s="25"/>
+      <c r="C920" s="23"/>
     </row>
     <row r="921">
-      <c r="C921" s="25"/>
+      <c r="C921" s="23"/>
     </row>
     <row r="922">
-      <c r="C922" s="25"/>
+      <c r="C922" s="23"/>
     </row>
     <row r="923">
-      <c r="C923" s="25"/>
+      <c r="C923" s="23"/>
     </row>
     <row r="924">
-      <c r="C924" s="25"/>
+      <c r="C924" s="23"/>
     </row>
     <row r="925">
-      <c r="C925" s="25"/>
+      <c r="C925" s="23"/>
     </row>
     <row r="926">
-      <c r="C926" s="25"/>
+      <c r="C926" s="23"/>
     </row>
     <row r="927">
-      <c r="C927" s="25"/>
+      <c r="C927" s="23"/>
     </row>
     <row r="928">
-      <c r="C928" s="25"/>
+      <c r="C928" s="23"/>
     </row>
     <row r="929">
-      <c r="C929" s="25"/>
+      <c r="C929" s="23"/>
     </row>
     <row r="930">
-      <c r="C930" s="25"/>
+      <c r="C930" s="23"/>
     </row>
     <row r="931">
-      <c r="C931" s="25"/>
+      <c r="C931" s="23"/>
     </row>
     <row r="932">
-      <c r="C932" s="25"/>
+      <c r="C932" s="23"/>
     </row>
     <row r="933">
-      <c r="C933" s="25"/>
+      <c r="C933" s="23"/>
     </row>
     <row r="934">
-      <c r="C934" s="25"/>
+      <c r="C934" s="23"/>
     </row>
     <row r="935">
-      <c r="C935" s="25"/>
+      <c r="C935" s="23"/>
     </row>
     <row r="936">
-      <c r="C936" s="25"/>
+      <c r="C936" s="23"/>
     </row>
     <row r="937">
-      <c r="C937" s="25"/>
+      <c r="C937" s="23"/>
     </row>
     <row r="938">
-      <c r="C938" s="25"/>
+      <c r="C938" s="23"/>
     </row>
     <row r="939">
-      <c r="C939" s="25"/>
+      <c r="C939" s="23"/>
     </row>
     <row r="940">
-      <c r="C940" s="25"/>
+      <c r="C940" s="23"/>
     </row>
     <row r="941">
-      <c r="C941" s="25"/>
+      <c r="C941" s="23"/>
     </row>
     <row r="942">
-      <c r="C942" s="25"/>
+      <c r="C942" s="23"/>
     </row>
     <row r="943">
-      <c r="C943" s="25"/>
+      <c r="C943" s="23"/>
     </row>
     <row r="944">
-      <c r="C944" s="25"/>
+      <c r="C944" s="23"/>
     </row>
     <row r="945">
-      <c r="C945" s="25"/>
+      <c r="C945" s="23"/>
     </row>
     <row r="946">
-      <c r="C946" s="25"/>
+      <c r="C946" s="23"/>
     </row>
     <row r="947">
-      <c r="C947" s="25"/>
+      <c r="C947" s="23"/>
     </row>
     <row r="948">
-      <c r="C948" s="25"/>
+      <c r="C948" s="23"/>
     </row>
     <row r="949">
-      <c r="C949" s="25"/>
+      <c r="C949" s="23"/>
     </row>
     <row r="950">
-      <c r="C950" s="25"/>
+      <c r="C950" s="23"/>
     </row>
     <row r="951">
-      <c r="C951" s="25"/>
+      <c r="C951" s="23"/>
     </row>
     <row r="952">
-      <c r="C952" s="25"/>
+      <c r="C952" s="23"/>
     </row>
     <row r="953">
-      <c r="C953" s="25"/>
+      <c r="C953" s="23"/>
     </row>
     <row r="954">
-      <c r="C954" s="25"/>
+      <c r="C954" s="23"/>
     </row>
     <row r="955">
-      <c r="C955" s="25"/>
+      <c r="C955" s="23"/>
     </row>
     <row r="956">
-      <c r="C956" s="25"/>
+      <c r="C956" s="23"/>
     </row>
     <row r="957">
-      <c r="C957" s="25"/>
+      <c r="C957" s="23"/>
     </row>
     <row r="958">
-      <c r="C958" s="25"/>
+      <c r="C958" s="23"/>
     </row>
     <row r="959">
-      <c r="C959" s="25"/>
+      <c r="C959" s="23"/>
     </row>
     <row r="960">
-      <c r="C960" s="25"/>
+      <c r="C960" s="23"/>
     </row>
     <row r="961">
-      <c r="C961" s="25"/>
+      <c r="C961" s="23"/>
     </row>
     <row r="962">
-      <c r="C962" s="25"/>
+      <c r="C962" s="23"/>
     </row>
     <row r="963">
-      <c r="C963" s="25"/>
+      <c r="C963" s="23"/>
     </row>
     <row r="964">
-      <c r="C964" s="25"/>
+      <c r="C964" s="23"/>
     </row>
     <row r="965">
-      <c r="C965" s="25"/>
+      <c r="C965" s="23"/>
     </row>
     <row r="966">
-      <c r="C966" s="25"/>
+      <c r="C966" s="23"/>
     </row>
     <row r="967">
-      <c r="C967" s="25"/>
+      <c r="C967" s="23"/>
     </row>
     <row r="968">
-      <c r="C968" s="25"/>
+      <c r="C968" s="23"/>
     </row>
     <row r="969">
-      <c r="C969" s="25"/>
+      <c r="C969" s="23"/>
     </row>
     <row r="970">
-      <c r="C970" s="25"/>
+      <c r="C970" s="23"/>
     </row>
     <row r="971">
-      <c r="C971" s="25"/>
+      <c r="C971" s="23"/>
     </row>
     <row r="972">
-      <c r="C972" s="25"/>
+      <c r="C972" s="23"/>
     </row>
     <row r="973">
-      <c r="C973" s="25"/>
+      <c r="C973" s="23"/>
     </row>
     <row r="974">
-      <c r="C974" s="25"/>
+      <c r="C974" s="23"/>
     </row>
     <row r="975">
-      <c r="C975" s="25"/>
+      <c r="C975" s="23"/>
     </row>
     <row r="976">
-      <c r="C976" s="25"/>
+      <c r="C976" s="23"/>
     </row>
     <row r="977">
-      <c r="C977" s="25"/>
+      <c r="C977" s="23"/>
     </row>
     <row r="978">
-      <c r="C978" s="25"/>
+      <c r="C978" s="23"/>
     </row>
     <row r="979">
-      <c r="C979" s="25"/>
+      <c r="C979" s="23"/>
     </row>
     <row r="980">
-      <c r="C980" s="25"/>
+      <c r="C980" s="23"/>
     </row>
     <row r="981">
-      <c r="C981" s="25"/>
+      <c r="C981" s="23"/>
     </row>
     <row r="982">
-      <c r="C982" s="25"/>
+      <c r="C982" s="23"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K2:K5">

--- a/code/vocab_csv/rules.xlsx
+++ b/code/vocab_csv/rules.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="93">
   <si>
     <t>Term</t>
   </si>
@@ -155,6 +155,9 @@
     <t>Status indicating a prohibition has been violated i.e. the activity stated as being prohibited has been carried out</t>
   </si>
   <si>
+    <t>dpv:RuleViolated</t>
+  </si>
+  <si>
     <t>ObligationUnfulfilled</t>
   </si>
   <si>
@@ -164,6 +167,9 @@
     <t>Status indicating an obligation has not been fulfilled i.e. the activity stated as being required to be carried out has not been carried out but this is not considered as a violation e.g. there is still time to conduct the activity</t>
   </si>
   <si>
+    <t>dpv:RuleUnfulfilled</t>
+  </si>
+  <si>
     <t>ObligationViolated</t>
   </si>
   <si>
@@ -180,6 +186,9 @@
   </si>
   <si>
     <t>Status indicating a prohibition has been fulfilled i.e. the activity stated as being prohibited has not been carried out</t>
+  </si>
+  <si>
+    <t>dpv:RuleFulfilled</t>
   </si>
   <si>
     <t>ObligationFulfilled</t>
@@ -1228,7 +1237,9 @@
       <c r="C11" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="11"/>
+      <c r="D11" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="E11" s="10" t="s">
         <v>37</v>
       </c>
@@ -1268,15 +1279,17 @@
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="E12" s="10" t="s">
         <v>37</v>
       </c>
@@ -1316,15 +1329,17 @@
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="11"/>
+        <v>54</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="E13" s="10" t="s">
         <v>37</v>
       </c>
@@ -1364,15 +1379,17 @@
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="11"/>
+        <v>57</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E14" s="10" t="s">
         <v>37</v>
       </c>
@@ -1412,15 +1429,17 @@
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C15" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="11"/>
       <c r="E15" s="10" t="s">
         <v>37</v>
       </c>
@@ -1460,15 +1479,17 @@
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="11"/>
+        <v>64</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E16" s="10" t="s">
         <v>37</v>
       </c>
@@ -1508,15 +1529,17 @@
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="11"/>
+        <v>67</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="E17" s="10" t="s">
         <v>37</v>
       </c>
@@ -4224,13 +4247,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -4262,22 +4285,22 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>23</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
@@ -4310,22 +4333,22 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>71</v>
-      </c>
       <c r="E3" s="10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -4358,22 +4381,22 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C4" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>80</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>77</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
@@ -4406,22 +4429,22 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -4454,22 +4477,22 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>

--- a/code/vocab_csv/rules.xlsx
+++ b/code/vocab_csv/rules.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="134">
   <si>
     <t>Term</t>
   </si>
@@ -77,13 +77,79 @@
     <t>Harshvardhan J. Pandit, Georg P. Krog, Beatriz Esteves, Paul Ryan</t>
   </si>
   <si>
+    <t>AcceptableRule</t>
+  </si>
+  <si>
+    <t>Acceptable Rule</t>
+  </si>
+  <si>
+    <t>A rule that is acceptable where it is either desirable if it occurs or it is not unacceptable if it does</t>
+  </si>
+  <si>
+    <t>dpv:Rule</t>
+  </si>
+  <si>
+    <t>Acceptable is a subjective concept that enables distinguishing with "unacceptable". By itself it does not signal any permission or obligation - for which further specific concepts are defined</t>
+  </si>
+  <si>
+    <t>Harshvardhan J. Pandit, Georg P. Krog, Julian Flake, Delaram Golpayegani, Beatriz Esteves, Arthit Suriyawongkul, Paul Ryan</t>
+  </si>
+  <si>
     <t>Permission</t>
   </si>
   <si>
     <t>A rule describing a permission to perform an activity</t>
   </si>
   <si>
-    <t>dpv:Rule</t>
+    <t>dpv:AcceptableRule</t>
+  </si>
+  <si>
+    <t>Permissions are aligned with the term MAY in RFC2119 where specified activities may or may not be carried out</t>
+  </si>
+  <si>
+    <t>modified</t>
+  </si>
+  <si>
+    <t>Recommendation</t>
+  </si>
+  <si>
+    <t>A rule describing a recommendation for performing an activity</t>
+  </si>
+  <si>
+    <t>Recommendations are aligned with the term SHOULD in RFC2119 where specified activities should be carried out but are not obligations</t>
+  </si>
+  <si>
+    <t>Obligation</t>
+  </si>
+  <si>
+    <t>A rule describing an obligation for performing an activity</t>
+  </si>
+  <si>
+    <t>Obligations are aligned with the term MUST in RFC2119 where specified activities are mandatory to be carried out</t>
+  </si>
+  <si>
+    <t>UnacceptableRule</t>
+  </si>
+  <si>
+    <t>Unacceptable Rule</t>
+  </si>
+  <si>
+    <t>A rule that is unacceptable where it not desirable if it occurs</t>
+  </si>
+  <si>
+    <t>Unacceptable is a subjective concept that enables specifying something is to be avoided as compared to "acceptable". By itself it does not signal any deterrence or prohibition - for which further specific concepts are defined</t>
+  </si>
+  <si>
+    <t>Deterrence</t>
+  </si>
+  <si>
+    <t>A rule describing a deterrence for performing an activity</t>
+  </si>
+  <si>
+    <t>dpv:UnacceptableRule</t>
+  </si>
+  <si>
+    <t>Deterrences are aligned with the term SHOULD NOT in RFC2119 where specified activities should be avoided from being carried out but are not prohibitions</t>
   </si>
   <si>
     <t>Prohibition</t>
@@ -92,10 +158,7 @@
     <t>A rule describing a prohibition to perform an activity</t>
   </si>
   <si>
-    <t>Obligation</t>
-  </si>
-  <si>
-    <t>A rule describing an obligation for performing an activity</t>
+    <t>Prohibitions are aligned with the term MUST NOT in RFC2119 where specified activities are prohibited from being carried out</t>
   </si>
   <si>
     <t>RuleFulfilmentStatus</t>
@@ -218,6 +281,42 @@
     <t>Status indicating a permission has not been utilised i.e. the activity stated as being permitted has not been carried out</t>
   </si>
   <si>
+    <t>RecommendationUtilised</t>
+  </si>
+  <si>
+    <t>Recommendation Utilised</t>
+  </si>
+  <si>
+    <t>Status indicating a recommendation has been utilised i.e. the activity stated as being recommended has been carried out</t>
+  </si>
+  <si>
+    <t>RecommendationNotUtilised</t>
+  </si>
+  <si>
+    <t>Recommendation Not Utilised</t>
+  </si>
+  <si>
+    <t>Status indicating a recommendation has not been utilised i.e. the activity stated as being recommended has not been carried out</t>
+  </si>
+  <si>
+    <t>DeterrenceUtilised</t>
+  </si>
+  <si>
+    <t>Deterrence Utilised</t>
+  </si>
+  <si>
+    <t>Status indicating a deterrence has been utilised i.e. the activity stated as being deterred has not been carried out</t>
+  </si>
+  <si>
+    <t>DeterrenceNotUtilised</t>
+  </si>
+  <si>
+    <t>Deterrence Not Utilised</t>
+  </si>
+  <si>
+    <t>Status indicating a deterrence has not been utilised i.e. the activity stated as being deterred has been carried out</t>
+  </si>
+  <si>
     <t>domain</t>
   </si>
   <si>
@@ -233,7 +332,7 @@
     <t>has rule</t>
   </si>
   <si>
-    <t>Specifying applicability or inclusion of a rule within specified context</t>
+    <t>Specifies applicability or inclusion of a rule within specified context</t>
   </si>
   <si>
     <t>dpv:Context</t>
@@ -248,7 +347,7 @@
     <t>has permission</t>
   </si>
   <si>
-    <t>Specifying applicability or inclusion of a permission rule within specified context</t>
+    <t>Specifies applicability or inclusion of a permission rule within specified context</t>
   </si>
   <si>
     <t>dpv:Permission</t>
@@ -257,37 +356,61 @@
     <t>dpv:hasRule</t>
   </si>
   <si>
+    <t>hasRecommendation</t>
+  </si>
+  <si>
+    <t>has recommendation</t>
+  </si>
+  <si>
+    <t>Specifies applicability or inclusion of a recommendation rule within specified context</t>
+  </si>
+  <si>
+    <t>dpv:Recommendation</t>
+  </si>
+  <si>
+    <t>hasObligation</t>
+  </si>
+  <si>
+    <t>has obligation</t>
+  </si>
+  <si>
+    <t>Specifies applicability or inclusion of an obligation rule within specified context</t>
+  </si>
+  <si>
+    <t>dpv:Obligation</t>
+  </si>
+  <si>
+    <t>hasDeterrence</t>
+  </si>
+  <si>
+    <t>has deterrence</t>
+  </si>
+  <si>
+    <t>Specifies applicability or inclusion of a deterrence rule within specified context</t>
+  </si>
+  <si>
+    <t>dpv:Deterrence</t>
+  </si>
+  <si>
     <t>hasProhibition</t>
   </si>
   <si>
     <t>has prohibition</t>
   </si>
   <si>
-    <t>Specifying applicability or inclusion of a prohibition rule within specified context</t>
+    <t>Specifies applicability or inclusion of a prohibition rule within specified context</t>
   </si>
   <si>
     <t>dpv:Prohibition</t>
   </si>
   <si>
-    <t>hasObligation</t>
-  </si>
-  <si>
-    <t>has obligation</t>
-  </si>
-  <si>
-    <t>Specifying applicability or inclusion of an obligation rule within specified context</t>
-  </si>
-  <si>
-    <t>dpv:Obligation</t>
-  </si>
-  <si>
-    <t>hasFulfillmentsStatus</t>
-  </si>
-  <si>
-    <t>has fulfillment status</t>
-  </si>
-  <si>
-    <t>Specifying the fulfillment status associated with a rule</t>
+    <t>hasFulfilmentStatus</t>
+  </si>
+  <si>
+    <t>has fulfilment status</t>
+  </si>
+  <si>
+    <t>Specifies the fulfillment status associated with a rule</t>
   </si>
   <si>
     <t>dpv:hasStatus</t>
@@ -324,13 +447,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <color rgb="FF274E13"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -454,10 +577,10 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
@@ -474,7 +597,7 @@
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -884,81 +1007,44 @@
       <c r="AF2" s="11"/>
     </row>
     <row r="3">
-      <c r="A3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="12">
-        <v>44853.0</v>
-      </c>
-      <c r="L3" s="11"/>
-      <c r="M3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="K3" s="12"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="13"/>
+      <c r="I4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="11"/>
       <c r="K4" s="12">
-        <v>44853.0</v>
-      </c>
-      <c r="L4" s="12"/>
+        <v>45827.0</v>
+      </c>
+      <c r="L4" s="11"/>
       <c r="M4" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
@@ -981,32 +1067,38 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="E5" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="I5" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="J5" s="11"/>
       <c r="K5" s="12">
         <v>44853.0</v>
       </c>
-      <c r="L5" s="11"/>
+      <c r="L5" s="12">
+        <v>45827.0</v>
+      </c>
       <c r="M5" s="10" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
@@ -1028,41 +1120,91 @@
       <c r="AF5" s="11"/>
     </row>
     <row r="6">
-      <c r="B6" s="14"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="12"/>
+      <c r="A6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="14"/>
+      <c r="K6" s="12">
+        <v>45827.0</v>
+      </c>
       <c r="L6" s="12"/>
+      <c r="M6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>31</v>
-      </c>
       <c r="E7" s="10" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="13"/>
+      <c r="I7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="11"/>
       <c r="K7" s="12">
-        <v>45545.0</v>
-      </c>
-      <c r="L7" s="12"/>
+        <v>44853.0</v>
+      </c>
+      <c r="L7" s="12">
+        <v>45827.0</v>
+      </c>
       <c r="M7" s="10" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -1083,54 +1225,6 @@
       <c r="AE7" s="11"/>
       <c r="AF7" s="11"/>
     </row>
-    <row r="8">
-      <c r="A8" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="12">
-        <v>45545.0</v>
-      </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="11"/>
-    </row>
     <row r="9">
       <c r="A9" s="10" t="s">
         <v>38</v>
@@ -1143,22 +1237,24 @@
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="10" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="I9" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="J9" s="11"/>
       <c r="K9" s="12">
-        <v>45545.0</v>
+        <v>45827.0</v>
       </c>
       <c r="L9" s="11"/>
       <c r="M9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
@@ -1181,7 +1277,7 @@
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>42</v>
@@ -1189,24 +1285,28 @@
       <c r="C10" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="E10" s="10" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
+      <c r="I10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="14"/>
       <c r="K10" s="12">
-        <v>45545.0</v>
-      </c>
-      <c r="L10" s="11"/>
+        <v>45827.0</v>
+      </c>
+      <c r="L10" s="12"/>
       <c r="M10" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
@@ -1229,36 +1329,40 @@
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>47</v>
-      </c>
       <c r="E11" s="10" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="16"/>
+      <c r="I11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="14"/>
       <c r="K11" s="12">
-        <v>45545.0</v>
-      </c>
-      <c r="L11" s="12"/>
+        <v>44853.0</v>
+      </c>
+      <c r="L11" s="12">
+        <v>45827.0</v>
+      </c>
       <c r="M11" s="10" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="O11" s="17"/>
+        <v>26</v>
+      </c>
+      <c r="O11" s="11"/>
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
@@ -1278,85 +1382,41 @@
       <c r="AF11" s="11"/>
     </row>
     <row r="12">
-      <c r="A12" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="12">
-        <v>45545.0</v>
-      </c>
-      <c r="L12" s="11"/>
-      <c r="M12" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="N12" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="11"/>
+      <c r="B12" s="13"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="E13" s="10" t="s">
         <v>53</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>37</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
+      <c r="J13" s="14"/>
       <c r="K13" s="12">
         <v>45545.0</v>
       </c>
-      <c r="L13" s="11"/>
+      <c r="L13" s="12"/>
       <c r="M13" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
@@ -1387,17 +1447,15 @@
       <c r="C14" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="11"/>
+      <c r="E14" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>37</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
+      <c r="J14" s="14"/>
       <c r="K14" s="12">
         <v>45545.0</v>
       </c>
@@ -1406,7 +1464,7 @@
         <v>19</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
@@ -1437,26 +1495,24 @@
       <c r="C15" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="11"/>
+      <c r="E15" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>37</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="18"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
       <c r="K15" s="12">
         <v>45545.0</v>
       </c>
-      <c r="L15" s="12"/>
+      <c r="L15" s="11"/>
       <c r="M15" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
@@ -1487,17 +1543,15 @@
       <c r="C16" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="11"/>
+      <c r="E16" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>37</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
-      <c r="J16" s="16"/>
+      <c r="J16" s="11"/>
       <c r="K16" s="12">
         <v>45545.0</v>
       </c>
@@ -1506,7 +1560,7 @@
         <v>19</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
@@ -1534,31 +1588,31 @@
       <c r="B17" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="15" t="s">
         <v>67</v>
       </c>
       <c r="D17" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>37</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
+      <c r="J17" s="16"/>
       <c r="K17" s="12">
         <v>45545.0</v>
       </c>
-      <c r="L17" s="11"/>
+      <c r="L17" s="12"/>
       <c r="M17" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="O17" s="11"/>
+        <v>54</v>
+      </c>
+      <c r="O17" s="17"/>
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
@@ -1578,34 +1632,504 @@
       <c r="AF17" s="11"/>
     </row>
     <row r="18">
-      <c r="B18" s="20"/>
+      <c r="A18" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="12">
+        <v>45545.0</v>
+      </c>
+      <c r="L18" s="11"/>
+      <c r="M18" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="11"/>
     </row>
     <row r="19">
-      <c r="B19" s="20"/>
+      <c r="A19" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="12">
+        <v>45545.0</v>
+      </c>
+      <c r="L19" s="11"/>
+      <c r="M19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="11"/>
     </row>
     <row r="20">
-      <c r="B20" s="20"/>
+      <c r="A20" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="12">
+        <v>45545.0</v>
+      </c>
+      <c r="L20" s="11"/>
+      <c r="M20" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="11"/>
     </row>
     <row r="21">
-      <c r="B21" s="20"/>
+      <c r="A21" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="12">
+        <v>45545.0</v>
+      </c>
+      <c r="L21" s="12"/>
+      <c r="M21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="11"/>
     </row>
     <row r="22">
-      <c r="B22" s="20"/>
+      <c r="A22" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="12">
+        <v>45545.0</v>
+      </c>
+      <c r="L22" s="11"/>
+      <c r="M22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="11"/>
+      <c r="AE22" s="11"/>
+      <c r="AF22" s="11"/>
     </row>
     <row r="23">
-      <c r="B23" s="20"/>
+      <c r="A23" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="12">
+        <v>45545.0</v>
+      </c>
+      <c r="L23" s="11"/>
+      <c r="M23" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="11"/>
     </row>
     <row r="24">
-      <c r="B24" s="20"/>
+      <c r="A24" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="12">
+        <v>45827.0</v>
+      </c>
+      <c r="L24" s="11"/>
+      <c r="M24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="11"/>
+      <c r="AD24" s="11"/>
+      <c r="AE24" s="11"/>
+      <c r="AF24" s="11"/>
     </row>
     <row r="25">
-      <c r="B25" s="20"/>
+      <c r="A25" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="12">
+        <v>45827.0</v>
+      </c>
+      <c r="L25" s="11"/>
+      <c r="M25" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="11"/>
+      <c r="AD25" s="11"/>
+      <c r="AE25" s="11"/>
+      <c r="AF25" s="11"/>
     </row>
     <row r="26">
-      <c r="B26" s="20"/>
+      <c r="A26" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="12">
+        <v>45827.0</v>
+      </c>
+      <c r="L26" s="11"/>
+      <c r="M26" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="11"/>
+      <c r="AD26" s="11"/>
+      <c r="AE26" s="11"/>
+      <c r="AF26" s="11"/>
     </row>
     <row r="27">
-      <c r="B27" s="20"/>
+      <c r="A27" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="12">
+        <v>45827.0</v>
+      </c>
+      <c r="L27" s="11"/>
+      <c r="M27" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N27" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="11"/>
+      <c r="AD27" s="11"/>
+      <c r="AE27" s="11"/>
+      <c r="AF27" s="11"/>
     </row>
     <row r="28">
       <c r="B28" s="20"/>
@@ -4178,28 +4702,43 @@
     <row r="884">
       <c r="B884" s="20"/>
     </row>
+    <row r="885">
+      <c r="B885" s="20"/>
+    </row>
+    <row r="886">
+      <c r="B886" s="20"/>
+    </row>
+    <row r="887">
+      <c r="B887" s="20"/>
+    </row>
+    <row r="888">
+      <c r="B888" s="20"/>
+    </row>
+    <row r="889">
+      <c r="B889" s="20"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:J2 K2:K5 L2:M2 N2:N6 O2:AF2">
+  <conditionalFormatting sqref="A2:J2 K2:K11 L2:M2 N2:N12 O2:AF2 N24:N27">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$M2="modified"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:J2 K2:K5 L2:M2 N2:N6 O2:AF2">
+  <conditionalFormatting sqref="A2:J2 K2:K11 L2:M2 N2:N12 O2:AF2 N24:N27">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>$M2="deprecated"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AF834">
+  <conditionalFormatting sqref="A2:AF839">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>$M2="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AF834">
+  <conditionalFormatting sqref="A2:AF839">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>$M2="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AF834">
+  <conditionalFormatting sqref="A2:AF839">
     <cfRule type="expression" dxfId="4" priority="5">
       <formula>$M2="modified"</formula>
     </cfRule>
@@ -4247,13 +4786,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -4285,22 +4824,22 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>72</v>
+        <v>104</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>105</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
@@ -4333,22 +4872,22 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -4381,36 +4920,36 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="12">
-        <v>44853.0</v>
+        <v>45827.0</v>
       </c>
       <c r="L4" s="11"/>
       <c r="M4" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
@@ -4429,22 +4968,22 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -4477,36 +5016,36 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>91</v>
+        <v>123</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>124</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="12">
-        <v>45545.0</v>
+        <v>45827.0</v>
       </c>
       <c r="L6" s="11"/>
       <c r="M6" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -4524,10 +5063,84 @@
       <c r="AB6" s="11"/>
     </row>
     <row r="7">
-      <c r="C7" s="23"/>
+      <c r="A7" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="12">
+        <v>44853.0</v>
+      </c>
+      <c r="L7" s="11"/>
+      <c r="M7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
     </row>
     <row r="8">
-      <c r="C8" s="23"/>
+      <c r="A8" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="K8" s="12">
+        <v>45545.0</v>
+      </c>
+      <c r="L8" s="12">
+        <v>45827.0</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="9">
       <c r="C9" s="23"/>
@@ -7451,28 +8064,34 @@
     <row r="982">
       <c r="C982" s="23"/>
     </row>
+    <row r="983">
+      <c r="C983" s="23"/>
+    </row>
+    <row r="984">
+      <c r="C984" s="23"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="K2:K5">
+  <conditionalFormatting sqref="K2:K7 L8">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$M2="modified"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K5">
+  <conditionalFormatting sqref="K2:K7 L8">
     <cfRule type="expression" dxfId="4" priority="2">
       <formula>$M2="modified"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AB300">
+  <conditionalFormatting sqref="A2:AB302">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>$M2="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AB200">
+  <conditionalFormatting sqref="A2:AB202">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>$M2="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:B3 C2:D17 E2:E3 F2:F17 G2:J3 K2:K17 L2:AB3 A6:B17 E6:E17 G6:J17 L6:AB17">
+  <conditionalFormatting sqref="A2:B3 C2:D19 E2:E3 F2:F19 G2:J3 K2:K19 L2:AB3 A8:B19 E8:E19 G8:J19 L8:AB19">
     <cfRule type="expression" dxfId="1" priority="5">
       <formula>$M2="deprecated"</formula>
     </cfRule>

--- a/code/vocab_csv/rules.xlsx
+++ b/code/vocab_csv/rules.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="135">
   <si>
     <t>Term</t>
   </si>
@@ -209,6 +209,60 @@
     <t>Status indicating a rule has been violated, breached, broken, or infracted</t>
   </si>
   <si>
+    <t>ObligationUnfulfilled</t>
+  </si>
+  <si>
+    <t>Obligation Unfulfilled</t>
+  </si>
+  <si>
+    <t>Status indicating an obligation has not been fulfilled i.e. the activity stated as being required to be carried out has not been carried out but this is not considered as a violation e.g. there is still time to conduct the activity</t>
+  </si>
+  <si>
+    <t>dpv:RuleUnfulfilled</t>
+  </si>
+  <si>
+    <t>ObligationViolated</t>
+  </si>
+  <si>
+    <t>Obligation Violated</t>
+  </si>
+  <si>
+    <t>Status indicating an obligation has been violated i.e. the activity stated as being required to be carried out has not been carried out and this is considered as a violation i.e. the activity can no longer be carried out to fulfil the obligation</t>
+  </si>
+  <si>
+    <t>dpv:RuleViolated</t>
+  </si>
+  <si>
+    <t>ObligationFulfilled</t>
+  </si>
+  <si>
+    <t>Obligation Fulfilled</t>
+  </si>
+  <si>
+    <t>Status indicating an obligation has been fulfilled i.e. the activity stated as being required to be carried out has been successfully completed</t>
+  </si>
+  <si>
+    <t>dpv:RuleFulfilled</t>
+  </si>
+  <si>
+    <t>PermissionUtilised</t>
+  </si>
+  <si>
+    <t>Permission Utilised</t>
+  </si>
+  <si>
+    <t>Status indicating a permission has been utilised i.e. the activity stated as being permitted has been carried out</t>
+  </si>
+  <si>
+    <t>PermissionNotUtilised</t>
+  </si>
+  <si>
+    <t>Permission Not Utilised</t>
+  </si>
+  <si>
+    <t>Status indicating a permission has not been utilised i.e. the activity stated as being permitted has not been carried out</t>
+  </si>
+  <si>
     <t>ProhibitionViolated</t>
   </si>
   <si>
@@ -218,103 +272,52 @@
     <t>Status indicating a prohibition has been violated i.e. the activity stated as being prohibited has been carried out</t>
   </si>
   <si>
-    <t>dpv:RuleViolated</t>
-  </si>
-  <si>
-    <t>ObligationUnfulfilled</t>
-  </si>
-  <si>
-    <t>Obligation Unfulfilled</t>
-  </si>
-  <si>
-    <t>Status indicating an obligation has not been fulfilled i.e. the activity stated as being required to be carried out has not been carried out but this is not considered as a violation e.g. there is still time to conduct the activity</t>
-  </si>
-  <si>
-    <t>dpv:RuleUnfulfilled</t>
-  </si>
-  <si>
-    <t>ObligationViolated</t>
-  </si>
-  <si>
-    <t>Obligation Violated</t>
-  </si>
-  <si>
-    <t>Status indicating an obligation has been violated i.e. the activity stated as being required to be carried out has not been carried out and this is considered as a violation i.e. the activity can no longer be carried out to fulfil the obligation</t>
-  </si>
-  <si>
-    <t>ProhibitionFulfilled</t>
-  </si>
-  <si>
-    <t>Prohibition Fulfilled</t>
-  </si>
-  <si>
-    <t>Status indicating a prohibition has been fulfilled i.e. the activity stated as being prohibited has not been carried out</t>
-  </si>
-  <si>
-    <t>dpv:RuleFulfilled</t>
-  </si>
-  <si>
-    <t>ObligationFulfilled</t>
-  </si>
-  <si>
-    <t>Obligation Fulfilled</t>
-  </si>
-  <si>
-    <t>Status indicating an obligation has been fulfilled i.e. the activity stated as being required to be carried out has been successfully completed</t>
-  </si>
-  <si>
-    <t>PermissionUtilised</t>
-  </si>
-  <si>
-    <t>Permission Utilised</t>
-  </si>
-  <si>
-    <t>Status indicating a permission has been utilised i.e. the activity stated as being permitted has been carried out</t>
-  </si>
-  <si>
-    <t>PermissionNotUtilised</t>
-  </si>
-  <si>
-    <t>Permission Not Utilised</t>
-  </si>
-  <si>
-    <t>Status indicating a permission has not been utilised i.e. the activity stated as being permitted has not been carried out</t>
-  </si>
-  <si>
-    <t>RecommendationUtilised</t>
-  </si>
-  <si>
-    <t>Recommendation Utilised</t>
-  </si>
-  <si>
-    <t>Status indicating a recommendation has been utilised i.e. the activity stated as being recommended has been carried out</t>
-  </si>
-  <si>
-    <t>RecommendationNotUtilised</t>
-  </si>
-  <si>
-    <t>Recommendation Not Utilised</t>
-  </si>
-  <si>
-    <t>Status indicating a recommendation has not been utilised i.e. the activity stated as being recommended has not been carried out</t>
-  </si>
-  <si>
-    <t>DeterrenceUtilised</t>
-  </si>
-  <si>
-    <t>Deterrence Utilised</t>
-  </si>
-  <si>
-    <t>Status indicating a deterrence has been utilised i.e. the activity stated as being deterred has not been carried out</t>
-  </si>
-  <si>
-    <t>DeterrenceNotUtilised</t>
-  </si>
-  <si>
-    <t>Deterrence Not Utilised</t>
-  </si>
-  <si>
-    <t>Status indicating a deterrence has not been utilised i.e. the activity stated as being deterred has been carried out</t>
+    <t>ProhibitionUnviolated</t>
+  </si>
+  <si>
+    <t>Prohibition Unviolated</t>
+  </si>
+  <si>
+    <t>Status indicating a prohibition has not been violated i.e. the activity stated as being prohibited has not been carried out</t>
+  </si>
+  <si>
+    <t>Harshvardhan J. Pandit, Beatriz Esteves, Julian Flake, Georg P. Krog</t>
+  </si>
+  <si>
+    <t>RecommendationFollowed</t>
+  </si>
+  <si>
+    <t>Recommendation Followed</t>
+  </si>
+  <si>
+    <t>Status indicating a recommendation has been followed i.e. the activity stated as being recommended has been carried out</t>
+  </si>
+  <si>
+    <t>RecommendationNotFollowed</t>
+  </si>
+  <si>
+    <t>Recommendation Not Followed</t>
+  </si>
+  <si>
+    <t>Status indicating a recommendation has not been followed i.e. the activity stated as being recommended has not been carried out</t>
+  </si>
+  <si>
+    <t>DeterrenceFollowed</t>
+  </si>
+  <si>
+    <t>Deterrence Followed</t>
+  </si>
+  <si>
+    <t>Status indicating a deterrence has been followed i.e. the activity stated as being deterred has not been carried out</t>
+  </si>
+  <si>
+    <t>DeterrenceNotFollowed</t>
+  </si>
+  <si>
+    <t>Deterrence Not Followed</t>
+  </si>
+  <si>
+    <t>Status indicating a deterrence has not been followed i.e. the activity stated as being deterred has been carried out</t>
   </si>
   <si>
     <t>domain</t>
@@ -457,18 +460,18 @@
     </font>
     <font>
       <u/>
-      <color rgb="FF1155CC"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <color rgb="FF000000"/>
+      <color rgb="FF1155CC"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -485,6 +488,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF9FC5E8"/>
         <bgColor rgb="FF9FC5E8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
   </fills>
@@ -538,7 +547,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -582,23 +591,44 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -1581,68 +1611,18 @@
       <c r="AE16" s="11"/>
       <c r="AF16" s="11"/>
     </row>
-    <row r="17">
-      <c r="A17" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="12">
-        <v>45545.0</v>
-      </c>
-      <c r="L17" s="12"/>
-      <c r="M17" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="N17" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="O17" s="17"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="11"/>
-      <c r="AC17" s="11"/>
-      <c r="AD17" s="11"/>
-      <c r="AE17" s="11"/>
-      <c r="AF17" s="11"/>
-    </row>
     <row r="18">
       <c r="A18" s="10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>58</v>
@@ -1651,7 +1631,7 @@
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
-      <c r="J18" s="18"/>
+      <c r="J18" s="15"/>
       <c r="K18" s="12">
         <v>45545.0</v>
       </c>
@@ -1683,16 +1663,16 @@
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>58</v>
@@ -1733,16 +1713,16 @@
     </row>
     <row r="20">
       <c r="A20" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>76</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>79</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>58</v>
@@ -1750,12 +1730,12 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="15"/>
       <c r="K20" s="12">
         <v>45545.0</v>
       </c>
-      <c r="L20" s="11"/>
+      <c r="L20" s="12"/>
       <c r="M20" s="10" t="s">
         <v>19</v>
       </c>
@@ -1781,68 +1761,18 @@
       <c r="AE20" s="11"/>
       <c r="AF20" s="11"/>
     </row>
-    <row r="21">
-      <c r="A21" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="12">
-        <v>45545.0</v>
-      </c>
-      <c r="L21" s="12"/>
-      <c r="M21" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="N21" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="11"/>
-      <c r="AC21" s="11"/>
-      <c r="AD21" s="11"/>
-      <c r="AE21" s="11"/>
-      <c r="AF21" s="11"/>
-    </row>
     <row r="22">
       <c r="A22" s="10" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>58</v>
@@ -1851,7 +1781,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
-      <c r="J22" s="16"/>
+      <c r="J22" s="17"/>
       <c r="K22" s="12">
         <v>45545.0</v>
       </c>
@@ -1883,16 +1813,16 @@
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>58</v>
@@ -1932,2813 +1862,2948 @@
       <c r="AF23" s="11"/>
     </row>
     <row r="24">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="K24" s="12"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="21">
+        <v>45545.0</v>
+      </c>
+      <c r="L25" s="22"/>
+      <c r="M25" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="N25" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="20"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="20"/>
+      <c r="AD25" s="20"/>
+      <c r="AE25" s="20"/>
+      <c r="AF25" s="20"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="21">
+        <v>45545.0</v>
+      </c>
+      <c r="L26" s="24">
+        <v>45875.0</v>
+      </c>
+      <c r="M26" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="N26" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20"/>
+      <c r="X26" s="20"/>
+      <c r="Y26" s="20"/>
+      <c r="Z26" s="20"/>
+      <c r="AA26" s="20"/>
+      <c r="AB26" s="20"/>
+      <c r="AC26" s="20"/>
+      <c r="AD26" s="20"/>
+      <c r="AE26" s="20"/>
+      <c r="AF26" s="20"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="K27" s="12"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="B28" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E24" s="10" t="s">
+      <c r="C28" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="12">
-        <v>45827.0</v>
-      </c>
-      <c r="L24" s="11"/>
-      <c r="M24" s="10" t="s">
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="24">
+        <v>45875.0</v>
+      </c>
+      <c r="L28" s="11"/>
+      <c r="M28" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="11"/>
-      <c r="AB24" s="11"/>
-      <c r="AC24" s="11"/>
-      <c r="AD24" s="11"/>
-      <c r="AE24" s="11"/>
-      <c r="AF24" s="11"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="10" t="s">
+      <c r="N28" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="11"/>
+      <c r="AD28" s="11"/>
+      <c r="AE28" s="11"/>
+      <c r="AF28" s="11"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="B29" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="10" t="s">
+      <c r="C29" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="12">
-        <v>45827.0</v>
-      </c>
-      <c r="L25" s="11"/>
-      <c r="M25" s="10" t="s">
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="24">
+        <v>45875.0</v>
+      </c>
+      <c r="L29" s="11"/>
+      <c r="M29" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N25" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="11"/>
-      <c r="Z25" s="11"/>
-      <c r="AA25" s="11"/>
-      <c r="AB25" s="11"/>
-      <c r="AC25" s="11"/>
-      <c r="AD25" s="11"/>
-      <c r="AE25" s="11"/>
-      <c r="AF25" s="11"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B26" s="10" t="s">
+      <c r="N29" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="11"/>
+      <c r="AD29" s="11"/>
+      <c r="AE29" s="11"/>
+      <c r="AF29" s="11"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="B31" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" s="10" t="s">
+      <c r="C31" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="12">
-        <v>45827.0</v>
-      </c>
-      <c r="L26" s="11"/>
-      <c r="M26" s="10" t="s">
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="24">
+        <v>45875.0</v>
+      </c>
+      <c r="L31" s="11"/>
+      <c r="M31" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N26" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="11"/>
-      <c r="AA26" s="11"/>
-      <c r="AB26" s="11"/>
-      <c r="AC26" s="11"/>
-      <c r="AD26" s="11"/>
-      <c r="AE26" s="11"/>
-      <c r="AF26" s="11"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B27" s="10" t="s">
+      <c r="N31" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="11"/>
+      <c r="AD31" s="11"/>
+      <c r="AE31" s="11"/>
+      <c r="AF31" s="11"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="B32" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="10" t="s">
+      <c r="C32" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="12">
-        <v>45827.0</v>
-      </c>
-      <c r="L27" s="11"/>
-      <c r="M27" s="10" t="s">
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="24">
+        <v>45875.0</v>
+      </c>
+      <c r="L32" s="11"/>
+      <c r="M32" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N27" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="11"/>
-      <c r="Z27" s="11"/>
-      <c r="AA27" s="11"/>
-      <c r="AB27" s="11"/>
-      <c r="AC27" s="11"/>
-      <c r="AD27" s="11"/>
-      <c r="AE27" s="11"/>
-      <c r="AF27" s="11"/>
-    </row>
-    <row r="28">
-      <c r="B28" s="20"/>
-    </row>
-    <row r="29">
-      <c r="B29" s="20"/>
-    </row>
-    <row r="30">
-      <c r="B30" s="20"/>
-    </row>
-    <row r="31">
-      <c r="B31" s="20"/>
-    </row>
-    <row r="32">
-      <c r="B32" s="20"/>
+      <c r="N32" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="11"/>
+      <c r="AD32" s="11"/>
+      <c r="AE32" s="11"/>
+      <c r="AF32" s="11"/>
     </row>
     <row r="33">
-      <c r="B33" s="20"/>
+      <c r="B33" s="25"/>
     </row>
     <row r="34">
-      <c r="B34" s="20"/>
+      <c r="C34" s="26"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="O34" s="27"/>
     </row>
     <row r="35">
-      <c r="B35" s="20"/>
+      <c r="K35" s="12"/>
     </row>
     <row r="36">
-      <c r="B36" s="20"/>
+      <c r="B36" s="25"/>
     </row>
     <row r="37">
-      <c r="B37" s="20"/>
+      <c r="B37" s="25"/>
     </row>
     <row r="38">
-      <c r="B38" s="20"/>
+      <c r="B38" s="25"/>
     </row>
     <row r="39">
-      <c r="B39" s="20"/>
+      <c r="B39" s="25"/>
     </row>
     <row r="40">
-      <c r="B40" s="20"/>
+      <c r="B40" s="25"/>
     </row>
     <row r="41">
-      <c r="B41" s="20"/>
+      <c r="B41" s="25"/>
     </row>
     <row r="42">
-      <c r="B42" s="20"/>
+      <c r="B42" s="25"/>
     </row>
     <row r="43">
-      <c r="B43" s="20"/>
+      <c r="B43" s="25"/>
     </row>
     <row r="44">
-      <c r="B44" s="20"/>
+      <c r="B44" s="25"/>
     </row>
     <row r="45">
-      <c r="B45" s="20"/>
+      <c r="B45" s="25"/>
     </row>
     <row r="46">
-      <c r="B46" s="20"/>
+      <c r="B46" s="25"/>
     </row>
     <row r="47">
-      <c r="B47" s="20"/>
+      <c r="B47" s="25"/>
     </row>
     <row r="48">
-      <c r="B48" s="20"/>
+      <c r="B48" s="25"/>
     </row>
     <row r="49">
-      <c r="B49" s="20"/>
+      <c r="B49" s="25"/>
     </row>
     <row r="50">
-      <c r="B50" s="20"/>
+      <c r="B50" s="25"/>
     </row>
     <row r="51">
-      <c r="B51" s="20"/>
+      <c r="B51" s="25"/>
     </row>
     <row r="52">
-      <c r="B52" s="20"/>
+      <c r="B52" s="25"/>
     </row>
     <row r="53">
-      <c r="B53" s="20"/>
+      <c r="B53" s="25"/>
     </row>
     <row r="54">
-      <c r="B54" s="20"/>
+      <c r="B54" s="25"/>
     </row>
     <row r="55">
-      <c r="B55" s="20"/>
+      <c r="B55" s="25"/>
     </row>
     <row r="56">
-      <c r="B56" s="20"/>
+      <c r="B56" s="25"/>
     </row>
     <row r="57">
-      <c r="B57" s="20"/>
+      <c r="B57" s="25"/>
     </row>
     <row r="58">
-      <c r="B58" s="20"/>
+      <c r="B58" s="25"/>
     </row>
     <row r="59">
-      <c r="B59" s="20"/>
+      <c r="B59" s="25"/>
     </row>
     <row r="60">
-      <c r="B60" s="20"/>
+      <c r="B60" s="25"/>
     </row>
     <row r="61">
-      <c r="B61" s="20"/>
+      <c r="B61" s="25"/>
     </row>
     <row r="62">
-      <c r="B62" s="20"/>
+      <c r="B62" s="25"/>
     </row>
     <row r="63">
-      <c r="B63" s="20"/>
+      <c r="B63" s="25"/>
     </row>
     <row r="64">
-      <c r="B64" s="20"/>
+      <c r="B64" s="25"/>
     </row>
     <row r="65">
-      <c r="B65" s="20"/>
+      <c r="B65" s="25"/>
     </row>
     <row r="66">
-      <c r="B66" s="20"/>
+      <c r="B66" s="25"/>
     </row>
     <row r="67">
-      <c r="B67" s="20"/>
+      <c r="B67" s="25"/>
     </row>
     <row r="68">
-      <c r="B68" s="20"/>
+      <c r="B68" s="25"/>
     </row>
     <row r="69">
-      <c r="B69" s="20"/>
+      <c r="B69" s="25"/>
     </row>
     <row r="70">
-      <c r="B70" s="20"/>
+      <c r="B70" s="25"/>
     </row>
     <row r="71">
-      <c r="B71" s="20"/>
+      <c r="B71" s="25"/>
     </row>
     <row r="72">
-      <c r="B72" s="20"/>
+      <c r="B72" s="25"/>
     </row>
     <row r="73">
-      <c r="B73" s="20"/>
+      <c r="B73" s="25"/>
     </row>
     <row r="74">
-      <c r="B74" s="20"/>
+      <c r="B74" s="25"/>
     </row>
     <row r="75">
-      <c r="B75" s="20"/>
+      <c r="B75" s="25"/>
     </row>
     <row r="76">
-      <c r="B76" s="20"/>
+      <c r="B76" s="25"/>
     </row>
     <row r="77">
-      <c r="B77" s="20"/>
+      <c r="B77" s="25"/>
     </row>
     <row r="78">
-      <c r="B78" s="20"/>
+      <c r="B78" s="25"/>
     </row>
     <row r="79">
-      <c r="B79" s="20"/>
+      <c r="B79" s="25"/>
     </row>
     <row r="80">
-      <c r="B80" s="20"/>
+      <c r="B80" s="25"/>
     </row>
     <row r="81">
-      <c r="B81" s="20"/>
+      <c r="B81" s="25"/>
     </row>
     <row r="82">
-      <c r="B82" s="20"/>
+      <c r="B82" s="25"/>
     </row>
     <row r="83">
-      <c r="B83" s="20"/>
+      <c r="B83" s="25"/>
     </row>
     <row r="84">
-      <c r="B84" s="20"/>
+      <c r="B84" s="25"/>
     </row>
     <row r="85">
-      <c r="B85" s="20"/>
+      <c r="B85" s="25"/>
     </row>
     <row r="86">
-      <c r="B86" s="20"/>
+      <c r="B86" s="25"/>
     </row>
     <row r="87">
-      <c r="B87" s="20"/>
+      <c r="B87" s="25"/>
     </row>
     <row r="88">
-      <c r="B88" s="20"/>
+      <c r="B88" s="25"/>
     </row>
     <row r="89">
-      <c r="B89" s="20"/>
+      <c r="B89" s="25"/>
     </row>
     <row r="90">
-      <c r="B90" s="20"/>
+      <c r="B90" s="25"/>
     </row>
     <row r="91">
-      <c r="B91" s="20"/>
+      <c r="B91" s="25"/>
     </row>
     <row r="92">
-      <c r="B92" s="20"/>
+      <c r="B92" s="25"/>
     </row>
     <row r="93">
-      <c r="B93" s="20"/>
+      <c r="B93" s="25"/>
     </row>
     <row r="94">
-      <c r="B94" s="20"/>
+      <c r="B94" s="25"/>
     </row>
     <row r="95">
-      <c r="B95" s="20"/>
+      <c r="B95" s="25"/>
     </row>
     <row r="96">
-      <c r="B96" s="20"/>
+      <c r="B96" s="25"/>
     </row>
     <row r="97">
-      <c r="B97" s="20"/>
+      <c r="B97" s="25"/>
     </row>
     <row r="98">
-      <c r="B98" s="20"/>
+      <c r="B98" s="25"/>
     </row>
     <row r="99">
-      <c r="B99" s="20"/>
+      <c r="B99" s="25"/>
     </row>
     <row r="100">
-      <c r="B100" s="20"/>
+      <c r="B100" s="25"/>
     </row>
     <row r="101">
-      <c r="B101" s="20"/>
+      <c r="B101" s="25"/>
     </row>
     <row r="102">
-      <c r="B102" s="20"/>
+      <c r="B102" s="25"/>
     </row>
     <row r="103">
-      <c r="B103" s="20"/>
+      <c r="B103" s="25"/>
     </row>
     <row r="104">
-      <c r="B104" s="20"/>
+      <c r="B104" s="25"/>
     </row>
     <row r="105">
-      <c r="B105" s="20"/>
+      <c r="B105" s="25"/>
     </row>
     <row r="106">
-      <c r="B106" s="20"/>
+      <c r="B106" s="25"/>
     </row>
     <row r="107">
-      <c r="B107" s="20"/>
+      <c r="B107" s="25"/>
     </row>
     <row r="108">
-      <c r="B108" s="20"/>
+      <c r="B108" s="25"/>
     </row>
     <row r="109">
-      <c r="B109" s="20"/>
+      <c r="B109" s="25"/>
     </row>
     <row r="110">
-      <c r="B110" s="20"/>
+      <c r="B110" s="25"/>
     </row>
     <row r="111">
-      <c r="B111" s="20"/>
+      <c r="B111" s="25"/>
     </row>
     <row r="112">
-      <c r="B112" s="20"/>
+      <c r="B112" s="25"/>
     </row>
     <row r="113">
-      <c r="B113" s="20"/>
+      <c r="B113" s="25"/>
     </row>
     <row r="114">
-      <c r="B114" s="20"/>
+      <c r="B114" s="25"/>
     </row>
     <row r="115">
-      <c r="B115" s="20"/>
+      <c r="B115" s="25"/>
     </row>
     <row r="116">
-      <c r="B116" s="20"/>
+      <c r="B116" s="25"/>
     </row>
     <row r="117">
-      <c r="B117" s="20"/>
+      <c r="B117" s="25"/>
     </row>
     <row r="118">
-      <c r="B118" s="20"/>
+      <c r="B118" s="25"/>
     </row>
     <row r="119">
-      <c r="B119" s="20"/>
+      <c r="B119" s="25"/>
     </row>
     <row r="120">
-      <c r="B120" s="20"/>
+      <c r="B120" s="25"/>
     </row>
     <row r="121">
-      <c r="B121" s="20"/>
+      <c r="B121" s="25"/>
     </row>
     <row r="122">
-      <c r="B122" s="20"/>
+      <c r="B122" s="25"/>
     </row>
     <row r="123">
-      <c r="B123" s="20"/>
+      <c r="B123" s="25"/>
     </row>
     <row r="124">
-      <c r="B124" s="20"/>
+      <c r="B124" s="25"/>
     </row>
     <row r="125">
-      <c r="B125" s="20"/>
+      <c r="B125" s="25"/>
     </row>
     <row r="126">
-      <c r="B126" s="20"/>
+      <c r="B126" s="25"/>
     </row>
     <row r="127">
-      <c r="B127" s="20"/>
+      <c r="B127" s="25"/>
     </row>
     <row r="128">
-      <c r="B128" s="20"/>
+      <c r="B128" s="25"/>
     </row>
     <row r="129">
-      <c r="B129" s="20"/>
+      <c r="B129" s="25"/>
     </row>
     <row r="130">
-      <c r="B130" s="20"/>
+      <c r="B130" s="25"/>
     </row>
     <row r="131">
-      <c r="B131" s="20"/>
+      <c r="B131" s="25"/>
     </row>
     <row r="132">
-      <c r="B132" s="20"/>
+      <c r="B132" s="25"/>
     </row>
     <row r="133">
-      <c r="B133" s="20"/>
+      <c r="B133" s="25"/>
     </row>
     <row r="134">
-      <c r="B134" s="20"/>
+      <c r="B134" s="25"/>
     </row>
     <row r="135">
-      <c r="B135" s="20"/>
+      <c r="B135" s="25"/>
     </row>
     <row r="136">
-      <c r="B136" s="20"/>
+      <c r="B136" s="25"/>
     </row>
     <row r="137">
-      <c r="B137" s="20"/>
+      <c r="B137" s="25"/>
     </row>
     <row r="138">
-      <c r="B138" s="20"/>
+      <c r="B138" s="25"/>
     </row>
     <row r="139">
-      <c r="B139" s="20"/>
+      <c r="B139" s="25"/>
     </row>
     <row r="140">
-      <c r="B140" s="20"/>
+      <c r="B140" s="25"/>
     </row>
     <row r="141">
-      <c r="B141" s="20"/>
+      <c r="B141" s="25"/>
     </row>
     <row r="142">
-      <c r="B142" s="20"/>
+      <c r="B142" s="25"/>
     </row>
     <row r="143">
-      <c r="B143" s="20"/>
+      <c r="B143" s="25"/>
     </row>
     <row r="144">
-      <c r="B144" s="20"/>
+      <c r="B144" s="25"/>
     </row>
     <row r="145">
-      <c r="B145" s="20"/>
+      <c r="B145" s="25"/>
     </row>
     <row r="146">
-      <c r="B146" s="20"/>
+      <c r="B146" s="25"/>
     </row>
     <row r="147">
-      <c r="B147" s="20"/>
+      <c r="B147" s="25"/>
     </row>
     <row r="148">
-      <c r="B148" s="20"/>
+      <c r="B148" s="25"/>
     </row>
     <row r="149">
-      <c r="B149" s="20"/>
+      <c r="B149" s="25"/>
     </row>
     <row r="150">
-      <c r="B150" s="20"/>
+      <c r="B150" s="25"/>
     </row>
     <row r="151">
-      <c r="B151" s="20"/>
+      <c r="B151" s="25"/>
     </row>
     <row r="152">
-      <c r="B152" s="20"/>
+      <c r="B152" s="25"/>
     </row>
     <row r="153">
-      <c r="B153" s="20"/>
+      <c r="B153" s="25"/>
     </row>
     <row r="154">
-      <c r="B154" s="20"/>
+      <c r="B154" s="25"/>
     </row>
     <row r="155">
-      <c r="B155" s="20"/>
+      <c r="B155" s="25"/>
     </row>
     <row r="156">
-      <c r="B156" s="20"/>
+      <c r="B156" s="25"/>
     </row>
     <row r="157">
-      <c r="B157" s="20"/>
+      <c r="B157" s="25"/>
     </row>
     <row r="158">
-      <c r="B158" s="20"/>
+      <c r="B158" s="25"/>
     </row>
     <row r="159">
-      <c r="B159" s="20"/>
+      <c r="B159" s="25"/>
     </row>
     <row r="160">
-      <c r="B160" s="20"/>
+      <c r="B160" s="25"/>
     </row>
     <row r="161">
-      <c r="B161" s="20"/>
+      <c r="B161" s="25"/>
     </row>
     <row r="162">
-      <c r="B162" s="20"/>
+      <c r="B162" s="25"/>
     </row>
     <row r="163">
-      <c r="B163" s="20"/>
+      <c r="B163" s="25"/>
     </row>
     <row r="164">
-      <c r="B164" s="20"/>
+      <c r="B164" s="25"/>
     </row>
     <row r="165">
-      <c r="B165" s="20"/>
+      <c r="B165" s="25"/>
     </row>
     <row r="166">
-      <c r="B166" s="20"/>
+      <c r="B166" s="25"/>
     </row>
     <row r="167">
-      <c r="B167" s="20"/>
+      <c r="B167" s="25"/>
     </row>
     <row r="168">
-      <c r="B168" s="20"/>
+      <c r="B168" s="25"/>
     </row>
     <row r="169">
-      <c r="B169" s="20"/>
+      <c r="B169" s="25"/>
     </row>
     <row r="170">
-      <c r="B170" s="20"/>
+      <c r="B170" s="25"/>
     </row>
     <row r="171">
-      <c r="B171" s="20"/>
+      <c r="B171" s="25"/>
     </row>
     <row r="172">
-      <c r="B172" s="20"/>
+      <c r="B172" s="25"/>
     </row>
     <row r="173">
-      <c r="B173" s="20"/>
+      <c r="B173" s="25"/>
     </row>
     <row r="174">
-      <c r="B174" s="20"/>
+      <c r="B174" s="25"/>
     </row>
     <row r="175">
-      <c r="B175" s="20"/>
+      <c r="B175" s="25"/>
     </row>
     <row r="176">
-      <c r="B176" s="20"/>
+      <c r="B176" s="25"/>
     </row>
     <row r="177">
-      <c r="B177" s="20"/>
+      <c r="B177" s="25"/>
     </row>
     <row r="178">
-      <c r="B178" s="20"/>
+      <c r="B178" s="25"/>
     </row>
     <row r="179">
-      <c r="B179" s="20"/>
+      <c r="B179" s="25"/>
     </row>
     <row r="180">
-      <c r="B180" s="20"/>
+      <c r="B180" s="25"/>
     </row>
     <row r="181">
-      <c r="B181" s="20"/>
+      <c r="B181" s="25"/>
     </row>
     <row r="182">
-      <c r="B182" s="20"/>
+      <c r="B182" s="25"/>
     </row>
     <row r="183">
-      <c r="B183" s="20"/>
+      <c r="B183" s="25"/>
     </row>
     <row r="184">
-      <c r="B184" s="20"/>
+      <c r="B184" s="25"/>
     </row>
     <row r="185">
-      <c r="B185" s="20"/>
+      <c r="B185" s="25"/>
     </row>
     <row r="186">
-      <c r="B186" s="20"/>
+      <c r="B186" s="25"/>
     </row>
     <row r="187">
-      <c r="B187" s="20"/>
+      <c r="B187" s="25"/>
     </row>
     <row r="188">
-      <c r="B188" s="20"/>
+      <c r="B188" s="25"/>
     </row>
     <row r="189">
-      <c r="B189" s="20"/>
+      <c r="B189" s="25"/>
     </row>
     <row r="190">
-      <c r="B190" s="20"/>
+      <c r="B190" s="25"/>
     </row>
     <row r="191">
-      <c r="B191" s="20"/>
+      <c r="B191" s="25"/>
     </row>
     <row r="192">
-      <c r="B192" s="20"/>
+      <c r="B192" s="25"/>
     </row>
     <row r="193">
-      <c r="B193" s="20"/>
+      <c r="B193" s="25"/>
     </row>
     <row r="194">
-      <c r="B194" s="20"/>
+      <c r="B194" s="25"/>
     </row>
     <row r="195">
-      <c r="B195" s="20"/>
+      <c r="B195" s="25"/>
     </row>
     <row r="196">
-      <c r="B196" s="20"/>
+      <c r="B196" s="25"/>
     </row>
     <row r="197">
-      <c r="B197" s="20"/>
+      <c r="B197" s="25"/>
     </row>
     <row r="198">
-      <c r="B198" s="20"/>
+      <c r="B198" s="25"/>
     </row>
     <row r="199">
-      <c r="B199" s="20"/>
+      <c r="B199" s="25"/>
     </row>
     <row r="200">
-      <c r="B200" s="20"/>
+      <c r="B200" s="25"/>
     </row>
     <row r="201">
-      <c r="B201" s="20"/>
+      <c r="B201" s="25"/>
     </row>
     <row r="202">
-      <c r="B202" s="20"/>
+      <c r="B202" s="25"/>
     </row>
     <row r="203">
-      <c r="B203" s="20"/>
+      <c r="B203" s="25"/>
     </row>
     <row r="204">
-      <c r="B204" s="20"/>
+      <c r="B204" s="25"/>
     </row>
     <row r="205">
-      <c r="B205" s="20"/>
+      <c r="B205" s="25"/>
     </row>
     <row r="206">
-      <c r="B206" s="20"/>
+      <c r="B206" s="25"/>
     </row>
     <row r="207">
-      <c r="B207" s="20"/>
+      <c r="B207" s="25"/>
     </row>
     <row r="208">
-      <c r="B208" s="20"/>
+      <c r="B208" s="25"/>
     </row>
     <row r="209">
-      <c r="B209" s="20"/>
+      <c r="B209" s="25"/>
     </row>
     <row r="210">
-      <c r="B210" s="20"/>
+      <c r="B210" s="25"/>
     </row>
     <row r="211">
-      <c r="B211" s="20"/>
+      <c r="B211" s="25"/>
     </row>
     <row r="212">
-      <c r="B212" s="20"/>
+      <c r="B212" s="25"/>
     </row>
     <row r="213">
-      <c r="B213" s="20"/>
+      <c r="B213" s="25"/>
     </row>
     <row r="214">
-      <c r="B214" s="20"/>
+      <c r="B214" s="25"/>
     </row>
     <row r="215">
-      <c r="B215" s="20"/>
+      <c r="B215" s="25"/>
     </row>
     <row r="216">
-      <c r="B216" s="20"/>
+      <c r="B216" s="25"/>
     </row>
     <row r="217">
-      <c r="B217" s="20"/>
+      <c r="B217" s="25"/>
     </row>
     <row r="218">
-      <c r="B218" s="20"/>
+      <c r="B218" s="25"/>
     </row>
     <row r="219">
-      <c r="B219" s="20"/>
+      <c r="B219" s="25"/>
     </row>
     <row r="220">
-      <c r="B220" s="20"/>
+      <c r="B220" s="25"/>
     </row>
     <row r="221">
-      <c r="B221" s="20"/>
+      <c r="B221" s="25"/>
     </row>
     <row r="222">
-      <c r="B222" s="20"/>
+      <c r="B222" s="25"/>
     </row>
     <row r="223">
-      <c r="B223" s="20"/>
+      <c r="B223" s="25"/>
     </row>
     <row r="224">
-      <c r="B224" s="20"/>
+      <c r="B224" s="25"/>
     </row>
     <row r="225">
-      <c r="B225" s="20"/>
+      <c r="B225" s="25"/>
     </row>
     <row r="226">
-      <c r="B226" s="20"/>
+      <c r="B226" s="25"/>
     </row>
     <row r="227">
-      <c r="B227" s="20"/>
+      <c r="B227" s="25"/>
     </row>
     <row r="228">
-      <c r="B228" s="20"/>
+      <c r="B228" s="25"/>
     </row>
     <row r="229">
-      <c r="B229" s="20"/>
+      <c r="B229" s="25"/>
     </row>
     <row r="230">
-      <c r="B230" s="20"/>
+      <c r="B230" s="25"/>
     </row>
     <row r="231">
-      <c r="B231" s="20"/>
+      <c r="B231" s="25"/>
     </row>
     <row r="232">
-      <c r="B232" s="20"/>
+      <c r="B232" s="25"/>
     </row>
     <row r="233">
-      <c r="B233" s="20"/>
+      <c r="B233" s="25"/>
     </row>
     <row r="234">
-      <c r="B234" s="20"/>
+      <c r="B234" s="25"/>
     </row>
     <row r="235">
-      <c r="B235" s="20"/>
+      <c r="B235" s="25"/>
     </row>
     <row r="236">
-      <c r="B236" s="20"/>
+      <c r="B236" s="25"/>
     </row>
     <row r="237">
-      <c r="B237" s="20"/>
+      <c r="B237" s="25"/>
     </row>
     <row r="238">
-      <c r="B238" s="20"/>
+      <c r="B238" s="25"/>
     </row>
     <row r="239">
-      <c r="B239" s="20"/>
+      <c r="B239" s="25"/>
     </row>
     <row r="240">
-      <c r="B240" s="20"/>
+      <c r="B240" s="25"/>
     </row>
     <row r="241">
-      <c r="B241" s="20"/>
+      <c r="B241" s="25"/>
     </row>
     <row r="242">
-      <c r="B242" s="20"/>
+      <c r="B242" s="25"/>
     </row>
     <row r="243">
-      <c r="B243" s="20"/>
+      <c r="B243" s="25"/>
     </row>
     <row r="244">
-      <c r="B244" s="20"/>
+      <c r="B244" s="25"/>
     </row>
     <row r="245">
-      <c r="B245" s="20"/>
+      <c r="B245" s="25"/>
     </row>
     <row r="246">
-      <c r="B246" s="20"/>
+      <c r="B246" s="25"/>
     </row>
     <row r="247">
-      <c r="B247" s="20"/>
+      <c r="B247" s="25"/>
     </row>
     <row r="248">
-      <c r="B248" s="20"/>
+      <c r="B248" s="25"/>
     </row>
     <row r="249">
-      <c r="B249" s="20"/>
+      <c r="B249" s="25"/>
     </row>
     <row r="250">
-      <c r="B250" s="20"/>
+      <c r="B250" s="25"/>
     </row>
     <row r="251">
-      <c r="B251" s="20"/>
+      <c r="B251" s="25"/>
     </row>
     <row r="252">
-      <c r="B252" s="20"/>
+      <c r="B252" s="25"/>
     </row>
     <row r="253">
-      <c r="B253" s="20"/>
+      <c r="B253" s="25"/>
     </row>
     <row r="254">
-      <c r="B254" s="20"/>
+      <c r="B254" s="25"/>
     </row>
     <row r="255">
-      <c r="B255" s="20"/>
+      <c r="B255" s="25"/>
     </row>
     <row r="256">
-      <c r="B256" s="20"/>
+      <c r="B256" s="25"/>
     </row>
     <row r="257">
-      <c r="B257" s="20"/>
+      <c r="B257" s="25"/>
     </row>
     <row r="258">
-      <c r="B258" s="20"/>
+      <c r="B258" s="25"/>
     </row>
     <row r="259">
-      <c r="B259" s="20"/>
+      <c r="B259" s="25"/>
     </row>
     <row r="260">
-      <c r="B260" s="20"/>
+      <c r="B260" s="25"/>
     </row>
     <row r="261">
-      <c r="B261" s="20"/>
+      <c r="B261" s="25"/>
     </row>
     <row r="262">
-      <c r="B262" s="20"/>
+      <c r="B262" s="25"/>
     </row>
     <row r="263">
-      <c r="B263" s="20"/>
+      <c r="B263" s="25"/>
     </row>
     <row r="264">
-      <c r="B264" s="20"/>
+      <c r="B264" s="25"/>
     </row>
     <row r="265">
-      <c r="B265" s="20"/>
+      <c r="B265" s="25"/>
     </row>
     <row r="266">
-      <c r="B266" s="20"/>
+      <c r="B266" s="25"/>
     </row>
     <row r="267">
-      <c r="B267" s="20"/>
+      <c r="B267" s="25"/>
     </row>
     <row r="268">
-      <c r="B268" s="20"/>
+      <c r="B268" s="25"/>
     </row>
     <row r="269">
-      <c r="B269" s="20"/>
+      <c r="B269" s="25"/>
     </row>
     <row r="270">
-      <c r="B270" s="20"/>
+      <c r="B270" s="25"/>
     </row>
     <row r="271">
-      <c r="B271" s="20"/>
+      <c r="B271" s="25"/>
     </row>
     <row r="272">
-      <c r="B272" s="20"/>
+      <c r="B272" s="25"/>
     </row>
     <row r="273">
-      <c r="B273" s="20"/>
+      <c r="B273" s="25"/>
     </row>
     <row r="274">
-      <c r="B274" s="20"/>
+      <c r="B274" s="25"/>
     </row>
     <row r="275">
-      <c r="B275" s="20"/>
+      <c r="B275" s="25"/>
     </row>
     <row r="276">
-      <c r="B276" s="20"/>
+      <c r="B276" s="25"/>
     </row>
     <row r="277">
-      <c r="B277" s="20"/>
+      <c r="B277" s="25"/>
     </row>
     <row r="278">
-      <c r="B278" s="20"/>
+      <c r="B278" s="25"/>
     </row>
     <row r="279">
-      <c r="B279" s="20"/>
+      <c r="B279" s="25"/>
     </row>
     <row r="280">
-      <c r="B280" s="20"/>
+      <c r="B280" s="25"/>
     </row>
     <row r="281">
-      <c r="B281" s="20"/>
+      <c r="B281" s="25"/>
     </row>
     <row r="282">
-      <c r="B282" s="20"/>
+      <c r="B282" s="25"/>
     </row>
     <row r="283">
-      <c r="B283" s="20"/>
+      <c r="B283" s="25"/>
     </row>
     <row r="284">
-      <c r="B284" s="20"/>
+      <c r="B284" s="25"/>
     </row>
     <row r="285">
-      <c r="B285" s="20"/>
+      <c r="B285" s="25"/>
     </row>
     <row r="286">
-      <c r="B286" s="20"/>
+      <c r="B286" s="25"/>
     </row>
     <row r="287">
-      <c r="B287" s="20"/>
+      <c r="B287" s="25"/>
     </row>
     <row r="288">
-      <c r="B288" s="20"/>
+      <c r="B288" s="25"/>
     </row>
     <row r="289">
-      <c r="B289" s="20"/>
+      <c r="B289" s="25"/>
     </row>
     <row r="290">
-      <c r="B290" s="20"/>
+      <c r="B290" s="25"/>
     </row>
     <row r="291">
-      <c r="B291" s="20"/>
+      <c r="B291" s="25"/>
     </row>
     <row r="292">
-      <c r="B292" s="20"/>
+      <c r="B292" s="25"/>
     </row>
     <row r="293">
-      <c r="B293" s="20"/>
+      <c r="B293" s="25"/>
     </row>
     <row r="294">
-      <c r="B294" s="20"/>
+      <c r="B294" s="25"/>
     </row>
     <row r="295">
-      <c r="B295" s="20"/>
+      <c r="B295" s="25"/>
     </row>
     <row r="296">
-      <c r="B296" s="20"/>
+      <c r="B296" s="25"/>
     </row>
     <row r="297">
-      <c r="B297" s="20"/>
+      <c r="B297" s="25"/>
     </row>
     <row r="298">
-      <c r="B298" s="20"/>
+      <c r="B298" s="25"/>
     </row>
     <row r="299">
-      <c r="B299" s="20"/>
+      <c r="B299" s="25"/>
     </row>
     <row r="300">
-      <c r="B300" s="20"/>
+      <c r="B300" s="25"/>
     </row>
     <row r="301">
-      <c r="B301" s="20"/>
+      <c r="B301" s="25"/>
     </row>
     <row r="302">
-      <c r="B302" s="20"/>
+      <c r="B302" s="25"/>
     </row>
     <row r="303">
-      <c r="B303" s="20"/>
+      <c r="B303" s="25"/>
     </row>
     <row r="304">
-      <c r="B304" s="20"/>
+      <c r="B304" s="25"/>
     </row>
     <row r="305">
-      <c r="B305" s="20"/>
+      <c r="B305" s="25"/>
     </row>
     <row r="306">
-      <c r="B306" s="20"/>
+      <c r="B306" s="25"/>
     </row>
     <row r="307">
-      <c r="B307" s="20"/>
+      <c r="B307" s="25"/>
     </row>
     <row r="308">
-      <c r="B308" s="20"/>
+      <c r="B308" s="25"/>
     </row>
     <row r="309">
-      <c r="B309" s="20"/>
+      <c r="B309" s="25"/>
     </row>
     <row r="310">
-      <c r="B310" s="20"/>
+      <c r="B310" s="25"/>
     </row>
     <row r="311">
-      <c r="B311" s="20"/>
+      <c r="B311" s="25"/>
     </row>
     <row r="312">
-      <c r="B312" s="20"/>
+      <c r="B312" s="25"/>
     </row>
     <row r="313">
-      <c r="B313" s="20"/>
+      <c r="B313" s="25"/>
     </row>
     <row r="314">
-      <c r="B314" s="20"/>
+      <c r="B314" s="25"/>
     </row>
     <row r="315">
-      <c r="B315" s="20"/>
+      <c r="B315" s="25"/>
     </row>
     <row r="316">
-      <c r="B316" s="20"/>
+      <c r="B316" s="25"/>
     </row>
     <row r="317">
-      <c r="B317" s="20"/>
+      <c r="B317" s="25"/>
     </row>
     <row r="318">
-      <c r="B318" s="20"/>
+      <c r="B318" s="25"/>
     </row>
     <row r="319">
-      <c r="B319" s="20"/>
+      <c r="B319" s="25"/>
     </row>
     <row r="320">
-      <c r="B320" s="20"/>
+      <c r="B320" s="25"/>
     </row>
     <row r="321">
-      <c r="B321" s="20"/>
+      <c r="B321" s="25"/>
     </row>
     <row r="322">
-      <c r="B322" s="20"/>
+      <c r="B322" s="25"/>
     </row>
     <row r="323">
-      <c r="B323" s="20"/>
+      <c r="B323" s="25"/>
     </row>
     <row r="324">
-      <c r="B324" s="20"/>
+      <c r="B324" s="25"/>
     </row>
     <row r="325">
-      <c r="B325" s="20"/>
+      <c r="B325" s="25"/>
     </row>
     <row r="326">
-      <c r="B326" s="20"/>
+      <c r="B326" s="25"/>
     </row>
     <row r="327">
-      <c r="B327" s="20"/>
+      <c r="B327" s="25"/>
     </row>
     <row r="328">
-      <c r="B328" s="20"/>
+      <c r="B328" s="25"/>
     </row>
     <row r="329">
-      <c r="B329" s="20"/>
+      <c r="B329" s="25"/>
     </row>
     <row r="330">
-      <c r="B330" s="20"/>
+      <c r="B330" s="25"/>
     </row>
     <row r="331">
-      <c r="B331" s="20"/>
+      <c r="B331" s="25"/>
     </row>
     <row r="332">
-      <c r="B332" s="20"/>
+      <c r="B332" s="25"/>
     </row>
     <row r="333">
-      <c r="B333" s="20"/>
+      <c r="B333" s="25"/>
     </row>
     <row r="334">
-      <c r="B334" s="20"/>
+      <c r="B334" s="25"/>
     </row>
     <row r="335">
-      <c r="B335" s="20"/>
+      <c r="B335" s="25"/>
     </row>
     <row r="336">
-      <c r="B336" s="20"/>
+      <c r="B336" s="25"/>
     </row>
     <row r="337">
-      <c r="B337" s="20"/>
+      <c r="B337" s="25"/>
     </row>
     <row r="338">
-      <c r="B338" s="20"/>
+      <c r="B338" s="25"/>
     </row>
     <row r="339">
-      <c r="B339" s="20"/>
+      <c r="B339" s="25"/>
     </row>
     <row r="340">
-      <c r="B340" s="20"/>
+      <c r="B340" s="25"/>
     </row>
     <row r="341">
-      <c r="B341" s="20"/>
+      <c r="B341" s="25"/>
     </row>
     <row r="342">
-      <c r="B342" s="20"/>
+      <c r="B342" s="25"/>
     </row>
     <row r="343">
-      <c r="B343" s="20"/>
+      <c r="B343" s="25"/>
     </row>
     <row r="344">
-      <c r="B344" s="20"/>
+      <c r="B344" s="25"/>
     </row>
     <row r="345">
-      <c r="B345" s="20"/>
+      <c r="B345" s="25"/>
     </row>
     <row r="346">
-      <c r="B346" s="20"/>
+      <c r="B346" s="25"/>
     </row>
     <row r="347">
-      <c r="B347" s="20"/>
+      <c r="B347" s="25"/>
     </row>
     <row r="348">
-      <c r="B348" s="20"/>
+      <c r="B348" s="25"/>
     </row>
     <row r="349">
-      <c r="B349" s="20"/>
+      <c r="B349" s="25"/>
     </row>
     <row r="350">
-      <c r="B350" s="20"/>
+      <c r="B350" s="25"/>
     </row>
     <row r="351">
-      <c r="B351" s="20"/>
+      <c r="B351" s="25"/>
     </row>
     <row r="352">
-      <c r="B352" s="20"/>
+      <c r="B352" s="25"/>
     </row>
     <row r="353">
-      <c r="B353" s="20"/>
+      <c r="B353" s="25"/>
     </row>
     <row r="354">
-      <c r="B354" s="20"/>
+      <c r="B354" s="25"/>
     </row>
     <row r="355">
-      <c r="B355" s="20"/>
+      <c r="B355" s="25"/>
     </row>
     <row r="356">
-      <c r="B356" s="20"/>
+      <c r="B356" s="25"/>
     </row>
     <row r="357">
-      <c r="B357" s="20"/>
+      <c r="B357" s="25"/>
     </row>
     <row r="358">
-      <c r="B358" s="20"/>
+      <c r="B358" s="25"/>
     </row>
     <row r="359">
-      <c r="B359" s="20"/>
+      <c r="B359" s="25"/>
     </row>
     <row r="360">
-      <c r="B360" s="20"/>
+      <c r="B360" s="25"/>
     </row>
     <row r="361">
-      <c r="B361" s="20"/>
+      <c r="B361" s="25"/>
     </row>
     <row r="362">
-      <c r="B362" s="20"/>
+      <c r="B362" s="25"/>
     </row>
     <row r="363">
-      <c r="B363" s="20"/>
+      <c r="B363" s="25"/>
     </row>
     <row r="364">
-      <c r="B364" s="20"/>
+      <c r="B364" s="25"/>
     </row>
     <row r="365">
-      <c r="B365" s="20"/>
+      <c r="B365" s="25"/>
     </row>
     <row r="366">
-      <c r="B366" s="20"/>
+      <c r="B366" s="25"/>
     </row>
     <row r="367">
-      <c r="B367" s="20"/>
+      <c r="B367" s="25"/>
     </row>
     <row r="368">
-      <c r="B368" s="20"/>
+      <c r="B368" s="25"/>
     </row>
     <row r="369">
-      <c r="B369" s="20"/>
+      <c r="B369" s="25"/>
     </row>
     <row r="370">
-      <c r="B370" s="20"/>
+      <c r="B370" s="25"/>
     </row>
     <row r="371">
-      <c r="B371" s="20"/>
+      <c r="B371" s="25"/>
     </row>
     <row r="372">
-      <c r="B372" s="20"/>
+      <c r="B372" s="25"/>
     </row>
     <row r="373">
-      <c r="B373" s="20"/>
+      <c r="B373" s="25"/>
     </row>
     <row r="374">
-      <c r="B374" s="20"/>
+      <c r="B374" s="25"/>
     </row>
     <row r="375">
-      <c r="B375" s="20"/>
+      <c r="B375" s="25"/>
     </row>
     <row r="376">
-      <c r="B376" s="20"/>
+      <c r="B376" s="25"/>
     </row>
     <row r="377">
-      <c r="B377" s="20"/>
+      <c r="B377" s="25"/>
     </row>
     <row r="378">
-      <c r="B378" s="20"/>
+      <c r="B378" s="25"/>
     </row>
     <row r="379">
-      <c r="B379" s="20"/>
+      <c r="B379" s="25"/>
     </row>
     <row r="380">
-      <c r="B380" s="20"/>
+      <c r="B380" s="25"/>
     </row>
     <row r="381">
-      <c r="B381" s="20"/>
+      <c r="B381" s="25"/>
     </row>
     <row r="382">
-      <c r="B382" s="20"/>
+      <c r="B382" s="25"/>
     </row>
     <row r="383">
-      <c r="B383" s="20"/>
+      <c r="B383" s="25"/>
     </row>
     <row r="384">
-      <c r="B384" s="20"/>
+      <c r="B384" s="25"/>
     </row>
     <row r="385">
-      <c r="B385" s="20"/>
+      <c r="B385" s="25"/>
     </row>
     <row r="386">
-      <c r="B386" s="20"/>
+      <c r="B386" s="25"/>
     </row>
     <row r="387">
-      <c r="B387" s="20"/>
+      <c r="B387" s="25"/>
     </row>
     <row r="388">
-      <c r="B388" s="20"/>
+      <c r="B388" s="25"/>
     </row>
     <row r="389">
-      <c r="B389" s="20"/>
+      <c r="B389" s="25"/>
     </row>
     <row r="390">
-      <c r="B390" s="20"/>
+      <c r="B390" s="25"/>
     </row>
     <row r="391">
-      <c r="B391" s="20"/>
+      <c r="B391" s="25"/>
     </row>
     <row r="392">
-      <c r="B392" s="20"/>
+      <c r="B392" s="25"/>
     </row>
     <row r="393">
-      <c r="B393" s="20"/>
+      <c r="B393" s="25"/>
     </row>
     <row r="394">
-      <c r="B394" s="20"/>
+      <c r="B394" s="25"/>
     </row>
     <row r="395">
-      <c r="B395" s="20"/>
+      <c r="B395" s="25"/>
     </row>
     <row r="396">
-      <c r="B396" s="20"/>
+      <c r="B396" s="25"/>
     </row>
     <row r="397">
-      <c r="B397" s="20"/>
+      <c r="B397" s="25"/>
     </row>
     <row r="398">
-      <c r="B398" s="20"/>
+      <c r="B398" s="25"/>
     </row>
     <row r="399">
-      <c r="B399" s="20"/>
+      <c r="B399" s="25"/>
     </row>
     <row r="400">
-      <c r="B400" s="20"/>
+      <c r="B400" s="25"/>
     </row>
     <row r="401">
-      <c r="B401" s="20"/>
+      <c r="B401" s="25"/>
     </row>
     <row r="402">
-      <c r="B402" s="20"/>
+      <c r="B402" s="25"/>
     </row>
     <row r="403">
-      <c r="B403" s="20"/>
+      <c r="B403" s="25"/>
     </row>
     <row r="404">
-      <c r="B404" s="20"/>
+      <c r="B404" s="25"/>
     </row>
     <row r="405">
-      <c r="B405" s="20"/>
+      <c r="B405" s="25"/>
     </row>
     <row r="406">
-      <c r="B406" s="20"/>
+      <c r="B406" s="25"/>
     </row>
     <row r="407">
-      <c r="B407" s="20"/>
+      <c r="B407" s="25"/>
     </row>
     <row r="408">
-      <c r="B408" s="20"/>
+      <c r="B408" s="25"/>
     </row>
     <row r="409">
-      <c r="B409" s="20"/>
+      <c r="B409" s="25"/>
     </row>
     <row r="410">
-      <c r="B410" s="20"/>
+      <c r="B410" s="25"/>
     </row>
     <row r="411">
-      <c r="B411" s="20"/>
+      <c r="B411" s="25"/>
     </row>
     <row r="412">
-      <c r="B412" s="20"/>
+      <c r="B412" s="25"/>
     </row>
     <row r="413">
-      <c r="B413" s="20"/>
+      <c r="B413" s="25"/>
     </row>
     <row r="414">
-      <c r="B414" s="20"/>
+      <c r="B414" s="25"/>
     </row>
     <row r="415">
-      <c r="B415" s="20"/>
+      <c r="B415" s="25"/>
     </row>
     <row r="416">
-      <c r="B416" s="20"/>
+      <c r="B416" s="25"/>
     </row>
     <row r="417">
-      <c r="B417" s="20"/>
+      <c r="B417" s="25"/>
     </row>
     <row r="418">
-      <c r="B418" s="20"/>
+      <c r="B418" s="25"/>
     </row>
     <row r="419">
-      <c r="B419" s="20"/>
+      <c r="B419" s="25"/>
     </row>
     <row r="420">
-      <c r="B420" s="20"/>
+      <c r="B420" s="25"/>
     </row>
     <row r="421">
-      <c r="B421" s="20"/>
+      <c r="B421" s="25"/>
     </row>
     <row r="422">
-      <c r="B422" s="20"/>
+      <c r="B422" s="25"/>
     </row>
     <row r="423">
-      <c r="B423" s="20"/>
+      <c r="B423" s="25"/>
     </row>
     <row r="424">
-      <c r="B424" s="20"/>
+      <c r="B424" s="25"/>
     </row>
     <row r="425">
-      <c r="B425" s="20"/>
+      <c r="B425" s="25"/>
     </row>
     <row r="426">
-      <c r="B426" s="20"/>
+      <c r="B426" s="25"/>
     </row>
     <row r="427">
-      <c r="B427" s="20"/>
+      <c r="B427" s="25"/>
     </row>
     <row r="428">
-      <c r="B428" s="20"/>
+      <c r="B428" s="25"/>
     </row>
     <row r="429">
-      <c r="B429" s="20"/>
+      <c r="B429" s="25"/>
     </row>
     <row r="430">
-      <c r="B430" s="20"/>
+      <c r="B430" s="25"/>
     </row>
     <row r="431">
-      <c r="B431" s="20"/>
+      <c r="B431" s="25"/>
     </row>
     <row r="432">
-      <c r="B432" s="20"/>
+      <c r="B432" s="25"/>
     </row>
     <row r="433">
-      <c r="B433" s="20"/>
+      <c r="B433" s="25"/>
     </row>
     <row r="434">
-      <c r="B434" s="20"/>
+      <c r="B434" s="25"/>
     </row>
     <row r="435">
-      <c r="B435" s="20"/>
+      <c r="B435" s="25"/>
     </row>
     <row r="436">
-      <c r="B436" s="20"/>
+      <c r="B436" s="25"/>
     </row>
     <row r="437">
-      <c r="B437" s="20"/>
+      <c r="B437" s="25"/>
     </row>
     <row r="438">
-      <c r="B438" s="20"/>
+      <c r="B438" s="25"/>
     </row>
     <row r="439">
-      <c r="B439" s="20"/>
+      <c r="B439" s="25"/>
     </row>
     <row r="440">
-      <c r="B440" s="20"/>
+      <c r="B440" s="25"/>
     </row>
     <row r="441">
-      <c r="B441" s="20"/>
+      <c r="B441" s="25"/>
     </row>
     <row r="442">
-      <c r="B442" s="20"/>
+      <c r="B442" s="25"/>
     </row>
     <row r="443">
-      <c r="B443" s="20"/>
+      <c r="B443" s="25"/>
     </row>
     <row r="444">
-      <c r="B444" s="20"/>
+      <c r="B444" s="25"/>
     </row>
     <row r="445">
-      <c r="B445" s="20"/>
+      <c r="B445" s="25"/>
     </row>
     <row r="446">
-      <c r="B446" s="20"/>
+      <c r="B446" s="25"/>
     </row>
     <row r="447">
-      <c r="B447" s="20"/>
+      <c r="B447" s="25"/>
     </row>
     <row r="448">
-      <c r="B448" s="20"/>
+      <c r="B448" s="25"/>
     </row>
     <row r="449">
-      <c r="B449" s="20"/>
+      <c r="B449" s="25"/>
     </row>
     <row r="450">
-      <c r="B450" s="20"/>
+      <c r="B450" s="25"/>
     </row>
     <row r="451">
-      <c r="B451" s="20"/>
+      <c r="B451" s="25"/>
     </row>
     <row r="452">
-      <c r="B452" s="20"/>
+      <c r="B452" s="25"/>
     </row>
     <row r="453">
-      <c r="B453" s="20"/>
+      <c r="B453" s="25"/>
     </row>
     <row r="454">
-      <c r="B454" s="20"/>
+      <c r="B454" s="25"/>
     </row>
     <row r="455">
-      <c r="B455" s="20"/>
+      <c r="B455" s="25"/>
     </row>
     <row r="456">
-      <c r="B456" s="20"/>
+      <c r="B456" s="25"/>
     </row>
     <row r="457">
-      <c r="B457" s="20"/>
+      <c r="B457" s="25"/>
     </row>
     <row r="458">
-      <c r="B458" s="20"/>
+      <c r="B458" s="25"/>
     </row>
     <row r="459">
-      <c r="B459" s="20"/>
+      <c r="B459" s="25"/>
     </row>
     <row r="460">
-      <c r="B460" s="20"/>
+      <c r="B460" s="25"/>
     </row>
     <row r="461">
-      <c r="B461" s="20"/>
+      <c r="B461" s="25"/>
     </row>
     <row r="462">
-      <c r="B462" s="20"/>
+      <c r="B462" s="25"/>
     </row>
     <row r="463">
-      <c r="B463" s="20"/>
+      <c r="B463" s="25"/>
     </row>
     <row r="464">
-      <c r="B464" s="20"/>
+      <c r="B464" s="25"/>
     </row>
     <row r="465">
-      <c r="B465" s="20"/>
+      <c r="B465" s="25"/>
     </row>
     <row r="466">
-      <c r="B466" s="20"/>
+      <c r="B466" s="25"/>
     </row>
     <row r="467">
-      <c r="B467" s="20"/>
+      <c r="B467" s="25"/>
     </row>
     <row r="468">
-      <c r="B468" s="20"/>
+      <c r="B468" s="25"/>
     </row>
     <row r="469">
-      <c r="B469" s="20"/>
+      <c r="B469" s="25"/>
     </row>
     <row r="470">
-      <c r="B470" s="20"/>
+      <c r="B470" s="25"/>
     </row>
     <row r="471">
-      <c r="B471" s="20"/>
+      <c r="B471" s="25"/>
     </row>
     <row r="472">
-      <c r="B472" s="20"/>
+      <c r="B472" s="25"/>
     </row>
     <row r="473">
-      <c r="B473" s="20"/>
+      <c r="B473" s="25"/>
     </row>
     <row r="474">
-      <c r="B474" s="20"/>
+      <c r="B474" s="25"/>
     </row>
     <row r="475">
-      <c r="B475" s="20"/>
+      <c r="B475" s="25"/>
     </row>
     <row r="476">
-      <c r="B476" s="20"/>
+      <c r="B476" s="25"/>
     </row>
     <row r="477">
-      <c r="B477" s="20"/>
+      <c r="B477" s="25"/>
     </row>
     <row r="478">
-      <c r="B478" s="20"/>
+      <c r="B478" s="25"/>
     </row>
     <row r="479">
-      <c r="B479" s="20"/>
+      <c r="B479" s="25"/>
     </row>
     <row r="480">
-      <c r="B480" s="20"/>
+      <c r="B480" s="25"/>
     </row>
     <row r="481">
-      <c r="B481" s="20"/>
+      <c r="B481" s="25"/>
     </row>
     <row r="482">
-      <c r="B482" s="20"/>
+      <c r="B482" s="25"/>
     </row>
     <row r="483">
-      <c r="B483" s="20"/>
+      <c r="B483" s="25"/>
     </row>
     <row r="484">
-      <c r="B484" s="20"/>
+      <c r="B484" s="25"/>
     </row>
     <row r="485">
-      <c r="B485" s="20"/>
+      <c r="B485" s="25"/>
     </row>
     <row r="486">
-      <c r="B486" s="20"/>
+      <c r="B486" s="25"/>
     </row>
     <row r="487">
-      <c r="B487" s="20"/>
+      <c r="B487" s="25"/>
     </row>
     <row r="488">
-      <c r="B488" s="20"/>
+      <c r="B488" s="25"/>
     </row>
     <row r="489">
-      <c r="B489" s="20"/>
+      <c r="B489" s="25"/>
     </row>
     <row r="490">
-      <c r="B490" s="20"/>
+      <c r="B490" s="25"/>
     </row>
     <row r="491">
-      <c r="B491" s="20"/>
+      <c r="B491" s="25"/>
     </row>
     <row r="492">
-      <c r="B492" s="20"/>
+      <c r="B492" s="25"/>
     </row>
     <row r="493">
-      <c r="B493" s="20"/>
+      <c r="B493" s="25"/>
     </row>
     <row r="494">
-      <c r="B494" s="20"/>
+      <c r="B494" s="25"/>
     </row>
     <row r="495">
-      <c r="B495" s="20"/>
+      <c r="B495" s="25"/>
     </row>
     <row r="496">
-      <c r="B496" s="20"/>
+      <c r="B496" s="25"/>
     </row>
     <row r="497">
-      <c r="B497" s="20"/>
+      <c r="B497" s="25"/>
     </row>
     <row r="498">
-      <c r="B498" s="20"/>
+      <c r="B498" s="25"/>
     </row>
     <row r="499">
-      <c r="B499" s="20"/>
+      <c r="B499" s="25"/>
     </row>
     <row r="500">
-      <c r="B500" s="20"/>
+      <c r="B500" s="25"/>
     </row>
     <row r="501">
-      <c r="B501" s="20"/>
+      <c r="B501" s="25"/>
     </row>
     <row r="502">
-      <c r="B502" s="20"/>
+      <c r="B502" s="25"/>
     </row>
     <row r="503">
-      <c r="B503" s="20"/>
+      <c r="B503" s="25"/>
     </row>
     <row r="504">
-      <c r="B504" s="20"/>
+      <c r="B504" s="25"/>
     </row>
     <row r="505">
-      <c r="B505" s="20"/>
+      <c r="B505" s="25"/>
     </row>
     <row r="506">
-      <c r="B506" s="20"/>
+      <c r="B506" s="25"/>
     </row>
     <row r="507">
-      <c r="B507" s="20"/>
+      <c r="B507" s="25"/>
     </row>
     <row r="508">
-      <c r="B508" s="20"/>
+      <c r="B508" s="25"/>
     </row>
     <row r="509">
-      <c r="B509" s="20"/>
+      <c r="B509" s="25"/>
     </row>
     <row r="510">
-      <c r="B510" s="20"/>
+      <c r="B510" s="25"/>
     </row>
     <row r="511">
-      <c r="B511" s="20"/>
+      <c r="B511" s="25"/>
     </row>
     <row r="512">
-      <c r="B512" s="20"/>
+      <c r="B512" s="25"/>
     </row>
     <row r="513">
-      <c r="B513" s="20"/>
+      <c r="B513" s="25"/>
     </row>
     <row r="514">
-      <c r="B514" s="20"/>
+      <c r="B514" s="25"/>
     </row>
     <row r="515">
-      <c r="B515" s="20"/>
+      <c r="B515" s="25"/>
     </row>
     <row r="516">
-      <c r="B516" s="20"/>
+      <c r="B516" s="25"/>
     </row>
     <row r="517">
-      <c r="B517" s="20"/>
+      <c r="B517" s="25"/>
     </row>
     <row r="518">
-      <c r="B518" s="20"/>
+      <c r="B518" s="25"/>
     </row>
     <row r="519">
-      <c r="B519" s="20"/>
+      <c r="B519" s="25"/>
     </row>
     <row r="520">
-      <c r="B520" s="20"/>
+      <c r="B520" s="25"/>
     </row>
     <row r="521">
-      <c r="B521" s="20"/>
+      <c r="B521" s="25"/>
     </row>
     <row r="522">
-      <c r="B522" s="20"/>
+      <c r="B522" s="25"/>
     </row>
     <row r="523">
-      <c r="B523" s="20"/>
+      <c r="B523" s="25"/>
     </row>
     <row r="524">
-      <c r="B524" s="20"/>
+      <c r="B524" s="25"/>
     </row>
     <row r="525">
-      <c r="B525" s="20"/>
+      <c r="B525" s="25"/>
     </row>
     <row r="526">
-      <c r="B526" s="20"/>
+      <c r="B526" s="25"/>
     </row>
     <row r="527">
-      <c r="B527" s="20"/>
+      <c r="B527" s="25"/>
     </row>
     <row r="528">
-      <c r="B528" s="20"/>
+      <c r="B528" s="25"/>
     </row>
     <row r="529">
-      <c r="B529" s="20"/>
+      <c r="B529" s="25"/>
     </row>
     <row r="530">
-      <c r="B530" s="20"/>
+      <c r="B530" s="25"/>
     </row>
     <row r="531">
-      <c r="B531" s="20"/>
+      <c r="B531" s="25"/>
     </row>
     <row r="532">
-      <c r="B532" s="20"/>
+      <c r="B532" s="25"/>
     </row>
     <row r="533">
-      <c r="B533" s="20"/>
+      <c r="B533" s="25"/>
     </row>
     <row r="534">
-      <c r="B534" s="20"/>
+      <c r="B534" s="25"/>
     </row>
     <row r="535">
-      <c r="B535" s="20"/>
+      <c r="B535" s="25"/>
     </row>
     <row r="536">
-      <c r="B536" s="20"/>
+      <c r="B536" s="25"/>
     </row>
     <row r="537">
-      <c r="B537" s="20"/>
+      <c r="B537" s="25"/>
     </row>
     <row r="538">
-      <c r="B538" s="20"/>
+      <c r="B538" s="25"/>
     </row>
     <row r="539">
-      <c r="B539" s="20"/>
+      <c r="B539" s="25"/>
     </row>
     <row r="540">
-      <c r="B540" s="20"/>
+      <c r="B540" s="25"/>
     </row>
     <row r="541">
-      <c r="B541" s="20"/>
+      <c r="B541" s="25"/>
     </row>
     <row r="542">
-      <c r="B542" s="20"/>
+      <c r="B542" s="25"/>
     </row>
     <row r="543">
-      <c r="B543" s="20"/>
+      <c r="B543" s="25"/>
     </row>
     <row r="544">
-      <c r="B544" s="20"/>
+      <c r="B544" s="25"/>
     </row>
     <row r="545">
-      <c r="B545" s="20"/>
+      <c r="B545" s="25"/>
     </row>
     <row r="546">
-      <c r="B546" s="20"/>
+      <c r="B546" s="25"/>
     </row>
     <row r="547">
-      <c r="B547" s="20"/>
+      <c r="B547" s="25"/>
     </row>
     <row r="548">
-      <c r="B548" s="20"/>
+      <c r="B548" s="25"/>
     </row>
     <row r="549">
-      <c r="B549" s="20"/>
+      <c r="B549" s="25"/>
     </row>
     <row r="550">
-      <c r="B550" s="20"/>
+      <c r="B550" s="25"/>
     </row>
     <row r="551">
-      <c r="B551" s="20"/>
+      <c r="B551" s="25"/>
     </row>
     <row r="552">
-      <c r="B552" s="20"/>
+      <c r="B552" s="25"/>
     </row>
     <row r="553">
-      <c r="B553" s="20"/>
+      <c r="B553" s="25"/>
     </row>
     <row r="554">
-      <c r="B554" s="20"/>
+      <c r="B554" s="25"/>
     </row>
     <row r="555">
-      <c r="B555" s="20"/>
+      <c r="B555" s="25"/>
     </row>
     <row r="556">
-      <c r="B556" s="20"/>
+      <c r="B556" s="25"/>
     </row>
     <row r="557">
-      <c r="B557" s="20"/>
+      <c r="B557" s="25"/>
     </row>
     <row r="558">
-      <c r="B558" s="20"/>
+      <c r="B558" s="25"/>
     </row>
     <row r="559">
-      <c r="B559" s="20"/>
+      <c r="B559" s="25"/>
     </row>
     <row r="560">
-      <c r="B560" s="20"/>
+      <c r="B560" s="25"/>
     </row>
     <row r="561">
-      <c r="B561" s="20"/>
+      <c r="B561" s="25"/>
     </row>
     <row r="562">
-      <c r="B562" s="20"/>
+      <c r="B562" s="25"/>
     </row>
     <row r="563">
-      <c r="B563" s="20"/>
+      <c r="B563" s="25"/>
     </row>
     <row r="564">
-      <c r="B564" s="20"/>
+      <c r="B564" s="25"/>
     </row>
     <row r="565">
-      <c r="B565" s="20"/>
+      <c r="B565" s="25"/>
     </row>
     <row r="566">
-      <c r="B566" s="20"/>
+      <c r="B566" s="25"/>
     </row>
     <row r="567">
-      <c r="B567" s="20"/>
+      <c r="B567" s="25"/>
     </row>
     <row r="568">
-      <c r="B568" s="20"/>
+      <c r="B568" s="25"/>
     </row>
     <row r="569">
-      <c r="B569" s="20"/>
+      <c r="B569" s="25"/>
     </row>
     <row r="570">
-      <c r="B570" s="20"/>
+      <c r="B570" s="25"/>
     </row>
     <row r="571">
-      <c r="B571" s="20"/>
+      <c r="B571" s="25"/>
     </row>
     <row r="572">
-      <c r="B572" s="20"/>
+      <c r="B572" s="25"/>
     </row>
     <row r="573">
-      <c r="B573" s="20"/>
+      <c r="B573" s="25"/>
     </row>
     <row r="574">
-      <c r="B574" s="20"/>
+      <c r="B574" s="25"/>
     </row>
     <row r="575">
-      <c r="B575" s="20"/>
+      <c r="B575" s="25"/>
     </row>
     <row r="576">
-      <c r="B576" s="20"/>
+      <c r="B576" s="25"/>
     </row>
     <row r="577">
-      <c r="B577" s="20"/>
+      <c r="B577" s="25"/>
     </row>
     <row r="578">
-      <c r="B578" s="20"/>
+      <c r="B578" s="25"/>
     </row>
     <row r="579">
-      <c r="B579" s="20"/>
+      <c r="B579" s="25"/>
     </row>
     <row r="580">
-      <c r="B580" s="20"/>
+      <c r="B580" s="25"/>
     </row>
     <row r="581">
-      <c r="B581" s="20"/>
+      <c r="B581" s="25"/>
     </row>
     <row r="582">
-      <c r="B582" s="20"/>
+      <c r="B582" s="25"/>
     </row>
     <row r="583">
-      <c r="B583" s="20"/>
+      <c r="B583" s="25"/>
     </row>
     <row r="584">
-      <c r="B584" s="20"/>
+      <c r="B584" s="25"/>
     </row>
     <row r="585">
-      <c r="B585" s="20"/>
+      <c r="B585" s="25"/>
     </row>
     <row r="586">
-      <c r="B586" s="20"/>
+      <c r="B586" s="25"/>
     </row>
     <row r="587">
-      <c r="B587" s="20"/>
+      <c r="B587" s="25"/>
     </row>
     <row r="588">
-      <c r="B588" s="20"/>
+      <c r="B588" s="25"/>
     </row>
     <row r="589">
-      <c r="B589" s="20"/>
+      <c r="B589" s="25"/>
     </row>
     <row r="590">
-      <c r="B590" s="20"/>
+      <c r="B590" s="25"/>
     </row>
     <row r="591">
-      <c r="B591" s="20"/>
+      <c r="B591" s="25"/>
     </row>
     <row r="592">
-      <c r="B592" s="20"/>
+      <c r="B592" s="25"/>
     </row>
     <row r="593">
-      <c r="B593" s="20"/>
+      <c r="B593" s="25"/>
     </row>
     <row r="594">
-      <c r="B594" s="20"/>
+      <c r="B594" s="25"/>
     </row>
     <row r="595">
-      <c r="B595" s="20"/>
+      <c r="B595" s="25"/>
     </row>
     <row r="596">
-      <c r="B596" s="20"/>
+      <c r="B596" s="25"/>
     </row>
     <row r="597">
-      <c r="B597" s="20"/>
+      <c r="B597" s="25"/>
     </row>
     <row r="598">
-      <c r="B598" s="20"/>
+      <c r="B598" s="25"/>
     </row>
     <row r="599">
-      <c r="B599" s="20"/>
+      <c r="B599" s="25"/>
     </row>
     <row r="600">
-      <c r="B600" s="20"/>
+      <c r="B600" s="25"/>
     </row>
     <row r="601">
-      <c r="B601" s="20"/>
+      <c r="B601" s="25"/>
     </row>
     <row r="602">
-      <c r="B602" s="20"/>
+      <c r="B602" s="25"/>
     </row>
     <row r="603">
-      <c r="B603" s="20"/>
+      <c r="B603" s="25"/>
     </row>
     <row r="604">
-      <c r="B604" s="20"/>
+      <c r="B604" s="25"/>
     </row>
     <row r="605">
-      <c r="B605" s="20"/>
+      <c r="B605" s="25"/>
     </row>
     <row r="606">
-      <c r="B606" s="20"/>
+      <c r="B606" s="25"/>
     </row>
     <row r="607">
-      <c r="B607" s="20"/>
+      <c r="B607" s="25"/>
     </row>
     <row r="608">
-      <c r="B608" s="20"/>
+      <c r="B608" s="25"/>
     </row>
     <row r="609">
-      <c r="B609" s="20"/>
+      <c r="B609" s="25"/>
     </row>
     <row r="610">
-      <c r="B610" s="20"/>
+      <c r="B610" s="25"/>
     </row>
     <row r="611">
-      <c r="B611" s="20"/>
+      <c r="B611" s="25"/>
     </row>
     <row r="612">
-      <c r="B612" s="20"/>
+      <c r="B612" s="25"/>
     </row>
     <row r="613">
-      <c r="B613" s="20"/>
+      <c r="B613" s="25"/>
     </row>
     <row r="614">
-      <c r="B614" s="20"/>
+      <c r="B614" s="25"/>
     </row>
     <row r="615">
-      <c r="B615" s="20"/>
+      <c r="B615" s="25"/>
     </row>
     <row r="616">
-      <c r="B616" s="20"/>
+      <c r="B616" s="25"/>
     </row>
     <row r="617">
-      <c r="B617" s="20"/>
+      <c r="B617" s="25"/>
     </row>
     <row r="618">
-      <c r="B618" s="20"/>
+      <c r="B618" s="25"/>
     </row>
     <row r="619">
-      <c r="B619" s="20"/>
+      <c r="B619" s="25"/>
     </row>
     <row r="620">
-      <c r="B620" s="20"/>
+      <c r="B620" s="25"/>
     </row>
     <row r="621">
-      <c r="B621" s="20"/>
+      <c r="B621" s="25"/>
     </row>
     <row r="622">
-      <c r="B622" s="20"/>
+      <c r="B622" s="25"/>
     </row>
     <row r="623">
-      <c r="B623" s="20"/>
+      <c r="B623" s="25"/>
     </row>
     <row r="624">
-      <c r="B624" s="20"/>
+      <c r="B624" s="25"/>
     </row>
     <row r="625">
-      <c r="B625" s="20"/>
+      <c r="B625" s="25"/>
     </row>
     <row r="626">
-      <c r="B626" s="20"/>
+      <c r="B626" s="25"/>
     </row>
     <row r="627">
-      <c r="B627" s="20"/>
+      <c r="B627" s="25"/>
     </row>
     <row r="628">
-      <c r="B628" s="20"/>
+      <c r="B628" s="25"/>
     </row>
     <row r="629">
-      <c r="B629" s="20"/>
+      <c r="B629" s="25"/>
     </row>
     <row r="630">
-      <c r="B630" s="20"/>
+      <c r="B630" s="25"/>
     </row>
     <row r="631">
-      <c r="B631" s="20"/>
+      <c r="B631" s="25"/>
     </row>
     <row r="632">
-      <c r="B632" s="20"/>
+      <c r="B632" s="25"/>
     </row>
     <row r="633">
-      <c r="B633" s="20"/>
+      <c r="B633" s="25"/>
     </row>
     <row r="634">
-      <c r="B634" s="20"/>
+      <c r="B634" s="25"/>
     </row>
     <row r="635">
-      <c r="B635" s="20"/>
+      <c r="B635" s="25"/>
     </row>
     <row r="636">
-      <c r="B636" s="20"/>
+      <c r="B636" s="25"/>
     </row>
     <row r="637">
-      <c r="B637" s="20"/>
+      <c r="B637" s="25"/>
     </row>
     <row r="638">
-      <c r="B638" s="20"/>
+      <c r="B638" s="25"/>
     </row>
     <row r="639">
-      <c r="B639" s="20"/>
+      <c r="B639" s="25"/>
     </row>
     <row r="640">
-      <c r="B640" s="20"/>
+      <c r="B640" s="25"/>
     </row>
     <row r="641">
-      <c r="B641" s="20"/>
+      <c r="B641" s="25"/>
     </row>
     <row r="642">
-      <c r="B642" s="20"/>
+      <c r="B642" s="25"/>
     </row>
     <row r="643">
-      <c r="B643" s="20"/>
+      <c r="B643" s="25"/>
     </row>
     <row r="644">
-      <c r="B644" s="20"/>
+      <c r="B644" s="25"/>
     </row>
     <row r="645">
-      <c r="B645" s="20"/>
+      <c r="B645" s="25"/>
     </row>
     <row r="646">
-      <c r="B646" s="20"/>
+      <c r="B646" s="25"/>
     </row>
     <row r="647">
-      <c r="B647" s="20"/>
+      <c r="B647" s="25"/>
     </row>
     <row r="648">
-      <c r="B648" s="20"/>
+      <c r="B648" s="25"/>
     </row>
     <row r="649">
-      <c r="B649" s="20"/>
+      <c r="B649" s="25"/>
     </row>
     <row r="650">
-      <c r="B650" s="20"/>
+      <c r="B650" s="25"/>
     </row>
     <row r="651">
-      <c r="B651" s="20"/>
+      <c r="B651" s="25"/>
     </row>
     <row r="652">
-      <c r="B652" s="20"/>
+      <c r="B652" s="25"/>
     </row>
     <row r="653">
-      <c r="B653" s="20"/>
+      <c r="B653" s="25"/>
     </row>
     <row r="654">
-      <c r="B654" s="20"/>
+      <c r="B654" s="25"/>
     </row>
     <row r="655">
-      <c r="B655" s="20"/>
+      <c r="B655" s="25"/>
     </row>
     <row r="656">
-      <c r="B656" s="20"/>
+      <c r="B656" s="25"/>
     </row>
     <row r="657">
-      <c r="B657" s="20"/>
+      <c r="B657" s="25"/>
     </row>
     <row r="658">
-      <c r="B658" s="20"/>
+      <c r="B658" s="25"/>
     </row>
     <row r="659">
-      <c r="B659" s="20"/>
+      <c r="B659" s="25"/>
     </row>
     <row r="660">
-      <c r="B660" s="20"/>
+      <c r="B660" s="25"/>
     </row>
     <row r="661">
-      <c r="B661" s="20"/>
+      <c r="B661" s="25"/>
     </row>
     <row r="662">
-      <c r="B662" s="20"/>
+      <c r="B662" s="25"/>
     </row>
     <row r="663">
-      <c r="B663" s="20"/>
+      <c r="B663" s="25"/>
     </row>
     <row r="664">
-      <c r="B664" s="20"/>
+      <c r="B664" s="25"/>
     </row>
     <row r="665">
-      <c r="B665" s="20"/>
+      <c r="B665" s="25"/>
     </row>
     <row r="666">
-      <c r="B666" s="20"/>
+      <c r="B666" s="25"/>
     </row>
     <row r="667">
-      <c r="B667" s="20"/>
+      <c r="B667" s="25"/>
     </row>
     <row r="668">
-      <c r="B668" s="20"/>
+      <c r="B668" s="25"/>
     </row>
     <row r="669">
-      <c r="B669" s="20"/>
+      <c r="B669" s="25"/>
     </row>
     <row r="670">
-      <c r="B670" s="20"/>
+      <c r="B670" s="25"/>
     </row>
     <row r="671">
-      <c r="B671" s="20"/>
+      <c r="B671" s="25"/>
     </row>
     <row r="672">
-      <c r="B672" s="20"/>
+      <c r="B672" s="25"/>
     </row>
     <row r="673">
-      <c r="B673" s="20"/>
+      <c r="B673" s="25"/>
     </row>
     <row r="674">
-      <c r="B674" s="20"/>
+      <c r="B674" s="25"/>
     </row>
     <row r="675">
-      <c r="B675" s="20"/>
+      <c r="B675" s="25"/>
     </row>
     <row r="676">
-      <c r="B676" s="20"/>
+      <c r="B676" s="25"/>
     </row>
     <row r="677">
-      <c r="B677" s="20"/>
+      <c r="B677" s="25"/>
     </row>
     <row r="678">
-      <c r="B678" s="20"/>
+      <c r="B678" s="25"/>
     </row>
     <row r="679">
-      <c r="B679" s="20"/>
+      <c r="B679" s="25"/>
     </row>
     <row r="680">
-      <c r="B680" s="20"/>
+      <c r="B680" s="25"/>
     </row>
     <row r="681">
-      <c r="B681" s="20"/>
+      <c r="B681" s="25"/>
     </row>
     <row r="682">
-      <c r="B682" s="20"/>
+      <c r="B682" s="25"/>
     </row>
     <row r="683">
-      <c r="B683" s="20"/>
+      <c r="B683" s="25"/>
     </row>
     <row r="684">
-      <c r="B684" s="20"/>
+      <c r="B684" s="25"/>
     </row>
     <row r="685">
-      <c r="B685" s="20"/>
+      <c r="B685" s="25"/>
     </row>
     <row r="686">
-      <c r="B686" s="20"/>
+      <c r="B686" s="25"/>
     </row>
     <row r="687">
-      <c r="B687" s="20"/>
+      <c r="B687" s="25"/>
     </row>
     <row r="688">
-      <c r="B688" s="20"/>
+      <c r="B688" s="25"/>
     </row>
     <row r="689">
-      <c r="B689" s="20"/>
+      <c r="B689" s="25"/>
     </row>
     <row r="690">
-      <c r="B690" s="20"/>
+      <c r="B690" s="25"/>
     </row>
     <row r="691">
-      <c r="B691" s="20"/>
+      <c r="B691" s="25"/>
     </row>
     <row r="692">
-      <c r="B692" s="20"/>
+      <c r="B692" s="25"/>
     </row>
     <row r="693">
-      <c r="B693" s="20"/>
+      <c r="B693" s="25"/>
     </row>
     <row r="694">
-      <c r="B694" s="20"/>
+      <c r="B694" s="25"/>
     </row>
     <row r="695">
-      <c r="B695" s="20"/>
+      <c r="B695" s="25"/>
     </row>
     <row r="696">
-      <c r="B696" s="20"/>
+      <c r="B696" s="25"/>
     </row>
     <row r="697">
-      <c r="B697" s="20"/>
+      <c r="B697" s="25"/>
     </row>
     <row r="698">
-      <c r="B698" s="20"/>
+      <c r="B698" s="25"/>
     </row>
     <row r="699">
-      <c r="B699" s="20"/>
+      <c r="B699" s="25"/>
     </row>
     <row r="700">
-      <c r="B700" s="20"/>
+      <c r="B700" s="25"/>
     </row>
     <row r="701">
-      <c r="B701" s="20"/>
+      <c r="B701" s="25"/>
     </row>
     <row r="702">
-      <c r="B702" s="20"/>
+      <c r="B702" s="25"/>
     </row>
     <row r="703">
-      <c r="B703" s="20"/>
+      <c r="B703" s="25"/>
     </row>
     <row r="704">
-      <c r="B704" s="20"/>
+      <c r="B704" s="25"/>
     </row>
     <row r="705">
-      <c r="B705" s="20"/>
+      <c r="B705" s="25"/>
     </row>
     <row r="706">
-      <c r="B706" s="20"/>
+      <c r="B706" s="25"/>
     </row>
     <row r="707">
-      <c r="B707" s="20"/>
+      <c r="B707" s="25"/>
     </row>
     <row r="708">
-      <c r="B708" s="20"/>
+      <c r="B708" s="25"/>
     </row>
     <row r="709">
-      <c r="B709" s="20"/>
+      <c r="B709" s="25"/>
     </row>
     <row r="710">
-      <c r="B710" s="20"/>
+      <c r="B710" s="25"/>
     </row>
     <row r="711">
-      <c r="B711" s="20"/>
+      <c r="B711" s="25"/>
     </row>
     <row r="712">
-      <c r="B712" s="20"/>
+      <c r="B712" s="25"/>
     </row>
     <row r="713">
-      <c r="B713" s="20"/>
+      <c r="B713" s="25"/>
     </row>
     <row r="714">
-      <c r="B714" s="20"/>
+      <c r="B714" s="25"/>
     </row>
     <row r="715">
-      <c r="B715" s="20"/>
+      <c r="B715" s="25"/>
     </row>
     <row r="716">
-      <c r="B716" s="20"/>
+      <c r="B716" s="25"/>
     </row>
     <row r="717">
-      <c r="B717" s="20"/>
+      <c r="B717" s="25"/>
     </row>
     <row r="718">
-      <c r="B718" s="20"/>
+      <c r="B718" s="25"/>
     </row>
     <row r="719">
-      <c r="B719" s="20"/>
+      <c r="B719" s="25"/>
     </row>
     <row r="720">
-      <c r="B720" s="20"/>
+      <c r="B720" s="25"/>
     </row>
     <row r="721">
-      <c r="B721" s="20"/>
+      <c r="B721" s="25"/>
     </row>
     <row r="722">
-      <c r="B722" s="20"/>
+      <c r="B722" s="25"/>
     </row>
     <row r="723">
-      <c r="B723" s="20"/>
+      <c r="B723" s="25"/>
     </row>
     <row r="724">
-      <c r="B724" s="20"/>
+      <c r="B724" s="25"/>
     </row>
     <row r="725">
-      <c r="B725" s="20"/>
+      <c r="B725" s="25"/>
     </row>
     <row r="726">
-      <c r="B726" s="20"/>
+      <c r="B726" s="25"/>
     </row>
     <row r="727">
-      <c r="B727" s="20"/>
+      <c r="B727" s="25"/>
     </row>
     <row r="728">
-      <c r="B728" s="20"/>
+      <c r="B728" s="25"/>
     </row>
     <row r="729">
-      <c r="B729" s="20"/>
+      <c r="B729" s="25"/>
     </row>
     <row r="730">
-      <c r="B730" s="20"/>
+      <c r="B730" s="25"/>
     </row>
     <row r="731">
-      <c r="B731" s="20"/>
+      <c r="B731" s="25"/>
     </row>
     <row r="732">
-      <c r="B732" s="20"/>
+      <c r="B732" s="25"/>
     </row>
     <row r="733">
-      <c r="B733" s="20"/>
+      <c r="B733" s="25"/>
     </row>
     <row r="734">
-      <c r="B734" s="20"/>
+      <c r="B734" s="25"/>
     </row>
     <row r="735">
-      <c r="B735" s="20"/>
+      <c r="B735" s="25"/>
     </row>
     <row r="736">
-      <c r="B736" s="20"/>
+      <c r="B736" s="25"/>
     </row>
     <row r="737">
-      <c r="B737" s="20"/>
+      <c r="B737" s="25"/>
     </row>
     <row r="738">
-      <c r="B738" s="20"/>
+      <c r="B738" s="25"/>
     </row>
     <row r="739">
-      <c r="B739" s="20"/>
+      <c r="B739" s="25"/>
     </row>
     <row r="740">
-      <c r="B740" s="20"/>
+      <c r="B740" s="25"/>
     </row>
     <row r="741">
-      <c r="B741" s="20"/>
+      <c r="B741" s="25"/>
     </row>
     <row r="742">
-      <c r="B742" s="20"/>
+      <c r="B742" s="25"/>
     </row>
     <row r="743">
-      <c r="B743" s="20"/>
+      <c r="B743" s="25"/>
     </row>
     <row r="744">
-      <c r="B744" s="20"/>
+      <c r="B744" s="25"/>
     </row>
     <row r="745">
-      <c r="B745" s="20"/>
+      <c r="B745" s="25"/>
     </row>
     <row r="746">
-      <c r="B746" s="20"/>
+      <c r="B746" s="25"/>
     </row>
     <row r="747">
-      <c r="B747" s="20"/>
+      <c r="B747" s="25"/>
     </row>
     <row r="748">
-      <c r="B748" s="20"/>
+      <c r="B748" s="25"/>
     </row>
     <row r="749">
-      <c r="B749" s="20"/>
+      <c r="B749" s="25"/>
     </row>
     <row r="750">
-      <c r="B750" s="20"/>
+      <c r="B750" s="25"/>
     </row>
     <row r="751">
-      <c r="B751" s="20"/>
+      <c r="B751" s="25"/>
     </row>
     <row r="752">
-      <c r="B752" s="20"/>
+      <c r="B752" s="25"/>
     </row>
     <row r="753">
-      <c r="B753" s="20"/>
+      <c r="B753" s="25"/>
     </row>
     <row r="754">
-      <c r="B754" s="20"/>
+      <c r="B754" s="25"/>
     </row>
     <row r="755">
-      <c r="B755" s="20"/>
+      <c r="B755" s="25"/>
     </row>
     <row r="756">
-      <c r="B756" s="20"/>
+      <c r="B756" s="25"/>
     </row>
     <row r="757">
-      <c r="B757" s="20"/>
+      <c r="B757" s="25"/>
     </row>
     <row r="758">
-      <c r="B758" s="20"/>
+      <c r="B758" s="25"/>
     </row>
     <row r="759">
-      <c r="B759" s="20"/>
+      <c r="B759" s="25"/>
     </row>
     <row r="760">
-      <c r="B760" s="20"/>
+      <c r="B760" s="25"/>
     </row>
     <row r="761">
-      <c r="B761" s="20"/>
+      <c r="B761" s="25"/>
     </row>
     <row r="762">
-      <c r="B762" s="20"/>
+      <c r="B762" s="25"/>
     </row>
     <row r="763">
-      <c r="B763" s="20"/>
+      <c r="B763" s="25"/>
     </row>
     <row r="764">
-      <c r="B764" s="20"/>
+      <c r="B764" s="25"/>
     </row>
     <row r="765">
-      <c r="B765" s="20"/>
+      <c r="B765" s="25"/>
     </row>
     <row r="766">
-      <c r="B766" s="20"/>
+      <c r="B766" s="25"/>
     </row>
     <row r="767">
-      <c r="B767" s="20"/>
+      <c r="B767" s="25"/>
     </row>
     <row r="768">
-      <c r="B768" s="20"/>
+      <c r="B768" s="25"/>
     </row>
     <row r="769">
-      <c r="B769" s="20"/>
+      <c r="B769" s="25"/>
     </row>
     <row r="770">
-      <c r="B770" s="20"/>
+      <c r="B770" s="25"/>
     </row>
     <row r="771">
-      <c r="B771" s="20"/>
+      <c r="B771" s="25"/>
     </row>
     <row r="772">
-      <c r="B772" s="20"/>
+      <c r="B772" s="25"/>
     </row>
     <row r="773">
-      <c r="B773" s="20"/>
+      <c r="B773" s="25"/>
     </row>
     <row r="774">
-      <c r="B774" s="20"/>
+      <c r="B774" s="25"/>
     </row>
     <row r="775">
-      <c r="B775" s="20"/>
+      <c r="B775" s="25"/>
     </row>
     <row r="776">
-      <c r="B776" s="20"/>
+      <c r="B776" s="25"/>
     </row>
     <row r="777">
-      <c r="B777" s="20"/>
+      <c r="B777" s="25"/>
     </row>
     <row r="778">
-      <c r="B778" s="20"/>
+      <c r="B778" s="25"/>
     </row>
     <row r="779">
-      <c r="B779" s="20"/>
+      <c r="B779" s="25"/>
     </row>
     <row r="780">
-      <c r="B780" s="20"/>
+      <c r="B780" s="25"/>
     </row>
     <row r="781">
-      <c r="B781" s="20"/>
+      <c r="B781" s="25"/>
     </row>
     <row r="782">
-      <c r="B782" s="20"/>
+      <c r="B782" s="25"/>
     </row>
     <row r="783">
-      <c r="B783" s="20"/>
+      <c r="B783" s="25"/>
     </row>
     <row r="784">
-      <c r="B784" s="20"/>
+      <c r="B784" s="25"/>
     </row>
     <row r="785">
-      <c r="B785" s="20"/>
+      <c r="B785" s="25"/>
     </row>
     <row r="786">
-      <c r="B786" s="20"/>
+      <c r="B786" s="25"/>
     </row>
     <row r="787">
-      <c r="B787" s="20"/>
+      <c r="B787" s="25"/>
     </row>
     <row r="788">
-      <c r="B788" s="20"/>
+      <c r="B788" s="25"/>
     </row>
     <row r="789">
-      <c r="B789" s="20"/>
+      <c r="B789" s="25"/>
     </row>
     <row r="790">
-      <c r="B790" s="20"/>
+      <c r="B790" s="25"/>
     </row>
     <row r="791">
-      <c r="B791" s="20"/>
+      <c r="B791" s="25"/>
     </row>
     <row r="792">
-      <c r="B792" s="20"/>
+      <c r="B792" s="25"/>
     </row>
     <row r="793">
-      <c r="B793" s="20"/>
+      <c r="B793" s="25"/>
     </row>
     <row r="794">
-      <c r="B794" s="20"/>
+      <c r="B794" s="25"/>
     </row>
     <row r="795">
-      <c r="B795" s="20"/>
+      <c r="B795" s="25"/>
     </row>
     <row r="796">
-      <c r="B796" s="20"/>
+      <c r="B796" s="25"/>
     </row>
     <row r="797">
-      <c r="B797" s="20"/>
+      <c r="B797" s="25"/>
     </row>
     <row r="798">
-      <c r="B798" s="20"/>
+      <c r="B798" s="25"/>
     </row>
     <row r="799">
-      <c r="B799" s="20"/>
+      <c r="B799" s="25"/>
     </row>
     <row r="800">
-      <c r="B800" s="20"/>
+      <c r="B800" s="25"/>
     </row>
     <row r="801">
-      <c r="B801" s="20"/>
+      <c r="B801" s="25"/>
     </row>
     <row r="802">
-      <c r="B802" s="20"/>
+      <c r="B802" s="25"/>
     </row>
     <row r="803">
-      <c r="B803" s="20"/>
+      <c r="B803" s="25"/>
     </row>
     <row r="804">
-      <c r="B804" s="20"/>
+      <c r="B804" s="25"/>
     </row>
     <row r="805">
-      <c r="B805" s="20"/>
+      <c r="B805" s="25"/>
     </row>
     <row r="806">
-      <c r="B806" s="20"/>
+      <c r="B806" s="25"/>
     </row>
     <row r="807">
-      <c r="B807" s="20"/>
+      <c r="B807" s="25"/>
     </row>
     <row r="808">
-      <c r="B808" s="20"/>
+      <c r="B808" s="25"/>
     </row>
     <row r="809">
-      <c r="B809" s="20"/>
+      <c r="B809" s="25"/>
     </row>
     <row r="810">
-      <c r="B810" s="20"/>
+      <c r="B810" s="25"/>
     </row>
     <row r="811">
-      <c r="B811" s="20"/>
+      <c r="B811" s="25"/>
     </row>
     <row r="812">
-      <c r="B812" s="20"/>
+      <c r="B812" s="25"/>
     </row>
     <row r="813">
-      <c r="B813" s="20"/>
+      <c r="B813" s="25"/>
     </row>
     <row r="814">
-      <c r="B814" s="20"/>
+      <c r="B814" s="25"/>
     </row>
     <row r="815">
-      <c r="B815" s="20"/>
+      <c r="B815" s="25"/>
     </row>
     <row r="816">
-      <c r="B816" s="20"/>
+      <c r="B816" s="25"/>
     </row>
     <row r="817">
-      <c r="B817" s="20"/>
+      <c r="B817" s="25"/>
     </row>
     <row r="818">
-      <c r="B818" s="20"/>
+      <c r="B818" s="25"/>
     </row>
     <row r="819">
-      <c r="B819" s="20"/>
+      <c r="B819" s="25"/>
     </row>
     <row r="820">
-      <c r="B820" s="20"/>
+      <c r="B820" s="25"/>
     </row>
     <row r="821">
-      <c r="B821" s="20"/>
+      <c r="B821" s="25"/>
     </row>
     <row r="822">
-      <c r="B822" s="20"/>
+      <c r="B822" s="25"/>
     </row>
     <row r="823">
-      <c r="B823" s="20"/>
+      <c r="B823" s="25"/>
     </row>
     <row r="824">
-      <c r="B824" s="20"/>
+      <c r="B824" s="25"/>
     </row>
     <row r="825">
-      <c r="B825" s="20"/>
+      <c r="B825" s="25"/>
     </row>
     <row r="826">
-      <c r="B826" s="20"/>
+      <c r="B826" s="25"/>
     </row>
     <row r="827">
-      <c r="B827" s="20"/>
+      <c r="B827" s="25"/>
     </row>
     <row r="828">
-      <c r="B828" s="20"/>
+      <c r="B828" s="25"/>
     </row>
     <row r="829">
-      <c r="B829" s="20"/>
+      <c r="B829" s="25"/>
     </row>
     <row r="830">
-      <c r="B830" s="20"/>
+      <c r="B830" s="25"/>
     </row>
     <row r="831">
-      <c r="B831" s="20"/>
+      <c r="B831" s="25"/>
     </row>
     <row r="832">
-      <c r="B832" s="20"/>
+      <c r="B832" s="25"/>
     </row>
     <row r="833">
-      <c r="B833" s="20"/>
+      <c r="B833" s="25"/>
     </row>
     <row r="834">
-      <c r="B834" s="20"/>
+      <c r="B834" s="25"/>
     </row>
     <row r="835">
-      <c r="B835" s="20"/>
+      <c r="B835" s="25"/>
     </row>
     <row r="836">
-      <c r="B836" s="20"/>
+      <c r="B836" s="25"/>
     </row>
     <row r="837">
-      <c r="B837" s="20"/>
+      <c r="B837" s="25"/>
     </row>
     <row r="838">
-      <c r="B838" s="20"/>
+      <c r="B838" s="25"/>
     </row>
     <row r="839">
-      <c r="B839" s="20"/>
+      <c r="B839" s="25"/>
     </row>
     <row r="840">
-      <c r="B840" s="20"/>
+      <c r="B840" s="25"/>
     </row>
     <row r="841">
-      <c r="B841" s="20"/>
+      <c r="B841" s="25"/>
     </row>
     <row r="842">
-      <c r="B842" s="20"/>
+      <c r="B842" s="25"/>
     </row>
     <row r="843">
-      <c r="B843" s="20"/>
+      <c r="B843" s="25"/>
     </row>
     <row r="844">
-      <c r="B844" s="20"/>
+      <c r="B844" s="25"/>
     </row>
     <row r="845">
-      <c r="B845" s="20"/>
+      <c r="B845" s="25"/>
     </row>
     <row r="846">
-      <c r="B846" s="20"/>
+      <c r="B846" s="25"/>
     </row>
     <row r="847">
-      <c r="B847" s="20"/>
+      <c r="B847" s="25"/>
     </row>
     <row r="848">
-      <c r="B848" s="20"/>
+      <c r="B848" s="25"/>
     </row>
     <row r="849">
-      <c r="B849" s="20"/>
+      <c r="B849" s="25"/>
     </row>
     <row r="850">
-      <c r="B850" s="20"/>
+      <c r="B850" s="25"/>
     </row>
     <row r="851">
-      <c r="B851" s="20"/>
+      <c r="B851" s="25"/>
     </row>
     <row r="852">
-      <c r="B852" s="20"/>
+      <c r="B852" s="25"/>
     </row>
     <row r="853">
-      <c r="B853" s="20"/>
+      <c r="B853" s="25"/>
     </row>
     <row r="854">
-      <c r="B854" s="20"/>
+      <c r="B854" s="25"/>
     </row>
     <row r="855">
-      <c r="B855" s="20"/>
+      <c r="B855" s="25"/>
     </row>
     <row r="856">
-      <c r="B856" s="20"/>
+      <c r="B856" s="25"/>
     </row>
     <row r="857">
-      <c r="B857" s="20"/>
+      <c r="B857" s="25"/>
     </row>
     <row r="858">
-      <c r="B858" s="20"/>
+      <c r="B858" s="25"/>
     </row>
     <row r="859">
-      <c r="B859" s="20"/>
+      <c r="B859" s="25"/>
     </row>
     <row r="860">
-      <c r="B860" s="20"/>
+      <c r="B860" s="25"/>
     </row>
     <row r="861">
-      <c r="B861" s="20"/>
+      <c r="B861" s="25"/>
     </row>
     <row r="862">
-      <c r="B862" s="20"/>
+      <c r="B862" s="25"/>
     </row>
     <row r="863">
-      <c r="B863" s="20"/>
+      <c r="B863" s="25"/>
     </row>
     <row r="864">
-      <c r="B864" s="20"/>
+      <c r="B864" s="25"/>
     </row>
     <row r="865">
-      <c r="B865" s="20"/>
+      <c r="B865" s="25"/>
     </row>
     <row r="866">
-      <c r="B866" s="20"/>
+      <c r="B866" s="25"/>
     </row>
     <row r="867">
-      <c r="B867" s="20"/>
+      <c r="B867" s="25"/>
     </row>
     <row r="868">
-      <c r="B868" s="20"/>
+      <c r="B868" s="25"/>
     </row>
     <row r="869">
-      <c r="B869" s="20"/>
+      <c r="B869" s="25"/>
     </row>
     <row r="870">
-      <c r="B870" s="20"/>
+      <c r="B870" s="25"/>
     </row>
     <row r="871">
-      <c r="B871" s="20"/>
+      <c r="B871" s="25"/>
     </row>
     <row r="872">
-      <c r="B872" s="20"/>
+      <c r="B872" s="25"/>
     </row>
     <row r="873">
-      <c r="B873" s="20"/>
+      <c r="B873" s="25"/>
     </row>
     <row r="874">
-      <c r="B874" s="20"/>
+      <c r="B874" s="25"/>
     </row>
     <row r="875">
-      <c r="B875" s="20"/>
+      <c r="B875" s="25"/>
     </row>
     <row r="876">
-      <c r="B876" s="20"/>
+      <c r="B876" s="25"/>
     </row>
     <row r="877">
-      <c r="B877" s="20"/>
+      <c r="B877" s="25"/>
     </row>
     <row r="878">
-      <c r="B878" s="20"/>
+      <c r="B878" s="25"/>
     </row>
     <row r="879">
-      <c r="B879" s="20"/>
+      <c r="B879" s="25"/>
     </row>
     <row r="880">
-      <c r="B880" s="20"/>
+      <c r="B880" s="25"/>
     </row>
     <row r="881">
-      <c r="B881" s="20"/>
+      <c r="B881" s="25"/>
     </row>
     <row r="882">
-      <c r="B882" s="20"/>
+      <c r="B882" s="25"/>
     </row>
     <row r="883">
-      <c r="B883" s="20"/>
+      <c r="B883" s="25"/>
     </row>
     <row r="884">
-      <c r="B884" s="20"/>
+      <c r="B884" s="25"/>
     </row>
     <row r="885">
-      <c r="B885" s="20"/>
+      <c r="B885" s="25"/>
     </row>
     <row r="886">
-      <c r="B886" s="20"/>
+      <c r="B886" s="25"/>
     </row>
     <row r="887">
-      <c r="B887" s="20"/>
+      <c r="B887" s="25"/>
     </row>
     <row r="888">
-      <c r="B888" s="20"/>
+      <c r="B888" s="25"/>
     </row>
     <row r="889">
-      <c r="B889" s="20"/>
+      <c r="B889" s="25"/>
+    </row>
+    <row r="890">
+      <c r="B890" s="25"/>
+    </row>
+    <row r="891">
+      <c r="B891" s="25"/>
+    </row>
+    <row r="892">
+      <c r="B892" s="25"/>
+    </row>
+    <row r="893">
+      <c r="B893" s="25"/>
+    </row>
+    <row r="894">
+      <c r="B894" s="25"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:J2 K2:K11 L2:M2 N2:N12 O2:AF2 N24:N27">
+  <conditionalFormatting sqref="A2:J2 K2:K11 L2:M2 N2:N12 O2:AF2 N24:N32">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$M2="modified"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:J2 K2:K11 L2:M2 N2:N12 O2:AF2 N24:N27">
+  <conditionalFormatting sqref="A2:J2 K2:K11 L2:M2 N2:N12 O2:AF2 N24:N32">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>$M2="deprecated"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AF839">
+  <conditionalFormatting sqref="A2:AF844">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>$M2="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AF839">
+  <conditionalFormatting sqref="A2:AF844">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>$M2="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AF839">
+  <conditionalFormatting sqref="A2:AF844">
     <cfRule type="expression" dxfId="4" priority="5">
       <formula>$M2="modified"</formula>
     </cfRule>
@@ -4786,13 +4851,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -4800,7 +4865,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="28" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -4809,7 +4874,7 @@
       <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="28" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="7" t="s">
@@ -4824,22 +4889,22 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="15" t="s">
         <v>106</v>
       </c>
+      <c r="C2" s="26" t="s">
+        <v>107</v>
+      </c>
       <c r="D2" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
@@ -4848,14 +4913,14 @@
       <c r="K2" s="12">
         <v>44853.0</v>
       </c>
-      <c r="L2" s="22"/>
+      <c r="L2" s="29"/>
       <c r="M2" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="18"/>
+      <c r="O2" s="15"/>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
@@ -4872,22 +4937,22 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="15" t="s">
         <v>111</v>
       </c>
+      <c r="C3" s="26" t="s">
+        <v>112</v>
+      </c>
       <c r="D3" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -4920,22 +4985,22 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>114</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>113</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
@@ -4968,22 +5033,22 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" s="15" t="s">
         <v>120</v>
       </c>
+      <c r="C5" s="26" t="s">
+        <v>121</v>
+      </c>
       <c r="D5" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -5016,22 +5081,22 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -5064,22 +5129,22 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" s="15" t="s">
         <v>128</v>
       </c>
+      <c r="C7" s="26" t="s">
+        <v>129</v>
+      </c>
       <c r="D7" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
@@ -5112,22 +5177,22 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" s="15" t="s">
         <v>132</v>
       </c>
+      <c r="C8" s="26" t="s">
+        <v>133</v>
+      </c>
       <c r="D8" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K8" s="12">
         <v>45545.0</v>
@@ -5143,2932 +5208,2932 @@
       </c>
     </row>
     <row r="9">
-      <c r="C9" s="23"/>
+      <c r="C9" s="30"/>
     </row>
     <row r="10">
-      <c r="C10" s="23"/>
+      <c r="C10" s="30"/>
     </row>
     <row r="11">
-      <c r="C11" s="23"/>
+      <c r="C11" s="30"/>
     </row>
     <row r="12">
-      <c r="C12" s="23"/>
+      <c r="C12" s="30"/>
     </row>
     <row r="13">
-      <c r="C13" s="23"/>
+      <c r="C13" s="30"/>
     </row>
     <row r="14">
-      <c r="C14" s="23"/>
+      <c r="C14" s="30"/>
     </row>
     <row r="15">
-      <c r="C15" s="23"/>
+      <c r="C15" s="30"/>
     </row>
     <row r="16">
-      <c r="C16" s="23"/>
+      <c r="C16" s="30"/>
     </row>
     <row r="17">
-      <c r="C17" s="23"/>
+      <c r="C17" s="30"/>
     </row>
     <row r="18">
-      <c r="C18" s="23"/>
+      <c r="C18" s="30"/>
     </row>
     <row r="19">
-      <c r="C19" s="23"/>
+      <c r="C19" s="30"/>
     </row>
     <row r="20">
-      <c r="C20" s="23"/>
+      <c r="C20" s="30"/>
     </row>
     <row r="21">
-      <c r="C21" s="23"/>
+      <c r="C21" s="30"/>
     </row>
     <row r="22">
-      <c r="C22" s="23"/>
+      <c r="C22" s="30"/>
     </row>
     <row r="23">
-      <c r="C23" s="23"/>
+      <c r="C23" s="30"/>
     </row>
     <row r="24">
-      <c r="C24" s="23"/>
+      <c r="C24" s="30"/>
     </row>
     <row r="25">
-      <c r="C25" s="23"/>
+      <c r="C25" s="30"/>
     </row>
     <row r="26">
-      <c r="C26" s="23"/>
+      <c r="C26" s="30"/>
     </row>
     <row r="27">
-      <c r="C27" s="23"/>
+      <c r="C27" s="30"/>
     </row>
     <row r="28">
-      <c r="C28" s="23"/>
+      <c r="C28" s="30"/>
     </row>
     <row r="29">
-      <c r="C29" s="23"/>
+      <c r="C29" s="30"/>
     </row>
     <row r="30">
-      <c r="C30" s="23"/>
+      <c r="C30" s="30"/>
     </row>
     <row r="31">
-      <c r="C31" s="23"/>
+      <c r="C31" s="30"/>
     </row>
     <row r="32">
-      <c r="C32" s="23"/>
+      <c r="C32" s="30"/>
     </row>
     <row r="33">
-      <c r="C33" s="23"/>
+      <c r="C33" s="30"/>
     </row>
     <row r="34">
-      <c r="C34" s="23"/>
+      <c r="C34" s="30"/>
     </row>
     <row r="35">
-      <c r="C35" s="23"/>
+      <c r="C35" s="30"/>
     </row>
     <row r="36">
-      <c r="C36" s="23"/>
+      <c r="C36" s="30"/>
     </row>
     <row r="37">
-      <c r="C37" s="23"/>
+      <c r="C37" s="30"/>
     </row>
     <row r="38">
-      <c r="C38" s="23"/>
+      <c r="C38" s="30"/>
     </row>
     <row r="39">
-      <c r="C39" s="23"/>
+      <c r="C39" s="30"/>
     </row>
     <row r="40">
-      <c r="C40" s="23"/>
+      <c r="C40" s="30"/>
     </row>
     <row r="41">
-      <c r="C41" s="23"/>
+      <c r="C41" s="30"/>
     </row>
     <row r="42">
-      <c r="C42" s="23"/>
+      <c r="C42" s="30"/>
     </row>
     <row r="43">
-      <c r="C43" s="23"/>
+      <c r="C43" s="30"/>
     </row>
     <row r="44">
-      <c r="C44" s="23"/>
+      <c r="C44" s="30"/>
     </row>
     <row r="45">
-      <c r="C45" s="23"/>
+      <c r="C45" s="30"/>
     </row>
     <row r="46">
-      <c r="C46" s="23"/>
+      <c r="C46" s="30"/>
     </row>
     <row r="47">
-      <c r="C47" s="23"/>
+      <c r="C47" s="30"/>
     </row>
     <row r="48">
-      <c r="C48" s="23"/>
+      <c r="C48" s="30"/>
     </row>
     <row r="49">
-      <c r="C49" s="23"/>
+      <c r="C49" s="30"/>
     </row>
     <row r="50">
-      <c r="C50" s="23"/>
+      <c r="C50" s="30"/>
     </row>
     <row r="51">
-      <c r="C51" s="23"/>
+      <c r="C51" s="30"/>
     </row>
     <row r="52">
-      <c r="C52" s="23"/>
+      <c r="C52" s="30"/>
     </row>
     <row r="53">
-      <c r="C53" s="23"/>
+      <c r="C53" s="30"/>
     </row>
     <row r="54">
-      <c r="C54" s="23"/>
+      <c r="C54" s="30"/>
     </row>
     <row r="55">
-      <c r="C55" s="23"/>
+      <c r="C55" s="30"/>
     </row>
     <row r="56">
-      <c r="C56" s="23"/>
+      <c r="C56" s="30"/>
     </row>
     <row r="57">
-      <c r="C57" s="23"/>
+      <c r="C57" s="30"/>
     </row>
     <row r="58">
-      <c r="C58" s="23"/>
+      <c r="C58" s="30"/>
     </row>
     <row r="59">
-      <c r="C59" s="23"/>
+      <c r="C59" s="30"/>
     </row>
     <row r="60">
-      <c r="C60" s="23"/>
+      <c r="C60" s="30"/>
     </row>
     <row r="61">
-      <c r="C61" s="23"/>
+      <c r="C61" s="30"/>
     </row>
     <row r="62">
-      <c r="C62" s="23"/>
+      <c r="C62" s="30"/>
     </row>
     <row r="63">
-      <c r="C63" s="23"/>
+      <c r="C63" s="30"/>
     </row>
     <row r="64">
-      <c r="C64" s="23"/>
+      <c r="C64" s="30"/>
     </row>
     <row r="65">
-      <c r="C65" s="23"/>
+      <c r="C65" s="30"/>
     </row>
     <row r="66">
-      <c r="C66" s="23"/>
+      <c r="C66" s="30"/>
     </row>
     <row r="67">
-      <c r="C67" s="23"/>
+      <c r="C67" s="30"/>
     </row>
     <row r="68">
-      <c r="C68" s="23"/>
+      <c r="C68" s="30"/>
     </row>
     <row r="69">
-      <c r="C69" s="23"/>
+      <c r="C69" s="30"/>
     </row>
     <row r="70">
-      <c r="C70" s="23"/>
+      <c r="C70" s="30"/>
     </row>
     <row r="71">
-      <c r="C71" s="23"/>
+      <c r="C71" s="30"/>
     </row>
     <row r="72">
-      <c r="C72" s="23"/>
+      <c r="C72" s="30"/>
     </row>
     <row r="73">
-      <c r="C73" s="23"/>
+      <c r="C73" s="30"/>
     </row>
     <row r="74">
-      <c r="C74" s="23"/>
+      <c r="C74" s="30"/>
     </row>
     <row r="75">
-      <c r="C75" s="23"/>
+      <c r="C75" s="30"/>
     </row>
     <row r="76">
-      <c r="C76" s="23"/>
+      <c r="C76" s="30"/>
     </row>
     <row r="77">
-      <c r="C77" s="23"/>
+      <c r="C77" s="30"/>
     </row>
     <row r="78">
-      <c r="C78" s="23"/>
+      <c r="C78" s="30"/>
     </row>
     <row r="79">
-      <c r="C79" s="23"/>
+      <c r="C79" s="30"/>
     </row>
     <row r="80">
-      <c r="C80" s="23"/>
+      <c r="C80" s="30"/>
     </row>
     <row r="81">
-      <c r="C81" s="23"/>
+      <c r="C81" s="30"/>
     </row>
     <row r="82">
-      <c r="C82" s="23"/>
+      <c r="C82" s="30"/>
     </row>
     <row r="83">
-      <c r="C83" s="23"/>
+      <c r="C83" s="30"/>
     </row>
     <row r="84">
-      <c r="C84" s="23"/>
+      <c r="C84" s="30"/>
     </row>
     <row r="85">
-      <c r="C85" s="23"/>
+      <c r="C85" s="30"/>
     </row>
     <row r="86">
-      <c r="C86" s="23"/>
+      <c r="C86" s="30"/>
     </row>
     <row r="87">
-      <c r="C87" s="23"/>
+      <c r="C87" s="30"/>
     </row>
     <row r="88">
-      <c r="C88" s="23"/>
+      <c r="C88" s="30"/>
     </row>
     <row r="89">
-      <c r="C89" s="23"/>
+      <c r="C89" s="30"/>
     </row>
     <row r="90">
-      <c r="C90" s="23"/>
+      <c r="C90" s="30"/>
     </row>
     <row r="91">
-      <c r="C91" s="23"/>
+      <c r="C91" s="30"/>
     </row>
     <row r="92">
-      <c r="C92" s="23"/>
+      <c r="C92" s="30"/>
     </row>
     <row r="93">
-      <c r="C93" s="23"/>
+      <c r="C93" s="30"/>
     </row>
     <row r="94">
-      <c r="C94" s="23"/>
+      <c r="C94" s="30"/>
     </row>
     <row r="95">
-      <c r="C95" s="23"/>
+      <c r="C95" s="30"/>
     </row>
     <row r="96">
-      <c r="C96" s="23"/>
+      <c r="C96" s="30"/>
     </row>
     <row r="97">
-      <c r="C97" s="23"/>
+      <c r="C97" s="30"/>
     </row>
     <row r="98">
-      <c r="C98" s="23"/>
+      <c r="C98" s="30"/>
     </row>
     <row r="99">
-      <c r="C99" s="23"/>
+      <c r="C99" s="30"/>
     </row>
     <row r="100">
-      <c r="C100" s="23"/>
+      <c r="C100" s="30"/>
     </row>
     <row r="101">
-      <c r="C101" s="23"/>
+      <c r="C101" s="30"/>
     </row>
     <row r="102">
-      <c r="C102" s="23"/>
+      <c r="C102" s="30"/>
     </row>
     <row r="103">
-      <c r="C103" s="23"/>
+      <c r="C103" s="30"/>
     </row>
     <row r="104">
-      <c r="C104" s="23"/>
+      <c r="C104" s="30"/>
     </row>
     <row r="105">
-      <c r="C105" s="23"/>
+      <c r="C105" s="30"/>
     </row>
     <row r="106">
-      <c r="C106" s="23"/>
+      <c r="C106" s="30"/>
     </row>
     <row r="107">
-      <c r="C107" s="23"/>
+      <c r="C107" s="30"/>
     </row>
     <row r="108">
-      <c r="C108" s="23"/>
+      <c r="C108" s="30"/>
     </row>
     <row r="109">
-      <c r="C109" s="23"/>
+      <c r="C109" s="30"/>
     </row>
     <row r="110">
-      <c r="C110" s="23"/>
+      <c r="C110" s="30"/>
     </row>
     <row r="111">
-      <c r="C111" s="23"/>
+      <c r="C111" s="30"/>
     </row>
     <row r="112">
-      <c r="C112" s="23"/>
+      <c r="C112" s="30"/>
     </row>
     <row r="113">
-      <c r="C113" s="23"/>
+      <c r="C113" s="30"/>
     </row>
     <row r="114">
-      <c r="C114" s="23"/>
+      <c r="C114" s="30"/>
     </row>
     <row r="115">
-      <c r="C115" s="23"/>
+      <c r="C115" s="30"/>
     </row>
     <row r="116">
-      <c r="C116" s="23"/>
+      <c r="C116" s="30"/>
     </row>
     <row r="117">
-      <c r="C117" s="23"/>
+      <c r="C117" s="30"/>
     </row>
     <row r="118">
-      <c r="C118" s="23"/>
+      <c r="C118" s="30"/>
     </row>
     <row r="119">
-      <c r="C119" s="23"/>
+      <c r="C119" s="30"/>
     </row>
     <row r="120">
-      <c r="C120" s="23"/>
+      <c r="C120" s="30"/>
     </row>
     <row r="121">
-      <c r="C121" s="23"/>
+      <c r="C121" s="30"/>
     </row>
     <row r="122">
-      <c r="C122" s="23"/>
+      <c r="C122" s="30"/>
     </row>
     <row r="123">
-      <c r="C123" s="23"/>
+      <c r="C123" s="30"/>
     </row>
     <row r="124">
-      <c r="C124" s="23"/>
+      <c r="C124" s="30"/>
     </row>
     <row r="125">
-      <c r="C125" s="23"/>
+      <c r="C125" s="30"/>
     </row>
     <row r="126">
-      <c r="C126" s="23"/>
+      <c r="C126" s="30"/>
     </row>
     <row r="127">
-      <c r="C127" s="23"/>
+      <c r="C127" s="30"/>
     </row>
     <row r="128">
-      <c r="C128" s="23"/>
+      <c r="C128" s="30"/>
     </row>
     <row r="129">
-      <c r="C129" s="23"/>
+      <c r="C129" s="30"/>
     </row>
     <row r="130">
-      <c r="C130" s="23"/>
+      <c r="C130" s="30"/>
     </row>
     <row r="131">
-      <c r="C131" s="23"/>
+      <c r="C131" s="30"/>
     </row>
     <row r="132">
-      <c r="C132" s="23"/>
+      <c r="C132" s="30"/>
     </row>
     <row r="133">
-      <c r="C133" s="23"/>
+      <c r="C133" s="30"/>
     </row>
     <row r="134">
-      <c r="C134" s="23"/>
+      <c r="C134" s="30"/>
     </row>
     <row r="135">
-      <c r="C135" s="23"/>
+      <c r="C135" s="30"/>
     </row>
     <row r="136">
-      <c r="C136" s="23"/>
+      <c r="C136" s="30"/>
     </row>
     <row r="137">
-      <c r="C137" s="23"/>
+      <c r="C137" s="30"/>
     </row>
     <row r="138">
-      <c r="C138" s="23"/>
+      <c r="C138" s="30"/>
     </row>
     <row r="139">
-      <c r="C139" s="23"/>
+      <c r="C139" s="30"/>
     </row>
     <row r="140">
-      <c r="C140" s="23"/>
+      <c r="C140" s="30"/>
     </row>
     <row r="141">
-      <c r="C141" s="23"/>
+      <c r="C141" s="30"/>
     </row>
     <row r="142">
-      <c r="C142" s="23"/>
+      <c r="C142" s="30"/>
     </row>
     <row r="143">
-      <c r="C143" s="23"/>
+      <c r="C143" s="30"/>
     </row>
     <row r="144">
-      <c r="C144" s="23"/>
+      <c r="C144" s="30"/>
     </row>
     <row r="145">
-      <c r="C145" s="23"/>
+      <c r="C145" s="30"/>
     </row>
     <row r="146">
-      <c r="C146" s="23"/>
+      <c r="C146" s="30"/>
     </row>
     <row r="147">
-      <c r="C147" s="23"/>
+      <c r="C147" s="30"/>
     </row>
     <row r="148">
-      <c r="C148" s="23"/>
+      <c r="C148" s="30"/>
     </row>
     <row r="149">
-      <c r="C149" s="23"/>
+      <c r="C149" s="30"/>
     </row>
     <row r="150">
-      <c r="C150" s="23"/>
+      <c r="C150" s="30"/>
     </row>
     <row r="151">
-      <c r="C151" s="23"/>
+      <c r="C151" s="30"/>
     </row>
     <row r="152">
-      <c r="C152" s="23"/>
+      <c r="C152" s="30"/>
     </row>
     <row r="153">
-      <c r="C153" s="23"/>
+      <c r="C153" s="30"/>
     </row>
     <row r="154">
-      <c r="C154" s="23"/>
+      <c r="C154" s="30"/>
     </row>
     <row r="155">
-      <c r="C155" s="23"/>
+      <c r="C155" s="30"/>
     </row>
     <row r="156">
-      <c r="C156" s="23"/>
+      <c r="C156" s="30"/>
     </row>
     <row r="157">
-      <c r="C157" s="23"/>
+      <c r="C157" s="30"/>
     </row>
     <row r="158">
-      <c r="C158" s="23"/>
+      <c r="C158" s="30"/>
     </row>
     <row r="159">
-      <c r="C159" s="23"/>
+      <c r="C159" s="30"/>
     </row>
     <row r="160">
-      <c r="C160" s="23"/>
+      <c r="C160" s="30"/>
     </row>
     <row r="161">
-      <c r="C161" s="23"/>
+      <c r="C161" s="30"/>
     </row>
     <row r="162">
-      <c r="C162" s="23"/>
+      <c r="C162" s="30"/>
     </row>
     <row r="163">
-      <c r="C163" s="23"/>
+      <c r="C163" s="30"/>
     </row>
     <row r="164">
-      <c r="C164" s="23"/>
+      <c r="C164" s="30"/>
     </row>
     <row r="165">
-      <c r="C165" s="23"/>
+      <c r="C165" s="30"/>
     </row>
     <row r="166">
-      <c r="C166" s="23"/>
+      <c r="C166" s="30"/>
     </row>
     <row r="167">
-      <c r="C167" s="23"/>
+      <c r="C167" s="30"/>
     </row>
     <row r="168">
-      <c r="C168" s="23"/>
+      <c r="C168" s="30"/>
     </row>
     <row r="169">
-      <c r="C169" s="23"/>
+      <c r="C169" s="30"/>
     </row>
     <row r="170">
-      <c r="C170" s="23"/>
+      <c r="C170" s="30"/>
     </row>
     <row r="171">
-      <c r="C171" s="23"/>
+      <c r="C171" s="30"/>
     </row>
     <row r="172">
-      <c r="C172" s="23"/>
+      <c r="C172" s="30"/>
     </row>
     <row r="173">
-      <c r="C173" s="23"/>
+      <c r="C173" s="30"/>
     </row>
     <row r="174">
-      <c r="C174" s="23"/>
+      <c r="C174" s="30"/>
     </row>
     <row r="175">
-      <c r="C175" s="23"/>
+      <c r="C175" s="30"/>
     </row>
     <row r="176">
-      <c r="C176" s="23"/>
+      <c r="C176" s="30"/>
     </row>
     <row r="177">
-      <c r="C177" s="23"/>
+      <c r="C177" s="30"/>
     </row>
     <row r="178">
-      <c r="C178" s="23"/>
+      <c r="C178" s="30"/>
     </row>
     <row r="179">
-      <c r="C179" s="23"/>
+      <c r="C179" s="30"/>
     </row>
     <row r="180">
-      <c r="C180" s="23"/>
+      <c r="C180" s="30"/>
     </row>
     <row r="181">
-      <c r="C181" s="23"/>
+      <c r="C181" s="30"/>
     </row>
     <row r="182">
-      <c r="C182" s="23"/>
+      <c r="C182" s="30"/>
     </row>
     <row r="183">
-      <c r="C183" s="23"/>
+      <c r="C183" s="30"/>
     </row>
     <row r="184">
-      <c r="C184" s="23"/>
+      <c r="C184" s="30"/>
     </row>
     <row r="185">
-      <c r="C185" s="23"/>
+      <c r="C185" s="30"/>
     </row>
     <row r="186">
-      <c r="C186" s="23"/>
+      <c r="C186" s="30"/>
     </row>
     <row r="187">
-      <c r="C187" s="23"/>
+      <c r="C187" s="30"/>
     </row>
     <row r="188">
-      <c r="C188" s="23"/>
+      <c r="C188" s="30"/>
     </row>
     <row r="189">
-      <c r="C189" s="23"/>
+      <c r="C189" s="30"/>
     </row>
     <row r="190">
-      <c r="C190" s="23"/>
+      <c r="C190" s="30"/>
     </row>
     <row r="191">
-      <c r="C191" s="23"/>
+      <c r="C191" s="30"/>
     </row>
     <row r="192">
-      <c r="C192" s="23"/>
+      <c r="C192" s="30"/>
     </row>
     <row r="193">
-      <c r="C193" s="23"/>
+      <c r="C193" s="30"/>
     </row>
     <row r="194">
-      <c r="C194" s="23"/>
+      <c r="C194" s="30"/>
     </row>
     <row r="195">
-      <c r="C195" s="23"/>
+      <c r="C195" s="30"/>
     </row>
     <row r="196">
-      <c r="C196" s="23"/>
+      <c r="C196" s="30"/>
     </row>
     <row r="197">
-      <c r="C197" s="23"/>
+      <c r="C197" s="30"/>
     </row>
     <row r="198">
-      <c r="C198" s="23"/>
+      <c r="C198" s="30"/>
     </row>
     <row r="199">
-      <c r="C199" s="23"/>
+      <c r="C199" s="30"/>
     </row>
     <row r="200">
-      <c r="C200" s="23"/>
+      <c r="C200" s="30"/>
     </row>
     <row r="201">
-      <c r="C201" s="23"/>
+      <c r="C201" s="30"/>
     </row>
     <row r="202">
-      <c r="C202" s="23"/>
+      <c r="C202" s="30"/>
     </row>
     <row r="203">
-      <c r="C203" s="23"/>
+      <c r="C203" s="30"/>
     </row>
     <row r="204">
-      <c r="C204" s="23"/>
+      <c r="C204" s="30"/>
     </row>
     <row r="205">
-      <c r="C205" s="23"/>
+      <c r="C205" s="30"/>
     </row>
     <row r="206">
-      <c r="C206" s="23"/>
+      <c r="C206" s="30"/>
     </row>
     <row r="207">
-      <c r="C207" s="23"/>
+      <c r="C207" s="30"/>
     </row>
     <row r="208">
-      <c r="C208" s="23"/>
+      <c r="C208" s="30"/>
     </row>
     <row r="209">
-      <c r="C209" s="23"/>
+      <c r="C209" s="30"/>
     </row>
     <row r="210">
-      <c r="C210" s="23"/>
+      <c r="C210" s="30"/>
     </row>
     <row r="211">
-      <c r="C211" s="23"/>
+      <c r="C211" s="30"/>
     </row>
     <row r="212">
-      <c r="C212" s="23"/>
+      <c r="C212" s="30"/>
     </row>
     <row r="213">
-      <c r="C213" s="23"/>
+      <c r="C213" s="30"/>
     </row>
     <row r="214">
-      <c r="C214" s="23"/>
+      <c r="C214" s="30"/>
     </row>
     <row r="215">
-      <c r="C215" s="23"/>
+      <c r="C215" s="30"/>
     </row>
     <row r="216">
-      <c r="C216" s="23"/>
+      <c r="C216" s="30"/>
     </row>
     <row r="217">
-      <c r="C217" s="23"/>
+      <c r="C217" s="30"/>
     </row>
     <row r="218">
-      <c r="C218" s="23"/>
+      <c r="C218" s="30"/>
     </row>
     <row r="219">
-      <c r="C219" s="23"/>
+      <c r="C219" s="30"/>
     </row>
     <row r="220">
-      <c r="C220" s="23"/>
+      <c r="C220" s="30"/>
     </row>
     <row r="221">
-      <c r="C221" s="23"/>
+      <c r="C221" s="30"/>
     </row>
     <row r="222">
-      <c r="C222" s="23"/>
+      <c r="C222" s="30"/>
     </row>
     <row r="223">
-      <c r="C223" s="23"/>
+      <c r="C223" s="30"/>
     </row>
     <row r="224">
-      <c r="C224" s="23"/>
+      <c r="C224" s="30"/>
     </row>
     <row r="225">
-      <c r="C225" s="23"/>
+      <c r="C225" s="30"/>
     </row>
     <row r="226">
-      <c r="C226" s="23"/>
+      <c r="C226" s="30"/>
     </row>
     <row r="227">
-      <c r="C227" s="23"/>
+      <c r="C227" s="30"/>
     </row>
     <row r="228">
-      <c r="C228" s="23"/>
+      <c r="C228" s="30"/>
     </row>
     <row r="229">
-      <c r="C229" s="23"/>
+      <c r="C229" s="30"/>
     </row>
     <row r="230">
-      <c r="C230" s="23"/>
+      <c r="C230" s="30"/>
     </row>
     <row r="231">
-      <c r="C231" s="23"/>
+      <c r="C231" s="30"/>
     </row>
     <row r="232">
-      <c r="C232" s="23"/>
+      <c r="C232" s="30"/>
     </row>
     <row r="233">
-      <c r="C233" s="23"/>
+      <c r="C233" s="30"/>
     </row>
     <row r="234">
-      <c r="C234" s="23"/>
+      <c r="C234" s="30"/>
     </row>
     <row r="235">
-      <c r="C235" s="23"/>
+      <c r="C235" s="30"/>
     </row>
     <row r="236">
-      <c r="C236" s="23"/>
+      <c r="C236" s="30"/>
     </row>
     <row r="237">
-      <c r="C237" s="23"/>
+      <c r="C237" s="30"/>
     </row>
     <row r="238">
-      <c r="C238" s="23"/>
+      <c r="C238" s="30"/>
     </row>
     <row r="239">
-      <c r="C239" s="23"/>
+      <c r="C239" s="30"/>
     </row>
     <row r="240">
-      <c r="C240" s="23"/>
+      <c r="C240" s="30"/>
     </row>
     <row r="241">
-      <c r="C241" s="23"/>
+      <c r="C241" s="30"/>
     </row>
     <row r="242">
-      <c r="C242" s="23"/>
+      <c r="C242" s="30"/>
     </row>
     <row r="243">
-      <c r="C243" s="23"/>
+      <c r="C243" s="30"/>
     </row>
     <row r="244">
-      <c r="C244" s="23"/>
+      <c r="C244" s="30"/>
     </row>
     <row r="245">
-      <c r="C245" s="23"/>
+      <c r="C245" s="30"/>
     </row>
     <row r="246">
-      <c r="C246" s="23"/>
+      <c r="C246" s="30"/>
     </row>
     <row r="247">
-      <c r="C247" s="23"/>
+      <c r="C247" s="30"/>
     </row>
     <row r="248">
-      <c r="C248" s="23"/>
+      <c r="C248" s="30"/>
     </row>
     <row r="249">
-      <c r="C249" s="23"/>
+      <c r="C249" s="30"/>
     </row>
     <row r="250">
-      <c r="C250" s="23"/>
+      <c r="C250" s="30"/>
     </row>
     <row r="251">
-      <c r="C251" s="23"/>
+      <c r="C251" s="30"/>
     </row>
     <row r="252">
-      <c r="C252" s="23"/>
+      <c r="C252" s="30"/>
     </row>
     <row r="253">
-      <c r="C253" s="23"/>
+      <c r="C253" s="30"/>
     </row>
     <row r="254">
-      <c r="C254" s="23"/>
+      <c r="C254" s="30"/>
     </row>
     <row r="255">
-      <c r="C255" s="23"/>
+      <c r="C255" s="30"/>
     </row>
     <row r="256">
-      <c r="C256" s="23"/>
+      <c r="C256" s="30"/>
     </row>
     <row r="257">
-      <c r="C257" s="23"/>
+      <c r="C257" s="30"/>
     </row>
     <row r="258">
-      <c r="C258" s="23"/>
+      <c r="C258" s="30"/>
     </row>
     <row r="259">
-      <c r="C259" s="23"/>
+      <c r="C259" s="30"/>
     </row>
     <row r="260">
-      <c r="C260" s="23"/>
+      <c r="C260" s="30"/>
     </row>
     <row r="261">
-      <c r="C261" s="23"/>
+      <c r="C261" s="30"/>
     </row>
     <row r="262">
-      <c r="C262" s="23"/>
+      <c r="C262" s="30"/>
     </row>
     <row r="263">
-      <c r="C263" s="23"/>
+      <c r="C263" s="30"/>
     </row>
     <row r="264">
-      <c r="C264" s="23"/>
+      <c r="C264" s="30"/>
     </row>
     <row r="265">
-      <c r="C265" s="23"/>
+      <c r="C265" s="30"/>
     </row>
     <row r="266">
-      <c r="C266" s="23"/>
+      <c r="C266" s="30"/>
     </row>
     <row r="267">
-      <c r="C267" s="23"/>
+      <c r="C267" s="30"/>
     </row>
     <row r="268">
-      <c r="C268" s="23"/>
+      <c r="C268" s="30"/>
     </row>
     <row r="269">
-      <c r="C269" s="23"/>
+      <c r="C269" s="30"/>
     </row>
     <row r="270">
-      <c r="C270" s="23"/>
+      <c r="C270" s="30"/>
     </row>
     <row r="271">
-      <c r="C271" s="23"/>
+      <c r="C271" s="30"/>
     </row>
     <row r="272">
-      <c r="C272" s="23"/>
+      <c r="C272" s="30"/>
     </row>
     <row r="273">
-      <c r="C273" s="23"/>
+      <c r="C273" s="30"/>
     </row>
     <row r="274">
-      <c r="C274" s="23"/>
+      <c r="C274" s="30"/>
     </row>
     <row r="275">
-      <c r="C275" s="23"/>
+      <c r="C275" s="30"/>
     </row>
     <row r="276">
-      <c r="C276" s="23"/>
+      <c r="C276" s="30"/>
     </row>
     <row r="277">
-      <c r="C277" s="23"/>
+      <c r="C277" s="30"/>
     </row>
     <row r="278">
-      <c r="C278" s="23"/>
+      <c r="C278" s="30"/>
     </row>
     <row r="279">
-      <c r="C279" s="23"/>
+      <c r="C279" s="30"/>
     </row>
     <row r="280">
-      <c r="C280" s="23"/>
+      <c r="C280" s="30"/>
     </row>
     <row r="281">
-      <c r="C281" s="23"/>
+      <c r="C281" s="30"/>
     </row>
     <row r="282">
-      <c r="C282" s="23"/>
+      <c r="C282" s="30"/>
     </row>
     <row r="283">
-      <c r="C283" s="23"/>
+      <c r="C283" s="30"/>
     </row>
     <row r="284">
-      <c r="C284" s="23"/>
+      <c r="C284" s="30"/>
     </row>
     <row r="285">
-      <c r="C285" s="23"/>
+      <c r="C285" s="30"/>
     </row>
     <row r="286">
-      <c r="C286" s="23"/>
+      <c r="C286" s="30"/>
     </row>
     <row r="287">
-      <c r="C287" s="23"/>
+      <c r="C287" s="30"/>
     </row>
     <row r="288">
-      <c r="C288" s="23"/>
+      <c r="C288" s="30"/>
     </row>
     <row r="289">
-      <c r="C289" s="23"/>
+      <c r="C289" s="30"/>
     </row>
     <row r="290">
-      <c r="C290" s="23"/>
+      <c r="C290" s="30"/>
     </row>
     <row r="291">
-      <c r="C291" s="23"/>
+      <c r="C291" s="30"/>
     </row>
     <row r="292">
-      <c r="C292" s="23"/>
+      <c r="C292" s="30"/>
     </row>
     <row r="293">
-      <c r="C293" s="23"/>
+      <c r="C293" s="30"/>
     </row>
     <row r="294">
-      <c r="C294" s="23"/>
+      <c r="C294" s="30"/>
     </row>
     <row r="295">
-      <c r="C295" s="23"/>
+      <c r="C295" s="30"/>
     </row>
     <row r="296">
-      <c r="C296" s="23"/>
+      <c r="C296" s="30"/>
     </row>
     <row r="297">
-      <c r="C297" s="23"/>
+      <c r="C297" s="30"/>
     </row>
     <row r="298">
-      <c r="C298" s="23"/>
+      <c r="C298" s="30"/>
     </row>
     <row r="299">
-      <c r="C299" s="23"/>
+      <c r="C299" s="30"/>
     </row>
     <row r="300">
-      <c r="C300" s="23"/>
+      <c r="C300" s="30"/>
     </row>
     <row r="301">
-      <c r="C301" s="23"/>
+      <c r="C301" s="30"/>
     </row>
     <row r="302">
-      <c r="C302" s="23"/>
+      <c r="C302" s="30"/>
     </row>
     <row r="303">
-      <c r="C303" s="23"/>
+      <c r="C303" s="30"/>
     </row>
     <row r="304">
-      <c r="C304" s="23"/>
+      <c r="C304" s="30"/>
     </row>
     <row r="305">
-      <c r="C305" s="23"/>
+      <c r="C305" s="30"/>
     </row>
     <row r="306">
-      <c r="C306" s="23"/>
+      <c r="C306" s="30"/>
     </row>
     <row r="307">
-      <c r="C307" s="23"/>
+      <c r="C307" s="30"/>
     </row>
     <row r="308">
-      <c r="C308" s="23"/>
+      <c r="C308" s="30"/>
     </row>
     <row r="309">
-      <c r="C309" s="23"/>
+      <c r="C309" s="30"/>
     </row>
     <row r="310">
-      <c r="C310" s="23"/>
+      <c r="C310" s="30"/>
     </row>
     <row r="311">
-      <c r="C311" s="23"/>
+      <c r="C311" s="30"/>
     </row>
     <row r="312">
-      <c r="C312" s="23"/>
+      <c r="C312" s="30"/>
     </row>
     <row r="313">
-      <c r="C313" s="23"/>
+      <c r="C313" s="30"/>
     </row>
     <row r="314">
-      <c r="C314" s="23"/>
+      <c r="C314" s="30"/>
     </row>
     <row r="315">
-      <c r="C315" s="23"/>
+      <c r="C315" s="30"/>
     </row>
     <row r="316">
-      <c r="C316" s="23"/>
+      <c r="C316" s="30"/>
     </row>
     <row r="317">
-      <c r="C317" s="23"/>
+      <c r="C317" s="30"/>
     </row>
     <row r="318">
-      <c r="C318" s="23"/>
+      <c r="C318" s="30"/>
     </row>
     <row r="319">
-      <c r="C319" s="23"/>
+      <c r="C319" s="30"/>
     </row>
     <row r="320">
-      <c r="C320" s="23"/>
+      <c r="C320" s="30"/>
     </row>
     <row r="321">
-      <c r="C321" s="23"/>
+      <c r="C321" s="30"/>
     </row>
     <row r="322">
-      <c r="C322" s="23"/>
+      <c r="C322" s="30"/>
     </row>
     <row r="323">
-      <c r="C323" s="23"/>
+      <c r="C323" s="30"/>
     </row>
     <row r="324">
-      <c r="C324" s="23"/>
+      <c r="C324" s="30"/>
     </row>
     <row r="325">
-      <c r="C325" s="23"/>
+      <c r="C325" s="30"/>
     </row>
     <row r="326">
-      <c r="C326" s="23"/>
+      <c r="C326" s="30"/>
     </row>
     <row r="327">
-      <c r="C327" s="23"/>
+      <c r="C327" s="30"/>
     </row>
     <row r="328">
-      <c r="C328" s="23"/>
+      <c r="C328" s="30"/>
     </row>
     <row r="329">
-      <c r="C329" s="23"/>
+      <c r="C329" s="30"/>
     </row>
     <row r="330">
-      <c r="C330" s="23"/>
+      <c r="C330" s="30"/>
     </row>
     <row r="331">
-      <c r="C331" s="23"/>
+      <c r="C331" s="30"/>
     </row>
     <row r="332">
-      <c r="C332" s="23"/>
+      <c r="C332" s="30"/>
     </row>
     <row r="333">
-      <c r="C333" s="23"/>
+      <c r="C333" s="30"/>
     </row>
     <row r="334">
-      <c r="C334" s="23"/>
+      <c r="C334" s="30"/>
     </row>
     <row r="335">
-      <c r="C335" s="23"/>
+      <c r="C335" s="30"/>
     </row>
     <row r="336">
-      <c r="C336" s="23"/>
+      <c r="C336" s="30"/>
     </row>
     <row r="337">
-      <c r="C337" s="23"/>
+      <c r="C337" s="30"/>
     </row>
     <row r="338">
-      <c r="C338" s="23"/>
+      <c r="C338" s="30"/>
     </row>
     <row r="339">
-      <c r="C339" s="23"/>
+      <c r="C339" s="30"/>
     </row>
     <row r="340">
-      <c r="C340" s="23"/>
+      <c r="C340" s="30"/>
     </row>
     <row r="341">
-      <c r="C341" s="23"/>
+      <c r="C341" s="30"/>
     </row>
     <row r="342">
-      <c r="C342" s="23"/>
+      <c r="C342" s="30"/>
     </row>
     <row r="343">
-      <c r="C343" s="23"/>
+      <c r="C343" s="30"/>
     </row>
     <row r="344">
-      <c r="C344" s="23"/>
+      <c r="C344" s="30"/>
     </row>
     <row r="345">
-      <c r="C345" s="23"/>
+      <c r="C345" s="30"/>
     </row>
     <row r="346">
-      <c r="C346" s="23"/>
+      <c r="C346" s="30"/>
     </row>
     <row r="347">
-      <c r="C347" s="23"/>
+      <c r="C347" s="30"/>
     </row>
     <row r="348">
-      <c r="C348" s="23"/>
+      <c r="C348" s="30"/>
     </row>
     <row r="349">
-      <c r="C349" s="23"/>
+      <c r="C349" s="30"/>
     </row>
     <row r="350">
-      <c r="C350" s="23"/>
+      <c r="C350" s="30"/>
     </row>
     <row r="351">
-      <c r="C351" s="23"/>
+      <c r="C351" s="30"/>
     </row>
     <row r="352">
-      <c r="C352" s="23"/>
+      <c r="C352" s="30"/>
     </row>
     <row r="353">
-      <c r="C353" s="23"/>
+      <c r="C353" s="30"/>
     </row>
     <row r="354">
-      <c r="C354" s="23"/>
+      <c r="C354" s="30"/>
     </row>
     <row r="355">
-      <c r="C355" s="23"/>
+      <c r="C355" s="30"/>
     </row>
     <row r="356">
-      <c r="C356" s="23"/>
+      <c r="C356" s="30"/>
     </row>
     <row r="357">
-      <c r="C357" s="23"/>
+      <c r="C357" s="30"/>
     </row>
     <row r="358">
-      <c r="C358" s="23"/>
+      <c r="C358" s="30"/>
     </row>
     <row r="359">
-      <c r="C359" s="23"/>
+      <c r="C359" s="30"/>
     </row>
     <row r="360">
-      <c r="C360" s="23"/>
+      <c r="C360" s="30"/>
     </row>
     <row r="361">
-      <c r="C361" s="23"/>
+      <c r="C361" s="30"/>
     </row>
     <row r="362">
-      <c r="C362" s="23"/>
+      <c r="C362" s="30"/>
     </row>
     <row r="363">
-      <c r="C363" s="23"/>
+      <c r="C363" s="30"/>
     </row>
     <row r="364">
-      <c r="C364" s="23"/>
+      <c r="C364" s="30"/>
     </row>
     <row r="365">
-      <c r="C365" s="23"/>
+      <c r="C365" s="30"/>
     </row>
     <row r="366">
-      <c r="C366" s="23"/>
+      <c r="C366" s="30"/>
     </row>
     <row r="367">
-      <c r="C367" s="23"/>
+      <c r="C367" s="30"/>
     </row>
     <row r="368">
-      <c r="C368" s="23"/>
+      <c r="C368" s="30"/>
     </row>
     <row r="369">
-      <c r="C369" s="23"/>
+      <c r="C369" s="30"/>
     </row>
     <row r="370">
-      <c r="C370" s="23"/>
+      <c r="C370" s="30"/>
     </row>
     <row r="371">
-      <c r="C371" s="23"/>
+      <c r="C371" s="30"/>
     </row>
     <row r="372">
-      <c r="C372" s="23"/>
+      <c r="C372" s="30"/>
     </row>
     <row r="373">
-      <c r="C373" s="23"/>
+      <c r="C373" s="30"/>
     </row>
     <row r="374">
-      <c r="C374" s="23"/>
+      <c r="C374" s="30"/>
     </row>
     <row r="375">
-      <c r="C375" s="23"/>
+      <c r="C375" s="30"/>
     </row>
     <row r="376">
-      <c r="C376" s="23"/>
+      <c r="C376" s="30"/>
     </row>
     <row r="377">
-      <c r="C377" s="23"/>
+      <c r="C377" s="30"/>
     </row>
     <row r="378">
-      <c r="C378" s="23"/>
+      <c r="C378" s="30"/>
     </row>
     <row r="379">
-      <c r="C379" s="23"/>
+      <c r="C379" s="30"/>
     </row>
     <row r="380">
-      <c r="C380" s="23"/>
+      <c r="C380" s="30"/>
     </row>
     <row r="381">
-      <c r="C381" s="23"/>
+      <c r="C381" s="30"/>
     </row>
     <row r="382">
-      <c r="C382" s="23"/>
+      <c r="C382" s="30"/>
     </row>
     <row r="383">
-      <c r="C383" s="23"/>
+      <c r="C383" s="30"/>
     </row>
     <row r="384">
-      <c r="C384" s="23"/>
+      <c r="C384" s="30"/>
     </row>
     <row r="385">
-      <c r="C385" s="23"/>
+      <c r="C385" s="30"/>
     </row>
     <row r="386">
-      <c r="C386" s="23"/>
+      <c r="C386" s="30"/>
     </row>
     <row r="387">
-      <c r="C387" s="23"/>
+      <c r="C387" s="30"/>
     </row>
     <row r="388">
-      <c r="C388" s="23"/>
+      <c r="C388" s="30"/>
     </row>
     <row r="389">
-      <c r="C389" s="23"/>
+      <c r="C389" s="30"/>
     </row>
     <row r="390">
-      <c r="C390" s="23"/>
+      <c r="C390" s="30"/>
     </row>
     <row r="391">
-      <c r="C391" s="23"/>
+      <c r="C391" s="30"/>
     </row>
     <row r="392">
-      <c r="C392" s="23"/>
+      <c r="C392" s="30"/>
     </row>
     <row r="393">
-      <c r="C393" s="23"/>
+      <c r="C393" s="30"/>
     </row>
     <row r="394">
-      <c r="C394" s="23"/>
+      <c r="C394" s="30"/>
     </row>
     <row r="395">
-      <c r="C395" s="23"/>
+      <c r="C395" s="30"/>
     </row>
     <row r="396">
-      <c r="C396" s="23"/>
+      <c r="C396" s="30"/>
     </row>
     <row r="397">
-      <c r="C397" s="23"/>
+      <c r="C397" s="30"/>
     </row>
     <row r="398">
-      <c r="C398" s="23"/>
+      <c r="C398" s="30"/>
     </row>
     <row r="399">
-      <c r="C399" s="23"/>
+      <c r="C399" s="30"/>
     </row>
     <row r="400">
-      <c r="C400" s="23"/>
+      <c r="C400" s="30"/>
     </row>
     <row r="401">
-      <c r="C401" s="23"/>
+      <c r="C401" s="30"/>
     </row>
     <row r="402">
-      <c r="C402" s="23"/>
+      <c r="C402" s="30"/>
     </row>
     <row r="403">
-      <c r="C403" s="23"/>
+      <c r="C403" s="30"/>
     </row>
     <row r="404">
-      <c r="C404" s="23"/>
+      <c r="C404" s="30"/>
     </row>
     <row r="405">
-      <c r="C405" s="23"/>
+      <c r="C405" s="30"/>
     </row>
     <row r="406">
-      <c r="C406" s="23"/>
+      <c r="C406" s="30"/>
     </row>
     <row r="407">
-      <c r="C407" s="23"/>
+      <c r="C407" s="30"/>
     </row>
     <row r="408">
-      <c r="C408" s="23"/>
+      <c r="C408" s="30"/>
     </row>
     <row r="409">
-      <c r="C409" s="23"/>
+      <c r="C409" s="30"/>
     </row>
     <row r="410">
-      <c r="C410" s="23"/>
+      <c r="C410" s="30"/>
     </row>
     <row r="411">
-      <c r="C411" s="23"/>
+      <c r="C411" s="30"/>
     </row>
     <row r="412">
-      <c r="C412" s="23"/>
+      <c r="C412" s="30"/>
     </row>
     <row r="413">
-      <c r="C413" s="23"/>
+      <c r="C413" s="30"/>
     </row>
     <row r="414">
-      <c r="C414" s="23"/>
+      <c r="C414" s="30"/>
     </row>
     <row r="415">
-      <c r="C415" s="23"/>
+      <c r="C415" s="30"/>
     </row>
     <row r="416">
-      <c r="C416" s="23"/>
+      <c r="C416" s="30"/>
     </row>
     <row r="417">
-      <c r="C417" s="23"/>
+      <c r="C417" s="30"/>
     </row>
     <row r="418">
-      <c r="C418" s="23"/>
+      <c r="C418" s="30"/>
     </row>
     <row r="419">
-      <c r="C419" s="23"/>
+      <c r="C419" s="30"/>
     </row>
     <row r="420">
-      <c r="C420" s="23"/>
+      <c r="C420" s="30"/>
     </row>
     <row r="421">
-      <c r="C421" s="23"/>
+      <c r="C421" s="30"/>
     </row>
     <row r="422">
-      <c r="C422" s="23"/>
+      <c r="C422" s="30"/>
     </row>
     <row r="423">
-      <c r="C423" s="23"/>
+      <c r="C423" s="30"/>
     </row>
     <row r="424">
-      <c r="C424" s="23"/>
+      <c r="C424" s="30"/>
     </row>
     <row r="425">
-      <c r="C425" s="23"/>
+      <c r="C425" s="30"/>
     </row>
     <row r="426">
-      <c r="C426" s="23"/>
+      <c r="C426" s="30"/>
     </row>
     <row r="427">
-      <c r="C427" s="23"/>
+      <c r="C427" s="30"/>
     </row>
     <row r="428">
-      <c r="C428" s="23"/>
+      <c r="C428" s="30"/>
     </row>
     <row r="429">
-      <c r="C429" s="23"/>
+      <c r="C429" s="30"/>
     </row>
     <row r="430">
-      <c r="C430" s="23"/>
+      <c r="C430" s="30"/>
     </row>
     <row r="431">
-      <c r="C431" s="23"/>
+      <c r="C431" s="30"/>
     </row>
     <row r="432">
-      <c r="C432" s="23"/>
+      <c r="C432" s="30"/>
     </row>
     <row r="433">
-      <c r="C433" s="23"/>
+      <c r="C433" s="30"/>
     </row>
     <row r="434">
-      <c r="C434" s="23"/>
+      <c r="C434" s="30"/>
     </row>
     <row r="435">
-      <c r="C435" s="23"/>
+      <c r="C435" s="30"/>
     </row>
     <row r="436">
-      <c r="C436" s="23"/>
+      <c r="C436" s="30"/>
     </row>
     <row r="437">
-      <c r="C437" s="23"/>
+      <c r="C437" s="30"/>
     </row>
     <row r="438">
-      <c r="C438" s="23"/>
+      <c r="C438" s="30"/>
     </row>
     <row r="439">
-      <c r="C439" s="23"/>
+      <c r="C439" s="30"/>
     </row>
     <row r="440">
-      <c r="C440" s="23"/>
+      <c r="C440" s="30"/>
     </row>
     <row r="441">
-      <c r="C441" s="23"/>
+      <c r="C441" s="30"/>
     </row>
     <row r="442">
-      <c r="C442" s="23"/>
+      <c r="C442" s="30"/>
     </row>
     <row r="443">
-      <c r="C443" s="23"/>
+      <c r="C443" s="30"/>
     </row>
     <row r="444">
-      <c r="C444" s="23"/>
+      <c r="C444" s="30"/>
     </row>
     <row r="445">
-      <c r="C445" s="23"/>
+      <c r="C445" s="30"/>
     </row>
     <row r="446">
-      <c r="C446" s="23"/>
+      <c r="C446" s="30"/>
     </row>
     <row r="447">
-      <c r="C447" s="23"/>
+      <c r="C447" s="30"/>
     </row>
     <row r="448">
-      <c r="C448" s="23"/>
+      <c r="C448" s="30"/>
     </row>
     <row r="449">
-      <c r="C449" s="23"/>
+      <c r="C449" s="30"/>
     </row>
     <row r="450">
-      <c r="C450" s="23"/>
+      <c r="C450" s="30"/>
     </row>
     <row r="451">
-      <c r="C451" s="23"/>
+      <c r="C451" s="30"/>
     </row>
     <row r="452">
-      <c r="C452" s="23"/>
+      <c r="C452" s="30"/>
     </row>
     <row r="453">
-      <c r="C453" s="23"/>
+      <c r="C453" s="30"/>
     </row>
     <row r="454">
-      <c r="C454" s="23"/>
+      <c r="C454" s="30"/>
     </row>
     <row r="455">
-      <c r="C455" s="23"/>
+      <c r="C455" s="30"/>
     </row>
     <row r="456">
-      <c r="C456" s="23"/>
+      <c r="C456" s="30"/>
     </row>
     <row r="457">
-      <c r="C457" s="23"/>
+      <c r="C457" s="30"/>
     </row>
     <row r="458">
-      <c r="C458" s="23"/>
+      <c r="C458" s="30"/>
     </row>
     <row r="459">
-      <c r="C459" s="23"/>
+      <c r="C459" s="30"/>
     </row>
     <row r="460">
-      <c r="C460" s="23"/>
+      <c r="C460" s="30"/>
     </row>
     <row r="461">
-      <c r="C461" s="23"/>
+      <c r="C461" s="30"/>
     </row>
     <row r="462">
-      <c r="C462" s="23"/>
+      <c r="C462" s="30"/>
     </row>
     <row r="463">
-      <c r="C463" s="23"/>
+      <c r="C463" s="30"/>
     </row>
     <row r="464">
-      <c r="C464" s="23"/>
+      <c r="C464" s="30"/>
     </row>
     <row r="465">
-      <c r="C465" s="23"/>
+      <c r="C465" s="30"/>
     </row>
     <row r="466">
-      <c r="C466" s="23"/>
+      <c r="C466" s="30"/>
     </row>
     <row r="467">
-      <c r="C467" s="23"/>
+      <c r="C467" s="30"/>
     </row>
     <row r="468">
-      <c r="C468" s="23"/>
+      <c r="C468" s="30"/>
     </row>
     <row r="469">
-      <c r="C469" s="23"/>
+      <c r="C469" s="30"/>
     </row>
     <row r="470">
-      <c r="C470" s="23"/>
+      <c r="C470" s="30"/>
     </row>
     <row r="471">
-      <c r="C471" s="23"/>
+      <c r="C471" s="30"/>
     </row>
     <row r="472">
-      <c r="C472" s="23"/>
+      <c r="C472" s="30"/>
     </row>
     <row r="473">
-      <c r="C473" s="23"/>
+      <c r="C473" s="30"/>
     </row>
     <row r="474">
-      <c r="C474" s="23"/>
+      <c r="C474" s="30"/>
     </row>
     <row r="475">
-      <c r="C475" s="23"/>
+      <c r="C475" s="30"/>
     </row>
     <row r="476">
-      <c r="C476" s="23"/>
+      <c r="C476" s="30"/>
     </row>
     <row r="477">
-      <c r="C477" s="23"/>
+      <c r="C477" s="30"/>
     </row>
     <row r="478">
-      <c r="C478" s="23"/>
+      <c r="C478" s="30"/>
     </row>
     <row r="479">
-      <c r="C479" s="23"/>
+      <c r="C479" s="30"/>
     </row>
     <row r="480">
-      <c r="C480" s="23"/>
+      <c r="C480" s="30"/>
     </row>
     <row r="481">
-      <c r="C481" s="23"/>
+      <c r="C481" s="30"/>
     </row>
     <row r="482">
-      <c r="C482" s="23"/>
+      <c r="C482" s="30"/>
     </row>
     <row r="483">
-      <c r="C483" s="23"/>
+      <c r="C483" s="30"/>
     </row>
     <row r="484">
-      <c r="C484" s="23"/>
+      <c r="C484" s="30"/>
     </row>
     <row r="485">
-      <c r="C485" s="23"/>
+      <c r="C485" s="30"/>
     </row>
     <row r="486">
-      <c r="C486" s="23"/>
+      <c r="C486" s="30"/>
     </row>
     <row r="487">
-      <c r="C487" s="23"/>
+      <c r="C487" s="30"/>
     </row>
     <row r="488">
-      <c r="C488" s="23"/>
+      <c r="C488" s="30"/>
     </row>
     <row r="489">
-      <c r="C489" s="23"/>
+      <c r="C489" s="30"/>
     </row>
     <row r="490">
-      <c r="C490" s="23"/>
+      <c r="C490" s="30"/>
     </row>
     <row r="491">
-      <c r="C491" s="23"/>
+      <c r="C491" s="30"/>
     </row>
     <row r="492">
-      <c r="C492" s="23"/>
+      <c r="C492" s="30"/>
     </row>
     <row r="493">
-      <c r="C493" s="23"/>
+      <c r="C493" s="30"/>
     </row>
     <row r="494">
-      <c r="C494" s="23"/>
+      <c r="C494" s="30"/>
     </row>
     <row r="495">
-      <c r="C495" s="23"/>
+      <c r="C495" s="30"/>
     </row>
     <row r="496">
-      <c r="C496" s="23"/>
+      <c r="C496" s="30"/>
     </row>
     <row r="497">
-      <c r="C497" s="23"/>
+      <c r="C497" s="30"/>
     </row>
     <row r="498">
-      <c r="C498" s="23"/>
+      <c r="C498" s="30"/>
     </row>
     <row r="499">
-      <c r="C499" s="23"/>
+      <c r="C499" s="30"/>
     </row>
     <row r="500">
-      <c r="C500" s="23"/>
+      <c r="C500" s="30"/>
     </row>
     <row r="501">
-      <c r="C501" s="23"/>
+      <c r="C501" s="30"/>
     </row>
     <row r="502">
-      <c r="C502" s="23"/>
+      <c r="C502" s="30"/>
     </row>
     <row r="503">
-      <c r="C503" s="23"/>
+      <c r="C503" s="30"/>
     </row>
     <row r="504">
-      <c r="C504" s="23"/>
+      <c r="C504" s="30"/>
     </row>
     <row r="505">
-      <c r="C505" s="23"/>
+      <c r="C505" s="30"/>
     </row>
     <row r="506">
-      <c r="C506" s="23"/>
+      <c r="C506" s="30"/>
     </row>
     <row r="507">
-      <c r="C507" s="23"/>
+      <c r="C507" s="30"/>
     </row>
     <row r="508">
-      <c r="C508" s="23"/>
+      <c r="C508" s="30"/>
     </row>
     <row r="509">
-      <c r="C509" s="23"/>
+      <c r="C509" s="30"/>
     </row>
     <row r="510">
-      <c r="C510" s="23"/>
+      <c r="C510" s="30"/>
     </row>
     <row r="511">
-      <c r="C511" s="23"/>
+      <c r="C511" s="30"/>
     </row>
     <row r="512">
-      <c r="C512" s="23"/>
+      <c r="C512" s="30"/>
     </row>
     <row r="513">
-      <c r="C513" s="23"/>
+      <c r="C513" s="30"/>
     </row>
     <row r="514">
-      <c r="C514" s="23"/>
+      <c r="C514" s="30"/>
     </row>
     <row r="515">
-      <c r="C515" s="23"/>
+      <c r="C515" s="30"/>
     </row>
     <row r="516">
-      <c r="C516" s="23"/>
+      <c r="C516" s="30"/>
     </row>
     <row r="517">
-      <c r="C517" s="23"/>
+      <c r="C517" s="30"/>
     </row>
     <row r="518">
-      <c r="C518" s="23"/>
+      <c r="C518" s="30"/>
     </row>
     <row r="519">
-      <c r="C519" s="23"/>
+      <c r="C519" s="30"/>
     </row>
     <row r="520">
-      <c r="C520" s="23"/>
+      <c r="C520" s="30"/>
     </row>
     <row r="521">
-      <c r="C521" s="23"/>
+      <c r="C521" s="30"/>
     </row>
     <row r="522">
-      <c r="C522" s="23"/>
+      <c r="C522" s="30"/>
     </row>
     <row r="523">
-      <c r="C523" s="23"/>
+      <c r="C523" s="30"/>
     </row>
     <row r="524">
-      <c r="C524" s="23"/>
+      <c r="C524" s="30"/>
     </row>
     <row r="525">
-      <c r="C525" s="23"/>
+      <c r="C525" s="30"/>
     </row>
     <row r="526">
-      <c r="C526" s="23"/>
+      <c r="C526" s="30"/>
     </row>
     <row r="527">
-      <c r="C527" s="23"/>
+      <c r="C527" s="30"/>
     </row>
     <row r="528">
-      <c r="C528" s="23"/>
+      <c r="C528" s="30"/>
     </row>
     <row r="529">
-      <c r="C529" s="23"/>
+      <c r="C529" s="30"/>
     </row>
     <row r="530">
-      <c r="C530" s="23"/>
+      <c r="C530" s="30"/>
     </row>
     <row r="531">
-      <c r="C531" s="23"/>
+      <c r="C531" s="30"/>
     </row>
     <row r="532">
-      <c r="C532" s="23"/>
+      <c r="C532" s="30"/>
     </row>
     <row r="533">
-      <c r="C533" s="23"/>
+      <c r="C533" s="30"/>
     </row>
     <row r="534">
-      <c r="C534" s="23"/>
+      <c r="C534" s="30"/>
     </row>
     <row r="535">
-      <c r="C535" s="23"/>
+      <c r="C535" s="30"/>
     </row>
     <row r="536">
-      <c r="C536" s="23"/>
+      <c r="C536" s="30"/>
     </row>
     <row r="537">
-      <c r="C537" s="23"/>
+      <c r="C537" s="30"/>
     </row>
     <row r="538">
-      <c r="C538" s="23"/>
+      <c r="C538" s="30"/>
     </row>
     <row r="539">
-      <c r="C539" s="23"/>
+      <c r="C539" s="30"/>
     </row>
     <row r="540">
-      <c r="C540" s="23"/>
+      <c r="C540" s="30"/>
     </row>
     <row r="541">
-      <c r="C541" s="23"/>
+      <c r="C541" s="30"/>
     </row>
     <row r="542">
-      <c r="C542" s="23"/>
+      <c r="C542" s="30"/>
     </row>
     <row r="543">
-      <c r="C543" s="23"/>
+      <c r="C543" s="30"/>
     </row>
     <row r="544">
-      <c r="C544" s="23"/>
+      <c r="C544" s="30"/>
     </row>
     <row r="545">
-      <c r="C545" s="23"/>
+      <c r="C545" s="30"/>
     </row>
     <row r="546">
-      <c r="C546" s="23"/>
+      <c r="C546" s="30"/>
     </row>
     <row r="547">
-      <c r="C547" s="23"/>
+      <c r="C547" s="30"/>
     </row>
     <row r="548">
-      <c r="C548" s="23"/>
+      <c r="C548" s="30"/>
     </row>
     <row r="549">
-      <c r="C549" s="23"/>
+      <c r="C549" s="30"/>
     </row>
     <row r="550">
-      <c r="C550" s="23"/>
+      <c r="C550" s="30"/>
     </row>
     <row r="551">
-      <c r="C551" s="23"/>
+      <c r="C551" s="30"/>
     </row>
     <row r="552">
-      <c r="C552" s="23"/>
+      <c r="C552" s="30"/>
     </row>
     <row r="553">
-      <c r="C553" s="23"/>
+      <c r="C553" s="30"/>
     </row>
     <row r="554">
-      <c r="C554" s="23"/>
+      <c r="C554" s="30"/>
     </row>
     <row r="555">
-      <c r="C555" s="23"/>
+      <c r="C555" s="30"/>
     </row>
     <row r="556">
-      <c r="C556" s="23"/>
+      <c r="C556" s="30"/>
     </row>
     <row r="557">
-      <c r="C557" s="23"/>
+      <c r="C557" s="30"/>
     </row>
     <row r="558">
-      <c r="C558" s="23"/>
+      <c r="C558" s="30"/>
     </row>
     <row r="559">
-      <c r="C559" s="23"/>
+      <c r="C559" s="30"/>
     </row>
     <row r="560">
-      <c r="C560" s="23"/>
+      <c r="C560" s="30"/>
     </row>
     <row r="561">
-      <c r="C561" s="23"/>
+      <c r="C561" s="30"/>
     </row>
     <row r="562">
-      <c r="C562" s="23"/>
+      <c r="C562" s="30"/>
     </row>
     <row r="563">
-      <c r="C563" s="23"/>
+      <c r="C563" s="30"/>
     </row>
     <row r="564">
-      <c r="C564" s="23"/>
+      <c r="C564" s="30"/>
     </row>
     <row r="565">
-      <c r="C565" s="23"/>
+      <c r="C565" s="30"/>
     </row>
     <row r="566">
-      <c r="C566" s="23"/>
+      <c r="C566" s="30"/>
     </row>
     <row r="567">
-      <c r="C567" s="23"/>
+      <c r="C567" s="30"/>
     </row>
     <row r="568">
-      <c r="C568" s="23"/>
+      <c r="C568" s="30"/>
     </row>
     <row r="569">
-      <c r="C569" s="23"/>
+      <c r="C569" s="30"/>
     </row>
     <row r="570">
-      <c r="C570" s="23"/>
+      <c r="C570" s="30"/>
     </row>
     <row r="571">
-      <c r="C571" s="23"/>
+      <c r="C571" s="30"/>
     </row>
     <row r="572">
-      <c r="C572" s="23"/>
+      <c r="C572" s="30"/>
     </row>
     <row r="573">
-      <c r="C573" s="23"/>
+      <c r="C573" s="30"/>
     </row>
     <row r="574">
-      <c r="C574" s="23"/>
+      <c r="C574" s="30"/>
     </row>
     <row r="575">
-      <c r="C575" s="23"/>
+      <c r="C575" s="30"/>
     </row>
     <row r="576">
-      <c r="C576" s="23"/>
+      <c r="C576" s="30"/>
     </row>
     <row r="577">
-      <c r="C577" s="23"/>
+      <c r="C577" s="30"/>
     </row>
     <row r="578">
-      <c r="C578" s="23"/>
+      <c r="C578" s="30"/>
     </row>
     <row r="579">
-      <c r="C579" s="23"/>
+      <c r="C579" s="30"/>
     </row>
     <row r="580">
-      <c r="C580" s="23"/>
+      <c r="C580" s="30"/>
     </row>
     <row r="581">
-      <c r="C581" s="23"/>
+      <c r="C581" s="30"/>
     </row>
     <row r="582">
-      <c r="C582" s="23"/>
+      <c r="C582" s="30"/>
     </row>
     <row r="583">
-      <c r="C583" s="23"/>
+      <c r="C583" s="30"/>
     </row>
     <row r="584">
-      <c r="C584" s="23"/>
+      <c r="C584" s="30"/>
     </row>
     <row r="585">
-      <c r="C585" s="23"/>
+      <c r="C585" s="30"/>
     </row>
     <row r="586">
-      <c r="C586" s="23"/>
+      <c r="C586" s="30"/>
     </row>
     <row r="587">
-      <c r="C587" s="23"/>
+      <c r="C587" s="30"/>
     </row>
     <row r="588">
-      <c r="C588" s="23"/>
+      <c r="C588" s="30"/>
     </row>
     <row r="589">
-      <c r="C589" s="23"/>
+      <c r="C589" s="30"/>
     </row>
     <row r="590">
-      <c r="C590" s="23"/>
+      <c r="C590" s="30"/>
     </row>
     <row r="591">
-      <c r="C591" s="23"/>
+      <c r="C591" s="30"/>
     </row>
     <row r="592">
-      <c r="C592" s="23"/>
+      <c r="C592" s="30"/>
     </row>
     <row r="593">
-      <c r="C593" s="23"/>
+      <c r="C593" s="30"/>
     </row>
     <row r="594">
-      <c r="C594" s="23"/>
+      <c r="C594" s="30"/>
     </row>
     <row r="595">
-      <c r="C595" s="23"/>
+      <c r="C595" s="30"/>
     </row>
     <row r="596">
-      <c r="C596" s="23"/>
+      <c r="C596" s="30"/>
     </row>
     <row r="597">
-      <c r="C597" s="23"/>
+      <c r="C597" s="30"/>
     </row>
     <row r="598">
-      <c r="C598" s="23"/>
+      <c r="C598" s="30"/>
     </row>
     <row r="599">
-      <c r="C599" s="23"/>
+      <c r="C599" s="30"/>
     </row>
     <row r="600">
-      <c r="C600" s="23"/>
+      <c r="C600" s="30"/>
     </row>
     <row r="601">
-      <c r="C601" s="23"/>
+      <c r="C601" s="30"/>
     </row>
     <row r="602">
-      <c r="C602" s="23"/>
+      <c r="C602" s="30"/>
     </row>
     <row r="603">
-      <c r="C603" s="23"/>
+      <c r="C603" s="30"/>
     </row>
     <row r="604">
-      <c r="C604" s="23"/>
+      <c r="C604" s="30"/>
     </row>
     <row r="605">
-      <c r="C605" s="23"/>
+      <c r="C605" s="30"/>
     </row>
     <row r="606">
-      <c r="C606" s="23"/>
+      <c r="C606" s="30"/>
     </row>
     <row r="607">
-      <c r="C607" s="23"/>
+      <c r="C607" s="30"/>
     </row>
     <row r="608">
-      <c r="C608" s="23"/>
+      <c r="C608" s="30"/>
     </row>
     <row r="609">
-      <c r="C609" s="23"/>
+      <c r="C609" s="30"/>
     </row>
     <row r="610">
-      <c r="C610" s="23"/>
+      <c r="C610" s="30"/>
     </row>
     <row r="611">
-      <c r="C611" s="23"/>
+      <c r="C611" s="30"/>
     </row>
     <row r="612">
-      <c r="C612" s="23"/>
+      <c r="C612" s="30"/>
     </row>
     <row r="613">
-      <c r="C613" s="23"/>
+      <c r="C613" s="30"/>
     </row>
     <row r="614">
-      <c r="C614" s="23"/>
+      <c r="C614" s="30"/>
     </row>
     <row r="615">
-      <c r="C615" s="23"/>
+      <c r="C615" s="30"/>
     </row>
     <row r="616">
-      <c r="C616" s="23"/>
+      <c r="C616" s="30"/>
     </row>
     <row r="617">
-      <c r="C617" s="23"/>
+      <c r="C617" s="30"/>
     </row>
     <row r="618">
-      <c r="C618" s="23"/>
+      <c r="C618" s="30"/>
     </row>
     <row r="619">
-      <c r="C619" s="23"/>
+      <c r="C619" s="30"/>
     </row>
     <row r="620">
-      <c r="C620" s="23"/>
+      <c r="C620" s="30"/>
     </row>
     <row r="621">
-      <c r="C621" s="23"/>
+      <c r="C621" s="30"/>
     </row>
     <row r="622">
-      <c r="C622" s="23"/>
+      <c r="C622" s="30"/>
     </row>
     <row r="623">
-      <c r="C623" s="23"/>
+      <c r="C623" s="30"/>
     </row>
     <row r="624">
-      <c r="C624" s="23"/>
+      <c r="C624" s="30"/>
     </row>
     <row r="625">
-      <c r="C625" s="23"/>
+      <c r="C625" s="30"/>
     </row>
     <row r="626">
-      <c r="C626" s="23"/>
+      <c r="C626" s="30"/>
     </row>
     <row r="627">
-      <c r="C627" s="23"/>
+      <c r="C627" s="30"/>
     </row>
     <row r="628">
-      <c r="C628" s="23"/>
+      <c r="C628" s="30"/>
     </row>
     <row r="629">
-      <c r="C629" s="23"/>
+      <c r="C629" s="30"/>
     </row>
     <row r="630">
-      <c r="C630" s="23"/>
+      <c r="C630" s="30"/>
     </row>
     <row r="631">
-      <c r="C631" s="23"/>
+      <c r="C631" s="30"/>
     </row>
     <row r="632">
-      <c r="C632" s="23"/>
+      <c r="C632" s="30"/>
     </row>
     <row r="633">
-      <c r="C633" s="23"/>
+      <c r="C633" s="30"/>
     </row>
     <row r="634">
-      <c r="C634" s="23"/>
+      <c r="C634" s="30"/>
     </row>
     <row r="635">
-      <c r="C635" s="23"/>
+      <c r="C635" s="30"/>
     </row>
     <row r="636">
-      <c r="C636" s="23"/>
+      <c r="C636" s="30"/>
     </row>
     <row r="637">
-      <c r="C637" s="23"/>
+      <c r="C637" s="30"/>
     </row>
     <row r="638">
-      <c r="C638" s="23"/>
+      <c r="C638" s="30"/>
     </row>
     <row r="639">
-      <c r="C639" s="23"/>
+      <c r="C639" s="30"/>
     </row>
     <row r="640">
-      <c r="C640" s="23"/>
+      <c r="C640" s="30"/>
     </row>
     <row r="641">
-      <c r="C641" s="23"/>
+      <c r="C641" s="30"/>
     </row>
     <row r="642">
-      <c r="C642" s="23"/>
+      <c r="C642" s="30"/>
     </row>
     <row r="643">
-      <c r="C643" s="23"/>
+      <c r="C643" s="30"/>
     </row>
     <row r="644">
-      <c r="C644" s="23"/>
+      <c r="C644" s="30"/>
     </row>
     <row r="645">
-      <c r="C645" s="23"/>
+      <c r="C645" s="30"/>
     </row>
     <row r="646">
-      <c r="C646" s="23"/>
+      <c r="C646" s="30"/>
     </row>
     <row r="647">
-      <c r="C647" s="23"/>
+      <c r="C647" s="30"/>
     </row>
     <row r="648">
-      <c r="C648" s="23"/>
+      <c r="C648" s="30"/>
     </row>
     <row r="649">
-      <c r="C649" s="23"/>
+      <c r="C649" s="30"/>
     </row>
     <row r="650">
-      <c r="C650" s="23"/>
+      <c r="C650" s="30"/>
     </row>
     <row r="651">
-      <c r="C651" s="23"/>
+      <c r="C651" s="30"/>
     </row>
     <row r="652">
-      <c r="C652" s="23"/>
+      <c r="C652" s="30"/>
     </row>
     <row r="653">
-      <c r="C653" s="23"/>
+      <c r="C653" s="30"/>
     </row>
     <row r="654">
-      <c r="C654" s="23"/>
+      <c r="C654" s="30"/>
     </row>
     <row r="655">
-      <c r="C655" s="23"/>
+      <c r="C655" s="30"/>
     </row>
     <row r="656">
-      <c r="C656" s="23"/>
+      <c r="C656" s="30"/>
     </row>
     <row r="657">
-      <c r="C657" s="23"/>
+      <c r="C657" s="30"/>
     </row>
     <row r="658">
-      <c r="C658" s="23"/>
+      <c r="C658" s="30"/>
     </row>
     <row r="659">
-      <c r="C659" s="23"/>
+      <c r="C659" s="30"/>
     </row>
     <row r="660">
-      <c r="C660" s="23"/>
+      <c r="C660" s="30"/>
     </row>
     <row r="661">
-      <c r="C661" s="23"/>
+      <c r="C661" s="30"/>
     </row>
     <row r="662">
-      <c r="C662" s="23"/>
+      <c r="C662" s="30"/>
     </row>
     <row r="663">
-      <c r="C663" s="23"/>
+      <c r="C663" s="30"/>
     </row>
     <row r="664">
-      <c r="C664" s="23"/>
+      <c r="C664" s="30"/>
     </row>
     <row r="665">
-      <c r="C665" s="23"/>
+      <c r="C665" s="30"/>
     </row>
     <row r="666">
-      <c r="C666" s="23"/>
+      <c r="C666" s="30"/>
     </row>
     <row r="667">
-      <c r="C667" s="23"/>
+      <c r="C667" s="30"/>
     </row>
     <row r="668">
-      <c r="C668" s="23"/>
+      <c r="C668" s="30"/>
     </row>
     <row r="669">
-      <c r="C669" s="23"/>
+      <c r="C669" s="30"/>
     </row>
     <row r="670">
-      <c r="C670" s="23"/>
+      <c r="C670" s="30"/>
     </row>
     <row r="671">
-      <c r="C671" s="23"/>
+      <c r="C671" s="30"/>
     </row>
     <row r="672">
-      <c r="C672" s="23"/>
+      <c r="C672" s="30"/>
     </row>
     <row r="673">
-      <c r="C673" s="23"/>
+      <c r="C673" s="30"/>
     </row>
     <row r="674">
-      <c r="C674" s="23"/>
+      <c r="C674" s="30"/>
     </row>
     <row r="675">
-      <c r="C675" s="23"/>
+      <c r="C675" s="30"/>
     </row>
     <row r="676">
-      <c r="C676" s="23"/>
+      <c r="C676" s="30"/>
     </row>
     <row r="677">
-      <c r="C677" s="23"/>
+      <c r="C677" s="30"/>
     </row>
     <row r="678">
-      <c r="C678" s="23"/>
+      <c r="C678" s="30"/>
     </row>
     <row r="679">
-      <c r="C679" s="23"/>
+      <c r="C679" s="30"/>
     </row>
     <row r="680">
-      <c r="C680" s="23"/>
+      <c r="C680" s="30"/>
     </row>
     <row r="681">
-      <c r="C681" s="23"/>
+      <c r="C681" s="30"/>
     </row>
     <row r="682">
-      <c r="C682" s="23"/>
+      <c r="C682" s="30"/>
     </row>
     <row r="683">
-      <c r="C683" s="23"/>
+      <c r="C683" s="30"/>
     </row>
     <row r="684">
-      <c r="C684" s="23"/>
+      <c r="C684" s="30"/>
     </row>
     <row r="685">
-      <c r="C685" s="23"/>
+      <c r="C685" s="30"/>
     </row>
     <row r="686">
-      <c r="C686" s="23"/>
+      <c r="C686" s="30"/>
     </row>
     <row r="687">
-      <c r="C687" s="23"/>
+      <c r="C687" s="30"/>
     </row>
     <row r="688">
-      <c r="C688" s="23"/>
+      <c r="C688" s="30"/>
     </row>
     <row r="689">
-      <c r="C689" s="23"/>
+      <c r="C689" s="30"/>
     </row>
     <row r="690">
-      <c r="C690" s="23"/>
+      <c r="C690" s="30"/>
     </row>
     <row r="691">
-      <c r="C691" s="23"/>
+      <c r="C691" s="30"/>
     </row>
     <row r="692">
-      <c r="C692" s="23"/>
+      <c r="C692" s="30"/>
     </row>
     <row r="693">
-      <c r="C693" s="23"/>
+      <c r="C693" s="30"/>
     </row>
     <row r="694">
-      <c r="C694" s="23"/>
+      <c r="C694" s="30"/>
     </row>
     <row r="695">
-      <c r="C695" s="23"/>
+      <c r="C695" s="30"/>
     </row>
     <row r="696">
-      <c r="C696" s="23"/>
+      <c r="C696" s="30"/>
     </row>
     <row r="697">
-      <c r="C697" s="23"/>
+      <c r="C697" s="30"/>
     </row>
     <row r="698">
-      <c r="C698" s="23"/>
+      <c r="C698" s="30"/>
     </row>
     <row r="699">
-      <c r="C699" s="23"/>
+      <c r="C699" s="30"/>
     </row>
     <row r="700">
-      <c r="C700" s="23"/>
+      <c r="C700" s="30"/>
     </row>
     <row r="701">
-      <c r="C701" s="23"/>
+      <c r="C701" s="30"/>
     </row>
     <row r="702">
-      <c r="C702" s="23"/>
+      <c r="C702" s="30"/>
     </row>
     <row r="703">
-      <c r="C703" s="23"/>
+      <c r="C703" s="30"/>
     </row>
     <row r="704">
-      <c r="C704" s="23"/>
+      <c r="C704" s="30"/>
     </row>
     <row r="705">
-      <c r="C705" s="23"/>
+      <c r="C705" s="30"/>
     </row>
     <row r="706">
-      <c r="C706" s="23"/>
+      <c r="C706" s="30"/>
     </row>
     <row r="707">
-      <c r="C707" s="23"/>
+      <c r="C707" s="30"/>
     </row>
     <row r="708">
-      <c r="C708" s="23"/>
+      <c r="C708" s="30"/>
     </row>
     <row r="709">
-      <c r="C709" s="23"/>
+      <c r="C709" s="30"/>
     </row>
     <row r="710">
-      <c r="C710" s="23"/>
+      <c r="C710" s="30"/>
     </row>
     <row r="711">
-      <c r="C711" s="23"/>
+      <c r="C711" s="30"/>
     </row>
     <row r="712">
-      <c r="C712" s="23"/>
+      <c r="C712" s="30"/>
     </row>
     <row r="713">
-      <c r="C713" s="23"/>
+      <c r="C713" s="30"/>
     </row>
     <row r="714">
-      <c r="C714" s="23"/>
+      <c r="C714" s="30"/>
     </row>
     <row r="715">
-      <c r="C715" s="23"/>
+      <c r="C715" s="30"/>
     </row>
     <row r="716">
-      <c r="C716" s="23"/>
+      <c r="C716" s="30"/>
     </row>
     <row r="717">
-      <c r="C717" s="23"/>
+      <c r="C717" s="30"/>
     </row>
     <row r="718">
-      <c r="C718" s="23"/>
+      <c r="C718" s="30"/>
     </row>
     <row r="719">
-      <c r="C719" s="23"/>
+      <c r="C719" s="30"/>
     </row>
     <row r="720">
-      <c r="C720" s="23"/>
+      <c r="C720" s="30"/>
     </row>
     <row r="721">
-      <c r="C721" s="23"/>
+      <c r="C721" s="30"/>
     </row>
     <row r="722">
-      <c r="C722" s="23"/>
+      <c r="C722" s="30"/>
     </row>
     <row r="723">
-      <c r="C723" s="23"/>
+      <c r="C723" s="30"/>
     </row>
     <row r="724">
-      <c r="C724" s="23"/>
+      <c r="C724" s="30"/>
     </row>
     <row r="725">
-      <c r="C725" s="23"/>
+      <c r="C725" s="30"/>
     </row>
     <row r="726">
-      <c r="C726" s="23"/>
+      <c r="C726" s="30"/>
     </row>
     <row r="727">
-      <c r="C727" s="23"/>
+      <c r="C727" s="30"/>
     </row>
     <row r="728">
-      <c r="C728" s="23"/>
+      <c r="C728" s="30"/>
     </row>
     <row r="729">
-      <c r="C729" s="23"/>
+      <c r="C729" s="30"/>
     </row>
     <row r="730">
-      <c r="C730" s="23"/>
+      <c r="C730" s="30"/>
     </row>
     <row r="731">
-      <c r="C731" s="23"/>
+      <c r="C731" s="30"/>
     </row>
     <row r="732">
-      <c r="C732" s="23"/>
+      <c r="C732" s="30"/>
     </row>
     <row r="733">
-      <c r="C733" s="23"/>
+      <c r="C733" s="30"/>
     </row>
     <row r="734">
-      <c r="C734" s="23"/>
+      <c r="C734" s="30"/>
     </row>
     <row r="735">
-      <c r="C735" s="23"/>
+      <c r="C735" s="30"/>
     </row>
     <row r="736">
-      <c r="C736" s="23"/>
+      <c r="C736" s="30"/>
     </row>
     <row r="737">
-      <c r="C737" s="23"/>
+      <c r="C737" s="30"/>
     </row>
     <row r="738">
-      <c r="C738" s="23"/>
+      <c r="C738" s="30"/>
     </row>
     <row r="739">
-      <c r="C739" s="23"/>
+      <c r="C739" s="30"/>
     </row>
     <row r="740">
-      <c r="C740" s="23"/>
+      <c r="C740" s="30"/>
     </row>
     <row r="741">
-      <c r="C741" s="23"/>
+      <c r="C741" s="30"/>
     </row>
     <row r="742">
-      <c r="C742" s="23"/>
+      <c r="C742" s="30"/>
     </row>
     <row r="743">
-      <c r="C743" s="23"/>
+      <c r="C743" s="30"/>
     </row>
     <row r="744">
-      <c r="C744" s="23"/>
+      <c r="C744" s="30"/>
     </row>
     <row r="745">
-      <c r="C745" s="23"/>
+      <c r="C745" s="30"/>
     </row>
     <row r="746">
-      <c r="C746" s="23"/>
+      <c r="C746" s="30"/>
     </row>
     <row r="747">
-      <c r="C747" s="23"/>
+      <c r="C747" s="30"/>
     </row>
     <row r="748">
-      <c r="C748" s="23"/>
+      <c r="C748" s="30"/>
     </row>
     <row r="749">
-      <c r="C749" s="23"/>
+      <c r="C749" s="30"/>
     </row>
     <row r="750">
-      <c r="C750" s="23"/>
+      <c r="C750" s="30"/>
     </row>
     <row r="751">
-      <c r="C751" s="23"/>
+      <c r="C751" s="30"/>
     </row>
     <row r="752">
-      <c r="C752" s="23"/>
+      <c r="C752" s="30"/>
     </row>
     <row r="753">
-      <c r="C753" s="23"/>
+      <c r="C753" s="30"/>
     </row>
     <row r="754">
-      <c r="C754" s="23"/>
+      <c r="C754" s="30"/>
     </row>
     <row r="755">
-      <c r="C755" s="23"/>
+      <c r="C755" s="30"/>
     </row>
     <row r="756">
-      <c r="C756" s="23"/>
+      <c r="C756" s="30"/>
     </row>
     <row r="757">
-      <c r="C757" s="23"/>
+      <c r="C757" s="30"/>
     </row>
     <row r="758">
-      <c r="C758" s="23"/>
+      <c r="C758" s="30"/>
     </row>
     <row r="759">
-      <c r="C759" s="23"/>
+      <c r="C759" s="30"/>
     </row>
     <row r="760">
-      <c r="C760" s="23"/>
+      <c r="C760" s="30"/>
     </row>
     <row r="761">
-      <c r="C761" s="23"/>
+      <c r="C761" s="30"/>
     </row>
     <row r="762">
-      <c r="C762" s="23"/>
+      <c r="C762" s="30"/>
     </row>
     <row r="763">
-      <c r="C763" s="23"/>
+      <c r="C763" s="30"/>
     </row>
     <row r="764">
-      <c r="C764" s="23"/>
+      <c r="C764" s="30"/>
     </row>
     <row r="765">
-      <c r="C765" s="23"/>
+      <c r="C765" s="30"/>
     </row>
     <row r="766">
-      <c r="C766" s="23"/>
+      <c r="C766" s="30"/>
     </row>
     <row r="767">
-      <c r="C767" s="23"/>
+      <c r="C767" s="30"/>
     </row>
     <row r="768">
-      <c r="C768" s="23"/>
+      <c r="C768" s="30"/>
     </row>
     <row r="769">
-      <c r="C769" s="23"/>
+      <c r="C769" s="30"/>
     </row>
     <row r="770">
-      <c r="C770" s="23"/>
+      <c r="C770" s="30"/>
     </row>
     <row r="771">
-      <c r="C771" s="23"/>
+      <c r="C771" s="30"/>
     </row>
     <row r="772">
-      <c r="C772" s="23"/>
+      <c r="C772" s="30"/>
     </row>
     <row r="773">
-      <c r="C773" s="23"/>
+      <c r="C773" s="30"/>
     </row>
     <row r="774">
-      <c r="C774" s="23"/>
+      <c r="C774" s="30"/>
     </row>
     <row r="775">
-      <c r="C775" s="23"/>
+      <c r="C775" s="30"/>
     </row>
     <row r="776">
-      <c r="C776" s="23"/>
+      <c r="C776" s="30"/>
     </row>
     <row r="777">
-      <c r="C777" s="23"/>
+      <c r="C777" s="30"/>
     </row>
     <row r="778">
-      <c r="C778" s="23"/>
+      <c r="C778" s="30"/>
     </row>
     <row r="779">
-      <c r="C779" s="23"/>
+      <c r="C779" s="30"/>
     </row>
     <row r="780">
-      <c r="C780" s="23"/>
+      <c r="C780" s="30"/>
     </row>
     <row r="781">
-      <c r="C781" s="23"/>
+      <c r="C781" s="30"/>
     </row>
     <row r="782">
-      <c r="C782" s="23"/>
+      <c r="C782" s="30"/>
     </row>
     <row r="783">
-      <c r="C783" s="23"/>
+      <c r="C783" s="30"/>
     </row>
     <row r="784">
-      <c r="C784" s="23"/>
+      <c r="C784" s="30"/>
     </row>
     <row r="785">
-      <c r="C785" s="23"/>
+      <c r="C785" s="30"/>
     </row>
     <row r="786">
-      <c r="C786" s="23"/>
+      <c r="C786" s="30"/>
     </row>
     <row r="787">
-      <c r="C787" s="23"/>
+      <c r="C787" s="30"/>
     </row>
     <row r="788">
-      <c r="C788" s="23"/>
+      <c r="C788" s="30"/>
     </row>
     <row r="789">
-      <c r="C789" s="23"/>
+      <c r="C789" s="30"/>
     </row>
     <row r="790">
-      <c r="C790" s="23"/>
+      <c r="C790" s="30"/>
     </row>
     <row r="791">
-      <c r="C791" s="23"/>
+      <c r="C791" s="30"/>
     </row>
     <row r="792">
-      <c r="C792" s="23"/>
+      <c r="C792" s="30"/>
     </row>
     <row r="793">
-      <c r="C793" s="23"/>
+      <c r="C793" s="30"/>
     </row>
     <row r="794">
-      <c r="C794" s="23"/>
+      <c r="C794" s="30"/>
     </row>
     <row r="795">
-      <c r="C795" s="23"/>
+      <c r="C795" s="30"/>
     </row>
     <row r="796">
-      <c r="C796" s="23"/>
+      <c r="C796" s="30"/>
     </row>
     <row r="797">
-      <c r="C797" s="23"/>
+      <c r="C797" s="30"/>
     </row>
     <row r="798">
-      <c r="C798" s="23"/>
+      <c r="C798" s="30"/>
     </row>
     <row r="799">
-      <c r="C799" s="23"/>
+      <c r="C799" s="30"/>
     </row>
     <row r="800">
-      <c r="C800" s="23"/>
+      <c r="C800" s="30"/>
     </row>
     <row r="801">
-      <c r="C801" s="23"/>
+      <c r="C801" s="30"/>
     </row>
     <row r="802">
-      <c r="C802" s="23"/>
+      <c r="C802" s="30"/>
     </row>
     <row r="803">
-      <c r="C803" s="23"/>
+      <c r="C803" s="30"/>
     </row>
     <row r="804">
-      <c r="C804" s="23"/>
+      <c r="C804" s="30"/>
     </row>
     <row r="805">
-      <c r="C805" s="23"/>
+      <c r="C805" s="30"/>
     </row>
     <row r="806">
-      <c r="C806" s="23"/>
+      <c r="C806" s="30"/>
     </row>
     <row r="807">
-      <c r="C807" s="23"/>
+      <c r="C807" s="30"/>
     </row>
     <row r="808">
-      <c r="C808" s="23"/>
+      <c r="C808" s="30"/>
     </row>
     <row r="809">
-      <c r="C809" s="23"/>
+      <c r="C809" s="30"/>
     </row>
     <row r="810">
-      <c r="C810" s="23"/>
+      <c r="C810" s="30"/>
     </row>
     <row r="811">
-      <c r="C811" s="23"/>
+      <c r="C811" s="30"/>
     </row>
     <row r="812">
-      <c r="C812" s="23"/>
+      <c r="C812" s="30"/>
     </row>
     <row r="813">
-      <c r="C813" s="23"/>
+      <c r="C813" s="30"/>
     </row>
     <row r="814">
-      <c r="C814" s="23"/>
+      <c r="C814" s="30"/>
     </row>
     <row r="815">
-      <c r="C815" s="23"/>
+      <c r="C815" s="30"/>
     </row>
     <row r="816">
-      <c r="C816" s="23"/>
+      <c r="C816" s="30"/>
     </row>
     <row r="817">
-      <c r="C817" s="23"/>
+      <c r="C817" s="30"/>
     </row>
     <row r="818">
-      <c r="C818" s="23"/>
+      <c r="C818" s="30"/>
     </row>
     <row r="819">
-      <c r="C819" s="23"/>
+      <c r="C819" s="30"/>
     </row>
     <row r="820">
-      <c r="C820" s="23"/>
+      <c r="C820" s="30"/>
     </row>
     <row r="821">
-      <c r="C821" s="23"/>
+      <c r="C821" s="30"/>
     </row>
     <row r="822">
-      <c r="C822" s="23"/>
+      <c r="C822" s="30"/>
     </row>
     <row r="823">
-      <c r="C823" s="23"/>
+      <c r="C823" s="30"/>
     </row>
     <row r="824">
-      <c r="C824" s="23"/>
+      <c r="C824" s="30"/>
     </row>
     <row r="825">
-      <c r="C825" s="23"/>
+      <c r="C825" s="30"/>
     </row>
     <row r="826">
-      <c r="C826" s="23"/>
+      <c r="C826" s="30"/>
     </row>
     <row r="827">
-      <c r="C827" s="23"/>
+      <c r="C827" s="30"/>
     </row>
     <row r="828">
-      <c r="C828" s="23"/>
+      <c r="C828" s="30"/>
     </row>
     <row r="829">
-      <c r="C829" s="23"/>
+      <c r="C829" s="30"/>
     </row>
     <row r="830">
-      <c r="C830" s="23"/>
+      <c r="C830" s="30"/>
     </row>
     <row r="831">
-      <c r="C831" s="23"/>
+      <c r="C831" s="30"/>
     </row>
     <row r="832">
-      <c r="C832" s="23"/>
+      <c r="C832" s="30"/>
     </row>
     <row r="833">
-      <c r="C833" s="23"/>
+      <c r="C833" s="30"/>
     </row>
     <row r="834">
-      <c r="C834" s="23"/>
+      <c r="C834" s="30"/>
     </row>
     <row r="835">
-      <c r="C835" s="23"/>
+      <c r="C835" s="30"/>
     </row>
     <row r="836">
-      <c r="C836" s="23"/>
+      <c r="C836" s="30"/>
     </row>
     <row r="837">
-      <c r="C837" s="23"/>
+      <c r="C837" s="30"/>
     </row>
     <row r="838">
-      <c r="C838" s="23"/>
+      <c r="C838" s="30"/>
     </row>
     <row r="839">
-      <c r="C839" s="23"/>
+      <c r="C839" s="30"/>
     </row>
     <row r="840">
-      <c r="C840" s="23"/>
+      <c r="C840" s="30"/>
     </row>
     <row r="841">
-      <c r="C841" s="23"/>
+      <c r="C841" s="30"/>
     </row>
     <row r="842">
-      <c r="C842" s="23"/>
+      <c r="C842" s="30"/>
     </row>
     <row r="843">
-      <c r="C843" s="23"/>
+      <c r="C843" s="30"/>
     </row>
     <row r="844">
-      <c r="C844" s="23"/>
+      <c r="C844" s="30"/>
     </row>
     <row r="845">
-      <c r="C845" s="23"/>
+      <c r="C845" s="30"/>
     </row>
     <row r="846">
-      <c r="C846" s="23"/>
+      <c r="C846" s="30"/>
     </row>
     <row r="847">
-      <c r="C847" s="23"/>
+      <c r="C847" s="30"/>
     </row>
     <row r="848">
-      <c r="C848" s="23"/>
+      <c r="C848" s="30"/>
     </row>
     <row r="849">
-      <c r="C849" s="23"/>
+      <c r="C849" s="30"/>
     </row>
     <row r="850">
-      <c r="C850" s="23"/>
+      <c r="C850" s="30"/>
     </row>
     <row r="851">
-      <c r="C851" s="23"/>
+      <c r="C851" s="30"/>
     </row>
     <row r="852">
-      <c r="C852" s="23"/>
+      <c r="C852" s="30"/>
     </row>
     <row r="853">
-      <c r="C853" s="23"/>
+      <c r="C853" s="30"/>
     </row>
     <row r="854">
-      <c r="C854" s="23"/>
+      <c r="C854" s="30"/>
     </row>
     <row r="855">
-      <c r="C855" s="23"/>
+      <c r="C855" s="30"/>
     </row>
     <row r="856">
-      <c r="C856" s="23"/>
+      <c r="C856" s="30"/>
     </row>
     <row r="857">
-      <c r="C857" s="23"/>
+      <c r="C857" s="30"/>
     </row>
     <row r="858">
-      <c r="C858" s="23"/>
+      <c r="C858" s="30"/>
     </row>
     <row r="859">
-      <c r="C859" s="23"/>
+      <c r="C859" s="30"/>
     </row>
     <row r="860">
-      <c r="C860" s="23"/>
+      <c r="C860" s="30"/>
     </row>
     <row r="861">
-      <c r="C861" s="23"/>
+      <c r="C861" s="30"/>
     </row>
     <row r="862">
-      <c r="C862" s="23"/>
+      <c r="C862" s="30"/>
     </row>
     <row r="863">
-      <c r="C863" s="23"/>
+      <c r="C863" s="30"/>
     </row>
     <row r="864">
-      <c r="C864" s="23"/>
+      <c r="C864" s="30"/>
     </row>
     <row r="865">
-      <c r="C865" s="23"/>
+      <c r="C865" s="30"/>
     </row>
     <row r="866">
-      <c r="C866" s="23"/>
+      <c r="C866" s="30"/>
     </row>
     <row r="867">
-      <c r="C867" s="23"/>
+      <c r="C867" s="30"/>
     </row>
     <row r="868">
-      <c r="C868" s="23"/>
+      <c r="C868" s="30"/>
     </row>
     <row r="869">
-      <c r="C869" s="23"/>
+      <c r="C869" s="30"/>
     </row>
     <row r="870">
-      <c r="C870" s="23"/>
+      <c r="C870" s="30"/>
     </row>
     <row r="871">
-      <c r="C871" s="23"/>
+      <c r="C871" s="30"/>
     </row>
     <row r="872">
-      <c r="C872" s="23"/>
+      <c r="C872" s="30"/>
     </row>
     <row r="873">
-      <c r="C873" s="23"/>
+      <c r="C873" s="30"/>
     </row>
     <row r="874">
-      <c r="C874" s="23"/>
+      <c r="C874" s="30"/>
     </row>
     <row r="875">
-      <c r="C875" s="23"/>
+      <c r="C875" s="30"/>
     </row>
     <row r="876">
-      <c r="C876" s="23"/>
+      <c r="C876" s="30"/>
     </row>
     <row r="877">
-      <c r="C877" s="23"/>
+      <c r="C877" s="30"/>
     </row>
     <row r="878">
-      <c r="C878" s="23"/>
+      <c r="C878" s="30"/>
     </row>
     <row r="879">
-      <c r="C879" s="23"/>
+      <c r="C879" s="30"/>
     </row>
     <row r="880">
-      <c r="C880" s="23"/>
+      <c r="C880" s="30"/>
     </row>
     <row r="881">
-      <c r="C881" s="23"/>
+      <c r="C881" s="30"/>
     </row>
     <row r="882">
-      <c r="C882" s="23"/>
+      <c r="C882" s="30"/>
     </row>
     <row r="883">
-      <c r="C883" s="23"/>
+      <c r="C883" s="30"/>
     </row>
     <row r="884">
-      <c r="C884" s="23"/>
+      <c r="C884" s="30"/>
     </row>
     <row r="885">
-      <c r="C885" s="23"/>
+      <c r="C885" s="30"/>
     </row>
     <row r="886">
-      <c r="C886" s="23"/>
+      <c r="C886" s="30"/>
     </row>
     <row r="887">
-      <c r="C887" s="23"/>
+      <c r="C887" s="30"/>
     </row>
     <row r="888">
-      <c r="C888" s="23"/>
+      <c r="C888" s="30"/>
     </row>
     <row r="889">
-      <c r="C889" s="23"/>
+      <c r="C889" s="30"/>
     </row>
     <row r="890">
-      <c r="C890" s="23"/>
+      <c r="C890" s="30"/>
     </row>
     <row r="891">
-      <c r="C891" s="23"/>
+      <c r="C891" s="30"/>
     </row>
     <row r="892">
-      <c r="C892" s="23"/>
+      <c r="C892" s="30"/>
     </row>
     <row r="893">
-      <c r="C893" s="23"/>
+      <c r="C893" s="30"/>
     </row>
     <row r="894">
-      <c r="C894" s="23"/>
+      <c r="C894" s="30"/>
     </row>
     <row r="895">
-      <c r="C895" s="23"/>
+      <c r="C895" s="30"/>
     </row>
     <row r="896">
-      <c r="C896" s="23"/>
+      <c r="C896" s="30"/>
     </row>
     <row r="897">
-      <c r="C897" s="23"/>
+      <c r="C897" s="30"/>
     </row>
     <row r="898">
-      <c r="C898" s="23"/>
+      <c r="C898" s="30"/>
     </row>
     <row r="899">
-      <c r="C899" s="23"/>
+      <c r="C899" s="30"/>
     </row>
     <row r="900">
-      <c r="C900" s="23"/>
+      <c r="C900" s="30"/>
     </row>
     <row r="901">
-      <c r="C901" s="23"/>
+      <c r="C901" s="30"/>
     </row>
     <row r="902">
-      <c r="C902" s="23"/>
+      <c r="C902" s="30"/>
     </row>
     <row r="903">
-      <c r="C903" s="23"/>
+      <c r="C903" s="30"/>
     </row>
     <row r="904">
-      <c r="C904" s="23"/>
+      <c r="C904" s="30"/>
     </row>
     <row r="905">
-      <c r="C905" s="23"/>
+      <c r="C905" s="30"/>
     </row>
     <row r="906">
-      <c r="C906" s="23"/>
+      <c r="C906" s="30"/>
     </row>
     <row r="907">
-      <c r="C907" s="23"/>
+      <c r="C907" s="30"/>
     </row>
     <row r="908">
-      <c r="C908" s="23"/>
+      <c r="C908" s="30"/>
     </row>
     <row r="909">
-      <c r="C909" s="23"/>
+      <c r="C909" s="30"/>
     </row>
     <row r="910">
-      <c r="C910" s="23"/>
+      <c r="C910" s="30"/>
     </row>
     <row r="911">
-      <c r="C911" s="23"/>
+      <c r="C911" s="30"/>
     </row>
     <row r="912">
-      <c r="C912" s="23"/>
+      <c r="C912" s="30"/>
     </row>
     <row r="913">
-      <c r="C913" s="23"/>
+      <c r="C913" s="30"/>
     </row>
     <row r="914">
-      <c r="C914" s="23"/>
+      <c r="C914" s="30"/>
     </row>
     <row r="915">
-      <c r="C915" s="23"/>
+      <c r="C915" s="30"/>
     </row>
     <row r="916">
-      <c r="C916" s="23"/>
+      <c r="C916" s="30"/>
     </row>
     <row r="917">
-      <c r="C917" s="23"/>
+      <c r="C917" s="30"/>
     </row>
     <row r="918">
-      <c r="C918" s="23"/>
+      <c r="C918" s="30"/>
     </row>
     <row r="919">
-      <c r="C919" s="23"/>
+      <c r="C919" s="30"/>
     </row>
     <row r="920">
-      <c r="C920" s="23"/>
+      <c r="C920" s="30"/>
     </row>
     <row r="921">
-      <c r="C921" s="23"/>
+      <c r="C921" s="30"/>
     </row>
     <row r="922">
-      <c r="C922" s="23"/>
+      <c r="C922" s="30"/>
     </row>
     <row r="923">
-      <c r="C923" s="23"/>
+      <c r="C923" s="30"/>
     </row>
     <row r="924">
-      <c r="C924" s="23"/>
+      <c r="C924" s="30"/>
     </row>
     <row r="925">
-      <c r="C925" s="23"/>
+      <c r="C925" s="30"/>
     </row>
     <row r="926">
-      <c r="C926" s="23"/>
+      <c r="C926" s="30"/>
     </row>
     <row r="927">
-      <c r="C927" s="23"/>
+      <c r="C927" s="30"/>
     </row>
     <row r="928">
-      <c r="C928" s="23"/>
+      <c r="C928" s="30"/>
     </row>
     <row r="929">
-      <c r="C929" s="23"/>
+      <c r="C929" s="30"/>
     </row>
     <row r="930">
-      <c r="C930" s="23"/>
+      <c r="C930" s="30"/>
     </row>
     <row r="931">
-      <c r="C931" s="23"/>
+      <c r="C931" s="30"/>
     </row>
     <row r="932">
-      <c r="C932" s="23"/>
+      <c r="C932" s="30"/>
     </row>
     <row r="933">
-      <c r="C933" s="23"/>
+      <c r="C933" s="30"/>
     </row>
     <row r="934">
-      <c r="C934" s="23"/>
+      <c r="C934" s="30"/>
     </row>
     <row r="935">
-      <c r="C935" s="23"/>
+      <c r="C935" s="30"/>
     </row>
     <row r="936">
-      <c r="C936" s="23"/>
+      <c r="C936" s="30"/>
     </row>
     <row r="937">
-      <c r="C937" s="23"/>
+      <c r="C937" s="30"/>
     </row>
     <row r="938">
-      <c r="C938" s="23"/>
+      <c r="C938" s="30"/>
     </row>
     <row r="939">
-      <c r="C939" s="23"/>
+      <c r="C939" s="30"/>
     </row>
     <row r="940">
-      <c r="C940" s="23"/>
+      <c r="C940" s="30"/>
     </row>
     <row r="941">
-      <c r="C941" s="23"/>
+      <c r="C941" s="30"/>
     </row>
     <row r="942">
-      <c r="C942" s="23"/>
+      <c r="C942" s="30"/>
     </row>
     <row r="943">
-      <c r="C943" s="23"/>
+      <c r="C943" s="30"/>
     </row>
     <row r="944">
-      <c r="C944" s="23"/>
+      <c r="C944" s="30"/>
     </row>
     <row r="945">
-      <c r="C945" s="23"/>
+      <c r="C945" s="30"/>
     </row>
     <row r="946">
-      <c r="C946" s="23"/>
+      <c r="C946" s="30"/>
     </row>
     <row r="947">
-      <c r="C947" s="23"/>
+      <c r="C947" s="30"/>
     </row>
     <row r="948">
-      <c r="C948" s="23"/>
+      <c r="C948" s="30"/>
     </row>
     <row r="949">
-      <c r="C949" s="23"/>
+      <c r="C949" s="30"/>
     </row>
     <row r="950">
-      <c r="C950" s="23"/>
+      <c r="C950" s="30"/>
     </row>
     <row r="951">
-      <c r="C951" s="23"/>
+      <c r="C951" s="30"/>
     </row>
     <row r="952">
-      <c r="C952" s="23"/>
+      <c r="C952" s="30"/>
     </row>
     <row r="953">
-      <c r="C953" s="23"/>
+      <c r="C953" s="30"/>
     </row>
     <row r="954">
-      <c r="C954" s="23"/>
+      <c r="C954" s="30"/>
     </row>
     <row r="955">
-      <c r="C955" s="23"/>
+      <c r="C955" s="30"/>
     </row>
     <row r="956">
-      <c r="C956" s="23"/>
+      <c r="C956" s="30"/>
     </row>
     <row r="957">
-      <c r="C957" s="23"/>
+      <c r="C957" s="30"/>
     </row>
     <row r="958">
-      <c r="C958" s="23"/>
+      <c r="C958" s="30"/>
     </row>
     <row r="959">
-      <c r="C959" s="23"/>
+      <c r="C959" s="30"/>
     </row>
     <row r="960">
-      <c r="C960" s="23"/>
+      <c r="C960" s="30"/>
     </row>
     <row r="961">
-      <c r="C961" s="23"/>
+      <c r="C961" s="30"/>
     </row>
     <row r="962">
-      <c r="C962" s="23"/>
+      <c r="C962" s="30"/>
     </row>
     <row r="963">
-      <c r="C963" s="23"/>
+      <c r="C963" s="30"/>
     </row>
     <row r="964">
-      <c r="C964" s="23"/>
+      <c r="C964" s="30"/>
     </row>
     <row r="965">
-      <c r="C965" s="23"/>
+      <c r="C965" s="30"/>
     </row>
     <row r="966">
-      <c r="C966" s="23"/>
+      <c r="C966" s="30"/>
     </row>
     <row r="967">
-      <c r="C967" s="23"/>
+      <c r="C967" s="30"/>
     </row>
     <row r="968">
-      <c r="C968" s="23"/>
+      <c r="C968" s="30"/>
     </row>
     <row r="969">
-      <c r="C969" s="23"/>
+      <c r="C969" s="30"/>
     </row>
     <row r="970">
-      <c r="C970" s="23"/>
+      <c r="C970" s="30"/>
     </row>
     <row r="971">
-      <c r="C971" s="23"/>
+      <c r="C971" s="30"/>
     </row>
     <row r="972">
-      <c r="C972" s="23"/>
+      <c r="C972" s="30"/>
     </row>
     <row r="973">
-      <c r="C973" s="23"/>
+      <c r="C973" s="30"/>
     </row>
     <row r="974">
-      <c r="C974" s="23"/>
+      <c r="C974" s="30"/>
     </row>
     <row r="975">
-      <c r="C975" s="23"/>
+      <c r="C975" s="30"/>
     </row>
     <row r="976">
-      <c r="C976" s="23"/>
+      <c r="C976" s="30"/>
     </row>
     <row r="977">
-      <c r="C977" s="23"/>
+      <c r="C977" s="30"/>
     </row>
     <row r="978">
-      <c r="C978" s="23"/>
+      <c r="C978" s="30"/>
     </row>
     <row r="979">
-      <c r="C979" s="23"/>
+      <c r="C979" s="30"/>
     </row>
     <row r="980">
-      <c r="C980" s="23"/>
+      <c r="C980" s="30"/>
     </row>
     <row r="981">
-      <c r="C981" s="23"/>
+      <c r="C981" s="30"/>
     </row>
     <row r="982">
-      <c r="C982" s="23"/>
+      <c r="C982" s="30"/>
     </row>
     <row r="983">
-      <c r="C983" s="23"/>
+      <c r="C983" s="30"/>
     </row>
     <row r="984">
-      <c r="C984" s="23"/>
+      <c r="C984" s="30"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K2:K7 L8">

--- a/code/vocab_csv/rules.xlsx
+++ b/code/vocab_csv/rules.xlsx
@@ -134,7 +134,7 @@
     <t>Unacceptable Rule</t>
   </si>
   <si>
-    <t>A rule that is unacceptable where it not desirable if it occurs</t>
+    <t>A rule that is unacceptable where it is not desirable if it occurs</t>
   </si>
   <si>
     <t>Unacceptable is a subjective concept that enables specifying something is to be avoided as compared to "acceptable". By itself it does not signal any deterrence or prohibition - for which further specific concepts are defined</t>

--- a/code/vocab_csv/rules.xlsx
+++ b/code/vocab_csv/rules.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="135">
   <si>
     <t>Term</t>
   </si>
@@ -77,13 +77,79 @@
     <t>Harshvardhan J. Pandit, Georg P. Krog, Beatriz Esteves, Paul Ryan</t>
   </si>
   <si>
+    <t>AcceptableRule</t>
+  </si>
+  <si>
+    <t>Acceptable Rule</t>
+  </si>
+  <si>
+    <t>A rule that is acceptable where it is either desirable if it occurs or it is not unacceptable if it does</t>
+  </si>
+  <si>
+    <t>dpv:Rule</t>
+  </si>
+  <si>
+    <t>Acceptable is a subjective concept that enables distinguishing with "unacceptable". By itself it does not signal any permission or obligation - for which further specific concepts are defined</t>
+  </si>
+  <si>
+    <t>Harshvardhan J. Pandit, Georg P. Krog, Julian Flake, Delaram Golpayegani, Beatriz Esteves, Arthit Suriyawongkul, Paul Ryan</t>
+  </si>
+  <si>
     <t>Permission</t>
   </si>
   <si>
     <t>A rule describing a permission to perform an activity</t>
   </si>
   <si>
-    <t>dpv:Rule</t>
+    <t>dpv:AcceptableRule</t>
+  </si>
+  <si>
+    <t>Permissions are aligned with the term MAY in RFC2119 where specified activities may or may not be carried out</t>
+  </si>
+  <si>
+    <t>modified</t>
+  </si>
+  <si>
+    <t>Recommendation</t>
+  </si>
+  <si>
+    <t>A rule describing a recommendation for performing an activity</t>
+  </si>
+  <si>
+    <t>Recommendations are aligned with the term SHOULD in RFC2119 where specified activities should be carried out but are not obligations</t>
+  </si>
+  <si>
+    <t>Obligation</t>
+  </si>
+  <si>
+    <t>A rule describing an obligation for performing an activity</t>
+  </si>
+  <si>
+    <t>Obligations are aligned with the term MUST in RFC2119 where specified activities are mandatory to be carried out</t>
+  </si>
+  <si>
+    <t>UnacceptableRule</t>
+  </si>
+  <si>
+    <t>Unacceptable Rule</t>
+  </si>
+  <si>
+    <t>A rule that is unacceptable where it is not desirable if it occurs</t>
+  </si>
+  <si>
+    <t>Unacceptable is a subjective concept that enables specifying something is to be avoided as compared to "acceptable". By itself it does not signal any deterrence or prohibition - for which further specific concepts are defined</t>
+  </si>
+  <si>
+    <t>Deterrence</t>
+  </si>
+  <si>
+    <t>A rule describing a deterrence for performing an activity</t>
+  </si>
+  <si>
+    <t>dpv:UnacceptableRule</t>
+  </si>
+  <si>
+    <t>Deterrences are aligned with the term SHOULD NOT in RFC2119 where specified activities should be avoided from being carried out but are not prohibitions</t>
   </si>
   <si>
     <t>Prohibition</t>
@@ -92,10 +158,7 @@
     <t>A rule describing a prohibition to perform an activity</t>
   </si>
   <si>
-    <t>Obligation</t>
-  </si>
-  <si>
-    <t>A rule describing an obligation for performing an activity</t>
+    <t>Prohibitions are aligned with the term MUST NOT in RFC2119 where specified activities are prohibited from being carried out</t>
   </si>
   <si>
     <t>RuleFulfilmentStatus</t>
@@ -146,6 +209,60 @@
     <t>Status indicating a rule has been violated, breached, broken, or infracted</t>
   </si>
   <si>
+    <t>ObligationUnfulfilled</t>
+  </si>
+  <si>
+    <t>Obligation Unfulfilled</t>
+  </si>
+  <si>
+    <t>Status indicating an obligation has not been fulfilled i.e. the activity stated as being required to be carried out has not been carried out but this is not considered as a violation e.g. there is still time to conduct the activity</t>
+  </si>
+  <si>
+    <t>dpv:RuleUnfulfilled</t>
+  </si>
+  <si>
+    <t>ObligationViolated</t>
+  </si>
+  <si>
+    <t>Obligation Violated</t>
+  </si>
+  <si>
+    <t>Status indicating an obligation has been violated i.e. the activity stated as being required to be carried out has not been carried out and this is considered as a violation i.e. the activity can no longer be carried out to fulfil the obligation</t>
+  </si>
+  <si>
+    <t>dpv:RuleViolated</t>
+  </si>
+  <si>
+    <t>ObligationFulfilled</t>
+  </si>
+  <si>
+    <t>Obligation Fulfilled</t>
+  </si>
+  <si>
+    <t>Status indicating an obligation has been fulfilled i.e. the activity stated as being required to be carried out has been successfully completed</t>
+  </si>
+  <si>
+    <t>dpv:RuleFulfilled</t>
+  </si>
+  <si>
+    <t>PermissionUtilised</t>
+  </si>
+  <si>
+    <t>Permission Utilised</t>
+  </si>
+  <si>
+    <t>Status indicating a permission has been utilised i.e. the activity stated as being permitted has been carried out</t>
+  </si>
+  <si>
+    <t>PermissionNotUtilised</t>
+  </si>
+  <si>
+    <t>Permission Not Utilised</t>
+  </si>
+  <si>
+    <t>Status indicating a permission has not been utilised i.e. the activity stated as being permitted has not been carried out</t>
+  </si>
+  <si>
     <t>ProhibitionViolated</t>
   </si>
   <si>
@@ -155,67 +272,52 @@
     <t>Status indicating a prohibition has been violated i.e. the activity stated as being prohibited has been carried out</t>
   </si>
   <si>
-    <t>dpv:RuleViolated</t>
-  </si>
-  <si>
-    <t>ObligationUnfulfilled</t>
-  </si>
-  <si>
-    <t>Obligation Unfulfilled</t>
-  </si>
-  <si>
-    <t>Status indicating an obligation has not been fulfilled i.e. the activity stated as being required to be carried out has not been carried out but this is not considered as a violation e.g. there is still time to conduct the activity</t>
-  </si>
-  <si>
-    <t>dpv:RuleUnfulfilled</t>
-  </si>
-  <si>
-    <t>ObligationViolated</t>
-  </si>
-  <si>
-    <t>Obligation Violated</t>
-  </si>
-  <si>
-    <t>Status indicating an obligation has been violated i.e. the activity stated as being required to be carried out has not been carried out and this is considered as a violation i.e. the activity can no longer be carried out to fulfil the obligation</t>
-  </si>
-  <si>
-    <t>ProhibitionFulfilled</t>
-  </si>
-  <si>
-    <t>Prohibition Fulfilled</t>
-  </si>
-  <si>
-    <t>Status indicating a prohibition has been fulfilled i.e. the activity stated as being prohibited has not been carried out</t>
-  </si>
-  <si>
-    <t>dpv:RuleFulfilled</t>
-  </si>
-  <si>
-    <t>ObligationFulfilled</t>
-  </si>
-  <si>
-    <t>Obligation Fulfilled</t>
-  </si>
-  <si>
-    <t>Status indicating an obligation has been fulfilled i.e. the activity stated as being required to be carried out has been successfully completed</t>
-  </si>
-  <si>
-    <t>PermissionUtilised</t>
-  </si>
-  <si>
-    <t>Permission Utilised</t>
-  </si>
-  <si>
-    <t>Status indicating a permission has been utilised i.e. the activity stated as being permitted has been carried out</t>
-  </si>
-  <si>
-    <t>PermissionNotUtilised</t>
-  </si>
-  <si>
-    <t>Permission Not Utilised</t>
-  </si>
-  <si>
-    <t>Status indicating a permission has not been utilised i.e. the activity stated as being permitted has not been carried out</t>
+    <t>ProhibitionUnviolated</t>
+  </si>
+  <si>
+    <t>Prohibition Unviolated</t>
+  </si>
+  <si>
+    <t>Status indicating a prohibition has not been violated i.e. the activity stated as being prohibited has not been carried out</t>
+  </si>
+  <si>
+    <t>Harshvardhan J. Pandit, Beatriz Esteves, Julian Flake, Georg P. Krog</t>
+  </si>
+  <si>
+    <t>RecommendationFollowed</t>
+  </si>
+  <si>
+    <t>Recommendation Followed</t>
+  </si>
+  <si>
+    <t>Status indicating a recommendation has been followed i.e. the activity stated as being recommended has been carried out</t>
+  </si>
+  <si>
+    <t>RecommendationNotFollowed</t>
+  </si>
+  <si>
+    <t>Recommendation Not Followed</t>
+  </si>
+  <si>
+    <t>Status indicating a recommendation has not been followed i.e. the activity stated as being recommended has not been carried out</t>
+  </si>
+  <si>
+    <t>DeterrenceFollowed</t>
+  </si>
+  <si>
+    <t>Deterrence Followed</t>
+  </si>
+  <si>
+    <t>Status indicating a deterrence has been followed i.e. the activity stated as being deterred has not been carried out</t>
+  </si>
+  <si>
+    <t>DeterrenceNotFollowed</t>
+  </si>
+  <si>
+    <t>Deterrence Not Followed</t>
+  </si>
+  <si>
+    <t>Status indicating a deterrence has not been followed i.e. the activity stated as being deterred has been carried out</t>
   </si>
   <si>
     <t>domain</t>
@@ -233,7 +335,7 @@
     <t>has rule</t>
   </si>
   <si>
-    <t>Specifying applicability or inclusion of a rule within specified context</t>
+    <t>Specifies applicability or inclusion of a rule within specified context</t>
   </si>
   <si>
     <t>dpv:Context</t>
@@ -248,7 +350,7 @@
     <t>has permission</t>
   </si>
   <si>
-    <t>Specifying applicability or inclusion of a permission rule within specified context</t>
+    <t>Specifies applicability or inclusion of a permission rule within specified context</t>
   </si>
   <si>
     <t>dpv:Permission</t>
@@ -257,37 +359,61 @@
     <t>dpv:hasRule</t>
   </si>
   <si>
+    <t>hasRecommendation</t>
+  </si>
+  <si>
+    <t>has recommendation</t>
+  </si>
+  <si>
+    <t>Specifies applicability or inclusion of a recommendation rule within specified context</t>
+  </si>
+  <si>
+    <t>dpv:Recommendation</t>
+  </si>
+  <si>
+    <t>hasObligation</t>
+  </si>
+  <si>
+    <t>has obligation</t>
+  </si>
+  <si>
+    <t>Specifies applicability or inclusion of an obligation rule within specified context</t>
+  </si>
+  <si>
+    <t>dpv:Obligation</t>
+  </si>
+  <si>
+    <t>hasDeterrence</t>
+  </si>
+  <si>
+    <t>has deterrence</t>
+  </si>
+  <si>
+    <t>Specifies applicability or inclusion of a deterrence rule within specified context</t>
+  </si>
+  <si>
+    <t>dpv:Deterrence</t>
+  </si>
+  <si>
     <t>hasProhibition</t>
   </si>
   <si>
     <t>has prohibition</t>
   </si>
   <si>
-    <t>Specifying applicability or inclusion of a prohibition rule within specified context</t>
+    <t>Specifies applicability or inclusion of a prohibition rule within specified context</t>
   </si>
   <si>
     <t>dpv:Prohibition</t>
   </si>
   <si>
-    <t>hasObligation</t>
-  </si>
-  <si>
-    <t>has obligation</t>
-  </si>
-  <si>
-    <t>Specifying applicability or inclusion of an obligation rule within specified context</t>
-  </si>
-  <si>
-    <t>dpv:Obligation</t>
-  </si>
-  <si>
-    <t>hasFulfillmentsStatus</t>
-  </si>
-  <si>
-    <t>has fulfillment status</t>
-  </si>
-  <si>
-    <t>Specifying the fulfillment status associated with a rule</t>
+    <t>hasFulfilmentStatus</t>
+  </si>
+  <si>
+    <t>has fulfilment status</t>
+  </si>
+  <si>
+    <t>Specifies the fulfillment status associated with a rule</t>
   </si>
   <si>
     <t>dpv:hasStatus</t>
@@ -324,17 +450,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <color rgb="FF274E13"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <u/>
-      <color rgb="FF1155CC"/>
+      <color rgb="FF274E13"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -344,8 +464,14 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,6 +488,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF9FC5E8"/>
         <bgColor rgb="FF9FC5E8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
   </fills>
@@ -415,7 +547,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -454,28 +586,49 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -884,81 +1037,44 @@
       <c r="AF2" s="11"/>
     </row>
     <row r="3">
-      <c r="A3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="12">
-        <v>44853.0</v>
-      </c>
-      <c r="L3" s="11"/>
-      <c r="M3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="K3" s="12"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="13"/>
+      <c r="I4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="11"/>
       <c r="K4" s="12">
-        <v>44853.0</v>
-      </c>
-      <c r="L4" s="12"/>
+        <v>45827.0</v>
+      </c>
+      <c r="L4" s="11"/>
       <c r="M4" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
@@ -981,32 +1097,38 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="E5" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="I5" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="J5" s="11"/>
       <c r="K5" s="12">
         <v>44853.0</v>
       </c>
-      <c r="L5" s="11"/>
+      <c r="L5" s="12">
+        <v>45827.0</v>
+      </c>
       <c r="M5" s="10" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
@@ -1028,41 +1150,91 @@
       <c r="AF5" s="11"/>
     </row>
     <row r="6">
-      <c r="B6" s="14"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="12"/>
+      <c r="A6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="14"/>
+      <c r="K6" s="12">
+        <v>45827.0</v>
+      </c>
       <c r="L6" s="12"/>
+      <c r="M6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>31</v>
-      </c>
       <c r="E7" s="10" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="13"/>
+      <c r="I7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="11"/>
       <c r="K7" s="12">
-        <v>45545.0</v>
-      </c>
-      <c r="L7" s="12"/>
+        <v>44853.0</v>
+      </c>
+      <c r="L7" s="12">
+        <v>45827.0</v>
+      </c>
       <c r="M7" s="10" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -1083,54 +1255,6 @@
       <c r="AE7" s="11"/>
       <c r="AF7" s="11"/>
     </row>
-    <row r="8">
-      <c r="A8" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="12">
-        <v>45545.0</v>
-      </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="11"/>
-    </row>
     <row r="9">
       <c r="A9" s="10" t="s">
         <v>38</v>
@@ -1143,22 +1267,24 @@
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="10" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="I9" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="J9" s="11"/>
       <c r="K9" s="12">
-        <v>45545.0</v>
+        <v>45827.0</v>
       </c>
       <c r="L9" s="11"/>
       <c r="M9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
@@ -1181,7 +1307,7 @@
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>42</v>
@@ -1189,24 +1315,28 @@
       <c r="C10" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="E10" s="10" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
+      <c r="I10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="14"/>
       <c r="K10" s="12">
-        <v>45545.0</v>
-      </c>
-      <c r="L10" s="11"/>
+        <v>45827.0</v>
+      </c>
+      <c r="L10" s="12"/>
       <c r="M10" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
@@ -1229,36 +1359,40 @@
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>47</v>
-      </c>
       <c r="E11" s="10" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="16"/>
+      <c r="I11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="14"/>
       <c r="K11" s="12">
-        <v>45545.0</v>
-      </c>
-      <c r="L11" s="12"/>
+        <v>44853.0</v>
+      </c>
+      <c r="L11" s="12">
+        <v>45827.0</v>
+      </c>
       <c r="M11" s="10" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="O11" s="17"/>
+        <v>26</v>
+      </c>
+      <c r="O11" s="11"/>
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
@@ -1278,85 +1412,41 @@
       <c r="AF11" s="11"/>
     </row>
     <row r="12">
-      <c r="A12" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="12">
-        <v>45545.0</v>
-      </c>
-      <c r="L12" s="11"/>
-      <c r="M12" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="N12" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="11"/>
+      <c r="B12" s="13"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="E13" s="10" t="s">
         <v>53</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>37</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
+      <c r="J13" s="14"/>
       <c r="K13" s="12">
         <v>45545.0</v>
       </c>
-      <c r="L13" s="11"/>
+      <c r="L13" s="12"/>
       <c r="M13" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
@@ -1387,17 +1477,15 @@
       <c r="C14" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="11"/>
+      <c r="E14" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>37</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
+      <c r="J14" s="14"/>
       <c r="K14" s="12">
         <v>45545.0</v>
       </c>
@@ -1406,7 +1494,7 @@
         <v>19</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
@@ -1437,26 +1525,24 @@
       <c r="C15" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="11"/>
+      <c r="E15" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>37</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="18"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
       <c r="K15" s="12">
         <v>45545.0</v>
       </c>
-      <c r="L15" s="12"/>
+      <c r="L15" s="11"/>
       <c r="M15" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
@@ -1487,17 +1573,15 @@
       <c r="C16" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="11"/>
+      <c r="E16" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>37</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
-      <c r="J16" s="16"/>
+      <c r="J16" s="11"/>
       <c r="K16" s="12">
         <v>45545.0</v>
       </c>
@@ -1506,7 +1590,7 @@
         <v>19</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
@@ -1527,2679 +1611,3199 @@
       <c r="AE16" s="11"/>
       <c r="AF16" s="11"/>
     </row>
-    <row r="17">
-      <c r="A17" s="10" t="s">
+    <row r="18">
+      <c r="A18" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B18" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C18" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D18" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="12">
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="12">
         <v>45545.0</v>
       </c>
-      <c r="L17" s="11"/>
-      <c r="M17" s="10" t="s">
+      <c r="L18" s="11"/>
+      <c r="M18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N17" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="11"/>
-      <c r="AC17" s="11"/>
-      <c r="AD17" s="11"/>
-      <c r="AE17" s="11"/>
-      <c r="AF17" s="11"/>
-    </row>
-    <row r="18">
-      <c r="B18" s="20"/>
+      <c r="N18" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="11"/>
     </row>
     <row r="19">
-      <c r="B19" s="20"/>
+      <c r="A19" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="12">
+        <v>45545.0</v>
+      </c>
+      <c r="L19" s="11"/>
+      <c r="M19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="11"/>
     </row>
     <row r="20">
-      <c r="B20" s="20"/>
-    </row>
-    <row r="21">
-      <c r="B21" s="20"/>
+      <c r="A20" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="12">
+        <v>45545.0</v>
+      </c>
+      <c r="L20" s="12"/>
+      <c r="M20" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="11"/>
     </row>
     <row r="22">
-      <c r="B22" s="20"/>
+      <c r="A22" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="12">
+        <v>45545.0</v>
+      </c>
+      <c r="L22" s="11"/>
+      <c r="M22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="11"/>
+      <c r="AE22" s="11"/>
+      <c r="AF22" s="11"/>
     </row>
     <row r="23">
-      <c r="B23" s="20"/>
+      <c r="A23" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="12">
+        <v>45545.0</v>
+      </c>
+      <c r="L23" s="11"/>
+      <c r="M23" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="11"/>
     </row>
     <row r="24">
-      <c r="B24" s="20"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="K24" s="12"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
     </row>
     <row r="25">
-      <c r="B25" s="20"/>
+      <c r="A25" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="21">
+        <v>45545.0</v>
+      </c>
+      <c r="L25" s="22"/>
+      <c r="M25" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="N25" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="20"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="20"/>
+      <c r="AD25" s="20"/>
+      <c r="AE25" s="20"/>
+      <c r="AF25" s="20"/>
     </row>
     <row r="26">
-      <c r="B26" s="20"/>
+      <c r="A26" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="21">
+        <v>45545.0</v>
+      </c>
+      <c r="L26" s="24">
+        <v>45875.0</v>
+      </c>
+      <c r="M26" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="N26" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20"/>
+      <c r="X26" s="20"/>
+      <c r="Y26" s="20"/>
+      <c r="Z26" s="20"/>
+      <c r="AA26" s="20"/>
+      <c r="AB26" s="20"/>
+      <c r="AC26" s="20"/>
+      <c r="AD26" s="20"/>
+      <c r="AE26" s="20"/>
+      <c r="AF26" s="20"/>
     </row>
     <row r="27">
-      <c r="B27" s="20"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="K27" s="12"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
     </row>
     <row r="28">
-      <c r="B28" s="20"/>
+      <c r="A28" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="24">
+        <v>45875.0</v>
+      </c>
+      <c r="L28" s="11"/>
+      <c r="M28" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="N28" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="11"/>
+      <c r="AD28" s="11"/>
+      <c r="AE28" s="11"/>
+      <c r="AF28" s="11"/>
     </row>
     <row r="29">
-      <c r="B29" s="20"/>
+      <c r="A29" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="24">
+        <v>45875.0</v>
+      </c>
+      <c r="L29" s="11"/>
+      <c r="M29" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="N29" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="11"/>
+      <c r="AD29" s="11"/>
+      <c r="AE29" s="11"/>
+      <c r="AF29" s="11"/>
     </row>
     <row r="30">
-      <c r="B30" s="20"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
     </row>
     <row r="31">
-      <c r="B31" s="20"/>
+      <c r="A31" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="24">
+        <v>45875.0</v>
+      </c>
+      <c r="L31" s="11"/>
+      <c r="M31" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="N31" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="11"/>
+      <c r="AD31" s="11"/>
+      <c r="AE31" s="11"/>
+      <c r="AF31" s="11"/>
     </row>
     <row r="32">
-      <c r="B32" s="20"/>
+      <c r="A32" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="24">
+        <v>45875.0</v>
+      </c>
+      <c r="L32" s="11"/>
+      <c r="M32" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="N32" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="11"/>
+      <c r="AD32" s="11"/>
+      <c r="AE32" s="11"/>
+      <c r="AF32" s="11"/>
     </row>
     <row r="33">
-      <c r="B33" s="20"/>
+      <c r="B33" s="25"/>
     </row>
     <row r="34">
-      <c r="B34" s="20"/>
+      <c r="C34" s="26"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="O34" s="27"/>
     </row>
     <row r="35">
-      <c r="B35" s="20"/>
+      <c r="K35" s="12"/>
     </row>
     <row r="36">
-      <c r="B36" s="20"/>
+      <c r="B36" s="25"/>
     </row>
     <row r="37">
-      <c r="B37" s="20"/>
+      <c r="B37" s="25"/>
     </row>
     <row r="38">
-      <c r="B38" s="20"/>
+      <c r="B38" s="25"/>
     </row>
     <row r="39">
-      <c r="B39" s="20"/>
+      <c r="B39" s="25"/>
     </row>
     <row r="40">
-      <c r="B40" s="20"/>
+      <c r="B40" s="25"/>
     </row>
     <row r="41">
-      <c r="B41" s="20"/>
+      <c r="B41" s="25"/>
     </row>
     <row r="42">
-      <c r="B42" s="20"/>
+      <c r="B42" s="25"/>
     </row>
     <row r="43">
-      <c r="B43" s="20"/>
+      <c r="B43" s="25"/>
     </row>
     <row r="44">
-      <c r="B44" s="20"/>
+      <c r="B44" s="25"/>
     </row>
     <row r="45">
-      <c r="B45" s="20"/>
+      <c r="B45" s="25"/>
     </row>
     <row r="46">
-      <c r="B46" s="20"/>
+      <c r="B46" s="25"/>
     </row>
     <row r="47">
-      <c r="B47" s="20"/>
+      <c r="B47" s="25"/>
     </row>
     <row r="48">
-      <c r="B48" s="20"/>
+      <c r="B48" s="25"/>
     </row>
     <row r="49">
-      <c r="B49" s="20"/>
+      <c r="B49" s="25"/>
     </row>
     <row r="50">
-      <c r="B50" s="20"/>
+      <c r="B50" s="25"/>
     </row>
     <row r="51">
-      <c r="B51" s="20"/>
+      <c r="B51" s="25"/>
     </row>
     <row r="52">
-      <c r="B52" s="20"/>
+      <c r="B52" s="25"/>
     </row>
     <row r="53">
-      <c r="B53" s="20"/>
+      <c r="B53" s="25"/>
     </row>
     <row r="54">
-      <c r="B54" s="20"/>
+      <c r="B54" s="25"/>
     </row>
     <row r="55">
-      <c r="B55" s="20"/>
+      <c r="B55" s="25"/>
     </row>
     <row r="56">
-      <c r="B56" s="20"/>
+      <c r="B56" s="25"/>
     </row>
     <row r="57">
-      <c r="B57" s="20"/>
+      <c r="B57" s="25"/>
     </row>
     <row r="58">
-      <c r="B58" s="20"/>
+      <c r="B58" s="25"/>
     </row>
     <row r="59">
-      <c r="B59" s="20"/>
+      <c r="B59" s="25"/>
     </row>
     <row r="60">
-      <c r="B60" s="20"/>
+      <c r="B60" s="25"/>
     </row>
     <row r="61">
-      <c r="B61" s="20"/>
+      <c r="B61" s="25"/>
     </row>
     <row r="62">
-      <c r="B62" s="20"/>
+      <c r="B62" s="25"/>
     </row>
     <row r="63">
-      <c r="B63" s="20"/>
+      <c r="B63" s="25"/>
     </row>
     <row r="64">
-      <c r="B64" s="20"/>
+      <c r="B64" s="25"/>
     </row>
     <row r="65">
-      <c r="B65" s="20"/>
+      <c r="B65" s="25"/>
     </row>
     <row r="66">
-      <c r="B66" s="20"/>
+      <c r="B66" s="25"/>
     </row>
     <row r="67">
-      <c r="B67" s="20"/>
+      <c r="B67" s="25"/>
     </row>
     <row r="68">
-      <c r="B68" s="20"/>
+      <c r="B68" s="25"/>
     </row>
     <row r="69">
-      <c r="B69" s="20"/>
+      <c r="B69" s="25"/>
     </row>
     <row r="70">
-      <c r="B70" s="20"/>
+      <c r="B70" s="25"/>
     </row>
     <row r="71">
-      <c r="B71" s="20"/>
+      <c r="B71" s="25"/>
     </row>
     <row r="72">
-      <c r="B72" s="20"/>
+      <c r="B72" s="25"/>
     </row>
     <row r="73">
-      <c r="B73" s="20"/>
+      <c r="B73" s="25"/>
     </row>
     <row r="74">
-      <c r="B74" s="20"/>
+      <c r="B74" s="25"/>
     </row>
     <row r="75">
-      <c r="B75" s="20"/>
+      <c r="B75" s="25"/>
     </row>
     <row r="76">
-      <c r="B76" s="20"/>
+      <c r="B76" s="25"/>
     </row>
     <row r="77">
-      <c r="B77" s="20"/>
+      <c r="B77" s="25"/>
     </row>
     <row r="78">
-      <c r="B78" s="20"/>
+      <c r="B78" s="25"/>
     </row>
     <row r="79">
-      <c r="B79" s="20"/>
+      <c r="B79" s="25"/>
     </row>
     <row r="80">
-      <c r="B80" s="20"/>
+      <c r="B80" s="25"/>
     </row>
     <row r="81">
-      <c r="B81" s="20"/>
+      <c r="B81" s="25"/>
     </row>
     <row r="82">
-      <c r="B82" s="20"/>
+      <c r="B82" s="25"/>
     </row>
     <row r="83">
-      <c r="B83" s="20"/>
+      <c r="B83" s="25"/>
     </row>
     <row r="84">
-      <c r="B84" s="20"/>
+      <c r="B84" s="25"/>
     </row>
     <row r="85">
-      <c r="B85" s="20"/>
+      <c r="B85" s="25"/>
     </row>
     <row r="86">
-      <c r="B86" s="20"/>
+      <c r="B86" s="25"/>
     </row>
     <row r="87">
-      <c r="B87" s="20"/>
+      <c r="B87" s="25"/>
     </row>
     <row r="88">
-      <c r="B88" s="20"/>
+      <c r="B88" s="25"/>
     </row>
     <row r="89">
-      <c r="B89" s="20"/>
+      <c r="B89" s="25"/>
     </row>
     <row r="90">
-      <c r="B90" s="20"/>
+      <c r="B90" s="25"/>
     </row>
     <row r="91">
-      <c r="B91" s="20"/>
+      <c r="B91" s="25"/>
     </row>
     <row r="92">
-      <c r="B92" s="20"/>
+      <c r="B92" s="25"/>
     </row>
     <row r="93">
-      <c r="B93" s="20"/>
+      <c r="B93" s="25"/>
     </row>
     <row r="94">
-      <c r="B94" s="20"/>
+      <c r="B94" s="25"/>
     </row>
     <row r="95">
-      <c r="B95" s="20"/>
+      <c r="B95" s="25"/>
     </row>
     <row r="96">
-      <c r="B96" s="20"/>
+      <c r="B96" s="25"/>
     </row>
     <row r="97">
-      <c r="B97" s="20"/>
+      <c r="B97" s="25"/>
     </row>
     <row r="98">
-      <c r="B98" s="20"/>
+      <c r="B98" s="25"/>
     </row>
     <row r="99">
-      <c r="B99" s="20"/>
+      <c r="B99" s="25"/>
     </row>
     <row r="100">
-      <c r="B100" s="20"/>
+      <c r="B100" s="25"/>
     </row>
     <row r="101">
-      <c r="B101" s="20"/>
+      <c r="B101" s="25"/>
     </row>
     <row r="102">
-      <c r="B102" s="20"/>
+      <c r="B102" s="25"/>
     </row>
     <row r="103">
-      <c r="B103" s="20"/>
+      <c r="B103" s="25"/>
     </row>
     <row r="104">
-      <c r="B104" s="20"/>
+      <c r="B104" s="25"/>
     </row>
     <row r="105">
-      <c r="B105" s="20"/>
+      <c r="B105" s="25"/>
     </row>
     <row r="106">
-      <c r="B106" s="20"/>
+      <c r="B106" s="25"/>
     </row>
     <row r="107">
-      <c r="B107" s="20"/>
+      <c r="B107" s="25"/>
     </row>
     <row r="108">
-      <c r="B108" s="20"/>
+      <c r="B108" s="25"/>
     </row>
     <row r="109">
-      <c r="B109" s="20"/>
+      <c r="B109" s="25"/>
     </row>
     <row r="110">
-      <c r="B110" s="20"/>
+      <c r="B110" s="25"/>
     </row>
     <row r="111">
-      <c r="B111" s="20"/>
+      <c r="B111" s="25"/>
     </row>
     <row r="112">
-      <c r="B112" s="20"/>
+      <c r="B112" s="25"/>
     </row>
     <row r="113">
-      <c r="B113" s="20"/>
+      <c r="B113" s="25"/>
     </row>
     <row r="114">
-      <c r="B114" s="20"/>
+      <c r="B114" s="25"/>
     </row>
     <row r="115">
-      <c r="B115" s="20"/>
+      <c r="B115" s="25"/>
     </row>
     <row r="116">
-      <c r="B116" s="20"/>
+      <c r="B116" s="25"/>
     </row>
     <row r="117">
-      <c r="B117" s="20"/>
+      <c r="B117" s="25"/>
     </row>
     <row r="118">
-      <c r="B118" s="20"/>
+      <c r="B118" s="25"/>
     </row>
     <row r="119">
-      <c r="B119" s="20"/>
+      <c r="B119" s="25"/>
     </row>
     <row r="120">
-      <c r="B120" s="20"/>
+      <c r="B120" s="25"/>
     </row>
     <row r="121">
-      <c r="B121" s="20"/>
+      <c r="B121" s="25"/>
     </row>
     <row r="122">
-      <c r="B122" s="20"/>
+      <c r="B122" s="25"/>
     </row>
     <row r="123">
-      <c r="B123" s="20"/>
+      <c r="B123" s="25"/>
     </row>
     <row r="124">
-      <c r="B124" s="20"/>
+      <c r="B124" s="25"/>
     </row>
     <row r="125">
-      <c r="B125" s="20"/>
+      <c r="B125" s="25"/>
     </row>
     <row r="126">
-      <c r="B126" s="20"/>
+      <c r="B126" s="25"/>
     </row>
     <row r="127">
-      <c r="B127" s="20"/>
+      <c r="B127" s="25"/>
     </row>
     <row r="128">
-      <c r="B128" s="20"/>
+      <c r="B128" s="25"/>
     </row>
     <row r="129">
-      <c r="B129" s="20"/>
+      <c r="B129" s="25"/>
     </row>
     <row r="130">
-      <c r="B130" s="20"/>
+      <c r="B130" s="25"/>
     </row>
     <row r="131">
-      <c r="B131" s="20"/>
+      <c r="B131" s="25"/>
     </row>
     <row r="132">
-      <c r="B132" s="20"/>
+      <c r="B132" s="25"/>
     </row>
     <row r="133">
-      <c r="B133" s="20"/>
+      <c r="B133" s="25"/>
     </row>
     <row r="134">
-      <c r="B134" s="20"/>
+      <c r="B134" s="25"/>
     </row>
     <row r="135">
-      <c r="B135" s="20"/>
+      <c r="B135" s="25"/>
     </row>
     <row r="136">
-      <c r="B136" s="20"/>
+      <c r="B136" s="25"/>
     </row>
     <row r="137">
-      <c r="B137" s="20"/>
+      <c r="B137" s="25"/>
     </row>
     <row r="138">
-      <c r="B138" s="20"/>
+      <c r="B138" s="25"/>
     </row>
     <row r="139">
-      <c r="B139" s="20"/>
+      <c r="B139" s="25"/>
     </row>
     <row r="140">
-      <c r="B140" s="20"/>
+      <c r="B140" s="25"/>
     </row>
     <row r="141">
-      <c r="B141" s="20"/>
+      <c r="B141" s="25"/>
     </row>
     <row r="142">
-      <c r="B142" s="20"/>
+      <c r="B142" s="25"/>
     </row>
     <row r="143">
-      <c r="B143" s="20"/>
+      <c r="B143" s="25"/>
     </row>
     <row r="144">
-      <c r="B144" s="20"/>
+      <c r="B144" s="25"/>
     </row>
     <row r="145">
-      <c r="B145" s="20"/>
+      <c r="B145" s="25"/>
     </row>
     <row r="146">
-      <c r="B146" s="20"/>
+      <c r="B146" s="25"/>
     </row>
     <row r="147">
-      <c r="B147" s="20"/>
+      <c r="B147" s="25"/>
     </row>
     <row r="148">
-      <c r="B148" s="20"/>
+      <c r="B148" s="25"/>
     </row>
     <row r="149">
-      <c r="B149" s="20"/>
+      <c r="B149" s="25"/>
     </row>
     <row r="150">
-      <c r="B150" s="20"/>
+      <c r="B150" s="25"/>
     </row>
     <row r="151">
-      <c r="B151" s="20"/>
+      <c r="B151" s="25"/>
     </row>
     <row r="152">
-      <c r="B152" s="20"/>
+      <c r="B152" s="25"/>
     </row>
     <row r="153">
-      <c r="B153" s="20"/>
+      <c r="B153" s="25"/>
     </row>
     <row r="154">
-      <c r="B154" s="20"/>
+      <c r="B154" s="25"/>
     </row>
     <row r="155">
-      <c r="B155" s="20"/>
+      <c r="B155" s="25"/>
     </row>
     <row r="156">
-      <c r="B156" s="20"/>
+      <c r="B156" s="25"/>
     </row>
     <row r="157">
-      <c r="B157" s="20"/>
+      <c r="B157" s="25"/>
     </row>
     <row r="158">
-      <c r="B158" s="20"/>
+      <c r="B158" s="25"/>
     </row>
     <row r="159">
-      <c r="B159" s="20"/>
+      <c r="B159" s="25"/>
     </row>
     <row r="160">
-      <c r="B160" s="20"/>
+      <c r="B160" s="25"/>
     </row>
     <row r="161">
-      <c r="B161" s="20"/>
+      <c r="B161" s="25"/>
     </row>
     <row r="162">
-      <c r="B162" s="20"/>
+      <c r="B162" s="25"/>
     </row>
     <row r="163">
-      <c r="B163" s="20"/>
+      <c r="B163" s="25"/>
     </row>
     <row r="164">
-      <c r="B164" s="20"/>
+      <c r="B164" s="25"/>
     </row>
     <row r="165">
-      <c r="B165" s="20"/>
+      <c r="B165" s="25"/>
     </row>
     <row r="166">
-      <c r="B166" s="20"/>
+      <c r="B166" s="25"/>
     </row>
     <row r="167">
-      <c r="B167" s="20"/>
+      <c r="B167" s="25"/>
     </row>
     <row r="168">
-      <c r="B168" s="20"/>
+      <c r="B168" s="25"/>
     </row>
     <row r="169">
-      <c r="B169" s="20"/>
+      <c r="B169" s="25"/>
     </row>
     <row r="170">
-      <c r="B170" s="20"/>
+      <c r="B170" s="25"/>
     </row>
     <row r="171">
-      <c r="B171" s="20"/>
+      <c r="B171" s="25"/>
     </row>
     <row r="172">
-      <c r="B172" s="20"/>
+      <c r="B172" s="25"/>
     </row>
     <row r="173">
-      <c r="B173" s="20"/>
+      <c r="B173" s="25"/>
     </row>
     <row r="174">
-      <c r="B174" s="20"/>
+      <c r="B174" s="25"/>
     </row>
     <row r="175">
-      <c r="B175" s="20"/>
+      <c r="B175" s="25"/>
     </row>
     <row r="176">
-      <c r="B176" s="20"/>
+      <c r="B176" s="25"/>
     </row>
     <row r="177">
-      <c r="B177" s="20"/>
+      <c r="B177" s="25"/>
     </row>
     <row r="178">
-      <c r="B178" s="20"/>
+      <c r="B178" s="25"/>
     </row>
     <row r="179">
-      <c r="B179" s="20"/>
+      <c r="B179" s="25"/>
     </row>
     <row r="180">
-      <c r="B180" s="20"/>
+      <c r="B180" s="25"/>
     </row>
     <row r="181">
-      <c r="B181" s="20"/>
+      <c r="B181" s="25"/>
     </row>
     <row r="182">
-      <c r="B182" s="20"/>
+      <c r="B182" s="25"/>
     </row>
     <row r="183">
-      <c r="B183" s="20"/>
+      <c r="B183" s="25"/>
     </row>
     <row r="184">
-      <c r="B184" s="20"/>
+      <c r="B184" s="25"/>
     </row>
     <row r="185">
-      <c r="B185" s="20"/>
+      <c r="B185" s="25"/>
     </row>
     <row r="186">
-      <c r="B186" s="20"/>
+      <c r="B186" s="25"/>
     </row>
     <row r="187">
-      <c r="B187" s="20"/>
+      <c r="B187" s="25"/>
     </row>
     <row r="188">
-      <c r="B188" s="20"/>
+      <c r="B188" s="25"/>
     </row>
     <row r="189">
-      <c r="B189" s="20"/>
+      <c r="B189" s="25"/>
     </row>
     <row r="190">
-      <c r="B190" s="20"/>
+      <c r="B190" s="25"/>
     </row>
     <row r="191">
-      <c r="B191" s="20"/>
+      <c r="B191" s="25"/>
     </row>
     <row r="192">
-      <c r="B192" s="20"/>
+      <c r="B192" s="25"/>
     </row>
     <row r="193">
-      <c r="B193" s="20"/>
+      <c r="B193" s="25"/>
     </row>
     <row r="194">
-      <c r="B194" s="20"/>
+      <c r="B194" s="25"/>
     </row>
     <row r="195">
-      <c r="B195" s="20"/>
+      <c r="B195" s="25"/>
     </row>
     <row r="196">
-      <c r="B196" s="20"/>
+      <c r="B196" s="25"/>
     </row>
     <row r="197">
-      <c r="B197" s="20"/>
+      <c r="B197" s="25"/>
     </row>
     <row r="198">
-      <c r="B198" s="20"/>
+      <c r="B198" s="25"/>
     </row>
     <row r="199">
-      <c r="B199" s="20"/>
+      <c r="B199" s="25"/>
     </row>
     <row r="200">
-      <c r="B200" s="20"/>
+      <c r="B200" s="25"/>
     </row>
     <row r="201">
-      <c r="B201" s="20"/>
+      <c r="B201" s="25"/>
     </row>
     <row r="202">
-      <c r="B202" s="20"/>
+      <c r="B202" s="25"/>
     </row>
     <row r="203">
-      <c r="B203" s="20"/>
+      <c r="B203" s="25"/>
     </row>
     <row r="204">
-      <c r="B204" s="20"/>
+      <c r="B204" s="25"/>
     </row>
     <row r="205">
-      <c r="B205" s="20"/>
+      <c r="B205" s="25"/>
     </row>
     <row r="206">
-      <c r="B206" s="20"/>
+      <c r="B206" s="25"/>
     </row>
     <row r="207">
-      <c r="B207" s="20"/>
+      <c r="B207" s="25"/>
     </row>
     <row r="208">
-      <c r="B208" s="20"/>
+      <c r="B208" s="25"/>
     </row>
     <row r="209">
-      <c r="B209" s="20"/>
+      <c r="B209" s="25"/>
     </row>
     <row r="210">
-      <c r="B210" s="20"/>
+      <c r="B210" s="25"/>
     </row>
     <row r="211">
-      <c r="B211" s="20"/>
+      <c r="B211" s="25"/>
     </row>
     <row r="212">
-      <c r="B212" s="20"/>
+      <c r="B212" s="25"/>
     </row>
     <row r="213">
-      <c r="B213" s="20"/>
+      <c r="B213" s="25"/>
     </row>
     <row r="214">
-      <c r="B214" s="20"/>
+      <c r="B214" s="25"/>
     </row>
     <row r="215">
-      <c r="B215" s="20"/>
+      <c r="B215" s="25"/>
     </row>
     <row r="216">
-      <c r="B216" s="20"/>
+      <c r="B216" s="25"/>
     </row>
     <row r="217">
-      <c r="B217" s="20"/>
+      <c r="B217" s="25"/>
     </row>
     <row r="218">
-      <c r="B218" s="20"/>
+      <c r="B218" s="25"/>
     </row>
     <row r="219">
-      <c r="B219" s="20"/>
+      <c r="B219" s="25"/>
     </row>
     <row r="220">
-      <c r="B220" s="20"/>
+      <c r="B220" s="25"/>
     </row>
     <row r="221">
-      <c r="B221" s="20"/>
+      <c r="B221" s="25"/>
     </row>
     <row r="222">
-      <c r="B222" s="20"/>
+      <c r="B222" s="25"/>
     </row>
     <row r="223">
-      <c r="B223" s="20"/>
+      <c r="B223" s="25"/>
     </row>
     <row r="224">
-      <c r="B224" s="20"/>
+      <c r="B224" s="25"/>
     </row>
     <row r="225">
-      <c r="B225" s="20"/>
+      <c r="B225" s="25"/>
     </row>
     <row r="226">
-      <c r="B226" s="20"/>
+      <c r="B226" s="25"/>
     </row>
     <row r="227">
-      <c r="B227" s="20"/>
+      <c r="B227" s="25"/>
     </row>
     <row r="228">
-      <c r="B228" s="20"/>
+      <c r="B228" s="25"/>
     </row>
     <row r="229">
-      <c r="B229" s="20"/>
+      <c r="B229" s="25"/>
     </row>
     <row r="230">
-      <c r="B230" s="20"/>
+      <c r="B230" s="25"/>
     </row>
     <row r="231">
-      <c r="B231" s="20"/>
+      <c r="B231" s="25"/>
     </row>
     <row r="232">
-      <c r="B232" s="20"/>
+      <c r="B232" s="25"/>
     </row>
     <row r="233">
-      <c r="B233" s="20"/>
+      <c r="B233" s="25"/>
     </row>
     <row r="234">
-      <c r="B234" s="20"/>
+      <c r="B234" s="25"/>
     </row>
     <row r="235">
-      <c r="B235" s="20"/>
+      <c r="B235" s="25"/>
     </row>
     <row r="236">
-      <c r="B236" s="20"/>
+      <c r="B236" s="25"/>
     </row>
     <row r="237">
-      <c r="B237" s="20"/>
+      <c r="B237" s="25"/>
     </row>
     <row r="238">
-      <c r="B238" s="20"/>
+      <c r="B238" s="25"/>
     </row>
     <row r="239">
-      <c r="B239" s="20"/>
+      <c r="B239" s="25"/>
     </row>
     <row r="240">
-      <c r="B240" s="20"/>
+      <c r="B240" s="25"/>
     </row>
     <row r="241">
-      <c r="B241" s="20"/>
+      <c r="B241" s="25"/>
     </row>
     <row r="242">
-      <c r="B242" s="20"/>
+      <c r="B242" s="25"/>
     </row>
     <row r="243">
-      <c r="B243" s="20"/>
+      <c r="B243" s="25"/>
     </row>
     <row r="244">
-      <c r="B244" s="20"/>
+      <c r="B244" s="25"/>
     </row>
     <row r="245">
-      <c r="B245" s="20"/>
+      <c r="B245" s="25"/>
     </row>
     <row r="246">
-      <c r="B246" s="20"/>
+      <c r="B246" s="25"/>
     </row>
     <row r="247">
-      <c r="B247" s="20"/>
+      <c r="B247" s="25"/>
     </row>
     <row r="248">
-      <c r="B248" s="20"/>
+      <c r="B248" s="25"/>
     </row>
     <row r="249">
-      <c r="B249" s="20"/>
+      <c r="B249" s="25"/>
     </row>
     <row r="250">
-      <c r="B250" s="20"/>
+      <c r="B250" s="25"/>
     </row>
     <row r="251">
-      <c r="B251" s="20"/>
+      <c r="B251" s="25"/>
     </row>
     <row r="252">
-      <c r="B252" s="20"/>
+      <c r="B252" s="25"/>
     </row>
     <row r="253">
-      <c r="B253" s="20"/>
+      <c r="B253" s="25"/>
     </row>
     <row r="254">
-      <c r="B254" s="20"/>
+      <c r="B254" s="25"/>
     </row>
     <row r="255">
-      <c r="B255" s="20"/>
+      <c r="B255" s="25"/>
     </row>
     <row r="256">
-      <c r="B256" s="20"/>
+      <c r="B256" s="25"/>
     </row>
     <row r="257">
-      <c r="B257" s="20"/>
+      <c r="B257" s="25"/>
     </row>
     <row r="258">
-      <c r="B258" s="20"/>
+      <c r="B258" s="25"/>
     </row>
     <row r="259">
-      <c r="B259" s="20"/>
+      <c r="B259" s="25"/>
     </row>
     <row r="260">
-      <c r="B260" s="20"/>
+      <c r="B260" s="25"/>
     </row>
     <row r="261">
-      <c r="B261" s="20"/>
+      <c r="B261" s="25"/>
     </row>
     <row r="262">
-      <c r="B262" s="20"/>
+      <c r="B262" s="25"/>
     </row>
     <row r="263">
-      <c r="B263" s="20"/>
+      <c r="B263" s="25"/>
     </row>
     <row r="264">
-      <c r="B264" s="20"/>
+      <c r="B264" s="25"/>
     </row>
     <row r="265">
-      <c r="B265" s="20"/>
+      <c r="B265" s="25"/>
     </row>
     <row r="266">
-      <c r="B266" s="20"/>
+      <c r="B266" s="25"/>
     </row>
     <row r="267">
-      <c r="B267" s="20"/>
+      <c r="B267" s="25"/>
     </row>
     <row r="268">
-      <c r="B268" s="20"/>
+      <c r="B268" s="25"/>
     </row>
     <row r="269">
-      <c r="B269" s="20"/>
+      <c r="B269" s="25"/>
     </row>
     <row r="270">
-      <c r="B270" s="20"/>
+      <c r="B270" s="25"/>
     </row>
     <row r="271">
-      <c r="B271" s="20"/>
+      <c r="B271" s="25"/>
     </row>
     <row r="272">
-      <c r="B272" s="20"/>
+      <c r="B272" s="25"/>
     </row>
     <row r="273">
-      <c r="B273" s="20"/>
+      <c r="B273" s="25"/>
     </row>
     <row r="274">
-      <c r="B274" s="20"/>
+      <c r="B274" s="25"/>
     </row>
     <row r="275">
-      <c r="B275" s="20"/>
+      <c r="B275" s="25"/>
     </row>
     <row r="276">
-      <c r="B276" s="20"/>
+      <c r="B276" s="25"/>
     </row>
     <row r="277">
-      <c r="B277" s="20"/>
+      <c r="B277" s="25"/>
     </row>
     <row r="278">
-      <c r="B278" s="20"/>
+      <c r="B278" s="25"/>
     </row>
     <row r="279">
-      <c r="B279" s="20"/>
+      <c r="B279" s="25"/>
     </row>
     <row r="280">
-      <c r="B280" s="20"/>
+      <c r="B280" s="25"/>
     </row>
     <row r="281">
-      <c r="B281" s="20"/>
+      <c r="B281" s="25"/>
     </row>
     <row r="282">
-      <c r="B282" s="20"/>
+      <c r="B282" s="25"/>
     </row>
     <row r="283">
-      <c r="B283" s="20"/>
+      <c r="B283" s="25"/>
     </row>
     <row r="284">
-      <c r="B284" s="20"/>
+      <c r="B284" s="25"/>
     </row>
     <row r="285">
-      <c r="B285" s="20"/>
+      <c r="B285" s="25"/>
     </row>
     <row r="286">
-      <c r="B286" s="20"/>
+      <c r="B286" s="25"/>
     </row>
     <row r="287">
-      <c r="B287" s="20"/>
+      <c r="B287" s="25"/>
     </row>
     <row r="288">
-      <c r="B288" s="20"/>
+      <c r="B288" s="25"/>
     </row>
     <row r="289">
-      <c r="B289" s="20"/>
+      <c r="B289" s="25"/>
     </row>
     <row r="290">
-      <c r="B290" s="20"/>
+      <c r="B290" s="25"/>
     </row>
     <row r="291">
-      <c r="B291" s="20"/>
+      <c r="B291" s="25"/>
     </row>
     <row r="292">
-      <c r="B292" s="20"/>
+      <c r="B292" s="25"/>
     </row>
     <row r="293">
-      <c r="B293" s="20"/>
+      <c r="B293" s="25"/>
     </row>
     <row r="294">
-      <c r="B294" s="20"/>
+      <c r="B294" s="25"/>
     </row>
     <row r="295">
-      <c r="B295" s="20"/>
+      <c r="B295" s="25"/>
     </row>
     <row r="296">
-      <c r="B296" s="20"/>
+      <c r="B296" s="25"/>
     </row>
     <row r="297">
-      <c r="B297" s="20"/>
+      <c r="B297" s="25"/>
     </row>
     <row r="298">
-      <c r="B298" s="20"/>
+      <c r="B298" s="25"/>
     </row>
     <row r="299">
-      <c r="B299" s="20"/>
+      <c r="B299" s="25"/>
     </row>
     <row r="300">
-      <c r="B300" s="20"/>
+      <c r="B300" s="25"/>
     </row>
     <row r="301">
-      <c r="B301" s="20"/>
+      <c r="B301" s="25"/>
     </row>
     <row r="302">
-      <c r="B302" s="20"/>
+      <c r="B302" s="25"/>
     </row>
     <row r="303">
-      <c r="B303" s="20"/>
+      <c r="B303" s="25"/>
     </row>
     <row r="304">
-      <c r="B304" s="20"/>
+      <c r="B304" s="25"/>
     </row>
     <row r="305">
-      <c r="B305" s="20"/>
+      <c r="B305" s="25"/>
     </row>
     <row r="306">
-      <c r="B306" s="20"/>
+      <c r="B306" s="25"/>
     </row>
     <row r="307">
-      <c r="B307" s="20"/>
+      <c r="B307" s="25"/>
     </row>
     <row r="308">
-      <c r="B308" s="20"/>
+      <c r="B308" s="25"/>
     </row>
     <row r="309">
-      <c r="B309" s="20"/>
+      <c r="B309" s="25"/>
     </row>
     <row r="310">
-      <c r="B310" s="20"/>
+      <c r="B310" s="25"/>
     </row>
     <row r="311">
-      <c r="B311" s="20"/>
+      <c r="B311" s="25"/>
     </row>
     <row r="312">
-      <c r="B312" s="20"/>
+      <c r="B312" s="25"/>
     </row>
     <row r="313">
-      <c r="B313" s="20"/>
+      <c r="B313" s="25"/>
     </row>
     <row r="314">
-      <c r="B314" s="20"/>
+      <c r="B314" s="25"/>
     </row>
     <row r="315">
-      <c r="B315" s="20"/>
+      <c r="B315" s="25"/>
     </row>
     <row r="316">
-      <c r="B316" s="20"/>
+      <c r="B316" s="25"/>
     </row>
     <row r="317">
-      <c r="B317" s="20"/>
+      <c r="B317" s="25"/>
     </row>
     <row r="318">
-      <c r="B318" s="20"/>
+      <c r="B318" s="25"/>
     </row>
     <row r="319">
-      <c r="B319" s="20"/>
+      <c r="B319" s="25"/>
     </row>
     <row r="320">
-      <c r="B320" s="20"/>
+      <c r="B320" s="25"/>
     </row>
     <row r="321">
-      <c r="B321" s="20"/>
+      <c r="B321" s="25"/>
     </row>
     <row r="322">
-      <c r="B322" s="20"/>
+      <c r="B322" s="25"/>
     </row>
     <row r="323">
-      <c r="B323" s="20"/>
+      <c r="B323" s="25"/>
     </row>
     <row r="324">
-      <c r="B324" s="20"/>
+      <c r="B324" s="25"/>
     </row>
     <row r="325">
-      <c r="B325" s="20"/>
+      <c r="B325" s="25"/>
     </row>
     <row r="326">
-      <c r="B326" s="20"/>
+      <c r="B326" s="25"/>
     </row>
     <row r="327">
-      <c r="B327" s="20"/>
+      <c r="B327" s="25"/>
     </row>
     <row r="328">
-      <c r="B328" s="20"/>
+      <c r="B328" s="25"/>
     </row>
     <row r="329">
-      <c r="B329" s="20"/>
+      <c r="B329" s="25"/>
     </row>
     <row r="330">
-      <c r="B330" s="20"/>
+      <c r="B330" s="25"/>
     </row>
     <row r="331">
-      <c r="B331" s="20"/>
+      <c r="B331" s="25"/>
     </row>
     <row r="332">
-      <c r="B332" s="20"/>
+      <c r="B332" s="25"/>
     </row>
     <row r="333">
-      <c r="B333" s="20"/>
+      <c r="B333" s="25"/>
     </row>
     <row r="334">
-      <c r="B334" s="20"/>
+      <c r="B334" s="25"/>
     </row>
     <row r="335">
-      <c r="B335" s="20"/>
+      <c r="B335" s="25"/>
     </row>
     <row r="336">
-      <c r="B336" s="20"/>
+      <c r="B336" s="25"/>
     </row>
     <row r="337">
-      <c r="B337" s="20"/>
+      <c r="B337" s="25"/>
     </row>
     <row r="338">
-      <c r="B338" s="20"/>
+      <c r="B338" s="25"/>
     </row>
     <row r="339">
-      <c r="B339" s="20"/>
+      <c r="B339" s="25"/>
     </row>
     <row r="340">
-      <c r="B340" s="20"/>
+      <c r="B340" s="25"/>
     </row>
     <row r="341">
-      <c r="B341" s="20"/>
+      <c r="B341" s="25"/>
     </row>
     <row r="342">
-      <c r="B342" s="20"/>
+      <c r="B342" s="25"/>
     </row>
     <row r="343">
-      <c r="B343" s="20"/>
+      <c r="B343" s="25"/>
     </row>
     <row r="344">
-      <c r="B344" s="20"/>
+      <c r="B344" s="25"/>
     </row>
     <row r="345">
-      <c r="B345" s="20"/>
+      <c r="B345" s="25"/>
     </row>
     <row r="346">
-      <c r="B346" s="20"/>
+      <c r="B346" s="25"/>
     </row>
     <row r="347">
-      <c r="B347" s="20"/>
+      <c r="B347" s="25"/>
     </row>
     <row r="348">
-      <c r="B348" s="20"/>
+      <c r="B348" s="25"/>
     </row>
     <row r="349">
-      <c r="B349" s="20"/>
+      <c r="B349" s="25"/>
     </row>
     <row r="350">
-      <c r="B350" s="20"/>
+      <c r="B350" s="25"/>
     </row>
     <row r="351">
-      <c r="B351" s="20"/>
+      <c r="B351" s="25"/>
     </row>
     <row r="352">
-      <c r="B352" s="20"/>
+      <c r="B352" s="25"/>
     </row>
     <row r="353">
-      <c r="B353" s="20"/>
+      <c r="B353" s="25"/>
     </row>
     <row r="354">
-      <c r="B354" s="20"/>
+      <c r="B354" s="25"/>
     </row>
     <row r="355">
-      <c r="B355" s="20"/>
+      <c r="B355" s="25"/>
     </row>
     <row r="356">
-      <c r="B356" s="20"/>
+      <c r="B356" s="25"/>
     </row>
     <row r="357">
-      <c r="B357" s="20"/>
+      <c r="B357" s="25"/>
     </row>
     <row r="358">
-      <c r="B358" s="20"/>
+      <c r="B358" s="25"/>
     </row>
     <row r="359">
-      <c r="B359" s="20"/>
+      <c r="B359" s="25"/>
     </row>
     <row r="360">
-      <c r="B360" s="20"/>
+      <c r="B360" s="25"/>
     </row>
     <row r="361">
-      <c r="B361" s="20"/>
+      <c r="B361" s="25"/>
     </row>
     <row r="362">
-      <c r="B362" s="20"/>
+      <c r="B362" s="25"/>
     </row>
     <row r="363">
-      <c r="B363" s="20"/>
+      <c r="B363" s="25"/>
     </row>
     <row r="364">
-      <c r="B364" s="20"/>
+      <c r="B364" s="25"/>
     </row>
     <row r="365">
-      <c r="B365" s="20"/>
+      <c r="B365" s="25"/>
     </row>
     <row r="366">
-      <c r="B366" s="20"/>
+      <c r="B366" s="25"/>
     </row>
     <row r="367">
-      <c r="B367" s="20"/>
+      <c r="B367" s="25"/>
     </row>
     <row r="368">
-      <c r="B368" s="20"/>
+      <c r="B368" s="25"/>
     </row>
     <row r="369">
-      <c r="B369" s="20"/>
+      <c r="B369" s="25"/>
     </row>
     <row r="370">
-      <c r="B370" s="20"/>
+      <c r="B370" s="25"/>
     </row>
     <row r="371">
-      <c r="B371" s="20"/>
+      <c r="B371" s="25"/>
     </row>
     <row r="372">
-      <c r="B372" s="20"/>
+      <c r="B372" s="25"/>
     </row>
     <row r="373">
-      <c r="B373" s="20"/>
+      <c r="B373" s="25"/>
     </row>
     <row r="374">
-      <c r="B374" s="20"/>
+      <c r="B374" s="25"/>
     </row>
     <row r="375">
-      <c r="B375" s="20"/>
+      <c r="B375" s="25"/>
     </row>
     <row r="376">
-      <c r="B376" s="20"/>
+      <c r="B376" s="25"/>
     </row>
     <row r="377">
-      <c r="B377" s="20"/>
+      <c r="B377" s="25"/>
     </row>
     <row r="378">
-      <c r="B378" s="20"/>
+      <c r="B378" s="25"/>
     </row>
     <row r="379">
-      <c r="B379" s="20"/>
+      <c r="B379" s="25"/>
     </row>
     <row r="380">
-      <c r="B380" s="20"/>
+      <c r="B380" s="25"/>
     </row>
     <row r="381">
-      <c r="B381" s="20"/>
+      <c r="B381" s="25"/>
     </row>
     <row r="382">
-      <c r="B382" s="20"/>
+      <c r="B382" s="25"/>
     </row>
     <row r="383">
-      <c r="B383" s="20"/>
+      <c r="B383" s="25"/>
     </row>
     <row r="384">
-      <c r="B384" s="20"/>
+      <c r="B384" s="25"/>
     </row>
     <row r="385">
-      <c r="B385" s="20"/>
+      <c r="B385" s="25"/>
     </row>
     <row r="386">
-      <c r="B386" s="20"/>
+      <c r="B386" s="25"/>
     </row>
     <row r="387">
-      <c r="B387" s="20"/>
+      <c r="B387" s="25"/>
     </row>
     <row r="388">
-      <c r="B388" s="20"/>
+      <c r="B388" s="25"/>
     </row>
     <row r="389">
-      <c r="B389" s="20"/>
+      <c r="B389" s="25"/>
     </row>
     <row r="390">
-      <c r="B390" s="20"/>
+      <c r="B390" s="25"/>
     </row>
     <row r="391">
-      <c r="B391" s="20"/>
+      <c r="B391" s="25"/>
     </row>
     <row r="392">
-      <c r="B392" s="20"/>
+      <c r="B392" s="25"/>
     </row>
     <row r="393">
-      <c r="B393" s="20"/>
+      <c r="B393" s="25"/>
     </row>
     <row r="394">
-      <c r="B394" s="20"/>
+      <c r="B394" s="25"/>
     </row>
     <row r="395">
-      <c r="B395" s="20"/>
+      <c r="B395" s="25"/>
     </row>
     <row r="396">
-      <c r="B396" s="20"/>
+      <c r="B396" s="25"/>
     </row>
     <row r="397">
-      <c r="B397" s="20"/>
+      <c r="B397" s="25"/>
     </row>
     <row r="398">
-      <c r="B398" s="20"/>
+      <c r="B398" s="25"/>
     </row>
     <row r="399">
-      <c r="B399" s="20"/>
+      <c r="B399" s="25"/>
     </row>
     <row r="400">
-      <c r="B400" s="20"/>
+      <c r="B400" s="25"/>
     </row>
     <row r="401">
-      <c r="B401" s="20"/>
+      <c r="B401" s="25"/>
     </row>
     <row r="402">
-      <c r="B402" s="20"/>
+      <c r="B402" s="25"/>
     </row>
     <row r="403">
-      <c r="B403" s="20"/>
+      <c r="B403" s="25"/>
     </row>
     <row r="404">
-      <c r="B404" s="20"/>
+      <c r="B404" s="25"/>
     </row>
     <row r="405">
-      <c r="B405" s="20"/>
+      <c r="B405" s="25"/>
     </row>
     <row r="406">
-      <c r="B406" s="20"/>
+      <c r="B406" s="25"/>
     </row>
     <row r="407">
-      <c r="B407" s="20"/>
+      <c r="B407" s="25"/>
     </row>
     <row r="408">
-      <c r="B408" s="20"/>
+      <c r="B408" s="25"/>
     </row>
     <row r="409">
-      <c r="B409" s="20"/>
+      <c r="B409" s="25"/>
     </row>
     <row r="410">
-      <c r="B410" s="20"/>
+      <c r="B410" s="25"/>
     </row>
     <row r="411">
-      <c r="B411" s="20"/>
+      <c r="B411" s="25"/>
     </row>
     <row r="412">
-      <c r="B412" s="20"/>
+      <c r="B412" s="25"/>
     </row>
     <row r="413">
-      <c r="B413" s="20"/>
+      <c r="B413" s="25"/>
     </row>
     <row r="414">
-      <c r="B414" s="20"/>
+      <c r="B414" s="25"/>
     </row>
     <row r="415">
-      <c r="B415" s="20"/>
+      <c r="B415" s="25"/>
     </row>
     <row r="416">
-      <c r="B416" s="20"/>
+      <c r="B416" s="25"/>
     </row>
     <row r="417">
-      <c r="B417" s="20"/>
+      <c r="B417" s="25"/>
     </row>
     <row r="418">
-      <c r="B418" s="20"/>
+      <c r="B418" s="25"/>
     </row>
     <row r="419">
-      <c r="B419" s="20"/>
+      <c r="B419" s="25"/>
     </row>
     <row r="420">
-      <c r="B420" s="20"/>
+      <c r="B420" s="25"/>
     </row>
     <row r="421">
-      <c r="B421" s="20"/>
+      <c r="B421" s="25"/>
     </row>
     <row r="422">
-      <c r="B422" s="20"/>
+      <c r="B422" s="25"/>
     </row>
     <row r="423">
-      <c r="B423" s="20"/>
+      <c r="B423" s="25"/>
     </row>
     <row r="424">
-      <c r="B424" s="20"/>
+      <c r="B424" s="25"/>
     </row>
     <row r="425">
-      <c r="B425" s="20"/>
+      <c r="B425" s="25"/>
     </row>
     <row r="426">
-      <c r="B426" s="20"/>
+      <c r="B426" s="25"/>
     </row>
     <row r="427">
-      <c r="B427" s="20"/>
+      <c r="B427" s="25"/>
     </row>
     <row r="428">
-      <c r="B428" s="20"/>
+      <c r="B428" s="25"/>
     </row>
     <row r="429">
-      <c r="B429" s="20"/>
+      <c r="B429" s="25"/>
     </row>
     <row r="430">
-      <c r="B430" s="20"/>
+      <c r="B430" s="25"/>
     </row>
     <row r="431">
-      <c r="B431" s="20"/>
+      <c r="B431" s="25"/>
     </row>
     <row r="432">
-      <c r="B432" s="20"/>
+      <c r="B432" s="25"/>
     </row>
     <row r="433">
-      <c r="B433" s="20"/>
+      <c r="B433" s="25"/>
     </row>
     <row r="434">
-      <c r="B434" s="20"/>
+      <c r="B434" s="25"/>
     </row>
     <row r="435">
-      <c r="B435" s="20"/>
+      <c r="B435" s="25"/>
     </row>
     <row r="436">
-      <c r="B436" s="20"/>
+      <c r="B436" s="25"/>
     </row>
     <row r="437">
-      <c r="B437" s="20"/>
+      <c r="B437" s="25"/>
     </row>
     <row r="438">
-      <c r="B438" s="20"/>
+      <c r="B438" s="25"/>
     </row>
     <row r="439">
-      <c r="B439" s="20"/>
+      <c r="B439" s="25"/>
     </row>
     <row r="440">
-      <c r="B440" s="20"/>
+      <c r="B440" s="25"/>
     </row>
     <row r="441">
-      <c r="B441" s="20"/>
+      <c r="B441" s="25"/>
     </row>
     <row r="442">
-      <c r="B442" s="20"/>
+      <c r="B442" s="25"/>
     </row>
     <row r="443">
-      <c r="B443" s="20"/>
+      <c r="B443" s="25"/>
     </row>
     <row r="444">
-      <c r="B444" s="20"/>
+      <c r="B444" s="25"/>
     </row>
     <row r="445">
-      <c r="B445" s="20"/>
+      <c r="B445" s="25"/>
     </row>
     <row r="446">
-      <c r="B446" s="20"/>
+      <c r="B446" s="25"/>
     </row>
     <row r="447">
-      <c r="B447" s="20"/>
+      <c r="B447" s="25"/>
     </row>
     <row r="448">
-      <c r="B448" s="20"/>
+      <c r="B448" s="25"/>
     </row>
     <row r="449">
-      <c r="B449" s="20"/>
+      <c r="B449" s="25"/>
     </row>
     <row r="450">
-      <c r="B450" s="20"/>
+      <c r="B450" s="25"/>
     </row>
     <row r="451">
-      <c r="B451" s="20"/>
+      <c r="B451" s="25"/>
     </row>
     <row r="452">
-      <c r="B452" s="20"/>
+      <c r="B452" s="25"/>
     </row>
     <row r="453">
-      <c r="B453" s="20"/>
+      <c r="B453" s="25"/>
     </row>
     <row r="454">
-      <c r="B454" s="20"/>
+      <c r="B454" s="25"/>
     </row>
     <row r="455">
-      <c r="B455" s="20"/>
+      <c r="B455" s="25"/>
     </row>
     <row r="456">
-      <c r="B456" s="20"/>
+      <c r="B456" s="25"/>
     </row>
     <row r="457">
-      <c r="B457" s="20"/>
+      <c r="B457" s="25"/>
     </row>
     <row r="458">
-      <c r="B458" s="20"/>
+      <c r="B458" s="25"/>
     </row>
     <row r="459">
-      <c r="B459" s="20"/>
+      <c r="B459" s="25"/>
     </row>
     <row r="460">
-      <c r="B460" s="20"/>
+      <c r="B460" s="25"/>
     </row>
     <row r="461">
-      <c r="B461" s="20"/>
+      <c r="B461" s="25"/>
     </row>
     <row r="462">
-      <c r="B462" s="20"/>
+      <c r="B462" s="25"/>
     </row>
     <row r="463">
-      <c r="B463" s="20"/>
+      <c r="B463" s="25"/>
     </row>
     <row r="464">
-      <c r="B464" s="20"/>
+      <c r="B464" s="25"/>
     </row>
     <row r="465">
-      <c r="B465" s="20"/>
+      <c r="B465" s="25"/>
     </row>
     <row r="466">
-      <c r="B466" s="20"/>
+      <c r="B466" s="25"/>
     </row>
     <row r="467">
-      <c r="B467" s="20"/>
+      <c r="B467" s="25"/>
     </row>
     <row r="468">
-      <c r="B468" s="20"/>
+      <c r="B468" s="25"/>
     </row>
     <row r="469">
-      <c r="B469" s="20"/>
+      <c r="B469" s="25"/>
     </row>
     <row r="470">
-      <c r="B470" s="20"/>
+      <c r="B470" s="25"/>
     </row>
     <row r="471">
-      <c r="B471" s="20"/>
+      <c r="B471" s="25"/>
     </row>
     <row r="472">
-      <c r="B472" s="20"/>
+      <c r="B472" s="25"/>
     </row>
     <row r="473">
-      <c r="B473" s="20"/>
+      <c r="B473" s="25"/>
     </row>
     <row r="474">
-      <c r="B474" s="20"/>
+      <c r="B474" s="25"/>
     </row>
     <row r="475">
-      <c r="B475" s="20"/>
+      <c r="B475" s="25"/>
     </row>
     <row r="476">
-      <c r="B476" s="20"/>
+      <c r="B476" s="25"/>
     </row>
     <row r="477">
-      <c r="B477" s="20"/>
+      <c r="B477" s="25"/>
     </row>
     <row r="478">
-      <c r="B478" s="20"/>
+      <c r="B478" s="25"/>
     </row>
     <row r="479">
-      <c r="B479" s="20"/>
+      <c r="B479" s="25"/>
     </row>
     <row r="480">
-      <c r="B480" s="20"/>
+      <c r="B480" s="25"/>
     </row>
     <row r="481">
-      <c r="B481" s="20"/>
+      <c r="B481" s="25"/>
     </row>
     <row r="482">
-      <c r="B482" s="20"/>
+      <c r="B482" s="25"/>
     </row>
     <row r="483">
-      <c r="B483" s="20"/>
+      <c r="B483" s="25"/>
     </row>
     <row r="484">
-      <c r="B484" s="20"/>
+      <c r="B484" s="25"/>
     </row>
     <row r="485">
-      <c r="B485" s="20"/>
+      <c r="B485" s="25"/>
     </row>
     <row r="486">
-      <c r="B486" s="20"/>
+      <c r="B486" s="25"/>
     </row>
     <row r="487">
-      <c r="B487" s="20"/>
+      <c r="B487" s="25"/>
     </row>
     <row r="488">
-      <c r="B488" s="20"/>
+      <c r="B488" s="25"/>
     </row>
     <row r="489">
-      <c r="B489" s="20"/>
+      <c r="B489" s="25"/>
     </row>
     <row r="490">
-      <c r="B490" s="20"/>
+      <c r="B490" s="25"/>
     </row>
     <row r="491">
-      <c r="B491" s="20"/>
+      <c r="B491" s="25"/>
     </row>
     <row r="492">
-      <c r="B492" s="20"/>
+      <c r="B492" s="25"/>
     </row>
     <row r="493">
-      <c r="B493" s="20"/>
+      <c r="B493" s="25"/>
     </row>
     <row r="494">
-      <c r="B494" s="20"/>
+      <c r="B494" s="25"/>
     </row>
     <row r="495">
-      <c r="B495" s="20"/>
+      <c r="B495" s="25"/>
     </row>
     <row r="496">
-      <c r="B496" s="20"/>
+      <c r="B496" s="25"/>
     </row>
     <row r="497">
-      <c r="B497" s="20"/>
+      <c r="B497" s="25"/>
     </row>
     <row r="498">
-      <c r="B498" s="20"/>
+      <c r="B498" s="25"/>
     </row>
     <row r="499">
-      <c r="B499" s="20"/>
+      <c r="B499" s="25"/>
     </row>
     <row r="500">
-      <c r="B500" s="20"/>
+      <c r="B500" s="25"/>
     </row>
     <row r="501">
-      <c r="B501" s="20"/>
+      <c r="B501" s="25"/>
     </row>
     <row r="502">
-      <c r="B502" s="20"/>
+      <c r="B502" s="25"/>
     </row>
     <row r="503">
-      <c r="B503" s="20"/>
+      <c r="B503" s="25"/>
     </row>
     <row r="504">
-      <c r="B504" s="20"/>
+      <c r="B504" s="25"/>
     </row>
     <row r="505">
-      <c r="B505" s="20"/>
+      <c r="B505" s="25"/>
     </row>
     <row r="506">
-      <c r="B506" s="20"/>
+      <c r="B506" s="25"/>
     </row>
     <row r="507">
-      <c r="B507" s="20"/>
+      <c r="B507" s="25"/>
     </row>
     <row r="508">
-      <c r="B508" s="20"/>
+      <c r="B508" s="25"/>
     </row>
     <row r="509">
-      <c r="B509" s="20"/>
+      <c r="B509" s="25"/>
     </row>
     <row r="510">
-      <c r="B510" s="20"/>
+      <c r="B510" s="25"/>
     </row>
     <row r="511">
-      <c r="B511" s="20"/>
+      <c r="B511" s="25"/>
     </row>
     <row r="512">
-      <c r="B512" s="20"/>
+      <c r="B512" s="25"/>
     </row>
     <row r="513">
-      <c r="B513" s="20"/>
+      <c r="B513" s="25"/>
     </row>
     <row r="514">
-      <c r="B514" s="20"/>
+      <c r="B514" s="25"/>
     </row>
     <row r="515">
-      <c r="B515" s="20"/>
+      <c r="B515" s="25"/>
     </row>
     <row r="516">
-      <c r="B516" s="20"/>
+      <c r="B516" s="25"/>
     </row>
     <row r="517">
-      <c r="B517" s="20"/>
+      <c r="B517" s="25"/>
     </row>
     <row r="518">
-      <c r="B518" s="20"/>
+      <c r="B518" s="25"/>
     </row>
     <row r="519">
-      <c r="B519" s="20"/>
+      <c r="B519" s="25"/>
     </row>
     <row r="520">
-      <c r="B520" s="20"/>
+      <c r="B520" s="25"/>
     </row>
     <row r="521">
-      <c r="B521" s="20"/>
+      <c r="B521" s="25"/>
     </row>
     <row r="522">
-      <c r="B522" s="20"/>
+      <c r="B522" s="25"/>
     </row>
     <row r="523">
-      <c r="B523" s="20"/>
+      <c r="B523" s="25"/>
     </row>
     <row r="524">
-      <c r="B524" s="20"/>
+      <c r="B524" s="25"/>
     </row>
     <row r="525">
-      <c r="B525" s="20"/>
+      <c r="B525" s="25"/>
     </row>
     <row r="526">
-      <c r="B526" s="20"/>
+      <c r="B526" s="25"/>
     </row>
     <row r="527">
-      <c r="B527" s="20"/>
+      <c r="B527" s="25"/>
     </row>
     <row r="528">
-      <c r="B528" s="20"/>
+      <c r="B528" s="25"/>
     </row>
     <row r="529">
-      <c r="B529" s="20"/>
+      <c r="B529" s="25"/>
     </row>
     <row r="530">
-      <c r="B530" s="20"/>
+      <c r="B530" s="25"/>
     </row>
     <row r="531">
-      <c r="B531" s="20"/>
+      <c r="B531" s="25"/>
     </row>
     <row r="532">
-      <c r="B532" s="20"/>
+      <c r="B532" s="25"/>
     </row>
     <row r="533">
-      <c r="B533" s="20"/>
+      <c r="B533" s="25"/>
     </row>
     <row r="534">
-      <c r="B534" s="20"/>
+      <c r="B534" s="25"/>
     </row>
     <row r="535">
-      <c r="B535" s="20"/>
+      <c r="B535" s="25"/>
     </row>
     <row r="536">
-      <c r="B536" s="20"/>
+      <c r="B536" s="25"/>
     </row>
     <row r="537">
-      <c r="B537" s="20"/>
+      <c r="B537" s="25"/>
     </row>
     <row r="538">
-      <c r="B538" s="20"/>
+      <c r="B538" s="25"/>
     </row>
     <row r="539">
-      <c r="B539" s="20"/>
+      <c r="B539" s="25"/>
     </row>
     <row r="540">
-      <c r="B540" s="20"/>
+      <c r="B540" s="25"/>
     </row>
     <row r="541">
-      <c r="B541" s="20"/>
+      <c r="B541" s="25"/>
     </row>
     <row r="542">
-      <c r="B542" s="20"/>
+      <c r="B542" s="25"/>
     </row>
     <row r="543">
-      <c r="B543" s="20"/>
+      <c r="B543" s="25"/>
     </row>
     <row r="544">
-      <c r="B544" s="20"/>
+      <c r="B544" s="25"/>
     </row>
     <row r="545">
-      <c r="B545" s="20"/>
+      <c r="B545" s="25"/>
     </row>
     <row r="546">
-      <c r="B546" s="20"/>
+      <c r="B546" s="25"/>
     </row>
     <row r="547">
-      <c r="B547" s="20"/>
+      <c r="B547" s="25"/>
     </row>
     <row r="548">
-      <c r="B548" s="20"/>
+      <c r="B548" s="25"/>
     </row>
     <row r="549">
-      <c r="B549" s="20"/>
+      <c r="B549" s="25"/>
     </row>
     <row r="550">
-      <c r="B550" s="20"/>
+      <c r="B550" s="25"/>
     </row>
     <row r="551">
-      <c r="B551" s="20"/>
+      <c r="B551" s="25"/>
     </row>
     <row r="552">
-      <c r="B552" s="20"/>
+      <c r="B552" s="25"/>
     </row>
     <row r="553">
-      <c r="B553" s="20"/>
+      <c r="B553" s="25"/>
     </row>
     <row r="554">
-      <c r="B554" s="20"/>
+      <c r="B554" s="25"/>
     </row>
     <row r="555">
-      <c r="B555" s="20"/>
+      <c r="B555" s="25"/>
     </row>
     <row r="556">
-      <c r="B556" s="20"/>
+      <c r="B556" s="25"/>
     </row>
     <row r="557">
-      <c r="B557" s="20"/>
+      <c r="B557" s="25"/>
     </row>
     <row r="558">
-      <c r="B558" s="20"/>
+      <c r="B558" s="25"/>
     </row>
     <row r="559">
-      <c r="B559" s="20"/>
+      <c r="B559" s="25"/>
     </row>
     <row r="560">
-      <c r="B560" s="20"/>
+      <c r="B560" s="25"/>
     </row>
     <row r="561">
-      <c r="B561" s="20"/>
+      <c r="B561" s="25"/>
     </row>
     <row r="562">
-      <c r="B562" s="20"/>
+      <c r="B562" s="25"/>
     </row>
     <row r="563">
-      <c r="B563" s="20"/>
+      <c r="B563" s="25"/>
     </row>
     <row r="564">
-      <c r="B564" s="20"/>
+      <c r="B564" s="25"/>
     </row>
     <row r="565">
-      <c r="B565" s="20"/>
+      <c r="B565" s="25"/>
     </row>
     <row r="566">
-      <c r="B566" s="20"/>
+      <c r="B566" s="25"/>
     </row>
     <row r="567">
-      <c r="B567" s="20"/>
+      <c r="B567" s="25"/>
     </row>
     <row r="568">
-      <c r="B568" s="20"/>
+      <c r="B568" s="25"/>
     </row>
     <row r="569">
-      <c r="B569" s="20"/>
+      <c r="B569" s="25"/>
     </row>
     <row r="570">
-      <c r="B570" s="20"/>
+      <c r="B570" s="25"/>
     </row>
     <row r="571">
-      <c r="B571" s="20"/>
+      <c r="B571" s="25"/>
     </row>
     <row r="572">
-      <c r="B572" s="20"/>
+      <c r="B572" s="25"/>
     </row>
     <row r="573">
-      <c r="B573" s="20"/>
+      <c r="B573" s="25"/>
     </row>
     <row r="574">
-      <c r="B574" s="20"/>
+      <c r="B574" s="25"/>
     </row>
     <row r="575">
-      <c r="B575" s="20"/>
+      <c r="B575" s="25"/>
     </row>
     <row r="576">
-      <c r="B576" s="20"/>
+      <c r="B576" s="25"/>
     </row>
     <row r="577">
-      <c r="B577" s="20"/>
+      <c r="B577" s="25"/>
     </row>
     <row r="578">
-      <c r="B578" s="20"/>
+      <c r="B578" s="25"/>
     </row>
     <row r="579">
-      <c r="B579" s="20"/>
+      <c r="B579" s="25"/>
     </row>
     <row r="580">
-      <c r="B580" s="20"/>
+      <c r="B580" s="25"/>
     </row>
     <row r="581">
-      <c r="B581" s="20"/>
+      <c r="B581" s="25"/>
     </row>
     <row r="582">
-      <c r="B582" s="20"/>
+      <c r="B582" s="25"/>
     </row>
     <row r="583">
-      <c r="B583" s="20"/>
+      <c r="B583" s="25"/>
     </row>
     <row r="584">
-      <c r="B584" s="20"/>
+      <c r="B584" s="25"/>
     </row>
     <row r="585">
-      <c r="B585" s="20"/>
+      <c r="B585" s="25"/>
     </row>
     <row r="586">
-      <c r="B586" s="20"/>
+      <c r="B586" s="25"/>
     </row>
     <row r="587">
-      <c r="B587" s="20"/>
+      <c r="B587" s="25"/>
     </row>
     <row r="588">
-      <c r="B588" s="20"/>
+      <c r="B588" s="25"/>
     </row>
     <row r="589">
-      <c r="B589" s="20"/>
+      <c r="B589" s="25"/>
     </row>
     <row r="590">
-      <c r="B590" s="20"/>
+      <c r="B590" s="25"/>
     </row>
     <row r="591">
-      <c r="B591" s="20"/>
+      <c r="B591" s="25"/>
     </row>
     <row r="592">
-      <c r="B592" s="20"/>
+      <c r="B592" s="25"/>
     </row>
     <row r="593">
-      <c r="B593" s="20"/>
+      <c r="B593" s="25"/>
     </row>
     <row r="594">
-      <c r="B594" s="20"/>
+      <c r="B594" s="25"/>
     </row>
     <row r="595">
-      <c r="B595" s="20"/>
+      <c r="B595" s="25"/>
     </row>
     <row r="596">
-      <c r="B596" s="20"/>
+      <c r="B596" s="25"/>
     </row>
     <row r="597">
-      <c r="B597" s="20"/>
+      <c r="B597" s="25"/>
     </row>
     <row r="598">
-      <c r="B598" s="20"/>
+      <c r="B598" s="25"/>
     </row>
     <row r="599">
-      <c r="B599" s="20"/>
+      <c r="B599" s="25"/>
     </row>
     <row r="600">
-      <c r="B600" s="20"/>
+      <c r="B600" s="25"/>
     </row>
     <row r="601">
-      <c r="B601" s="20"/>
+      <c r="B601" s="25"/>
     </row>
     <row r="602">
-      <c r="B602" s="20"/>
+      <c r="B602" s="25"/>
     </row>
     <row r="603">
-      <c r="B603" s="20"/>
+      <c r="B603" s="25"/>
     </row>
     <row r="604">
-      <c r="B604" s="20"/>
+      <c r="B604" s="25"/>
     </row>
     <row r="605">
-      <c r="B605" s="20"/>
+      <c r="B605" s="25"/>
     </row>
     <row r="606">
-      <c r="B606" s="20"/>
+      <c r="B606" s="25"/>
     </row>
     <row r="607">
-      <c r="B607" s="20"/>
+      <c r="B607" s="25"/>
     </row>
     <row r="608">
-      <c r="B608" s="20"/>
+      <c r="B608" s="25"/>
     </row>
     <row r="609">
-      <c r="B609" s="20"/>
+      <c r="B609" s="25"/>
     </row>
     <row r="610">
-      <c r="B610" s="20"/>
+      <c r="B610" s="25"/>
     </row>
     <row r="611">
-      <c r="B611" s="20"/>
+      <c r="B611" s="25"/>
     </row>
     <row r="612">
-      <c r="B612" s="20"/>
+      <c r="B612" s="25"/>
     </row>
     <row r="613">
-      <c r="B613" s="20"/>
+      <c r="B613" s="25"/>
     </row>
     <row r="614">
-      <c r="B614" s="20"/>
+      <c r="B614" s="25"/>
     </row>
     <row r="615">
-      <c r="B615" s="20"/>
+      <c r="B615" s="25"/>
     </row>
     <row r="616">
-      <c r="B616" s="20"/>
+      <c r="B616" s="25"/>
     </row>
     <row r="617">
-      <c r="B617" s="20"/>
+      <c r="B617" s="25"/>
     </row>
     <row r="618">
-      <c r="B618" s="20"/>
+      <c r="B618" s="25"/>
     </row>
     <row r="619">
-      <c r="B619" s="20"/>
+      <c r="B619" s="25"/>
     </row>
     <row r="620">
-      <c r="B620" s="20"/>
+      <c r="B620" s="25"/>
     </row>
     <row r="621">
-      <c r="B621" s="20"/>
+      <c r="B621" s="25"/>
     </row>
     <row r="622">
-      <c r="B622" s="20"/>
+      <c r="B622" s="25"/>
     </row>
     <row r="623">
-      <c r="B623" s="20"/>
+      <c r="B623" s="25"/>
     </row>
     <row r="624">
-      <c r="B624" s="20"/>
+      <c r="B624" s="25"/>
     </row>
     <row r="625">
-      <c r="B625" s="20"/>
+      <c r="B625" s="25"/>
     </row>
     <row r="626">
-      <c r="B626" s="20"/>
+      <c r="B626" s="25"/>
     </row>
     <row r="627">
-      <c r="B627" s="20"/>
+      <c r="B627" s="25"/>
     </row>
     <row r="628">
-      <c r="B628" s="20"/>
+      <c r="B628" s="25"/>
     </row>
     <row r="629">
-      <c r="B629" s="20"/>
+      <c r="B629" s="25"/>
     </row>
     <row r="630">
-      <c r="B630" s="20"/>
+      <c r="B630" s="25"/>
     </row>
     <row r="631">
-      <c r="B631" s="20"/>
+      <c r="B631" s="25"/>
     </row>
     <row r="632">
-      <c r="B632" s="20"/>
+      <c r="B632" s="25"/>
     </row>
     <row r="633">
-      <c r="B633" s="20"/>
+      <c r="B633" s="25"/>
     </row>
     <row r="634">
-      <c r="B634" s="20"/>
+      <c r="B634" s="25"/>
     </row>
     <row r="635">
-      <c r="B635" s="20"/>
+      <c r="B635" s="25"/>
     </row>
     <row r="636">
-      <c r="B636" s="20"/>
+      <c r="B636" s="25"/>
     </row>
     <row r="637">
-      <c r="B637" s="20"/>
+      <c r="B637" s="25"/>
     </row>
     <row r="638">
-      <c r="B638" s="20"/>
+      <c r="B638" s="25"/>
     </row>
     <row r="639">
-      <c r="B639" s="20"/>
+      <c r="B639" s="25"/>
     </row>
     <row r="640">
-      <c r="B640" s="20"/>
+      <c r="B640" s="25"/>
     </row>
     <row r="641">
-      <c r="B641" s="20"/>
+      <c r="B641" s="25"/>
     </row>
     <row r="642">
-      <c r="B642" s="20"/>
+      <c r="B642" s="25"/>
     </row>
     <row r="643">
-      <c r="B643" s="20"/>
+      <c r="B643" s="25"/>
     </row>
     <row r="644">
-      <c r="B644" s="20"/>
+      <c r="B644" s="25"/>
     </row>
     <row r="645">
-      <c r="B645" s="20"/>
+      <c r="B645" s="25"/>
     </row>
     <row r="646">
-      <c r="B646" s="20"/>
+      <c r="B646" s="25"/>
     </row>
     <row r="647">
-      <c r="B647" s="20"/>
+      <c r="B647" s="25"/>
     </row>
     <row r="648">
-      <c r="B648" s="20"/>
+      <c r="B648" s="25"/>
     </row>
     <row r="649">
-      <c r="B649" s="20"/>
+      <c r="B649" s="25"/>
     </row>
     <row r="650">
-      <c r="B650" s="20"/>
+      <c r="B650" s="25"/>
     </row>
     <row r="651">
-      <c r="B651" s="20"/>
+      <c r="B651" s="25"/>
     </row>
     <row r="652">
-      <c r="B652" s="20"/>
+      <c r="B652" s="25"/>
     </row>
     <row r="653">
-      <c r="B653" s="20"/>
+      <c r="B653" s="25"/>
     </row>
     <row r="654">
-      <c r="B654" s="20"/>
+      <c r="B654" s="25"/>
     </row>
     <row r="655">
-      <c r="B655" s="20"/>
+      <c r="B655" s="25"/>
     </row>
     <row r="656">
-      <c r="B656" s="20"/>
+      <c r="B656" s="25"/>
     </row>
     <row r="657">
-      <c r="B657" s="20"/>
+      <c r="B657" s="25"/>
     </row>
     <row r="658">
-      <c r="B658" s="20"/>
+      <c r="B658" s="25"/>
     </row>
     <row r="659">
-      <c r="B659" s="20"/>
+      <c r="B659" s="25"/>
     </row>
     <row r="660">
-      <c r="B660" s="20"/>
+      <c r="B660" s="25"/>
     </row>
     <row r="661">
-      <c r="B661" s="20"/>
+      <c r="B661" s="25"/>
     </row>
     <row r="662">
-      <c r="B662" s="20"/>
+      <c r="B662" s="25"/>
     </row>
     <row r="663">
-      <c r="B663" s="20"/>
+      <c r="B663" s="25"/>
     </row>
     <row r="664">
-      <c r="B664" s="20"/>
+      <c r="B664" s="25"/>
     </row>
     <row r="665">
-      <c r="B665" s="20"/>
+      <c r="B665" s="25"/>
     </row>
     <row r="666">
-      <c r="B666" s="20"/>
+      <c r="B666" s="25"/>
     </row>
     <row r="667">
-      <c r="B667" s="20"/>
+      <c r="B667" s="25"/>
     </row>
     <row r="668">
-      <c r="B668" s="20"/>
+      <c r="B668" s="25"/>
     </row>
     <row r="669">
-      <c r="B669" s="20"/>
+      <c r="B669" s="25"/>
     </row>
     <row r="670">
-      <c r="B670" s="20"/>
+      <c r="B670" s="25"/>
     </row>
     <row r="671">
-      <c r="B671" s="20"/>
+      <c r="B671" s="25"/>
     </row>
     <row r="672">
-      <c r="B672" s="20"/>
+      <c r="B672" s="25"/>
     </row>
     <row r="673">
-      <c r="B673" s="20"/>
+      <c r="B673" s="25"/>
     </row>
     <row r="674">
-      <c r="B674" s="20"/>
+      <c r="B674" s="25"/>
     </row>
     <row r="675">
-      <c r="B675" s="20"/>
+      <c r="B675" s="25"/>
     </row>
     <row r="676">
-      <c r="B676" s="20"/>
+      <c r="B676" s="25"/>
     </row>
     <row r="677">
-      <c r="B677" s="20"/>
+      <c r="B677" s="25"/>
     </row>
     <row r="678">
-      <c r="B678" s="20"/>
+      <c r="B678" s="25"/>
     </row>
     <row r="679">
-      <c r="B679" s="20"/>
+      <c r="B679" s="25"/>
     </row>
     <row r="680">
-      <c r="B680" s="20"/>
+      <c r="B680" s="25"/>
     </row>
     <row r="681">
-      <c r="B681" s="20"/>
+      <c r="B681" s="25"/>
     </row>
     <row r="682">
-      <c r="B682" s="20"/>
+      <c r="B682" s="25"/>
     </row>
     <row r="683">
-      <c r="B683" s="20"/>
+      <c r="B683" s="25"/>
     </row>
     <row r="684">
-      <c r="B684" s="20"/>
+      <c r="B684" s="25"/>
     </row>
     <row r="685">
-      <c r="B685" s="20"/>
+      <c r="B685" s="25"/>
     </row>
     <row r="686">
-      <c r="B686" s="20"/>
+      <c r="B686" s="25"/>
     </row>
     <row r="687">
-      <c r="B687" s="20"/>
+      <c r="B687" s="25"/>
     </row>
     <row r="688">
-      <c r="B688" s="20"/>
+      <c r="B688" s="25"/>
     </row>
     <row r="689">
-      <c r="B689" s="20"/>
+      <c r="B689" s="25"/>
     </row>
     <row r="690">
-      <c r="B690" s="20"/>
+      <c r="B690" s="25"/>
     </row>
     <row r="691">
-      <c r="B691" s="20"/>
+      <c r="B691" s="25"/>
     </row>
     <row r="692">
-      <c r="B692" s="20"/>
+      <c r="B692" s="25"/>
     </row>
     <row r="693">
-      <c r="B693" s="20"/>
+      <c r="B693" s="25"/>
     </row>
     <row r="694">
-      <c r="B694" s="20"/>
+      <c r="B694" s="25"/>
     </row>
     <row r="695">
-      <c r="B695" s="20"/>
+      <c r="B695" s="25"/>
     </row>
     <row r="696">
-      <c r="B696" s="20"/>
+      <c r="B696" s="25"/>
     </row>
     <row r="697">
-      <c r="B697" s="20"/>
+      <c r="B697" s="25"/>
     </row>
     <row r="698">
-      <c r="B698" s="20"/>
+      <c r="B698" s="25"/>
     </row>
     <row r="699">
-      <c r="B699" s="20"/>
+      <c r="B699" s="25"/>
     </row>
     <row r="700">
-      <c r="B700" s="20"/>
+      <c r="B700" s="25"/>
     </row>
     <row r="701">
-      <c r="B701" s="20"/>
+      <c r="B701" s="25"/>
     </row>
     <row r="702">
-      <c r="B702" s="20"/>
+      <c r="B702" s="25"/>
     </row>
     <row r="703">
-      <c r="B703" s="20"/>
+      <c r="B703" s="25"/>
     </row>
     <row r="704">
-      <c r="B704" s="20"/>
+      <c r="B704" s="25"/>
     </row>
     <row r="705">
-      <c r="B705" s="20"/>
+      <c r="B705" s="25"/>
     </row>
     <row r="706">
-      <c r="B706" s="20"/>
+      <c r="B706" s="25"/>
     </row>
     <row r="707">
-      <c r="B707" s="20"/>
+      <c r="B707" s="25"/>
     </row>
     <row r="708">
-      <c r="B708" s="20"/>
+      <c r="B708" s="25"/>
     </row>
     <row r="709">
-      <c r="B709" s="20"/>
+      <c r="B709" s="25"/>
     </row>
     <row r="710">
-      <c r="B710" s="20"/>
+      <c r="B710" s="25"/>
     </row>
     <row r="711">
-      <c r="B711" s="20"/>
+      <c r="B711" s="25"/>
     </row>
     <row r="712">
-      <c r="B712" s="20"/>
+      <c r="B712" s="25"/>
     </row>
     <row r="713">
-      <c r="B713" s="20"/>
+      <c r="B713" s="25"/>
     </row>
     <row r="714">
-      <c r="B714" s="20"/>
+      <c r="B714" s="25"/>
     </row>
     <row r="715">
-      <c r="B715" s="20"/>
+      <c r="B715" s="25"/>
     </row>
     <row r="716">
-      <c r="B716" s="20"/>
+      <c r="B716" s="25"/>
     </row>
     <row r="717">
-      <c r="B717" s="20"/>
+      <c r="B717" s="25"/>
     </row>
     <row r="718">
-      <c r="B718" s="20"/>
+      <c r="B718" s="25"/>
     </row>
     <row r="719">
-      <c r="B719" s="20"/>
+      <c r="B719" s="25"/>
     </row>
     <row r="720">
-      <c r="B720" s="20"/>
+      <c r="B720" s="25"/>
     </row>
     <row r="721">
-      <c r="B721" s="20"/>
+      <c r="B721" s="25"/>
     </row>
     <row r="722">
-      <c r="B722" s="20"/>
+      <c r="B722" s="25"/>
     </row>
     <row r="723">
-      <c r="B723" s="20"/>
+      <c r="B723" s="25"/>
     </row>
     <row r="724">
-      <c r="B724" s="20"/>
+      <c r="B724" s="25"/>
     </row>
     <row r="725">
-      <c r="B725" s="20"/>
+      <c r="B725" s="25"/>
     </row>
     <row r="726">
-      <c r="B726" s="20"/>
+      <c r="B726" s="25"/>
     </row>
     <row r="727">
-      <c r="B727" s="20"/>
+      <c r="B727" s="25"/>
     </row>
     <row r="728">
-      <c r="B728" s="20"/>
+      <c r="B728" s="25"/>
     </row>
     <row r="729">
-      <c r="B729" s="20"/>
+      <c r="B729" s="25"/>
     </row>
     <row r="730">
-      <c r="B730" s="20"/>
+      <c r="B730" s="25"/>
     </row>
     <row r="731">
-      <c r="B731" s="20"/>
+      <c r="B731" s="25"/>
     </row>
     <row r="732">
-      <c r="B732" s="20"/>
+      <c r="B732" s="25"/>
     </row>
     <row r="733">
-      <c r="B733" s="20"/>
+      <c r="B733" s="25"/>
     </row>
     <row r="734">
-      <c r="B734" s="20"/>
+      <c r="B734" s="25"/>
     </row>
     <row r="735">
-      <c r="B735" s="20"/>
+      <c r="B735" s="25"/>
     </row>
     <row r="736">
-      <c r="B736" s="20"/>
+      <c r="B736" s="25"/>
     </row>
     <row r="737">
-      <c r="B737" s="20"/>
+      <c r="B737" s="25"/>
     </row>
     <row r="738">
-      <c r="B738" s="20"/>
+      <c r="B738" s="25"/>
     </row>
     <row r="739">
-      <c r="B739" s="20"/>
+      <c r="B739" s="25"/>
     </row>
     <row r="740">
-      <c r="B740" s="20"/>
+      <c r="B740" s="25"/>
     </row>
     <row r="741">
-      <c r="B741" s="20"/>
+      <c r="B741" s="25"/>
     </row>
     <row r="742">
-      <c r="B742" s="20"/>
+      <c r="B742" s="25"/>
     </row>
     <row r="743">
-      <c r="B743" s="20"/>
+      <c r="B743" s="25"/>
     </row>
     <row r="744">
-      <c r="B744" s="20"/>
+      <c r="B744" s="25"/>
     </row>
     <row r="745">
-      <c r="B745" s="20"/>
+      <c r="B745" s="25"/>
     </row>
     <row r="746">
-      <c r="B746" s="20"/>
+      <c r="B746" s="25"/>
     </row>
     <row r="747">
-      <c r="B747" s="20"/>
+      <c r="B747" s="25"/>
     </row>
     <row r="748">
-      <c r="B748" s="20"/>
+      <c r="B748" s="25"/>
     </row>
     <row r="749">
-      <c r="B749" s="20"/>
+      <c r="B749" s="25"/>
     </row>
     <row r="750">
-      <c r="B750" s="20"/>
+      <c r="B750" s="25"/>
     </row>
     <row r="751">
-      <c r="B751" s="20"/>
+      <c r="B751" s="25"/>
     </row>
     <row r="752">
-      <c r="B752" s="20"/>
+      <c r="B752" s="25"/>
     </row>
     <row r="753">
-      <c r="B753" s="20"/>
+      <c r="B753" s="25"/>
     </row>
     <row r="754">
-      <c r="B754" s="20"/>
+      <c r="B754" s="25"/>
     </row>
     <row r="755">
-      <c r="B755" s="20"/>
+      <c r="B755" s="25"/>
     </row>
     <row r="756">
-      <c r="B756" s="20"/>
+      <c r="B756" s="25"/>
     </row>
     <row r="757">
-      <c r="B757" s="20"/>
+      <c r="B757" s="25"/>
     </row>
     <row r="758">
-      <c r="B758" s="20"/>
+      <c r="B758" s="25"/>
     </row>
     <row r="759">
-      <c r="B759" s="20"/>
+      <c r="B759" s="25"/>
     </row>
     <row r="760">
-      <c r="B760" s="20"/>
+      <c r="B760" s="25"/>
     </row>
     <row r="761">
-      <c r="B761" s="20"/>
+      <c r="B761" s="25"/>
     </row>
     <row r="762">
-      <c r="B762" s="20"/>
+      <c r="B762" s="25"/>
     </row>
     <row r="763">
-      <c r="B763" s="20"/>
+      <c r="B763" s="25"/>
     </row>
     <row r="764">
-      <c r="B764" s="20"/>
+      <c r="B764" s="25"/>
     </row>
     <row r="765">
-      <c r="B765" s="20"/>
+      <c r="B765" s="25"/>
     </row>
     <row r="766">
-      <c r="B766" s="20"/>
+      <c r="B766" s="25"/>
     </row>
     <row r="767">
-      <c r="B767" s="20"/>
+      <c r="B767" s="25"/>
     </row>
     <row r="768">
-      <c r="B768" s="20"/>
+      <c r="B768" s="25"/>
     </row>
     <row r="769">
-      <c r="B769" s="20"/>
+      <c r="B769" s="25"/>
     </row>
     <row r="770">
-      <c r="B770" s="20"/>
+      <c r="B770" s="25"/>
     </row>
     <row r="771">
-      <c r="B771" s="20"/>
+      <c r="B771" s="25"/>
     </row>
     <row r="772">
-      <c r="B772" s="20"/>
+      <c r="B772" s="25"/>
     </row>
     <row r="773">
-      <c r="B773" s="20"/>
+      <c r="B773" s="25"/>
     </row>
     <row r="774">
-      <c r="B774" s="20"/>
+      <c r="B774" s="25"/>
     </row>
     <row r="775">
-      <c r="B775" s="20"/>
+      <c r="B775" s="25"/>
     </row>
     <row r="776">
-      <c r="B776" s="20"/>
+      <c r="B776" s="25"/>
     </row>
     <row r="777">
-      <c r="B777" s="20"/>
+      <c r="B777" s="25"/>
     </row>
     <row r="778">
-      <c r="B778" s="20"/>
+      <c r="B778" s="25"/>
     </row>
     <row r="779">
-      <c r="B779" s="20"/>
+      <c r="B779" s="25"/>
     </row>
     <row r="780">
-      <c r="B780" s="20"/>
+      <c r="B780" s="25"/>
     </row>
     <row r="781">
-      <c r="B781" s="20"/>
+      <c r="B781" s="25"/>
     </row>
     <row r="782">
-      <c r="B782" s="20"/>
+      <c r="B782" s="25"/>
     </row>
     <row r="783">
-      <c r="B783" s="20"/>
+      <c r="B783" s="25"/>
     </row>
     <row r="784">
-      <c r="B784" s="20"/>
+      <c r="B784" s="25"/>
     </row>
     <row r="785">
-      <c r="B785" s="20"/>
+      <c r="B785" s="25"/>
     </row>
     <row r="786">
-      <c r="B786" s="20"/>
+      <c r="B786" s="25"/>
     </row>
     <row r="787">
-      <c r="B787" s="20"/>
+      <c r="B787" s="25"/>
     </row>
     <row r="788">
-      <c r="B788" s="20"/>
+      <c r="B788" s="25"/>
     </row>
     <row r="789">
-      <c r="B789" s="20"/>
+      <c r="B789" s="25"/>
     </row>
     <row r="790">
-      <c r="B790" s="20"/>
+      <c r="B790" s="25"/>
     </row>
     <row r="791">
-      <c r="B791" s="20"/>
+      <c r="B791" s="25"/>
     </row>
     <row r="792">
-      <c r="B792" s="20"/>
+      <c r="B792" s="25"/>
     </row>
     <row r="793">
-      <c r="B793" s="20"/>
+      <c r="B793" s="25"/>
     </row>
     <row r="794">
-      <c r="B794" s="20"/>
+      <c r="B794" s="25"/>
     </row>
     <row r="795">
-      <c r="B795" s="20"/>
+      <c r="B795" s="25"/>
     </row>
     <row r="796">
-      <c r="B796" s="20"/>
+      <c r="B796" s="25"/>
     </row>
     <row r="797">
-      <c r="B797" s="20"/>
+      <c r="B797" s="25"/>
     </row>
     <row r="798">
-      <c r="B798" s="20"/>
+      <c r="B798" s="25"/>
     </row>
     <row r="799">
-      <c r="B799" s="20"/>
+      <c r="B799" s="25"/>
     </row>
     <row r="800">
-      <c r="B800" s="20"/>
+      <c r="B800" s="25"/>
     </row>
     <row r="801">
-      <c r="B801" s="20"/>
+      <c r="B801" s="25"/>
     </row>
     <row r="802">
-      <c r="B802" s="20"/>
+      <c r="B802" s="25"/>
     </row>
     <row r="803">
-      <c r="B803" s="20"/>
+      <c r="B803" s="25"/>
     </row>
     <row r="804">
-      <c r="B804" s="20"/>
+      <c r="B804" s="25"/>
     </row>
     <row r="805">
-      <c r="B805" s="20"/>
+      <c r="B805" s="25"/>
     </row>
     <row r="806">
-      <c r="B806" s="20"/>
+      <c r="B806" s="25"/>
     </row>
     <row r="807">
-      <c r="B807" s="20"/>
+      <c r="B807" s="25"/>
     </row>
     <row r="808">
-      <c r="B808" s="20"/>
+      <c r="B808" s="25"/>
     </row>
     <row r="809">
-      <c r="B809" s="20"/>
+      <c r="B809" s="25"/>
     </row>
     <row r="810">
-      <c r="B810" s="20"/>
+      <c r="B810" s="25"/>
     </row>
     <row r="811">
-      <c r="B811" s="20"/>
+      <c r="B811" s="25"/>
     </row>
     <row r="812">
-      <c r="B812" s="20"/>
+      <c r="B812" s="25"/>
     </row>
     <row r="813">
-      <c r="B813" s="20"/>
+      <c r="B813" s="25"/>
     </row>
     <row r="814">
-      <c r="B814" s="20"/>
+      <c r="B814" s="25"/>
     </row>
     <row r="815">
-      <c r="B815" s="20"/>
+      <c r="B815" s="25"/>
     </row>
     <row r="816">
-      <c r="B816" s="20"/>
+      <c r="B816" s="25"/>
     </row>
     <row r="817">
-      <c r="B817" s="20"/>
+      <c r="B817" s="25"/>
     </row>
     <row r="818">
-      <c r="B818" s="20"/>
+      <c r="B818" s="25"/>
     </row>
     <row r="819">
-      <c r="B819" s="20"/>
+      <c r="B819" s="25"/>
     </row>
     <row r="820">
-      <c r="B820" s="20"/>
+      <c r="B820" s="25"/>
     </row>
     <row r="821">
-      <c r="B821" s="20"/>
+      <c r="B821" s="25"/>
     </row>
     <row r="822">
-      <c r="B822" s="20"/>
+      <c r="B822" s="25"/>
     </row>
     <row r="823">
-      <c r="B823" s="20"/>
+      <c r="B823" s="25"/>
     </row>
     <row r="824">
-      <c r="B824" s="20"/>
+      <c r="B824" s="25"/>
     </row>
     <row r="825">
-      <c r="B825" s="20"/>
+      <c r="B825" s="25"/>
     </row>
     <row r="826">
-      <c r="B826" s="20"/>
+      <c r="B826" s="25"/>
     </row>
     <row r="827">
-      <c r="B827" s="20"/>
+      <c r="B827" s="25"/>
     </row>
     <row r="828">
-      <c r="B828" s="20"/>
+      <c r="B828" s="25"/>
     </row>
     <row r="829">
-      <c r="B829" s="20"/>
+      <c r="B829" s="25"/>
     </row>
     <row r="830">
-      <c r="B830" s="20"/>
+      <c r="B830" s="25"/>
     </row>
     <row r="831">
-      <c r="B831" s="20"/>
+      <c r="B831" s="25"/>
     </row>
     <row r="832">
-      <c r="B832" s="20"/>
+      <c r="B832" s="25"/>
     </row>
     <row r="833">
-      <c r="B833" s="20"/>
+      <c r="B833" s="25"/>
     </row>
     <row r="834">
-      <c r="B834" s="20"/>
+      <c r="B834" s="25"/>
     </row>
     <row r="835">
-      <c r="B835" s="20"/>
+      <c r="B835" s="25"/>
     </row>
     <row r="836">
-      <c r="B836" s="20"/>
+      <c r="B836" s="25"/>
     </row>
     <row r="837">
-      <c r="B837" s="20"/>
+      <c r="B837" s="25"/>
     </row>
     <row r="838">
-      <c r="B838" s="20"/>
+      <c r="B838" s="25"/>
     </row>
     <row r="839">
-      <c r="B839" s="20"/>
+      <c r="B839" s="25"/>
     </row>
     <row r="840">
-      <c r="B840" s="20"/>
+      <c r="B840" s="25"/>
     </row>
     <row r="841">
-      <c r="B841" s="20"/>
+      <c r="B841" s="25"/>
     </row>
     <row r="842">
-      <c r="B842" s="20"/>
+      <c r="B842" s="25"/>
     </row>
     <row r="843">
-      <c r="B843" s="20"/>
+      <c r="B843" s="25"/>
     </row>
     <row r="844">
-      <c r="B844" s="20"/>
+      <c r="B844" s="25"/>
     </row>
     <row r="845">
-      <c r="B845" s="20"/>
+      <c r="B845" s="25"/>
     </row>
     <row r="846">
-      <c r="B846" s="20"/>
+      <c r="B846" s="25"/>
     </row>
     <row r="847">
-      <c r="B847" s="20"/>
+      <c r="B847" s="25"/>
     </row>
     <row r="848">
-      <c r="B848" s="20"/>
+      <c r="B848" s="25"/>
     </row>
     <row r="849">
-      <c r="B849" s="20"/>
+      <c r="B849" s="25"/>
     </row>
     <row r="850">
-      <c r="B850" s="20"/>
+      <c r="B850" s="25"/>
     </row>
     <row r="851">
-      <c r="B851" s="20"/>
+      <c r="B851" s="25"/>
     </row>
     <row r="852">
-      <c r="B852" s="20"/>
+      <c r="B852" s="25"/>
     </row>
     <row r="853">
-      <c r="B853" s="20"/>
+      <c r="B853" s="25"/>
     </row>
     <row r="854">
-      <c r="B854" s="20"/>
+      <c r="B854" s="25"/>
     </row>
     <row r="855">
-      <c r="B855" s="20"/>
+      <c r="B855" s="25"/>
     </row>
     <row r="856">
-      <c r="B856" s="20"/>
+      <c r="B856" s="25"/>
     </row>
     <row r="857">
-      <c r="B857" s="20"/>
+      <c r="B857" s="25"/>
     </row>
     <row r="858">
-      <c r="B858" s="20"/>
+      <c r="B858" s="25"/>
     </row>
     <row r="859">
-      <c r="B859" s="20"/>
+      <c r="B859" s="25"/>
     </row>
     <row r="860">
-      <c r="B860" s="20"/>
+      <c r="B860" s="25"/>
     </row>
     <row r="861">
-      <c r="B861" s="20"/>
+      <c r="B861" s="25"/>
     </row>
     <row r="862">
-      <c r="B862" s="20"/>
+      <c r="B862" s="25"/>
     </row>
     <row r="863">
-      <c r="B863" s="20"/>
+      <c r="B863" s="25"/>
     </row>
     <row r="864">
-      <c r="B864" s="20"/>
+      <c r="B864" s="25"/>
     </row>
     <row r="865">
-      <c r="B865" s="20"/>
+      <c r="B865" s="25"/>
     </row>
     <row r="866">
-      <c r="B866" s="20"/>
+      <c r="B866" s="25"/>
     </row>
     <row r="867">
-      <c r="B867" s="20"/>
+      <c r="B867" s="25"/>
     </row>
     <row r="868">
-      <c r="B868" s="20"/>
+      <c r="B868" s="25"/>
     </row>
     <row r="869">
-      <c r="B869" s="20"/>
+      <c r="B869" s="25"/>
     </row>
     <row r="870">
-      <c r="B870" s="20"/>
+      <c r="B870" s="25"/>
     </row>
     <row r="871">
-      <c r="B871" s="20"/>
+      <c r="B871" s="25"/>
     </row>
     <row r="872">
-      <c r="B872" s="20"/>
+      <c r="B872" s="25"/>
     </row>
     <row r="873">
-      <c r="B873" s="20"/>
+      <c r="B873" s="25"/>
     </row>
     <row r="874">
-      <c r="B874" s="20"/>
+      <c r="B874" s="25"/>
     </row>
     <row r="875">
-      <c r="B875" s="20"/>
+      <c r="B875" s="25"/>
     </row>
     <row r="876">
-      <c r="B876" s="20"/>
+      <c r="B876" s="25"/>
     </row>
     <row r="877">
-      <c r="B877" s="20"/>
+      <c r="B877" s="25"/>
     </row>
     <row r="878">
-      <c r="B878" s="20"/>
+      <c r="B878" s="25"/>
     </row>
     <row r="879">
-      <c r="B879" s="20"/>
+      <c r="B879" s="25"/>
     </row>
     <row r="880">
-      <c r="B880" s="20"/>
+      <c r="B880" s="25"/>
     </row>
     <row r="881">
-      <c r="B881" s="20"/>
+      <c r="B881" s="25"/>
     </row>
     <row r="882">
-      <c r="B882" s="20"/>
+      <c r="B882" s="25"/>
     </row>
     <row r="883">
-      <c r="B883" s="20"/>
+      <c r="B883" s="25"/>
     </row>
     <row r="884">
-      <c r="B884" s="20"/>
+      <c r="B884" s="25"/>
+    </row>
+    <row r="885">
+      <c r="B885" s="25"/>
+    </row>
+    <row r="886">
+      <c r="B886" s="25"/>
+    </row>
+    <row r="887">
+      <c r="B887" s="25"/>
+    </row>
+    <row r="888">
+      <c r="B888" s="25"/>
+    </row>
+    <row r="889">
+      <c r="B889" s="25"/>
+    </row>
+    <row r="890">
+      <c r="B890" s="25"/>
+    </row>
+    <row r="891">
+      <c r="B891" s="25"/>
+    </row>
+    <row r="892">
+      <c r="B892" s="25"/>
+    </row>
+    <row r="893">
+      <c r="B893" s="25"/>
+    </row>
+    <row r="894">
+      <c r="B894" s="25"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:J2 K2:K5 L2:M2 N2:N6 O2:AF2">
+  <conditionalFormatting sqref="A2:J2 K2:K11 L2:M2 N2:N12 O2:AF2 N24:N32">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$M2="modified"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:J2 K2:K5 L2:M2 N2:N6 O2:AF2">
+  <conditionalFormatting sqref="A2:J2 K2:K11 L2:M2 N2:N12 O2:AF2 N24:N32">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>$M2="deprecated"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AF834">
+  <conditionalFormatting sqref="A2:AF844">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>$M2="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AF834">
+  <conditionalFormatting sqref="A2:AF844">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>$M2="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AF834">
+  <conditionalFormatting sqref="A2:AF844">
     <cfRule type="expression" dxfId="4" priority="5">
       <formula>$M2="modified"</formula>
     </cfRule>
@@ -4247,13 +4851,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -4261,7 +4865,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="28" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -4270,7 +4874,7 @@
       <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="28" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="7" t="s">
@@ -4285,22 +4889,22 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>73</v>
+        <v>105</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>107</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
@@ -4309,14 +4913,14 @@
       <c r="K2" s="12">
         <v>44853.0</v>
       </c>
-      <c r="L2" s="22"/>
+      <c r="L2" s="29"/>
       <c r="M2" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="18"/>
+      <c r="O2" s="15"/>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
@@ -4333,22 +4937,22 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>78</v>
+        <v>111</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>112</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -4381,36 +4985,36 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>83</v>
+        <v>116</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>117</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="12">
-        <v>44853.0</v>
+        <v>45827.0</v>
       </c>
       <c r="L4" s="11"/>
       <c r="M4" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
@@ -4429,22 +5033,22 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>87</v>
+        <v>120</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>121</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -4477,36 +5081,36 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>91</v>
+        <v>124</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="12">
-        <v>45545.0</v>
+        <v>45827.0</v>
       </c>
       <c r="L6" s="11"/>
       <c r="M6" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -4524,2955 +5128,3035 @@
       <c r="AB6" s="11"/>
     </row>
     <row r="7">
-      <c r="C7" s="23"/>
+      <c r="A7" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="12">
+        <v>44853.0</v>
+      </c>
+      <c r="L7" s="11"/>
+      <c r="M7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
     </row>
     <row r="8">
-      <c r="C8" s="23"/>
+      <c r="A8" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="K8" s="12">
+        <v>45545.0</v>
+      </c>
+      <c r="L8" s="12">
+        <v>45827.0</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="9">
-      <c r="C9" s="23"/>
+      <c r="C9" s="30"/>
     </row>
     <row r="10">
-      <c r="C10" s="23"/>
+      <c r="C10" s="30"/>
     </row>
     <row r="11">
-      <c r="C11" s="23"/>
+      <c r="C11" s="30"/>
     </row>
     <row r="12">
-      <c r="C12" s="23"/>
+      <c r="C12" s="30"/>
     </row>
     <row r="13">
-      <c r="C13" s="23"/>
+      <c r="C13" s="30"/>
     </row>
     <row r="14">
-      <c r="C14" s="23"/>
+      <c r="C14" s="30"/>
     </row>
     <row r="15">
-      <c r="C15" s="23"/>
+      <c r="C15" s="30"/>
     </row>
     <row r="16">
-      <c r="C16" s="23"/>
+      <c r="C16" s="30"/>
     </row>
     <row r="17">
-      <c r="C17" s="23"/>
+      <c r="C17" s="30"/>
     </row>
     <row r="18">
-      <c r="C18" s="23"/>
+      <c r="C18" s="30"/>
     </row>
     <row r="19">
-      <c r="C19" s="23"/>
+      <c r="C19" s="30"/>
     </row>
     <row r="20">
-      <c r="C20" s="23"/>
+      <c r="C20" s="30"/>
     </row>
     <row r="21">
-      <c r="C21" s="23"/>
+      <c r="C21" s="30"/>
     </row>
     <row r="22">
-      <c r="C22" s="23"/>
+      <c r="C22" s="30"/>
     </row>
     <row r="23">
-      <c r="C23" s="23"/>
+      <c r="C23" s="30"/>
     </row>
     <row r="24">
-      <c r="C24" s="23"/>
+      <c r="C24" s="30"/>
     </row>
     <row r="25">
-      <c r="C25" s="23"/>
+      <c r="C25" s="30"/>
     </row>
     <row r="26">
-      <c r="C26" s="23"/>
+      <c r="C26" s="30"/>
     </row>
     <row r="27">
-      <c r="C27" s="23"/>
+      <c r="C27" s="30"/>
     </row>
     <row r="28">
-      <c r="C28" s="23"/>
+      <c r="C28" s="30"/>
     </row>
     <row r="29">
-      <c r="C29" s="23"/>
+      <c r="C29" s="30"/>
     </row>
     <row r="30">
-      <c r="C30" s="23"/>
+      <c r="C30" s="30"/>
     </row>
     <row r="31">
-      <c r="C31" s="23"/>
+      <c r="C31" s="30"/>
     </row>
     <row r="32">
-      <c r="C32" s="23"/>
+      <c r="C32" s="30"/>
     </row>
     <row r="33">
-      <c r="C33" s="23"/>
+      <c r="C33" s="30"/>
     </row>
     <row r="34">
-      <c r="C34" s="23"/>
+      <c r="C34" s="30"/>
     </row>
     <row r="35">
-      <c r="C35" s="23"/>
+      <c r="C35" s="30"/>
     </row>
     <row r="36">
-      <c r="C36" s="23"/>
+      <c r="C36" s="30"/>
     </row>
     <row r="37">
-      <c r="C37" s="23"/>
+      <c r="C37" s="30"/>
     </row>
     <row r="38">
-      <c r="C38" s="23"/>
+      <c r="C38" s="30"/>
     </row>
     <row r="39">
-      <c r="C39" s="23"/>
+      <c r="C39" s="30"/>
     </row>
     <row r="40">
-      <c r="C40" s="23"/>
+      <c r="C40" s="30"/>
     </row>
     <row r="41">
-      <c r="C41" s="23"/>
+      <c r="C41" s="30"/>
     </row>
     <row r="42">
-      <c r="C42" s="23"/>
+      <c r="C42" s="30"/>
     </row>
     <row r="43">
-      <c r="C43" s="23"/>
+      <c r="C43" s="30"/>
     </row>
     <row r="44">
-      <c r="C44" s="23"/>
+      <c r="C44" s="30"/>
     </row>
     <row r="45">
-      <c r="C45" s="23"/>
+      <c r="C45" s="30"/>
     </row>
     <row r="46">
-      <c r="C46" s="23"/>
+      <c r="C46" s="30"/>
     </row>
     <row r="47">
-      <c r="C47" s="23"/>
+      <c r="C47" s="30"/>
     </row>
     <row r="48">
-      <c r="C48" s="23"/>
+      <c r="C48" s="30"/>
     </row>
     <row r="49">
-      <c r="C49" s="23"/>
+      <c r="C49" s="30"/>
     </row>
     <row r="50">
-      <c r="C50" s="23"/>
+      <c r="C50" s="30"/>
     </row>
     <row r="51">
-      <c r="C51" s="23"/>
+      <c r="C51" s="30"/>
     </row>
     <row r="52">
-      <c r="C52" s="23"/>
+      <c r="C52" s="30"/>
     </row>
     <row r="53">
-      <c r="C53" s="23"/>
+      <c r="C53" s="30"/>
     </row>
     <row r="54">
-      <c r="C54" s="23"/>
+      <c r="C54" s="30"/>
     </row>
     <row r="55">
-      <c r="C55" s="23"/>
+      <c r="C55" s="30"/>
     </row>
     <row r="56">
-      <c r="C56" s="23"/>
+      <c r="C56" s="30"/>
     </row>
     <row r="57">
-      <c r="C57" s="23"/>
+      <c r="C57" s="30"/>
     </row>
     <row r="58">
-      <c r="C58" s="23"/>
+      <c r="C58" s="30"/>
     </row>
     <row r="59">
-      <c r="C59" s="23"/>
+      <c r="C59" s="30"/>
     </row>
     <row r="60">
-      <c r="C60" s="23"/>
+      <c r="C60" s="30"/>
     </row>
     <row r="61">
-      <c r="C61" s="23"/>
+      <c r="C61" s="30"/>
     </row>
     <row r="62">
-      <c r="C62" s="23"/>
+      <c r="C62" s="30"/>
     </row>
     <row r="63">
-      <c r="C63" s="23"/>
+      <c r="C63" s="30"/>
     </row>
     <row r="64">
-      <c r="C64" s="23"/>
+      <c r="C64" s="30"/>
     </row>
     <row r="65">
-      <c r="C65" s="23"/>
+      <c r="C65" s="30"/>
     </row>
     <row r="66">
-      <c r="C66" s="23"/>
+      <c r="C66" s="30"/>
     </row>
     <row r="67">
-      <c r="C67" s="23"/>
+      <c r="C67" s="30"/>
     </row>
     <row r="68">
-      <c r="C68" s="23"/>
+      <c r="C68" s="30"/>
     </row>
     <row r="69">
-      <c r="C69" s="23"/>
+      <c r="C69" s="30"/>
     </row>
     <row r="70">
-      <c r="C70" s="23"/>
+      <c r="C70" s="30"/>
     </row>
     <row r="71">
-      <c r="C71" s="23"/>
+      <c r="C71" s="30"/>
     </row>
     <row r="72">
-      <c r="C72" s="23"/>
+      <c r="C72" s="30"/>
     </row>
     <row r="73">
-      <c r="C73" s="23"/>
+      <c r="C73" s="30"/>
     </row>
     <row r="74">
-      <c r="C74" s="23"/>
+      <c r="C74" s="30"/>
     </row>
     <row r="75">
-      <c r="C75" s="23"/>
+      <c r="C75" s="30"/>
     </row>
     <row r="76">
-      <c r="C76" s="23"/>
+      <c r="C76" s="30"/>
     </row>
     <row r="77">
-      <c r="C77" s="23"/>
+      <c r="C77" s="30"/>
     </row>
     <row r="78">
-      <c r="C78" s="23"/>
+      <c r="C78" s="30"/>
     </row>
     <row r="79">
-      <c r="C79" s="23"/>
+      <c r="C79" s="30"/>
     </row>
     <row r="80">
-      <c r="C80" s="23"/>
+      <c r="C80" s="30"/>
     </row>
     <row r="81">
-      <c r="C81" s="23"/>
+      <c r="C81" s="30"/>
     </row>
     <row r="82">
-      <c r="C82" s="23"/>
+      <c r="C82" s="30"/>
     </row>
     <row r="83">
-      <c r="C83" s="23"/>
+      <c r="C83" s="30"/>
     </row>
     <row r="84">
-      <c r="C84" s="23"/>
+      <c r="C84" s="30"/>
     </row>
     <row r="85">
-      <c r="C85" s="23"/>
+      <c r="C85" s="30"/>
     </row>
     <row r="86">
-      <c r="C86" s="23"/>
+      <c r="C86" s="30"/>
     </row>
     <row r="87">
-      <c r="C87" s="23"/>
+      <c r="C87" s="30"/>
     </row>
     <row r="88">
-      <c r="C88" s="23"/>
+      <c r="C88" s="30"/>
     </row>
     <row r="89">
-      <c r="C89" s="23"/>
+      <c r="C89" s="30"/>
     </row>
     <row r="90">
-      <c r="C90" s="23"/>
+      <c r="C90" s="30"/>
     </row>
     <row r="91">
-      <c r="C91" s="23"/>
+      <c r="C91" s="30"/>
     </row>
     <row r="92">
-      <c r="C92" s="23"/>
+      <c r="C92" s="30"/>
     </row>
     <row r="93">
-      <c r="C93" s="23"/>
+      <c r="C93" s="30"/>
     </row>
     <row r="94">
-      <c r="C94" s="23"/>
+      <c r="C94" s="30"/>
     </row>
     <row r="95">
-      <c r="C95" s="23"/>
+      <c r="C95" s="30"/>
     </row>
     <row r="96">
-      <c r="C96" s="23"/>
+      <c r="C96" s="30"/>
     </row>
     <row r="97">
-      <c r="C97" s="23"/>
+      <c r="C97" s="30"/>
     </row>
     <row r="98">
-      <c r="C98" s="23"/>
+      <c r="C98" s="30"/>
     </row>
     <row r="99">
-      <c r="C99" s="23"/>
+      <c r="C99" s="30"/>
     </row>
     <row r="100">
-      <c r="C100" s="23"/>
+      <c r="C100" s="30"/>
     </row>
     <row r="101">
-      <c r="C101" s="23"/>
+      <c r="C101" s="30"/>
     </row>
     <row r="102">
-      <c r="C102" s="23"/>
+      <c r="C102" s="30"/>
     </row>
     <row r="103">
-      <c r="C103" s="23"/>
+      <c r="C103" s="30"/>
     </row>
     <row r="104">
-      <c r="C104" s="23"/>
+      <c r="C104" s="30"/>
     </row>
     <row r="105">
-      <c r="C105" s="23"/>
+      <c r="C105" s="30"/>
     </row>
     <row r="106">
-      <c r="C106" s="23"/>
+      <c r="C106" s="30"/>
     </row>
     <row r="107">
-      <c r="C107" s="23"/>
+      <c r="C107" s="30"/>
     </row>
     <row r="108">
-      <c r="C108" s="23"/>
+      <c r="C108" s="30"/>
     </row>
     <row r="109">
-      <c r="C109" s="23"/>
+      <c r="C109" s="30"/>
     </row>
     <row r="110">
-      <c r="C110" s="23"/>
+      <c r="C110" s="30"/>
     </row>
     <row r="111">
-      <c r="C111" s="23"/>
+      <c r="C111" s="30"/>
     </row>
     <row r="112">
-      <c r="C112" s="23"/>
+      <c r="C112" s="30"/>
     </row>
     <row r="113">
-      <c r="C113" s="23"/>
+      <c r="C113" s="30"/>
     </row>
     <row r="114">
-      <c r="C114" s="23"/>
+      <c r="C114" s="30"/>
     </row>
     <row r="115">
-      <c r="C115" s="23"/>
+      <c r="C115" s="30"/>
     </row>
     <row r="116">
-      <c r="C116" s="23"/>
+      <c r="C116" s="30"/>
     </row>
     <row r="117">
-      <c r="C117" s="23"/>
+      <c r="C117" s="30"/>
     </row>
     <row r="118">
-      <c r="C118" s="23"/>
+      <c r="C118" s="30"/>
     </row>
     <row r="119">
-      <c r="C119" s="23"/>
+      <c r="C119" s="30"/>
     </row>
     <row r="120">
-      <c r="C120" s="23"/>
+      <c r="C120" s="30"/>
     </row>
     <row r="121">
-      <c r="C121" s="23"/>
+      <c r="C121" s="30"/>
     </row>
     <row r="122">
-      <c r="C122" s="23"/>
+      <c r="C122" s="30"/>
     </row>
     <row r="123">
-      <c r="C123" s="23"/>
+      <c r="C123" s="30"/>
     </row>
     <row r="124">
-      <c r="C124" s="23"/>
+      <c r="C124" s="30"/>
     </row>
     <row r="125">
-      <c r="C125" s="23"/>
+      <c r="C125" s="30"/>
     </row>
     <row r="126">
-      <c r="C126" s="23"/>
+      <c r="C126" s="30"/>
     </row>
     <row r="127">
-      <c r="C127" s="23"/>
+      <c r="C127" s="30"/>
     </row>
     <row r="128">
-      <c r="C128" s="23"/>
+      <c r="C128" s="30"/>
     </row>
     <row r="129">
-      <c r="C129" s="23"/>
+      <c r="C129" s="30"/>
     </row>
     <row r="130">
-      <c r="C130" s="23"/>
+      <c r="C130" s="30"/>
     </row>
     <row r="131">
-      <c r="C131" s="23"/>
+      <c r="C131" s="30"/>
     </row>
     <row r="132">
-      <c r="C132" s="23"/>
+      <c r="C132" s="30"/>
     </row>
     <row r="133">
-      <c r="C133" s="23"/>
+      <c r="C133" s="30"/>
     </row>
     <row r="134">
-      <c r="C134" s="23"/>
+      <c r="C134" s="30"/>
     </row>
     <row r="135">
-      <c r="C135" s="23"/>
+      <c r="C135" s="30"/>
     </row>
     <row r="136">
-      <c r="C136" s="23"/>
+      <c r="C136" s="30"/>
     </row>
     <row r="137">
-      <c r="C137" s="23"/>
+      <c r="C137" s="30"/>
     </row>
     <row r="138">
-      <c r="C138" s="23"/>
+      <c r="C138" s="30"/>
     </row>
     <row r="139">
-      <c r="C139" s="23"/>
+      <c r="C139" s="30"/>
     </row>
     <row r="140">
-      <c r="C140" s="23"/>
+      <c r="C140" s="30"/>
     </row>
     <row r="141">
-      <c r="C141" s="23"/>
+      <c r="C141" s="30"/>
     </row>
     <row r="142">
-      <c r="C142" s="23"/>
+      <c r="C142" s="30"/>
     </row>
     <row r="143">
-      <c r="C143" s="23"/>
+      <c r="C143" s="30"/>
     </row>
     <row r="144">
-      <c r="C144" s="23"/>
+      <c r="C144" s="30"/>
     </row>
     <row r="145">
-      <c r="C145" s="23"/>
+      <c r="C145" s="30"/>
     </row>
     <row r="146">
-      <c r="C146" s="23"/>
+      <c r="C146" s="30"/>
     </row>
     <row r="147">
-      <c r="C147" s="23"/>
+      <c r="C147" s="30"/>
     </row>
     <row r="148">
-      <c r="C148" s="23"/>
+      <c r="C148" s="30"/>
     </row>
     <row r="149">
-      <c r="C149" s="23"/>
+      <c r="C149" s="30"/>
     </row>
     <row r="150">
-      <c r="C150" s="23"/>
+      <c r="C150" s="30"/>
     </row>
     <row r="151">
-      <c r="C151" s="23"/>
+      <c r="C151" s="30"/>
     </row>
     <row r="152">
-      <c r="C152" s="23"/>
+      <c r="C152" s="30"/>
     </row>
     <row r="153">
-      <c r="C153" s="23"/>
+      <c r="C153" s="30"/>
     </row>
     <row r="154">
-      <c r="C154" s="23"/>
+      <c r="C154" s="30"/>
     </row>
     <row r="155">
-      <c r="C155" s="23"/>
+      <c r="C155" s="30"/>
     </row>
     <row r="156">
-      <c r="C156" s="23"/>
+      <c r="C156" s="30"/>
     </row>
     <row r="157">
-      <c r="C157" s="23"/>
+      <c r="C157" s="30"/>
     </row>
     <row r="158">
-      <c r="C158" s="23"/>
+      <c r="C158" s="30"/>
     </row>
     <row r="159">
-      <c r="C159" s="23"/>
+      <c r="C159" s="30"/>
     </row>
     <row r="160">
-      <c r="C160" s="23"/>
+      <c r="C160" s="30"/>
     </row>
     <row r="161">
-      <c r="C161" s="23"/>
+      <c r="C161" s="30"/>
     </row>
     <row r="162">
-      <c r="C162" s="23"/>
+      <c r="C162" s="30"/>
     </row>
     <row r="163">
-      <c r="C163" s="23"/>
+      <c r="C163" s="30"/>
     </row>
     <row r="164">
-      <c r="C164" s="23"/>
+      <c r="C164" s="30"/>
     </row>
     <row r="165">
-      <c r="C165" s="23"/>
+      <c r="C165" s="30"/>
     </row>
     <row r="166">
-      <c r="C166" s="23"/>
+      <c r="C166" s="30"/>
     </row>
     <row r="167">
-      <c r="C167" s="23"/>
+      <c r="C167" s="30"/>
     </row>
     <row r="168">
-      <c r="C168" s="23"/>
+      <c r="C168" s="30"/>
     </row>
     <row r="169">
-      <c r="C169" s="23"/>
+      <c r="C169" s="30"/>
     </row>
     <row r="170">
-      <c r="C170" s="23"/>
+      <c r="C170" s="30"/>
     </row>
     <row r="171">
-      <c r="C171" s="23"/>
+      <c r="C171" s="30"/>
     </row>
     <row r="172">
-      <c r="C172" s="23"/>
+      <c r="C172" s="30"/>
     </row>
     <row r="173">
-      <c r="C173" s="23"/>
+      <c r="C173" s="30"/>
     </row>
     <row r="174">
-      <c r="C174" s="23"/>
+      <c r="C174" s="30"/>
     </row>
     <row r="175">
-      <c r="C175" s="23"/>
+      <c r="C175" s="30"/>
     </row>
     <row r="176">
-      <c r="C176" s="23"/>
+      <c r="C176" s="30"/>
     </row>
     <row r="177">
-      <c r="C177" s="23"/>
+      <c r="C177" s="30"/>
     </row>
     <row r="178">
-      <c r="C178" s="23"/>
+      <c r="C178" s="30"/>
     </row>
     <row r="179">
-      <c r="C179" s="23"/>
+      <c r="C179" s="30"/>
     </row>
     <row r="180">
-      <c r="C180" s="23"/>
+      <c r="C180" s="30"/>
     </row>
     <row r="181">
-      <c r="C181" s="23"/>
+      <c r="C181" s="30"/>
     </row>
     <row r="182">
-      <c r="C182" s="23"/>
+      <c r="C182" s="30"/>
     </row>
     <row r="183">
-      <c r="C183" s="23"/>
+      <c r="C183" s="30"/>
     </row>
     <row r="184">
-      <c r="C184" s="23"/>
+      <c r="C184" s="30"/>
     </row>
     <row r="185">
-      <c r="C185" s="23"/>
+      <c r="C185" s="30"/>
     </row>
     <row r="186">
-      <c r="C186" s="23"/>
+      <c r="C186" s="30"/>
     </row>
     <row r="187">
-      <c r="C187" s="23"/>
+      <c r="C187" s="30"/>
     </row>
     <row r="188">
-      <c r="C188" s="23"/>
+      <c r="C188" s="30"/>
     </row>
     <row r="189">
-      <c r="C189" s="23"/>
+      <c r="C189" s="30"/>
     </row>
     <row r="190">
-      <c r="C190" s="23"/>
+      <c r="C190" s="30"/>
     </row>
     <row r="191">
-      <c r="C191" s="23"/>
+      <c r="C191" s="30"/>
     </row>
     <row r="192">
-      <c r="C192" s="23"/>
+      <c r="C192" s="30"/>
     </row>
     <row r="193">
-      <c r="C193" s="23"/>
+      <c r="C193" s="30"/>
     </row>
     <row r="194">
-      <c r="C194" s="23"/>
+      <c r="C194" s="30"/>
     </row>
     <row r="195">
-      <c r="C195" s="23"/>
+      <c r="C195" s="30"/>
     </row>
     <row r="196">
-      <c r="C196" s="23"/>
+      <c r="C196" s="30"/>
     </row>
     <row r="197">
-      <c r="C197" s="23"/>
+      <c r="C197" s="30"/>
     </row>
     <row r="198">
-      <c r="C198" s="23"/>
+      <c r="C198" s="30"/>
     </row>
     <row r="199">
-      <c r="C199" s="23"/>
+      <c r="C199" s="30"/>
     </row>
     <row r="200">
-      <c r="C200" s="23"/>
+      <c r="C200" s="30"/>
     </row>
     <row r="201">
-      <c r="C201" s="23"/>
+      <c r="C201" s="30"/>
     </row>
     <row r="202">
-      <c r="C202" s="23"/>
+      <c r="C202" s="30"/>
     </row>
     <row r="203">
-      <c r="C203" s="23"/>
+      <c r="C203" s="30"/>
     </row>
     <row r="204">
-      <c r="C204" s="23"/>
+      <c r="C204" s="30"/>
     </row>
     <row r="205">
-      <c r="C205" s="23"/>
+      <c r="C205" s="30"/>
     </row>
     <row r="206">
-      <c r="C206" s="23"/>
+      <c r="C206" s="30"/>
     </row>
     <row r="207">
-      <c r="C207" s="23"/>
+      <c r="C207" s="30"/>
     </row>
     <row r="208">
-      <c r="C208" s="23"/>
+      <c r="C208" s="30"/>
     </row>
     <row r="209">
-      <c r="C209" s="23"/>
+      <c r="C209" s="30"/>
     </row>
     <row r="210">
-      <c r="C210" s="23"/>
+      <c r="C210" s="30"/>
     </row>
     <row r="211">
-      <c r="C211" s="23"/>
+      <c r="C211" s="30"/>
     </row>
     <row r="212">
-      <c r="C212" s="23"/>
+      <c r="C212" s="30"/>
     </row>
     <row r="213">
-      <c r="C213" s="23"/>
+      <c r="C213" s="30"/>
     </row>
     <row r="214">
-      <c r="C214" s="23"/>
+      <c r="C214" s="30"/>
     </row>
     <row r="215">
-      <c r="C215" s="23"/>
+      <c r="C215" s="30"/>
     </row>
     <row r="216">
-      <c r="C216" s="23"/>
+      <c r="C216" s="30"/>
     </row>
     <row r="217">
-      <c r="C217" s="23"/>
+      <c r="C217" s="30"/>
     </row>
     <row r="218">
-      <c r="C218" s="23"/>
+      <c r="C218" s="30"/>
     </row>
     <row r="219">
-      <c r="C219" s="23"/>
+      <c r="C219" s="30"/>
     </row>
     <row r="220">
-      <c r="C220" s="23"/>
+      <c r="C220" s="30"/>
     </row>
     <row r="221">
-      <c r="C221" s="23"/>
+      <c r="C221" s="30"/>
     </row>
     <row r="222">
-      <c r="C222" s="23"/>
+      <c r="C222" s="30"/>
     </row>
     <row r="223">
-      <c r="C223" s="23"/>
+      <c r="C223" s="30"/>
     </row>
     <row r="224">
-      <c r="C224" s="23"/>
+      <c r="C224" s="30"/>
     </row>
     <row r="225">
-      <c r="C225" s="23"/>
+      <c r="C225" s="30"/>
     </row>
     <row r="226">
-      <c r="C226" s="23"/>
+      <c r="C226" s="30"/>
     </row>
     <row r="227">
-      <c r="C227" s="23"/>
+      <c r="C227" s="30"/>
     </row>
     <row r="228">
-      <c r="C228" s="23"/>
+      <c r="C228" s="30"/>
     </row>
     <row r="229">
-      <c r="C229" s="23"/>
+      <c r="C229" s="30"/>
     </row>
     <row r="230">
-      <c r="C230" s="23"/>
+      <c r="C230" s="30"/>
     </row>
     <row r="231">
-      <c r="C231" s="23"/>
+      <c r="C231" s="30"/>
     </row>
     <row r="232">
-      <c r="C232" s="23"/>
+      <c r="C232" s="30"/>
     </row>
     <row r="233">
-      <c r="C233" s="23"/>
+      <c r="C233" s="30"/>
     </row>
     <row r="234">
-      <c r="C234" s="23"/>
+      <c r="C234" s="30"/>
     </row>
     <row r="235">
-      <c r="C235" s="23"/>
+      <c r="C235" s="30"/>
     </row>
     <row r="236">
-      <c r="C236" s="23"/>
+      <c r="C236" s="30"/>
     </row>
     <row r="237">
-      <c r="C237" s="23"/>
+      <c r="C237" s="30"/>
     </row>
     <row r="238">
-      <c r="C238" s="23"/>
+      <c r="C238" s="30"/>
     </row>
     <row r="239">
-      <c r="C239" s="23"/>
+      <c r="C239" s="30"/>
     </row>
     <row r="240">
-      <c r="C240" s="23"/>
+      <c r="C240" s="30"/>
     </row>
     <row r="241">
-      <c r="C241" s="23"/>
+      <c r="C241" s="30"/>
     </row>
     <row r="242">
-      <c r="C242" s="23"/>
+      <c r="C242" s="30"/>
     </row>
     <row r="243">
-      <c r="C243" s="23"/>
+      <c r="C243" s="30"/>
     </row>
     <row r="244">
-      <c r="C244" s="23"/>
+      <c r="C244" s="30"/>
     </row>
     <row r="245">
-      <c r="C245" s="23"/>
+      <c r="C245" s="30"/>
     </row>
     <row r="246">
-      <c r="C246" s="23"/>
+      <c r="C246" s="30"/>
     </row>
     <row r="247">
-      <c r="C247" s="23"/>
+      <c r="C247" s="30"/>
     </row>
     <row r="248">
-      <c r="C248" s="23"/>
+      <c r="C248" s="30"/>
     </row>
     <row r="249">
-      <c r="C249" s="23"/>
+      <c r="C249" s="30"/>
     </row>
     <row r="250">
-      <c r="C250" s="23"/>
+      <c r="C250" s="30"/>
     </row>
     <row r="251">
-      <c r="C251" s="23"/>
+      <c r="C251" s="30"/>
     </row>
     <row r="252">
-      <c r="C252" s="23"/>
+      <c r="C252" s="30"/>
     </row>
     <row r="253">
-      <c r="C253" s="23"/>
+      <c r="C253" s="30"/>
     </row>
     <row r="254">
-      <c r="C254" s="23"/>
+      <c r="C254" s="30"/>
     </row>
     <row r="255">
-      <c r="C255" s="23"/>
+      <c r="C255" s="30"/>
     </row>
     <row r="256">
-      <c r="C256" s="23"/>
+      <c r="C256" s="30"/>
     </row>
     <row r="257">
-      <c r="C257" s="23"/>
+      <c r="C257" s="30"/>
     </row>
     <row r="258">
-      <c r="C258" s="23"/>
+      <c r="C258" s="30"/>
     </row>
     <row r="259">
-      <c r="C259" s="23"/>
+      <c r="C259" s="30"/>
     </row>
     <row r="260">
-      <c r="C260" s="23"/>
+      <c r="C260" s="30"/>
     </row>
     <row r="261">
-      <c r="C261" s="23"/>
+      <c r="C261" s="30"/>
     </row>
     <row r="262">
-      <c r="C262" s="23"/>
+      <c r="C262" s="30"/>
     </row>
     <row r="263">
-      <c r="C263" s="23"/>
+      <c r="C263" s="30"/>
     </row>
     <row r="264">
-      <c r="C264" s="23"/>
+      <c r="C264" s="30"/>
     </row>
     <row r="265">
-      <c r="C265" s="23"/>
+      <c r="C265" s="30"/>
     </row>
     <row r="266">
-      <c r="C266" s="23"/>
+      <c r="C266" s="30"/>
     </row>
     <row r="267">
-      <c r="C267" s="23"/>
+      <c r="C267" s="30"/>
     </row>
     <row r="268">
-      <c r="C268" s="23"/>
+      <c r="C268" s="30"/>
     </row>
     <row r="269">
-      <c r="C269" s="23"/>
+      <c r="C269" s="30"/>
     </row>
     <row r="270">
-      <c r="C270" s="23"/>
+      <c r="C270" s="30"/>
     </row>
     <row r="271">
-      <c r="C271" s="23"/>
+      <c r="C271" s="30"/>
     </row>
     <row r="272">
-      <c r="C272" s="23"/>
+      <c r="C272" s="30"/>
     </row>
     <row r="273">
-      <c r="C273" s="23"/>
+      <c r="C273" s="30"/>
     </row>
     <row r="274">
-      <c r="C274" s="23"/>
+      <c r="C274" s="30"/>
     </row>
     <row r="275">
-      <c r="C275" s="23"/>
+      <c r="C275" s="30"/>
     </row>
     <row r="276">
-      <c r="C276" s="23"/>
+      <c r="C276" s="30"/>
     </row>
     <row r="277">
-      <c r="C277" s="23"/>
+      <c r="C277" s="30"/>
     </row>
     <row r="278">
-      <c r="C278" s="23"/>
+      <c r="C278" s="30"/>
     </row>
     <row r="279">
-      <c r="C279" s="23"/>
+      <c r="C279" s="30"/>
     </row>
     <row r="280">
-      <c r="C280" s="23"/>
+      <c r="C280" s="30"/>
     </row>
     <row r="281">
-      <c r="C281" s="23"/>
+      <c r="C281" s="30"/>
     </row>
     <row r="282">
-      <c r="C282" s="23"/>
+      <c r="C282" s="30"/>
     </row>
     <row r="283">
-      <c r="C283" s="23"/>
+      <c r="C283" s="30"/>
     </row>
     <row r="284">
-      <c r="C284" s="23"/>
+      <c r="C284" s="30"/>
     </row>
     <row r="285">
-      <c r="C285" s="23"/>
+      <c r="C285" s="30"/>
     </row>
     <row r="286">
-      <c r="C286" s="23"/>
+      <c r="C286" s="30"/>
     </row>
     <row r="287">
-      <c r="C287" s="23"/>
+      <c r="C287" s="30"/>
     </row>
     <row r="288">
-      <c r="C288" s="23"/>
+      <c r="C288" s="30"/>
     </row>
     <row r="289">
-      <c r="C289" s="23"/>
+      <c r="C289" s="30"/>
     </row>
     <row r="290">
-      <c r="C290" s="23"/>
+      <c r="C290" s="30"/>
     </row>
     <row r="291">
-      <c r="C291" s="23"/>
+      <c r="C291" s="30"/>
     </row>
     <row r="292">
-      <c r="C292" s="23"/>
+      <c r="C292" s="30"/>
     </row>
     <row r="293">
-      <c r="C293" s="23"/>
+      <c r="C293" s="30"/>
     </row>
     <row r="294">
-      <c r="C294" s="23"/>
+      <c r="C294" s="30"/>
     </row>
     <row r="295">
-      <c r="C295" s="23"/>
+      <c r="C295" s="30"/>
     </row>
     <row r="296">
-      <c r="C296" s="23"/>
+      <c r="C296" s="30"/>
     </row>
     <row r="297">
-      <c r="C297" s="23"/>
+      <c r="C297" s="30"/>
     </row>
     <row r="298">
-      <c r="C298" s="23"/>
+      <c r="C298" s="30"/>
     </row>
     <row r="299">
-      <c r="C299" s="23"/>
+      <c r="C299" s="30"/>
     </row>
     <row r="300">
-      <c r="C300" s="23"/>
+      <c r="C300" s="30"/>
     </row>
     <row r="301">
-      <c r="C301" s="23"/>
+      <c r="C301" s="30"/>
     </row>
     <row r="302">
-      <c r="C302" s="23"/>
+      <c r="C302" s="30"/>
     </row>
     <row r="303">
-      <c r="C303" s="23"/>
+      <c r="C303" s="30"/>
     </row>
     <row r="304">
-      <c r="C304" s="23"/>
+      <c r="C304" s="30"/>
     </row>
     <row r="305">
-      <c r="C305" s="23"/>
+      <c r="C305" s="30"/>
     </row>
     <row r="306">
-      <c r="C306" s="23"/>
+      <c r="C306" s="30"/>
     </row>
     <row r="307">
-      <c r="C307" s="23"/>
+      <c r="C307" s="30"/>
     </row>
     <row r="308">
-      <c r="C308" s="23"/>
+      <c r="C308" s="30"/>
     </row>
     <row r="309">
-      <c r="C309" s="23"/>
+      <c r="C309" s="30"/>
     </row>
     <row r="310">
-      <c r="C310" s="23"/>
+      <c r="C310" s="30"/>
     </row>
     <row r="311">
-      <c r="C311" s="23"/>
+      <c r="C311" s="30"/>
     </row>
     <row r="312">
-      <c r="C312" s="23"/>
+      <c r="C312" s="30"/>
     </row>
     <row r="313">
-      <c r="C313" s="23"/>
+      <c r="C313" s="30"/>
     </row>
     <row r="314">
-      <c r="C314" s="23"/>
+      <c r="C314" s="30"/>
     </row>
     <row r="315">
-      <c r="C315" s="23"/>
+      <c r="C315" s="30"/>
     </row>
     <row r="316">
-      <c r="C316" s="23"/>
+      <c r="C316" s="30"/>
     </row>
     <row r="317">
-      <c r="C317" s="23"/>
+      <c r="C317" s="30"/>
     </row>
     <row r="318">
-      <c r="C318" s="23"/>
+      <c r="C318" s="30"/>
     </row>
     <row r="319">
-      <c r="C319" s="23"/>
+      <c r="C319" s="30"/>
     </row>
     <row r="320">
-      <c r="C320" s="23"/>
+      <c r="C320" s="30"/>
     </row>
     <row r="321">
-      <c r="C321" s="23"/>
+      <c r="C321" s="30"/>
     </row>
     <row r="322">
-      <c r="C322" s="23"/>
+      <c r="C322" s="30"/>
     </row>
     <row r="323">
-      <c r="C323" s="23"/>
+      <c r="C323" s="30"/>
     </row>
     <row r="324">
-      <c r="C324" s="23"/>
+      <c r="C324" s="30"/>
     </row>
     <row r="325">
-      <c r="C325" s="23"/>
+      <c r="C325" s="30"/>
     </row>
     <row r="326">
-      <c r="C326" s="23"/>
+      <c r="C326" s="30"/>
     </row>
     <row r="327">
-      <c r="C327" s="23"/>
+      <c r="C327" s="30"/>
     </row>
     <row r="328">
-      <c r="C328" s="23"/>
+      <c r="C328" s="30"/>
     </row>
     <row r="329">
-      <c r="C329" s="23"/>
+      <c r="C329" s="30"/>
     </row>
     <row r="330">
-      <c r="C330" s="23"/>
+      <c r="C330" s="30"/>
     </row>
     <row r="331">
-      <c r="C331" s="23"/>
+      <c r="C331" s="30"/>
     </row>
     <row r="332">
-      <c r="C332" s="23"/>
+      <c r="C332" s="30"/>
     </row>
     <row r="333">
-      <c r="C333" s="23"/>
+      <c r="C333" s="30"/>
     </row>
     <row r="334">
-      <c r="C334" s="23"/>
+      <c r="C334" s="30"/>
     </row>
     <row r="335">
-      <c r="C335" s="23"/>
+      <c r="C335" s="30"/>
     </row>
     <row r="336">
-      <c r="C336" s="23"/>
+      <c r="C336" s="30"/>
     </row>
     <row r="337">
-      <c r="C337" s="23"/>
+      <c r="C337" s="30"/>
     </row>
     <row r="338">
-      <c r="C338" s="23"/>
+      <c r="C338" s="30"/>
     </row>
     <row r="339">
-      <c r="C339" s="23"/>
+      <c r="C339" s="30"/>
     </row>
     <row r="340">
-      <c r="C340" s="23"/>
+      <c r="C340" s="30"/>
     </row>
     <row r="341">
-      <c r="C341" s="23"/>
+      <c r="C341" s="30"/>
     </row>
     <row r="342">
-      <c r="C342" s="23"/>
+      <c r="C342" s="30"/>
     </row>
     <row r="343">
-      <c r="C343" s="23"/>
+      <c r="C343" s="30"/>
     </row>
     <row r="344">
-      <c r="C344" s="23"/>
+      <c r="C344" s="30"/>
     </row>
     <row r="345">
-      <c r="C345" s="23"/>
+      <c r="C345" s="30"/>
     </row>
     <row r="346">
-      <c r="C346" s="23"/>
+      <c r="C346" s="30"/>
     </row>
     <row r="347">
-      <c r="C347" s="23"/>
+      <c r="C347" s="30"/>
     </row>
     <row r="348">
-      <c r="C348" s="23"/>
+      <c r="C348" s="30"/>
     </row>
     <row r="349">
-      <c r="C349" s="23"/>
+      <c r="C349" s="30"/>
     </row>
     <row r="350">
-      <c r="C350" s="23"/>
+      <c r="C350" s="30"/>
     </row>
     <row r="351">
-      <c r="C351" s="23"/>
+      <c r="C351" s="30"/>
     </row>
     <row r="352">
-      <c r="C352" s="23"/>
+      <c r="C352" s="30"/>
     </row>
     <row r="353">
-      <c r="C353" s="23"/>
+      <c r="C353" s="30"/>
     </row>
     <row r="354">
-      <c r="C354" s="23"/>
+      <c r="C354" s="30"/>
     </row>
     <row r="355">
-      <c r="C355" s="23"/>
+      <c r="C355" s="30"/>
     </row>
     <row r="356">
-      <c r="C356" s="23"/>
+      <c r="C356" s="30"/>
     </row>
     <row r="357">
-      <c r="C357" s="23"/>
+      <c r="C357" s="30"/>
     </row>
     <row r="358">
-      <c r="C358" s="23"/>
+      <c r="C358" s="30"/>
     </row>
     <row r="359">
-      <c r="C359" s="23"/>
+      <c r="C359" s="30"/>
     </row>
     <row r="360">
-      <c r="C360" s="23"/>
+      <c r="C360" s="30"/>
     </row>
     <row r="361">
-      <c r="C361" s="23"/>
+      <c r="C361" s="30"/>
     </row>
     <row r="362">
-      <c r="C362" s="23"/>
+      <c r="C362" s="30"/>
     </row>
     <row r="363">
-      <c r="C363" s="23"/>
+      <c r="C363" s="30"/>
     </row>
     <row r="364">
-      <c r="C364" s="23"/>
+      <c r="C364" s="30"/>
     </row>
     <row r="365">
-      <c r="C365" s="23"/>
+      <c r="C365" s="30"/>
     </row>
     <row r="366">
-      <c r="C366" s="23"/>
+      <c r="C366" s="30"/>
     </row>
     <row r="367">
-      <c r="C367" s="23"/>
+      <c r="C367" s="30"/>
     </row>
     <row r="368">
-      <c r="C368" s="23"/>
+      <c r="C368" s="30"/>
     </row>
     <row r="369">
-      <c r="C369" s="23"/>
+      <c r="C369" s="30"/>
     </row>
     <row r="370">
-      <c r="C370" s="23"/>
+      <c r="C370" s="30"/>
     </row>
     <row r="371">
-      <c r="C371" s="23"/>
+      <c r="C371" s="30"/>
     </row>
     <row r="372">
-      <c r="C372" s="23"/>
+      <c r="C372" s="30"/>
     </row>
     <row r="373">
-      <c r="C373" s="23"/>
+      <c r="C373" s="30"/>
     </row>
     <row r="374">
-      <c r="C374" s="23"/>
+      <c r="C374" s="30"/>
     </row>
     <row r="375">
-      <c r="C375" s="23"/>
+      <c r="C375" s="30"/>
     </row>
     <row r="376">
-      <c r="C376" s="23"/>
+      <c r="C376" s="30"/>
     </row>
     <row r="377">
-      <c r="C377" s="23"/>
+      <c r="C377" s="30"/>
     </row>
     <row r="378">
-      <c r="C378" s="23"/>
+      <c r="C378" s="30"/>
     </row>
     <row r="379">
-      <c r="C379" s="23"/>
+      <c r="C379" s="30"/>
     </row>
     <row r="380">
-      <c r="C380" s="23"/>
+      <c r="C380" s="30"/>
     </row>
     <row r="381">
-      <c r="C381" s="23"/>
+      <c r="C381" s="30"/>
     </row>
     <row r="382">
-      <c r="C382" s="23"/>
+      <c r="C382" s="30"/>
     </row>
     <row r="383">
-      <c r="C383" s="23"/>
+      <c r="C383" s="30"/>
     </row>
     <row r="384">
-      <c r="C384" s="23"/>
+      <c r="C384" s="30"/>
     </row>
     <row r="385">
-      <c r="C385" s="23"/>
+      <c r="C385" s="30"/>
     </row>
     <row r="386">
-      <c r="C386" s="23"/>
+      <c r="C386" s="30"/>
     </row>
     <row r="387">
-      <c r="C387" s="23"/>
+      <c r="C387" s="30"/>
     </row>
     <row r="388">
-      <c r="C388" s="23"/>
+      <c r="C388" s="30"/>
     </row>
     <row r="389">
-      <c r="C389" s="23"/>
+      <c r="C389" s="30"/>
     </row>
     <row r="390">
-      <c r="C390" s="23"/>
+      <c r="C390" s="30"/>
     </row>
     <row r="391">
-      <c r="C391" s="23"/>
+      <c r="C391" s="30"/>
     </row>
     <row r="392">
-      <c r="C392" s="23"/>
+      <c r="C392" s="30"/>
     </row>
     <row r="393">
-      <c r="C393" s="23"/>
+      <c r="C393" s="30"/>
     </row>
     <row r="394">
-      <c r="C394" s="23"/>
+      <c r="C394" s="30"/>
     </row>
     <row r="395">
-      <c r="C395" s="23"/>
+      <c r="C395" s="30"/>
     </row>
     <row r="396">
-      <c r="C396" s="23"/>
+      <c r="C396" s="30"/>
     </row>
     <row r="397">
-      <c r="C397" s="23"/>
+      <c r="C397" s="30"/>
     </row>
     <row r="398">
-      <c r="C398" s="23"/>
+      <c r="C398" s="30"/>
     </row>
     <row r="399">
-      <c r="C399" s="23"/>
+      <c r="C399" s="30"/>
     </row>
     <row r="400">
-      <c r="C400" s="23"/>
+      <c r="C400" s="30"/>
     </row>
     <row r="401">
-      <c r="C401" s="23"/>
+      <c r="C401" s="30"/>
     </row>
     <row r="402">
-      <c r="C402" s="23"/>
+      <c r="C402" s="30"/>
     </row>
     <row r="403">
-      <c r="C403" s="23"/>
+      <c r="C403" s="30"/>
     </row>
     <row r="404">
-      <c r="C404" s="23"/>
+      <c r="C404" s="30"/>
     </row>
     <row r="405">
-      <c r="C405" s="23"/>
+      <c r="C405" s="30"/>
     </row>
     <row r="406">
-      <c r="C406" s="23"/>
+      <c r="C406" s="30"/>
     </row>
     <row r="407">
-      <c r="C407" s="23"/>
+      <c r="C407" s="30"/>
     </row>
     <row r="408">
-      <c r="C408" s="23"/>
+      <c r="C408" s="30"/>
     </row>
     <row r="409">
-      <c r="C409" s="23"/>
+      <c r="C409" s="30"/>
     </row>
     <row r="410">
-      <c r="C410" s="23"/>
+      <c r="C410" s="30"/>
     </row>
     <row r="411">
-      <c r="C411" s="23"/>
+      <c r="C411" s="30"/>
     </row>
     <row r="412">
-      <c r="C412" s="23"/>
+      <c r="C412" s="30"/>
     </row>
     <row r="413">
-      <c r="C413" s="23"/>
+      <c r="C413" s="30"/>
     </row>
     <row r="414">
-      <c r="C414" s="23"/>
+      <c r="C414" s="30"/>
     </row>
     <row r="415">
-      <c r="C415" s="23"/>
+      <c r="C415" s="30"/>
     </row>
     <row r="416">
-      <c r="C416" s="23"/>
+      <c r="C416" s="30"/>
     </row>
     <row r="417">
-      <c r="C417" s="23"/>
+      <c r="C417" s="30"/>
     </row>
     <row r="418">
-      <c r="C418" s="23"/>
+      <c r="C418" s="30"/>
     </row>
     <row r="419">
-      <c r="C419" s="23"/>
+      <c r="C419" s="30"/>
     </row>
     <row r="420">
-      <c r="C420" s="23"/>
+      <c r="C420" s="30"/>
     </row>
     <row r="421">
-      <c r="C421" s="23"/>
+      <c r="C421" s="30"/>
     </row>
     <row r="422">
-      <c r="C422" s="23"/>
+      <c r="C422" s="30"/>
     </row>
     <row r="423">
-      <c r="C423" s="23"/>
+      <c r="C423" s="30"/>
     </row>
     <row r="424">
-      <c r="C424" s="23"/>
+      <c r="C424" s="30"/>
     </row>
     <row r="425">
-      <c r="C425" s="23"/>
+      <c r="C425" s="30"/>
     </row>
     <row r="426">
-      <c r="C426" s="23"/>
+      <c r="C426" s="30"/>
     </row>
     <row r="427">
-      <c r="C427" s="23"/>
+      <c r="C427" s="30"/>
     </row>
     <row r="428">
-      <c r="C428" s="23"/>
+      <c r="C428" s="30"/>
     </row>
     <row r="429">
-      <c r="C429" s="23"/>
+      <c r="C429" s="30"/>
     </row>
     <row r="430">
-      <c r="C430" s="23"/>
+      <c r="C430" s="30"/>
     </row>
     <row r="431">
-      <c r="C431" s="23"/>
+      <c r="C431" s="30"/>
     </row>
     <row r="432">
-      <c r="C432" s="23"/>
+      <c r="C432" s="30"/>
     </row>
     <row r="433">
-      <c r="C433" s="23"/>
+      <c r="C433" s="30"/>
     </row>
     <row r="434">
-      <c r="C434" s="23"/>
+      <c r="C434" s="30"/>
     </row>
     <row r="435">
-      <c r="C435" s="23"/>
+      <c r="C435" s="30"/>
     </row>
     <row r="436">
-      <c r="C436" s="23"/>
+      <c r="C436" s="30"/>
     </row>
     <row r="437">
-      <c r="C437" s="23"/>
+      <c r="C437" s="30"/>
     </row>
     <row r="438">
-      <c r="C438" s="23"/>
+      <c r="C438" s="30"/>
     </row>
     <row r="439">
-      <c r="C439" s="23"/>
+      <c r="C439" s="30"/>
     </row>
     <row r="440">
-      <c r="C440" s="23"/>
+      <c r="C440" s="30"/>
     </row>
     <row r="441">
-      <c r="C441" s="23"/>
+      <c r="C441" s="30"/>
     </row>
     <row r="442">
-      <c r="C442" s="23"/>
+      <c r="C442" s="30"/>
     </row>
     <row r="443">
-      <c r="C443" s="23"/>
+      <c r="C443" s="30"/>
     </row>
     <row r="444">
-      <c r="C444" s="23"/>
+      <c r="C444" s="30"/>
     </row>
     <row r="445">
-      <c r="C445" s="23"/>
+      <c r="C445" s="30"/>
     </row>
     <row r="446">
-      <c r="C446" s="23"/>
+      <c r="C446" s="30"/>
     </row>
     <row r="447">
-      <c r="C447" s="23"/>
+      <c r="C447" s="30"/>
     </row>
     <row r="448">
-      <c r="C448" s="23"/>
+      <c r="C448" s="30"/>
     </row>
     <row r="449">
-      <c r="C449" s="23"/>
+      <c r="C449" s="30"/>
     </row>
     <row r="450">
-      <c r="C450" s="23"/>
+      <c r="C450" s="30"/>
     </row>
     <row r="451">
-      <c r="C451" s="23"/>
+      <c r="C451" s="30"/>
     </row>
     <row r="452">
-      <c r="C452" s="23"/>
+      <c r="C452" s="30"/>
     </row>
     <row r="453">
-      <c r="C453" s="23"/>
+      <c r="C453" s="30"/>
     </row>
     <row r="454">
-      <c r="C454" s="23"/>
+      <c r="C454" s="30"/>
     </row>
     <row r="455">
-      <c r="C455" s="23"/>
+      <c r="C455" s="30"/>
     </row>
     <row r="456">
-      <c r="C456" s="23"/>
+      <c r="C456" s="30"/>
     </row>
     <row r="457">
-      <c r="C457" s="23"/>
+      <c r="C457" s="30"/>
     </row>
     <row r="458">
-      <c r="C458" s="23"/>
+      <c r="C458" s="30"/>
     </row>
     <row r="459">
-      <c r="C459" s="23"/>
+      <c r="C459" s="30"/>
     </row>
     <row r="460">
-      <c r="C460" s="23"/>
+      <c r="C460" s="30"/>
     </row>
     <row r="461">
-      <c r="C461" s="23"/>
+      <c r="C461" s="30"/>
     </row>
     <row r="462">
-      <c r="C462" s="23"/>
+      <c r="C462" s="30"/>
     </row>
     <row r="463">
-      <c r="C463" s="23"/>
+      <c r="C463" s="30"/>
     </row>
     <row r="464">
-      <c r="C464" s="23"/>
+      <c r="C464" s="30"/>
     </row>
     <row r="465">
-      <c r="C465" s="23"/>
+      <c r="C465" s="30"/>
     </row>
     <row r="466">
-      <c r="C466" s="23"/>
+      <c r="C466" s="30"/>
     </row>
     <row r="467">
-      <c r="C467" s="23"/>
+      <c r="C467" s="30"/>
     </row>
     <row r="468">
-      <c r="C468" s="23"/>
+      <c r="C468" s="30"/>
     </row>
     <row r="469">
-      <c r="C469" s="23"/>
+      <c r="C469" s="30"/>
     </row>
     <row r="470">
-      <c r="C470" s="23"/>
+      <c r="C470" s="30"/>
     </row>
     <row r="471">
-      <c r="C471" s="23"/>
+      <c r="C471" s="30"/>
     </row>
     <row r="472">
-      <c r="C472" s="23"/>
+      <c r="C472" s="30"/>
     </row>
     <row r="473">
-      <c r="C473" s="23"/>
+      <c r="C473" s="30"/>
     </row>
     <row r="474">
-      <c r="C474" s="23"/>
+      <c r="C474" s="30"/>
     </row>
     <row r="475">
-      <c r="C475" s="23"/>
+      <c r="C475" s="30"/>
     </row>
     <row r="476">
-      <c r="C476" s="23"/>
+      <c r="C476" s="30"/>
     </row>
     <row r="477">
-      <c r="C477" s="23"/>
+      <c r="C477" s="30"/>
     </row>
     <row r="478">
-      <c r="C478" s="23"/>
+      <c r="C478" s="30"/>
     </row>
     <row r="479">
-      <c r="C479" s="23"/>
+      <c r="C479" s="30"/>
     </row>
     <row r="480">
-      <c r="C480" s="23"/>
+      <c r="C480" s="30"/>
     </row>
     <row r="481">
-      <c r="C481" s="23"/>
+      <c r="C481" s="30"/>
     </row>
     <row r="482">
-      <c r="C482" s="23"/>
+      <c r="C482" s="30"/>
     </row>
     <row r="483">
-      <c r="C483" s="23"/>
+      <c r="C483" s="30"/>
     </row>
     <row r="484">
-      <c r="C484" s="23"/>
+      <c r="C484" s="30"/>
     </row>
     <row r="485">
-      <c r="C485" s="23"/>
+      <c r="C485" s="30"/>
     </row>
     <row r="486">
-      <c r="C486" s="23"/>
+      <c r="C486" s="30"/>
     </row>
     <row r="487">
-      <c r="C487" s="23"/>
+      <c r="C487" s="30"/>
     </row>
     <row r="488">
-      <c r="C488" s="23"/>
+      <c r="C488" s="30"/>
     </row>
     <row r="489">
-      <c r="C489" s="23"/>
+      <c r="C489" s="30"/>
     </row>
     <row r="490">
-      <c r="C490" s="23"/>
+      <c r="C490" s="30"/>
     </row>
     <row r="491">
-      <c r="C491" s="23"/>
+      <c r="C491" s="30"/>
     </row>
     <row r="492">
-      <c r="C492" s="23"/>
+      <c r="C492" s="30"/>
     </row>
     <row r="493">
-      <c r="C493" s="23"/>
+      <c r="C493" s="30"/>
     </row>
     <row r="494">
-      <c r="C494" s="23"/>
+      <c r="C494" s="30"/>
     </row>
     <row r="495">
-      <c r="C495" s="23"/>
+      <c r="C495" s="30"/>
     </row>
     <row r="496">
-      <c r="C496" s="23"/>
+      <c r="C496" s="30"/>
     </row>
     <row r="497">
-      <c r="C497" s="23"/>
+      <c r="C497" s="30"/>
     </row>
     <row r="498">
-      <c r="C498" s="23"/>
+      <c r="C498" s="30"/>
     </row>
     <row r="499">
-      <c r="C499" s="23"/>
+      <c r="C499" s="30"/>
     </row>
     <row r="500">
-      <c r="C500" s="23"/>
+      <c r="C500" s="30"/>
     </row>
     <row r="501">
-      <c r="C501" s="23"/>
+      <c r="C501" s="30"/>
     </row>
     <row r="502">
-      <c r="C502" s="23"/>
+      <c r="C502" s="30"/>
     </row>
     <row r="503">
-      <c r="C503" s="23"/>
+      <c r="C503" s="30"/>
     </row>
     <row r="504">
-      <c r="C504" s="23"/>
+      <c r="C504" s="30"/>
     </row>
     <row r="505">
-      <c r="C505" s="23"/>
+      <c r="C505" s="30"/>
     </row>
     <row r="506">
-      <c r="C506" s="23"/>
+      <c r="C506" s="30"/>
     </row>
     <row r="507">
-      <c r="C507" s="23"/>
+      <c r="C507" s="30"/>
     </row>
     <row r="508">
-      <c r="C508" s="23"/>
+      <c r="C508" s="30"/>
     </row>
     <row r="509">
-      <c r="C509" s="23"/>
+      <c r="C509" s="30"/>
     </row>
     <row r="510">
-      <c r="C510" s="23"/>
+      <c r="C510" s="30"/>
     </row>
     <row r="511">
-      <c r="C511" s="23"/>
+      <c r="C511" s="30"/>
     </row>
     <row r="512">
-      <c r="C512" s="23"/>
+      <c r="C512" s="30"/>
     </row>
     <row r="513">
-      <c r="C513" s="23"/>
+      <c r="C513" s="30"/>
     </row>
     <row r="514">
-      <c r="C514" s="23"/>
+      <c r="C514" s="30"/>
     </row>
     <row r="515">
-      <c r="C515" s="23"/>
+      <c r="C515" s="30"/>
     </row>
     <row r="516">
-      <c r="C516" s="23"/>
+      <c r="C516" s="30"/>
     </row>
     <row r="517">
-      <c r="C517" s="23"/>
+      <c r="C517" s="30"/>
     </row>
     <row r="518">
-      <c r="C518" s="23"/>
+      <c r="C518" s="30"/>
     </row>
     <row r="519">
-      <c r="C519" s="23"/>
+      <c r="C519" s="30"/>
     </row>
     <row r="520">
-      <c r="C520" s="23"/>
+      <c r="C520" s="30"/>
     </row>
     <row r="521">
-      <c r="C521" s="23"/>
+      <c r="C521" s="30"/>
     </row>
     <row r="522">
-      <c r="C522" s="23"/>
+      <c r="C522" s="30"/>
     </row>
     <row r="523">
-      <c r="C523" s="23"/>
+      <c r="C523" s="30"/>
     </row>
     <row r="524">
-      <c r="C524" s="23"/>
+      <c r="C524" s="30"/>
     </row>
     <row r="525">
-      <c r="C525" s="23"/>
+      <c r="C525" s="30"/>
     </row>
     <row r="526">
-      <c r="C526" s="23"/>
+      <c r="C526" s="30"/>
     </row>
     <row r="527">
-      <c r="C527" s="23"/>
+      <c r="C527" s="30"/>
     </row>
     <row r="528">
-      <c r="C528" s="23"/>
+      <c r="C528" s="30"/>
     </row>
     <row r="529">
-      <c r="C529" s="23"/>
+      <c r="C529" s="30"/>
     </row>
     <row r="530">
-      <c r="C530" s="23"/>
+      <c r="C530" s="30"/>
     </row>
     <row r="531">
-      <c r="C531" s="23"/>
+      <c r="C531" s="30"/>
     </row>
     <row r="532">
-      <c r="C532" s="23"/>
+      <c r="C532" s="30"/>
     </row>
     <row r="533">
-      <c r="C533" s="23"/>
+      <c r="C533" s="30"/>
     </row>
     <row r="534">
-      <c r="C534" s="23"/>
+      <c r="C534" s="30"/>
     </row>
     <row r="535">
-      <c r="C535" s="23"/>
+      <c r="C535" s="30"/>
     </row>
     <row r="536">
-      <c r="C536" s="23"/>
+      <c r="C536" s="30"/>
     </row>
     <row r="537">
-      <c r="C537" s="23"/>
+      <c r="C537" s="30"/>
     </row>
     <row r="538">
-      <c r="C538" s="23"/>
+      <c r="C538" s="30"/>
     </row>
     <row r="539">
-      <c r="C539" s="23"/>
+      <c r="C539" s="30"/>
     </row>
     <row r="540">
-      <c r="C540" s="23"/>
+      <c r="C540" s="30"/>
     </row>
     <row r="541">
-      <c r="C541" s="23"/>
+      <c r="C541" s="30"/>
     </row>
     <row r="542">
-      <c r="C542" s="23"/>
+      <c r="C542" s="30"/>
     </row>
     <row r="543">
-      <c r="C543" s="23"/>
+      <c r="C543" s="30"/>
     </row>
     <row r="544">
-      <c r="C544" s="23"/>
+      <c r="C544" s="30"/>
     </row>
     <row r="545">
-      <c r="C545" s="23"/>
+      <c r="C545" s="30"/>
     </row>
     <row r="546">
-      <c r="C546" s="23"/>
+      <c r="C546" s="30"/>
     </row>
     <row r="547">
-      <c r="C547" s="23"/>
+      <c r="C547" s="30"/>
     </row>
     <row r="548">
-      <c r="C548" s="23"/>
+      <c r="C548" s="30"/>
     </row>
     <row r="549">
-      <c r="C549" s="23"/>
+      <c r="C549" s="30"/>
     </row>
     <row r="550">
-      <c r="C550" s="23"/>
+      <c r="C550" s="30"/>
     </row>
     <row r="551">
-      <c r="C551" s="23"/>
+      <c r="C551" s="30"/>
     </row>
     <row r="552">
-      <c r="C552" s="23"/>
+      <c r="C552" s="30"/>
     </row>
     <row r="553">
-      <c r="C553" s="23"/>
+      <c r="C553" s="30"/>
     </row>
     <row r="554">
-      <c r="C554" s="23"/>
+      <c r="C554" s="30"/>
     </row>
     <row r="555">
-      <c r="C555" s="23"/>
+      <c r="C555" s="30"/>
     </row>
     <row r="556">
-      <c r="C556" s="23"/>
+      <c r="C556" s="30"/>
     </row>
     <row r="557">
-      <c r="C557" s="23"/>
+      <c r="C557" s="30"/>
     </row>
     <row r="558">
-      <c r="C558" s="23"/>
+      <c r="C558" s="30"/>
     </row>
     <row r="559">
-      <c r="C559" s="23"/>
+      <c r="C559" s="30"/>
     </row>
     <row r="560">
-      <c r="C560" s="23"/>
+      <c r="C560" s="30"/>
     </row>
     <row r="561">
-      <c r="C561" s="23"/>
+      <c r="C561" s="30"/>
     </row>
     <row r="562">
-      <c r="C562" s="23"/>
+      <c r="C562" s="30"/>
     </row>
     <row r="563">
-      <c r="C563" s="23"/>
+      <c r="C563" s="30"/>
     </row>
     <row r="564">
-      <c r="C564" s="23"/>
+      <c r="C564" s="30"/>
     </row>
     <row r="565">
-      <c r="C565" s="23"/>
+      <c r="C565" s="30"/>
     </row>
     <row r="566">
-      <c r="C566" s="23"/>
+      <c r="C566" s="30"/>
     </row>
     <row r="567">
-      <c r="C567" s="23"/>
+      <c r="C567" s="30"/>
     </row>
     <row r="568">
-      <c r="C568" s="23"/>
+      <c r="C568" s="30"/>
     </row>
     <row r="569">
-      <c r="C569" s="23"/>
+      <c r="C569" s="30"/>
     </row>
     <row r="570">
-      <c r="C570" s="23"/>
+      <c r="C570" s="30"/>
     </row>
     <row r="571">
-      <c r="C571" s="23"/>
+      <c r="C571" s="30"/>
     </row>
     <row r="572">
-      <c r="C572" s="23"/>
+      <c r="C572" s="30"/>
     </row>
     <row r="573">
-      <c r="C573" s="23"/>
+      <c r="C573" s="30"/>
     </row>
     <row r="574">
-      <c r="C574" s="23"/>
+      <c r="C574" s="30"/>
     </row>
     <row r="575">
-      <c r="C575" s="23"/>
+      <c r="C575" s="30"/>
     </row>
     <row r="576">
-      <c r="C576" s="23"/>
+      <c r="C576" s="30"/>
     </row>
     <row r="577">
-      <c r="C577" s="23"/>
+      <c r="C577" s="30"/>
     </row>
     <row r="578">
-      <c r="C578" s="23"/>
+      <c r="C578" s="30"/>
     </row>
     <row r="579">
-      <c r="C579" s="23"/>
+      <c r="C579" s="30"/>
     </row>
     <row r="580">
-      <c r="C580" s="23"/>
+      <c r="C580" s="30"/>
     </row>
     <row r="581">
-      <c r="C581" s="23"/>
+      <c r="C581" s="30"/>
     </row>
     <row r="582">
-      <c r="C582" s="23"/>
+      <c r="C582" s="30"/>
     </row>
     <row r="583">
-      <c r="C583" s="23"/>
+      <c r="C583" s="30"/>
     </row>
     <row r="584">
-      <c r="C584" s="23"/>
+      <c r="C584" s="30"/>
     </row>
     <row r="585">
-      <c r="C585" s="23"/>
+      <c r="C585" s="30"/>
     </row>
     <row r="586">
-      <c r="C586" s="23"/>
+      <c r="C586" s="30"/>
     </row>
     <row r="587">
-      <c r="C587" s="23"/>
+      <c r="C587" s="30"/>
     </row>
     <row r="588">
-      <c r="C588" s="23"/>
+      <c r="C588" s="30"/>
     </row>
     <row r="589">
-      <c r="C589" s="23"/>
+      <c r="C589" s="30"/>
     </row>
     <row r="590">
-      <c r="C590" s="23"/>
+      <c r="C590" s="30"/>
     </row>
     <row r="591">
-      <c r="C591" s="23"/>
+      <c r="C591" s="30"/>
     </row>
     <row r="592">
-      <c r="C592" s="23"/>
+      <c r="C592" s="30"/>
     </row>
     <row r="593">
-      <c r="C593" s="23"/>
+      <c r="C593" s="30"/>
     </row>
     <row r="594">
-      <c r="C594" s="23"/>
+      <c r="C594" s="30"/>
     </row>
     <row r="595">
-      <c r="C595" s="23"/>
+      <c r="C595" s="30"/>
     </row>
     <row r="596">
-      <c r="C596" s="23"/>
+      <c r="C596" s="30"/>
     </row>
     <row r="597">
-      <c r="C597" s="23"/>
+      <c r="C597" s="30"/>
     </row>
     <row r="598">
-      <c r="C598" s="23"/>
+      <c r="C598" s="30"/>
     </row>
     <row r="599">
-      <c r="C599" s="23"/>
+      <c r="C599" s="30"/>
     </row>
     <row r="600">
-      <c r="C600" s="23"/>
+      <c r="C600" s="30"/>
     </row>
     <row r="601">
-      <c r="C601" s="23"/>
+      <c r="C601" s="30"/>
     </row>
     <row r="602">
-      <c r="C602" s="23"/>
+      <c r="C602" s="30"/>
     </row>
     <row r="603">
-      <c r="C603" s="23"/>
+      <c r="C603" s="30"/>
     </row>
     <row r="604">
-      <c r="C604" s="23"/>
+      <c r="C604" s="30"/>
     </row>
     <row r="605">
-      <c r="C605" s="23"/>
+      <c r="C605" s="30"/>
     </row>
     <row r="606">
-      <c r="C606" s="23"/>
+      <c r="C606" s="30"/>
     </row>
     <row r="607">
-      <c r="C607" s="23"/>
+      <c r="C607" s="30"/>
     </row>
     <row r="608">
-      <c r="C608" s="23"/>
+      <c r="C608" s="30"/>
     </row>
     <row r="609">
-      <c r="C609" s="23"/>
+      <c r="C609" s="30"/>
     </row>
     <row r="610">
-      <c r="C610" s="23"/>
+      <c r="C610" s="30"/>
     </row>
     <row r="611">
-      <c r="C611" s="23"/>
+      <c r="C611" s="30"/>
     </row>
     <row r="612">
-      <c r="C612" s="23"/>
+      <c r="C612" s="30"/>
     </row>
     <row r="613">
-      <c r="C613" s="23"/>
+      <c r="C613" s="30"/>
     </row>
     <row r="614">
-      <c r="C614" s="23"/>
+      <c r="C614" s="30"/>
     </row>
     <row r="615">
-      <c r="C615" s="23"/>
+      <c r="C615" s="30"/>
     </row>
     <row r="616">
-      <c r="C616" s="23"/>
+      <c r="C616" s="30"/>
     </row>
     <row r="617">
-      <c r="C617" s="23"/>
+      <c r="C617" s="30"/>
     </row>
     <row r="618">
-      <c r="C618" s="23"/>
+      <c r="C618" s="30"/>
     </row>
     <row r="619">
-      <c r="C619" s="23"/>
+      <c r="C619" s="30"/>
     </row>
     <row r="620">
-      <c r="C620" s="23"/>
+      <c r="C620" s="30"/>
     </row>
     <row r="621">
-      <c r="C621" s="23"/>
+      <c r="C621" s="30"/>
     </row>
     <row r="622">
-      <c r="C622" s="23"/>
+      <c r="C622" s="30"/>
     </row>
     <row r="623">
-      <c r="C623" s="23"/>
+      <c r="C623" s="30"/>
     </row>
     <row r="624">
-      <c r="C624" s="23"/>
+      <c r="C624" s="30"/>
     </row>
     <row r="625">
-      <c r="C625" s="23"/>
+      <c r="C625" s="30"/>
     </row>
     <row r="626">
-      <c r="C626" s="23"/>
+      <c r="C626" s="30"/>
     </row>
     <row r="627">
-      <c r="C627" s="23"/>
+      <c r="C627" s="30"/>
     </row>
     <row r="628">
-      <c r="C628" s="23"/>
+      <c r="C628" s="30"/>
     </row>
     <row r="629">
-      <c r="C629" s="23"/>
+      <c r="C629" s="30"/>
     </row>
     <row r="630">
-      <c r="C630" s="23"/>
+      <c r="C630" s="30"/>
     </row>
     <row r="631">
-      <c r="C631" s="23"/>
+      <c r="C631" s="30"/>
     </row>
     <row r="632">
-      <c r="C632" s="23"/>
+      <c r="C632" s="30"/>
     </row>
     <row r="633">
-      <c r="C633" s="23"/>
+      <c r="C633" s="30"/>
     </row>
     <row r="634">
-      <c r="C634" s="23"/>
+      <c r="C634" s="30"/>
     </row>
     <row r="635">
-      <c r="C635" s="23"/>
+      <c r="C635" s="30"/>
     </row>
     <row r="636">
-      <c r="C636" s="23"/>
+      <c r="C636" s="30"/>
     </row>
     <row r="637">
-      <c r="C637" s="23"/>
+      <c r="C637" s="30"/>
     </row>
     <row r="638">
-      <c r="C638" s="23"/>
+      <c r="C638" s="30"/>
     </row>
     <row r="639">
-      <c r="C639" s="23"/>
+      <c r="C639" s="30"/>
     </row>
     <row r="640">
-      <c r="C640" s="23"/>
+      <c r="C640" s="30"/>
     </row>
     <row r="641">
-      <c r="C641" s="23"/>
+      <c r="C641" s="30"/>
     </row>
     <row r="642">
-      <c r="C642" s="23"/>
+      <c r="C642" s="30"/>
     </row>
     <row r="643">
-      <c r="C643" s="23"/>
+      <c r="C643" s="30"/>
     </row>
     <row r="644">
-      <c r="C644" s="23"/>
+      <c r="C644" s="30"/>
     </row>
     <row r="645">
-      <c r="C645" s="23"/>
+      <c r="C645" s="30"/>
     </row>
     <row r="646">
-      <c r="C646" s="23"/>
+      <c r="C646" s="30"/>
     </row>
     <row r="647">
-      <c r="C647" s="23"/>
+      <c r="C647" s="30"/>
     </row>
     <row r="648">
-      <c r="C648" s="23"/>
+      <c r="C648" s="30"/>
     </row>
     <row r="649">
-      <c r="C649" s="23"/>
+      <c r="C649" s="30"/>
     </row>
     <row r="650">
-      <c r="C650" s="23"/>
+      <c r="C650" s="30"/>
     </row>
     <row r="651">
-      <c r="C651" s="23"/>
+      <c r="C651" s="30"/>
     </row>
     <row r="652">
-      <c r="C652" s="23"/>
+      <c r="C652" s="30"/>
     </row>
     <row r="653">
-      <c r="C653" s="23"/>
+      <c r="C653" s="30"/>
     </row>
     <row r="654">
-      <c r="C654" s="23"/>
+      <c r="C654" s="30"/>
     </row>
     <row r="655">
-      <c r="C655" s="23"/>
+      <c r="C655" s="30"/>
     </row>
     <row r="656">
-      <c r="C656" s="23"/>
+      <c r="C656" s="30"/>
     </row>
     <row r="657">
-      <c r="C657" s="23"/>
+      <c r="C657" s="30"/>
     </row>
     <row r="658">
-      <c r="C658" s="23"/>
+      <c r="C658" s="30"/>
     </row>
     <row r="659">
-      <c r="C659" s="23"/>
+      <c r="C659" s="30"/>
     </row>
     <row r="660">
-      <c r="C660" s="23"/>
+      <c r="C660" s="30"/>
     </row>
     <row r="661">
-      <c r="C661" s="23"/>
+      <c r="C661" s="30"/>
     </row>
     <row r="662">
-      <c r="C662" s="23"/>
+      <c r="C662" s="30"/>
     </row>
     <row r="663">
-      <c r="C663" s="23"/>
+      <c r="C663" s="30"/>
     </row>
     <row r="664">
-      <c r="C664" s="23"/>
+      <c r="C664" s="30"/>
     </row>
     <row r="665">
-      <c r="C665" s="23"/>
+      <c r="C665" s="30"/>
     </row>
     <row r="666">
-      <c r="C666" s="23"/>
+      <c r="C666" s="30"/>
     </row>
     <row r="667">
-      <c r="C667" s="23"/>
+      <c r="C667" s="30"/>
     </row>
     <row r="668">
-      <c r="C668" s="23"/>
+      <c r="C668" s="30"/>
     </row>
     <row r="669">
-      <c r="C669" s="23"/>
+      <c r="C669" s="30"/>
     </row>
     <row r="670">
-      <c r="C670" s="23"/>
+      <c r="C670" s="30"/>
     </row>
     <row r="671">
-      <c r="C671" s="23"/>
+      <c r="C671" s="30"/>
     </row>
     <row r="672">
-      <c r="C672" s="23"/>
+      <c r="C672" s="30"/>
     </row>
     <row r="673">
-      <c r="C673" s="23"/>
+      <c r="C673" s="30"/>
     </row>
     <row r="674">
-      <c r="C674" s="23"/>
+      <c r="C674" s="30"/>
     </row>
     <row r="675">
-      <c r="C675" s="23"/>
+      <c r="C675" s="30"/>
     </row>
     <row r="676">
-      <c r="C676" s="23"/>
+      <c r="C676" s="30"/>
     </row>
     <row r="677">
-      <c r="C677" s="23"/>
+      <c r="C677" s="30"/>
     </row>
     <row r="678">
-      <c r="C678" s="23"/>
+      <c r="C678" s="30"/>
     </row>
     <row r="679">
-      <c r="C679" s="23"/>
+      <c r="C679" s="30"/>
     </row>
     <row r="680">
-      <c r="C680" s="23"/>
+      <c r="C680" s="30"/>
     </row>
     <row r="681">
-      <c r="C681" s="23"/>
+      <c r="C681" s="30"/>
     </row>
     <row r="682">
-      <c r="C682" s="23"/>
+      <c r="C682" s="30"/>
     </row>
     <row r="683">
-      <c r="C683" s="23"/>
+      <c r="C683" s="30"/>
     </row>
     <row r="684">
-      <c r="C684" s="23"/>
+      <c r="C684" s="30"/>
     </row>
     <row r="685">
-      <c r="C685" s="23"/>
+      <c r="C685" s="30"/>
     </row>
     <row r="686">
-      <c r="C686" s="23"/>
+      <c r="C686" s="30"/>
     </row>
     <row r="687">
-      <c r="C687" s="23"/>
+      <c r="C687" s="30"/>
     </row>
     <row r="688">
-      <c r="C688" s="23"/>
+      <c r="C688" s="30"/>
     </row>
     <row r="689">
-      <c r="C689" s="23"/>
+      <c r="C689" s="30"/>
     </row>
     <row r="690">
-      <c r="C690" s="23"/>
+      <c r="C690" s="30"/>
     </row>
     <row r="691">
-      <c r="C691" s="23"/>
+      <c r="C691" s="30"/>
     </row>
     <row r="692">
-      <c r="C692" s="23"/>
+      <c r="C692" s="30"/>
     </row>
     <row r="693">
-      <c r="C693" s="23"/>
+      <c r="C693" s="30"/>
     </row>
     <row r="694">
-      <c r="C694" s="23"/>
+      <c r="C694" s="30"/>
     </row>
     <row r="695">
-      <c r="C695" s="23"/>
+      <c r="C695" s="30"/>
     </row>
     <row r="696">
-      <c r="C696" s="23"/>
+      <c r="C696" s="30"/>
     </row>
     <row r="697">
-      <c r="C697" s="23"/>
+      <c r="C697" s="30"/>
     </row>
     <row r="698">
-      <c r="C698" s="23"/>
+      <c r="C698" s="30"/>
     </row>
     <row r="699">
-      <c r="C699" s="23"/>
+      <c r="C699" s="30"/>
     </row>
     <row r="700">
-      <c r="C700" s="23"/>
+      <c r="C700" s="30"/>
     </row>
     <row r="701">
-      <c r="C701" s="23"/>
+      <c r="C701" s="30"/>
     </row>
     <row r="702">
-      <c r="C702" s="23"/>
+      <c r="C702" s="30"/>
     </row>
     <row r="703">
-      <c r="C703" s="23"/>
+      <c r="C703" s="30"/>
     </row>
     <row r="704">
-      <c r="C704" s="23"/>
+      <c r="C704" s="30"/>
     </row>
     <row r="705">
-      <c r="C705" s="23"/>
+      <c r="C705" s="30"/>
     </row>
     <row r="706">
-      <c r="C706" s="23"/>
+      <c r="C706" s="30"/>
     </row>
     <row r="707">
-      <c r="C707" s="23"/>
+      <c r="C707" s="30"/>
     </row>
     <row r="708">
-      <c r="C708" s="23"/>
+      <c r="C708" s="30"/>
     </row>
     <row r="709">
-      <c r="C709" s="23"/>
+      <c r="C709" s="30"/>
     </row>
     <row r="710">
-      <c r="C710" s="23"/>
+      <c r="C710" s="30"/>
     </row>
     <row r="711">
-      <c r="C711" s="23"/>
+      <c r="C711" s="30"/>
     </row>
     <row r="712">
-      <c r="C712" s="23"/>
+      <c r="C712" s="30"/>
     </row>
     <row r="713">
-      <c r="C713" s="23"/>
+      <c r="C713" s="30"/>
     </row>
     <row r="714">
-      <c r="C714" s="23"/>
+      <c r="C714" s="30"/>
     </row>
     <row r="715">
-      <c r="C715" s="23"/>
+      <c r="C715" s="30"/>
     </row>
     <row r="716">
-      <c r="C716" s="23"/>
+      <c r="C716" s="30"/>
     </row>
     <row r="717">
-      <c r="C717" s="23"/>
+      <c r="C717" s="30"/>
     </row>
     <row r="718">
-      <c r="C718" s="23"/>
+      <c r="C718" s="30"/>
     </row>
     <row r="719">
-      <c r="C719" s="23"/>
+      <c r="C719" s="30"/>
     </row>
     <row r="720">
-      <c r="C720" s="23"/>
+      <c r="C720" s="30"/>
     </row>
     <row r="721">
-      <c r="C721" s="23"/>
+      <c r="C721" s="30"/>
     </row>
     <row r="722">
-      <c r="C722" s="23"/>
+      <c r="C722" s="30"/>
     </row>
     <row r="723">
-      <c r="C723" s="23"/>
+      <c r="C723" s="30"/>
     </row>
     <row r="724">
-      <c r="C724" s="23"/>
+      <c r="C724" s="30"/>
     </row>
     <row r="725">
-      <c r="C725" s="23"/>
+      <c r="C725" s="30"/>
     </row>
     <row r="726">
-      <c r="C726" s="23"/>
+      <c r="C726" s="30"/>
     </row>
     <row r="727">
-      <c r="C727" s="23"/>
+      <c r="C727" s="30"/>
     </row>
     <row r="728">
-      <c r="C728" s="23"/>
+      <c r="C728" s="30"/>
     </row>
     <row r="729">
-      <c r="C729" s="23"/>
+      <c r="C729" s="30"/>
     </row>
     <row r="730">
-      <c r="C730" s="23"/>
+      <c r="C730" s="30"/>
     </row>
     <row r="731">
-      <c r="C731" s="23"/>
+      <c r="C731" s="30"/>
     </row>
     <row r="732">
-      <c r="C732" s="23"/>
+      <c r="C732" s="30"/>
     </row>
     <row r="733">
-      <c r="C733" s="23"/>
+      <c r="C733" s="30"/>
     </row>
     <row r="734">
-      <c r="C734" s="23"/>
+      <c r="C734" s="30"/>
     </row>
     <row r="735">
-      <c r="C735" s="23"/>
+      <c r="C735" s="30"/>
     </row>
     <row r="736">
-      <c r="C736" s="23"/>
+      <c r="C736" s="30"/>
     </row>
     <row r="737">
-      <c r="C737" s="23"/>
+      <c r="C737" s="30"/>
     </row>
     <row r="738">
-      <c r="C738" s="23"/>
+      <c r="C738" s="30"/>
     </row>
     <row r="739">
-      <c r="C739" s="23"/>
+      <c r="C739" s="30"/>
     </row>
     <row r="740">
-      <c r="C740" s="23"/>
+      <c r="C740" s="30"/>
     </row>
     <row r="741">
-      <c r="C741" s="23"/>
+      <c r="C741" s="30"/>
     </row>
     <row r="742">
-      <c r="C742" s="23"/>
+      <c r="C742" s="30"/>
     </row>
     <row r="743">
-      <c r="C743" s="23"/>
+      <c r="C743" s="30"/>
     </row>
     <row r="744">
-      <c r="C744" s="23"/>
+      <c r="C744" s="30"/>
     </row>
     <row r="745">
-      <c r="C745" s="23"/>
+      <c r="C745" s="30"/>
     </row>
     <row r="746">
-      <c r="C746" s="23"/>
+      <c r="C746" s="30"/>
     </row>
     <row r="747">
-      <c r="C747" s="23"/>
+      <c r="C747" s="30"/>
     </row>
     <row r="748">
-      <c r="C748" s="23"/>
+      <c r="C748" s="30"/>
     </row>
     <row r="749">
-      <c r="C749" s="23"/>
+      <c r="C749" s="30"/>
     </row>
     <row r="750">
-      <c r="C750" s="23"/>
+      <c r="C750" s="30"/>
     </row>
     <row r="751">
-      <c r="C751" s="23"/>
+      <c r="C751" s="30"/>
     </row>
     <row r="752">
-      <c r="C752" s="23"/>
+      <c r="C752" s="30"/>
     </row>
     <row r="753">
-      <c r="C753" s="23"/>
+      <c r="C753" s="30"/>
     </row>
     <row r="754">
-      <c r="C754" s="23"/>
+      <c r="C754" s="30"/>
     </row>
     <row r="755">
-      <c r="C755" s="23"/>
+      <c r="C755" s="30"/>
     </row>
     <row r="756">
-      <c r="C756" s="23"/>
+      <c r="C756" s="30"/>
     </row>
     <row r="757">
-      <c r="C757" s="23"/>
+      <c r="C757" s="30"/>
     </row>
     <row r="758">
-      <c r="C758" s="23"/>
+      <c r="C758" s="30"/>
     </row>
     <row r="759">
-      <c r="C759" s="23"/>
+      <c r="C759" s="30"/>
     </row>
     <row r="760">
-      <c r="C760" s="23"/>
+      <c r="C760" s="30"/>
     </row>
     <row r="761">
-      <c r="C761" s="23"/>
+      <c r="C761" s="30"/>
     </row>
     <row r="762">
-      <c r="C762" s="23"/>
+      <c r="C762" s="30"/>
     </row>
     <row r="763">
-      <c r="C763" s="23"/>
+      <c r="C763" s="30"/>
     </row>
     <row r="764">
-      <c r="C764" s="23"/>
+      <c r="C764" s="30"/>
     </row>
     <row r="765">
-      <c r="C765" s="23"/>
+      <c r="C765" s="30"/>
     </row>
     <row r="766">
-      <c r="C766" s="23"/>
+      <c r="C766" s="30"/>
     </row>
     <row r="767">
-      <c r="C767" s="23"/>
+      <c r="C767" s="30"/>
     </row>
     <row r="768">
-      <c r="C768" s="23"/>
+      <c r="C768" s="30"/>
     </row>
     <row r="769">
-      <c r="C769" s="23"/>
+      <c r="C769" s="30"/>
     </row>
     <row r="770">
-      <c r="C770" s="23"/>
+      <c r="C770" s="30"/>
     </row>
     <row r="771">
-      <c r="C771" s="23"/>
+      <c r="C771" s="30"/>
     </row>
     <row r="772">
-      <c r="C772" s="23"/>
+      <c r="C772" s="30"/>
     </row>
     <row r="773">
-      <c r="C773" s="23"/>
+      <c r="C773" s="30"/>
     </row>
     <row r="774">
-      <c r="C774" s="23"/>
+      <c r="C774" s="30"/>
     </row>
     <row r="775">
-      <c r="C775" s="23"/>
+      <c r="C775" s="30"/>
     </row>
     <row r="776">
-      <c r="C776" s="23"/>
+      <c r="C776" s="30"/>
     </row>
     <row r="777">
-      <c r="C777" s="23"/>
+      <c r="C777" s="30"/>
     </row>
     <row r="778">
-      <c r="C778" s="23"/>
+      <c r="C778" s="30"/>
     </row>
     <row r="779">
-      <c r="C779" s="23"/>
+      <c r="C779" s="30"/>
     </row>
     <row r="780">
-      <c r="C780" s="23"/>
+      <c r="C780" s="30"/>
     </row>
     <row r="781">
-      <c r="C781" s="23"/>
+      <c r="C781" s="30"/>
     </row>
     <row r="782">
-      <c r="C782" s="23"/>
+      <c r="C782" s="30"/>
     </row>
     <row r="783">
-      <c r="C783" s="23"/>
+      <c r="C783" s="30"/>
     </row>
     <row r="784">
-      <c r="C784" s="23"/>
+      <c r="C784" s="30"/>
     </row>
     <row r="785">
-      <c r="C785" s="23"/>
+      <c r="C785" s="30"/>
     </row>
     <row r="786">
-      <c r="C786" s="23"/>
+      <c r="C786" s="30"/>
     </row>
     <row r="787">
-      <c r="C787" s="23"/>
+      <c r="C787" s="30"/>
     </row>
     <row r="788">
-      <c r="C788" s="23"/>
+      <c r="C788" s="30"/>
     </row>
     <row r="789">
-      <c r="C789" s="23"/>
+      <c r="C789" s="30"/>
     </row>
     <row r="790">
-      <c r="C790" s="23"/>
+      <c r="C790" s="30"/>
     </row>
     <row r="791">
-      <c r="C791" s="23"/>
+      <c r="C791" s="30"/>
     </row>
     <row r="792">
-      <c r="C792" s="23"/>
+      <c r="C792" s="30"/>
     </row>
     <row r="793">
-      <c r="C793" s="23"/>
+      <c r="C793" s="30"/>
     </row>
     <row r="794">
-      <c r="C794" s="23"/>
+      <c r="C794" s="30"/>
     </row>
     <row r="795">
-      <c r="C795" s="23"/>
+      <c r="C795" s="30"/>
     </row>
     <row r="796">
-      <c r="C796" s="23"/>
+      <c r="C796" s="30"/>
     </row>
     <row r="797">
-      <c r="C797" s="23"/>
+      <c r="C797" s="30"/>
     </row>
     <row r="798">
-      <c r="C798" s="23"/>
+      <c r="C798" s="30"/>
     </row>
     <row r="799">
-      <c r="C799" s="23"/>
+      <c r="C799" s="30"/>
     </row>
     <row r="800">
-      <c r="C800" s="23"/>
+      <c r="C800" s="30"/>
     </row>
     <row r="801">
-      <c r="C801" s="23"/>
+      <c r="C801" s="30"/>
     </row>
     <row r="802">
-      <c r="C802" s="23"/>
+      <c r="C802" s="30"/>
     </row>
     <row r="803">
-      <c r="C803" s="23"/>
+      <c r="C803" s="30"/>
     </row>
     <row r="804">
-      <c r="C804" s="23"/>
+      <c r="C804" s="30"/>
     </row>
     <row r="805">
-      <c r="C805" s="23"/>
+      <c r="C805" s="30"/>
     </row>
     <row r="806">
-      <c r="C806" s="23"/>
+      <c r="C806" s="30"/>
     </row>
     <row r="807">
-      <c r="C807" s="23"/>
+      <c r="C807" s="30"/>
     </row>
     <row r="808">
-      <c r="C808" s="23"/>
+      <c r="C808" s="30"/>
     </row>
     <row r="809">
-      <c r="C809" s="23"/>
+      <c r="C809" s="30"/>
     </row>
     <row r="810">
-      <c r="C810" s="23"/>
+      <c r="C810" s="30"/>
     </row>
     <row r="811">
-      <c r="C811" s="23"/>
+      <c r="C811" s="30"/>
     </row>
     <row r="812">
-      <c r="C812" s="23"/>
+      <c r="C812" s="30"/>
     </row>
     <row r="813">
-      <c r="C813" s="23"/>
+      <c r="C813" s="30"/>
     </row>
     <row r="814">
-      <c r="C814" s="23"/>
+      <c r="C814" s="30"/>
     </row>
     <row r="815">
-      <c r="C815" s="23"/>
+      <c r="C815" s="30"/>
     </row>
     <row r="816">
-      <c r="C816" s="23"/>
+      <c r="C816" s="30"/>
     </row>
     <row r="817">
-      <c r="C817" s="23"/>
+      <c r="C817" s="30"/>
     </row>
     <row r="818">
-      <c r="C818" s="23"/>
+      <c r="C818" s="30"/>
     </row>
     <row r="819">
-      <c r="C819" s="23"/>
+      <c r="C819" s="30"/>
     </row>
     <row r="820">
-      <c r="C820" s="23"/>
+      <c r="C820" s="30"/>
     </row>
     <row r="821">
-      <c r="C821" s="23"/>
+      <c r="C821" s="30"/>
     </row>
     <row r="822">
-      <c r="C822" s="23"/>
+      <c r="C822" s="30"/>
     </row>
     <row r="823">
-      <c r="C823" s="23"/>
+      <c r="C823" s="30"/>
     </row>
     <row r="824">
-      <c r="C824" s="23"/>
+      <c r="C824" s="30"/>
     </row>
     <row r="825">
-      <c r="C825" s="23"/>
+      <c r="C825" s="30"/>
     </row>
     <row r="826">
-      <c r="C826" s="23"/>
+      <c r="C826" s="30"/>
     </row>
     <row r="827">
-      <c r="C827" s="23"/>
+      <c r="C827" s="30"/>
     </row>
     <row r="828">
-      <c r="C828" s="23"/>
+      <c r="C828" s="30"/>
     </row>
     <row r="829">
-      <c r="C829" s="23"/>
+      <c r="C829" s="30"/>
     </row>
     <row r="830">
-      <c r="C830" s="23"/>
+      <c r="C830" s="30"/>
     </row>
     <row r="831">
-      <c r="C831" s="23"/>
+      <c r="C831" s="30"/>
     </row>
     <row r="832">
-      <c r="C832" s="23"/>
+      <c r="C832" s="30"/>
     </row>
     <row r="833">
-      <c r="C833" s="23"/>
+      <c r="C833" s="30"/>
     </row>
     <row r="834">
-      <c r="C834" s="23"/>
+      <c r="C834" s="30"/>
     </row>
     <row r="835">
-      <c r="C835" s="23"/>
+      <c r="C835" s="30"/>
     </row>
     <row r="836">
-      <c r="C836" s="23"/>
+      <c r="C836" s="30"/>
     </row>
     <row r="837">
-      <c r="C837" s="23"/>
+      <c r="C837" s="30"/>
     </row>
     <row r="838">
-      <c r="C838" s="23"/>
+      <c r="C838" s="30"/>
     </row>
     <row r="839">
-      <c r="C839" s="23"/>
+      <c r="C839" s="30"/>
     </row>
     <row r="840">
-      <c r="C840" s="23"/>
+      <c r="C840" s="30"/>
     </row>
     <row r="841">
-      <c r="C841" s="23"/>
+      <c r="C841" s="30"/>
     </row>
     <row r="842">
-      <c r="C842" s="23"/>
+      <c r="C842" s="30"/>
     </row>
     <row r="843">
-      <c r="C843" s="23"/>
+      <c r="C843" s="30"/>
     </row>
     <row r="844">
-      <c r="C844" s="23"/>
+      <c r="C844" s="30"/>
     </row>
     <row r="845">
-      <c r="C845" s="23"/>
+      <c r="C845" s="30"/>
     </row>
     <row r="846">
-      <c r="C846" s="23"/>
+      <c r="C846" s="30"/>
     </row>
     <row r="847">
-      <c r="C847" s="23"/>
+      <c r="C847" s="30"/>
     </row>
     <row r="848">
-      <c r="C848" s="23"/>
+      <c r="C848" s="30"/>
     </row>
     <row r="849">
-      <c r="C849" s="23"/>
+      <c r="C849" s="30"/>
     </row>
     <row r="850">
-      <c r="C850" s="23"/>
+      <c r="C850" s="30"/>
     </row>
     <row r="851">
-      <c r="C851" s="23"/>
+      <c r="C851" s="30"/>
     </row>
     <row r="852">
-      <c r="C852" s="23"/>
+      <c r="C852" s="30"/>
     </row>
     <row r="853">
-      <c r="C853" s="23"/>
+      <c r="C853" s="30"/>
     </row>
     <row r="854">
-      <c r="C854" s="23"/>
+      <c r="C854" s="30"/>
     </row>
     <row r="855">
-      <c r="C855" s="23"/>
+      <c r="C855" s="30"/>
     </row>
     <row r="856">
-      <c r="C856" s="23"/>
+      <c r="C856" s="30"/>
     </row>
     <row r="857">
-      <c r="C857" s="23"/>
+      <c r="C857" s="30"/>
     </row>
     <row r="858">
-      <c r="C858" s="23"/>
+      <c r="C858" s="30"/>
     </row>
     <row r="859">
-      <c r="C859" s="23"/>
+      <c r="C859" s="30"/>
     </row>
     <row r="860">
-      <c r="C860" s="23"/>
+      <c r="C860" s="30"/>
     </row>
     <row r="861">
-      <c r="C861" s="23"/>
+      <c r="C861" s="30"/>
     </row>
     <row r="862">
-      <c r="C862" s="23"/>
+      <c r="C862" s="30"/>
     </row>
     <row r="863">
-      <c r="C863" s="23"/>
+      <c r="C863" s="30"/>
     </row>
     <row r="864">
-      <c r="C864" s="23"/>
+      <c r="C864" s="30"/>
     </row>
     <row r="865">
-      <c r="C865" s="23"/>
+      <c r="C865" s="30"/>
     </row>
     <row r="866">
-      <c r="C866" s="23"/>
+      <c r="C866" s="30"/>
     </row>
     <row r="867">
-      <c r="C867" s="23"/>
+      <c r="C867" s="30"/>
     </row>
     <row r="868">
-      <c r="C868" s="23"/>
+      <c r="C868" s="30"/>
     </row>
     <row r="869">
-      <c r="C869" s="23"/>
+      <c r="C869" s="30"/>
     </row>
     <row r="870">
-      <c r="C870" s="23"/>
+      <c r="C870" s="30"/>
     </row>
     <row r="871">
-      <c r="C871" s="23"/>
+      <c r="C871" s="30"/>
     </row>
     <row r="872">
-      <c r="C872" s="23"/>
+      <c r="C872" s="30"/>
     </row>
     <row r="873">
-      <c r="C873" s="23"/>
+      <c r="C873" s="30"/>
     </row>
     <row r="874">
-      <c r="C874" s="23"/>
+      <c r="C874" s="30"/>
     </row>
     <row r="875">
-      <c r="C875" s="23"/>
+      <c r="C875" s="30"/>
     </row>
     <row r="876">
-      <c r="C876" s="23"/>
+      <c r="C876" s="30"/>
     </row>
     <row r="877">
-      <c r="C877" s="23"/>
+      <c r="C877" s="30"/>
     </row>
     <row r="878">
-      <c r="C878" s="23"/>
+      <c r="C878" s="30"/>
     </row>
     <row r="879">
-      <c r="C879" s="23"/>
+      <c r="C879" s="30"/>
     </row>
     <row r="880">
-      <c r="C880" s="23"/>
+      <c r="C880" s="30"/>
     </row>
     <row r="881">
-      <c r="C881" s="23"/>
+      <c r="C881" s="30"/>
     </row>
     <row r="882">
-      <c r="C882" s="23"/>
+      <c r="C882" s="30"/>
     </row>
     <row r="883">
-      <c r="C883" s="23"/>
+      <c r="C883" s="30"/>
     </row>
     <row r="884">
-      <c r="C884" s="23"/>
+      <c r="C884" s="30"/>
     </row>
     <row r="885">
-      <c r="C885" s="23"/>
+      <c r="C885" s="30"/>
     </row>
     <row r="886">
-      <c r="C886" s="23"/>
+      <c r="C886" s="30"/>
     </row>
     <row r="887">
-      <c r="C887" s="23"/>
+      <c r="C887" s="30"/>
     </row>
     <row r="888">
-      <c r="C888" s="23"/>
+      <c r="C888" s="30"/>
     </row>
     <row r="889">
-      <c r="C889" s="23"/>
+      <c r="C889" s="30"/>
     </row>
     <row r="890">
-      <c r="C890" s="23"/>
+      <c r="C890" s="30"/>
     </row>
     <row r="891">
-      <c r="C891" s="23"/>
+      <c r="C891" s="30"/>
     </row>
     <row r="892">
-      <c r="C892" s="23"/>
+      <c r="C892" s="30"/>
     </row>
     <row r="893">
-      <c r="C893" s="23"/>
+      <c r="C893" s="30"/>
     </row>
     <row r="894">
-      <c r="C894" s="23"/>
+      <c r="C894" s="30"/>
     </row>
     <row r="895">
-      <c r="C895" s="23"/>
+      <c r="C895" s="30"/>
     </row>
     <row r="896">
-      <c r="C896" s="23"/>
+      <c r="C896" s="30"/>
     </row>
     <row r="897">
-      <c r="C897" s="23"/>
+      <c r="C897" s="30"/>
     </row>
     <row r="898">
-      <c r="C898" s="23"/>
+      <c r="C898" s="30"/>
     </row>
     <row r="899">
-      <c r="C899" s="23"/>
+      <c r="C899" s="30"/>
     </row>
     <row r="900">
-      <c r="C900" s="23"/>
+      <c r="C900" s="30"/>
     </row>
     <row r="901">
-      <c r="C901" s="23"/>
+      <c r="C901" s="30"/>
     </row>
     <row r="902">
-      <c r="C902" s="23"/>
+      <c r="C902" s="30"/>
     </row>
     <row r="903">
-      <c r="C903" s="23"/>
+      <c r="C903" s="30"/>
     </row>
     <row r="904">
-      <c r="C904" s="23"/>
+      <c r="C904" s="30"/>
     </row>
     <row r="905">
-      <c r="C905" s="23"/>
+      <c r="C905" s="30"/>
     </row>
     <row r="906">
-      <c r="C906" s="23"/>
+      <c r="C906" s="30"/>
     </row>
     <row r="907">
-      <c r="C907" s="23"/>
+      <c r="C907" s="30"/>
     </row>
     <row r="908">
-      <c r="C908" s="23"/>
+      <c r="C908" s="30"/>
     </row>
     <row r="909">
-      <c r="C909" s="23"/>
+      <c r="C909" s="30"/>
     </row>
     <row r="910">
-      <c r="C910" s="23"/>
+      <c r="C910" s="30"/>
     </row>
     <row r="911">
-      <c r="C911" s="23"/>
+      <c r="C911" s="30"/>
     </row>
     <row r="912">
-      <c r="C912" s="23"/>
+      <c r="C912" s="30"/>
     </row>
     <row r="913">
-      <c r="C913" s="23"/>
+      <c r="C913" s="30"/>
     </row>
     <row r="914">
-      <c r="C914" s="23"/>
+      <c r="C914" s="30"/>
     </row>
     <row r="915">
-      <c r="C915" s="23"/>
+      <c r="C915" s="30"/>
     </row>
     <row r="916">
-      <c r="C916" s="23"/>
+      <c r="C916" s="30"/>
     </row>
     <row r="917">
-      <c r="C917" s="23"/>
+      <c r="C917" s="30"/>
     </row>
     <row r="918">
-      <c r="C918" s="23"/>
+      <c r="C918" s="30"/>
     </row>
     <row r="919">
-      <c r="C919" s="23"/>
+      <c r="C919" s="30"/>
     </row>
     <row r="920">
-      <c r="C920" s="23"/>
+      <c r="C920" s="30"/>
     </row>
     <row r="921">
-      <c r="C921" s="23"/>
+      <c r="C921" s="30"/>
     </row>
     <row r="922">
-      <c r="C922" s="23"/>
+      <c r="C922" s="30"/>
     </row>
     <row r="923">
-      <c r="C923" s="23"/>
+      <c r="C923" s="30"/>
     </row>
     <row r="924">
-      <c r="C924" s="23"/>
+      <c r="C924" s="30"/>
     </row>
     <row r="925">
-      <c r="C925" s="23"/>
+      <c r="C925" s="30"/>
     </row>
     <row r="926">
-      <c r="C926" s="23"/>
+      <c r="C926" s="30"/>
     </row>
     <row r="927">
-      <c r="C927" s="23"/>
+      <c r="C927" s="30"/>
     </row>
     <row r="928">
-      <c r="C928" s="23"/>
+      <c r="C928" s="30"/>
     </row>
     <row r="929">
-      <c r="C929" s="23"/>
+      <c r="C929" s="30"/>
     </row>
     <row r="930">
-      <c r="C930" s="23"/>
+      <c r="C930" s="30"/>
     </row>
     <row r="931">
-      <c r="C931" s="23"/>
+      <c r="C931" s="30"/>
     </row>
     <row r="932">
-      <c r="C932" s="23"/>
+      <c r="C932" s="30"/>
     </row>
     <row r="933">
-      <c r="C933" s="23"/>
+      <c r="C933" s="30"/>
     </row>
     <row r="934">
-      <c r="C934" s="23"/>
+      <c r="C934" s="30"/>
     </row>
     <row r="935">
-      <c r="C935" s="23"/>
+      <c r="C935" s="30"/>
     </row>
     <row r="936">
-      <c r="C936" s="23"/>
+      <c r="C936" s="30"/>
     </row>
     <row r="937">
-      <c r="C937" s="23"/>
+      <c r="C937" s="30"/>
     </row>
     <row r="938">
-      <c r="C938" s="23"/>
+      <c r="C938" s="30"/>
     </row>
     <row r="939">
-      <c r="C939" s="23"/>
+      <c r="C939" s="30"/>
     </row>
     <row r="940">
-      <c r="C940" s="23"/>
+      <c r="C940" s="30"/>
     </row>
     <row r="941">
-      <c r="C941" s="23"/>
+      <c r="C941" s="30"/>
     </row>
     <row r="942">
-      <c r="C942" s="23"/>
+      <c r="C942" s="30"/>
     </row>
     <row r="943">
-      <c r="C943" s="23"/>
+      <c r="C943" s="30"/>
     </row>
     <row r="944">
-      <c r="C944" s="23"/>
+      <c r="C944" s="30"/>
     </row>
     <row r="945">
-      <c r="C945" s="23"/>
+      <c r="C945" s="30"/>
     </row>
     <row r="946">
-      <c r="C946" s="23"/>
+      <c r="C946" s="30"/>
     </row>
     <row r="947">
-      <c r="C947" s="23"/>
+      <c r="C947" s="30"/>
     </row>
     <row r="948">
-      <c r="C948" s="23"/>
+      <c r="C948" s="30"/>
     </row>
     <row r="949">
-      <c r="C949" s="23"/>
+      <c r="C949" s="30"/>
     </row>
     <row r="950">
-      <c r="C950" s="23"/>
+      <c r="C950" s="30"/>
     </row>
     <row r="951">
-      <c r="C951" s="23"/>
+      <c r="C951" s="30"/>
     </row>
     <row r="952">
-      <c r="C952" s="23"/>
+      <c r="C952" s="30"/>
     </row>
     <row r="953">
-      <c r="C953" s="23"/>
+      <c r="C953" s="30"/>
     </row>
     <row r="954">
-      <c r="C954" s="23"/>
+      <c r="C954" s="30"/>
     </row>
     <row r="955">
-      <c r="C955" s="23"/>
+      <c r="C955" s="30"/>
     </row>
     <row r="956">
-      <c r="C956" s="23"/>
+      <c r="C956" s="30"/>
     </row>
     <row r="957">
-      <c r="C957" s="23"/>
+      <c r="C957" s="30"/>
     </row>
     <row r="958">
-      <c r="C958" s="23"/>
+      <c r="C958" s="30"/>
     </row>
     <row r="959">
-      <c r="C959" s="23"/>
+      <c r="C959" s="30"/>
     </row>
     <row r="960">
-      <c r="C960" s="23"/>
+      <c r="C960" s="30"/>
     </row>
     <row r="961">
-      <c r="C961" s="23"/>
+      <c r="C961" s="30"/>
     </row>
     <row r="962">
-      <c r="C962" s="23"/>
+      <c r="C962" s="30"/>
     </row>
     <row r="963">
-      <c r="C963" s="23"/>
+      <c r="C963" s="30"/>
     </row>
     <row r="964">
-      <c r="C964" s="23"/>
+      <c r="C964" s="30"/>
     </row>
     <row r="965">
-      <c r="C965" s="23"/>
+      <c r="C965" s="30"/>
     </row>
     <row r="966">
-      <c r="C966" s="23"/>
+      <c r="C966" s="30"/>
     </row>
     <row r="967">
-      <c r="C967" s="23"/>
+      <c r="C967" s="30"/>
     </row>
     <row r="968">
-      <c r="C968" s="23"/>
+      <c r="C968" s="30"/>
     </row>
     <row r="969">
-      <c r="C969" s="23"/>
+      <c r="C969" s="30"/>
     </row>
     <row r="970">
-      <c r="C970" s="23"/>
+      <c r="C970" s="30"/>
     </row>
     <row r="971">
-      <c r="C971" s="23"/>
+      <c r="C971" s="30"/>
     </row>
     <row r="972">
-      <c r="C972" s="23"/>
+      <c r="C972" s="30"/>
     </row>
     <row r="973">
-      <c r="C973" s="23"/>
+      <c r="C973" s="30"/>
     </row>
     <row r="974">
-      <c r="C974" s="23"/>
+      <c r="C974" s="30"/>
     </row>
     <row r="975">
-      <c r="C975" s="23"/>
+      <c r="C975" s="30"/>
     </row>
     <row r="976">
-      <c r="C976" s="23"/>
+      <c r="C976" s="30"/>
     </row>
     <row r="977">
-      <c r="C977" s="23"/>
+      <c r="C977" s="30"/>
     </row>
     <row r="978">
-      <c r="C978" s="23"/>
+      <c r="C978" s="30"/>
     </row>
     <row r="979">
-      <c r="C979" s="23"/>
+      <c r="C979" s="30"/>
     </row>
     <row r="980">
-      <c r="C980" s="23"/>
+      <c r="C980" s="30"/>
     </row>
     <row r="981">
-      <c r="C981" s="23"/>
+      <c r="C981" s="30"/>
     </row>
     <row r="982">
-      <c r="C982" s="23"/>
+      <c r="C982" s="30"/>
+    </row>
+    <row r="983">
+      <c r="C983" s="30"/>
+    </row>
+    <row r="984">
+      <c r="C984" s="30"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K2:K5">
+  <conditionalFormatting sqref="K2:K7 L8">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$M2="modified"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K5">
+  <conditionalFormatting sqref="K2:K7 L8">
     <cfRule type="expression" dxfId="4" priority="2">
       <formula>$M2="modified"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AB300">
+  <conditionalFormatting sqref="A2:AB302">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>$M2="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AB200">
+  <conditionalFormatting sqref="A2:AB202">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>$M2="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:B3 C2:D17 E2:E3 F2:F17 G2:J3 K2:K17 L2:AB3 A6:B17 E6:E17 G6:J17 L6:AB17">
+  <conditionalFormatting sqref="A2:B3 C2:D19 E2:E3 F2:F19 G2:J3 K2:K19 L2:AB3 A8:B19 E8:E19 G8:J19 L8:AB19">
     <cfRule type="expression" dxfId="1" priority="5">
       <formula>$M2="deprecated"</formula>
     </cfRule>
